--- a/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t xml:space="preserve">Check template status</t>
   </si>
@@ -509,7 +509,7 @@
   <dimension ref="A1:AMJ35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1880,7 +1880,9 @@
       <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -2908,7 +2910,9 @@
       <c r="A33" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -3936,7 +3940,9 @@
       <c r="A34" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -4964,7 +4970,9 @@
       <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t xml:space="preserve">Check template status</t>
   </si>
@@ -47,6 +47,39 @@
   </si>
   <si>
     <t xml:space="preserve">set master to test</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Check year in </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">pdf.cover.lookup.on_day_date_before
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">year must be explicit if services are generated in the previous year</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Generate html English</t>
@@ -171,7 +204,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -199,6 +232,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -287,7 +327,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,12 +355,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -506,10 +546,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ35"/>
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -603,11 +643,8 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -620,6 +657,9 @@
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -630,7 +670,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -638,46 +678,37 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -703,48 +734,58 @@
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A19" s="12"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="13"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="14"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -759,22 +800,22 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>25</v>
+      <c r="A23" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -846,1046 +887,27 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
+    <row r="31" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="15"/>
-      <c r="AJ31" s="15"/>
-      <c r="AK31" s="15"/>
-      <c r="AL31" s="15"/>
-      <c r="AM31" s="15"/>
-      <c r="AN31" s="15"/>
-      <c r="AO31" s="15"/>
-      <c r="AP31" s="15"/>
-      <c r="AQ31" s="15"/>
-      <c r="AR31" s="15"/>
-      <c r="AS31" s="15"/>
-      <c r="AT31" s="15"/>
-      <c r="AU31" s="15"/>
-      <c r="AV31" s="15"/>
-      <c r="AW31" s="15"/>
-      <c r="AX31" s="15"/>
-      <c r="AY31" s="15"/>
-      <c r="AZ31" s="15"/>
-      <c r="BA31" s="15"/>
-      <c r="BB31" s="15"/>
-      <c r="BC31" s="15"/>
-      <c r="BD31" s="15"/>
-      <c r="BE31" s="15"/>
-      <c r="BF31" s="15"/>
-      <c r="BG31" s="15"/>
-      <c r="BH31" s="15"/>
-      <c r="BI31" s="15"/>
-      <c r="BJ31" s="15"/>
-      <c r="BK31" s="15"/>
-      <c r="BL31" s="15"/>
-      <c r="BM31" s="15"/>
-      <c r="BN31" s="15"/>
-      <c r="BO31" s="15"/>
-      <c r="BP31" s="15"/>
-      <c r="BQ31" s="15"/>
-      <c r="BR31" s="15"/>
-      <c r="BS31" s="15"/>
-      <c r="BT31" s="15"/>
-      <c r="BU31" s="15"/>
-      <c r="BV31" s="15"/>
-      <c r="BW31" s="15"/>
-      <c r="BX31" s="15"/>
-      <c r="BY31" s="15"/>
-      <c r="BZ31" s="15"/>
-      <c r="CA31" s="15"/>
-      <c r="CB31" s="15"/>
-      <c r="CC31" s="15"/>
-      <c r="CD31" s="15"/>
-      <c r="CE31" s="15"/>
-      <c r="CF31" s="15"/>
-      <c r="CG31" s="15"/>
-      <c r="CH31" s="15"/>
-      <c r="CI31" s="15"/>
-      <c r="CJ31" s="15"/>
-      <c r="CK31" s="15"/>
-      <c r="CL31" s="15"/>
-      <c r="CM31" s="15"/>
-      <c r="CN31" s="15"/>
-      <c r="CO31" s="15"/>
-      <c r="CP31" s="15"/>
-      <c r="CQ31" s="15"/>
-      <c r="CR31" s="15"/>
-      <c r="CS31" s="15"/>
-      <c r="CT31" s="15"/>
-      <c r="CU31" s="15"/>
-      <c r="CV31" s="15"/>
-      <c r="CW31" s="15"/>
-      <c r="CX31" s="15"/>
-      <c r="CY31" s="15"/>
-      <c r="CZ31" s="15"/>
-      <c r="DA31" s="15"/>
-      <c r="DB31" s="15"/>
-      <c r="DC31" s="15"/>
-      <c r="DD31" s="15"/>
-      <c r="DE31" s="15"/>
-      <c r="DF31" s="15"/>
-      <c r="DG31" s="15"/>
-      <c r="DH31" s="15"/>
-      <c r="DI31" s="15"/>
-      <c r="DJ31" s="15"/>
-      <c r="DK31" s="15"/>
-      <c r="DL31" s="15"/>
-      <c r="DM31" s="15"/>
-      <c r="DN31" s="15"/>
-      <c r="DO31" s="15"/>
-      <c r="DP31" s="15"/>
-      <c r="DQ31" s="15"/>
-      <c r="DR31" s="15"/>
-      <c r="DS31" s="15"/>
-      <c r="DT31" s="15"/>
-      <c r="DU31" s="15"/>
-      <c r="DV31" s="15"/>
-      <c r="DW31" s="15"/>
-      <c r="DX31" s="15"/>
-      <c r="DY31" s="15"/>
-      <c r="DZ31" s="15"/>
-      <c r="EA31" s="15"/>
-      <c r="EB31" s="15"/>
-      <c r="EC31" s="15"/>
-      <c r="ED31" s="15"/>
-      <c r="EE31" s="15"/>
-      <c r="EF31" s="15"/>
-      <c r="EG31" s="15"/>
-      <c r="EH31" s="15"/>
-      <c r="EI31" s="15"/>
-      <c r="EJ31" s="15"/>
-      <c r="EK31" s="15"/>
-      <c r="EL31" s="15"/>
-      <c r="EM31" s="15"/>
-      <c r="EN31" s="15"/>
-      <c r="EO31" s="15"/>
-      <c r="EP31" s="15"/>
-      <c r="EQ31" s="15"/>
-      <c r="ER31" s="15"/>
-      <c r="ES31" s="15"/>
-      <c r="ET31" s="15"/>
-      <c r="EU31" s="15"/>
-      <c r="EV31" s="15"/>
-      <c r="EW31" s="15"/>
-      <c r="EX31" s="15"/>
-      <c r="EY31" s="15"/>
-      <c r="EZ31" s="15"/>
-      <c r="FA31" s="15"/>
-      <c r="FB31" s="15"/>
-      <c r="FC31" s="15"/>
-      <c r="FD31" s="15"/>
-      <c r="FE31" s="15"/>
-      <c r="FF31" s="15"/>
-      <c r="FG31" s="15"/>
-      <c r="FH31" s="15"/>
-      <c r="FI31" s="15"/>
-      <c r="FJ31" s="15"/>
-      <c r="FK31" s="15"/>
-      <c r="FL31" s="15"/>
-      <c r="FM31" s="15"/>
-      <c r="FN31" s="15"/>
-      <c r="FO31" s="15"/>
-      <c r="FP31" s="15"/>
-      <c r="FQ31" s="15"/>
-      <c r="FR31" s="15"/>
-      <c r="FS31" s="15"/>
-      <c r="FT31" s="15"/>
-      <c r="FU31" s="15"/>
-      <c r="FV31" s="15"/>
-      <c r="FW31" s="15"/>
-      <c r="FX31" s="15"/>
-      <c r="FY31" s="15"/>
-      <c r="FZ31" s="15"/>
-      <c r="GA31" s="15"/>
-      <c r="GB31" s="15"/>
-      <c r="GC31" s="15"/>
-      <c r="GD31" s="15"/>
-      <c r="GE31" s="15"/>
-      <c r="GF31" s="15"/>
-      <c r="GG31" s="15"/>
-      <c r="GH31" s="15"/>
-      <c r="GI31" s="15"/>
-      <c r="GJ31" s="15"/>
-      <c r="GK31" s="15"/>
-      <c r="GL31" s="15"/>
-      <c r="GM31" s="15"/>
-      <c r="GN31" s="15"/>
-      <c r="GO31" s="15"/>
-      <c r="GP31" s="15"/>
-      <c r="GQ31" s="15"/>
-      <c r="GR31" s="15"/>
-      <c r="GS31" s="15"/>
-      <c r="GT31" s="15"/>
-      <c r="GU31" s="15"/>
-      <c r="GV31" s="15"/>
-      <c r="GW31" s="15"/>
-      <c r="GX31" s="15"/>
-      <c r="GY31" s="15"/>
-      <c r="GZ31" s="15"/>
-      <c r="HA31" s="15"/>
-      <c r="HB31" s="15"/>
-      <c r="HC31" s="15"/>
-      <c r="HD31" s="15"/>
-      <c r="HE31" s="15"/>
-      <c r="HF31" s="15"/>
-      <c r="HG31" s="15"/>
-      <c r="HH31" s="15"/>
-      <c r="HI31" s="15"/>
-      <c r="HJ31" s="15"/>
-      <c r="HK31" s="15"/>
-      <c r="HL31" s="15"/>
-      <c r="HM31" s="15"/>
-      <c r="HN31" s="15"/>
-      <c r="HO31" s="15"/>
-      <c r="HP31" s="15"/>
-      <c r="HQ31" s="15"/>
-      <c r="HR31" s="15"/>
-      <c r="HS31" s="15"/>
-      <c r="HT31" s="15"/>
-      <c r="HU31" s="15"/>
-      <c r="HV31" s="15"/>
-      <c r="HW31" s="15"/>
-      <c r="HX31" s="15"/>
-      <c r="HY31" s="15"/>
-      <c r="HZ31" s="15"/>
-      <c r="IA31" s="15"/>
-      <c r="IB31" s="15"/>
-      <c r="IC31" s="15"/>
-      <c r="ID31" s="15"/>
-      <c r="IE31" s="15"/>
-      <c r="IF31" s="15"/>
-      <c r="IG31" s="15"/>
-      <c r="IH31" s="15"/>
-      <c r="II31" s="15"/>
-      <c r="IJ31" s="15"/>
-      <c r="IK31" s="15"/>
-      <c r="IL31" s="15"/>
-      <c r="IM31" s="15"/>
-      <c r="IN31" s="15"/>
-      <c r="IO31" s="15"/>
-      <c r="IP31" s="15"/>
-      <c r="IQ31" s="15"/>
-      <c r="IR31" s="15"/>
-      <c r="IS31" s="15"/>
-      <c r="IT31" s="15"/>
-      <c r="IU31" s="15"/>
-      <c r="IV31" s="15"/>
-      <c r="IW31" s="15"/>
-      <c r="IX31" s="15"/>
-      <c r="IY31" s="15"/>
-      <c r="IZ31" s="15"/>
-      <c r="JA31" s="15"/>
-      <c r="JB31" s="15"/>
-      <c r="JC31" s="15"/>
-      <c r="JD31" s="15"/>
-      <c r="JE31" s="15"/>
-      <c r="JF31" s="15"/>
-      <c r="JG31" s="15"/>
-      <c r="JH31" s="15"/>
-      <c r="JI31" s="15"/>
-      <c r="JJ31" s="15"/>
-      <c r="JK31" s="15"/>
-      <c r="JL31" s="15"/>
-      <c r="JM31" s="15"/>
-      <c r="JN31" s="15"/>
-      <c r="JO31" s="15"/>
-      <c r="JP31" s="15"/>
-      <c r="JQ31" s="15"/>
-      <c r="JR31" s="15"/>
-      <c r="JS31" s="15"/>
-      <c r="JT31" s="15"/>
-      <c r="JU31" s="15"/>
-      <c r="JV31" s="15"/>
-      <c r="JW31" s="15"/>
-      <c r="JX31" s="15"/>
-      <c r="JY31" s="15"/>
-      <c r="JZ31" s="15"/>
-      <c r="KA31" s="15"/>
-      <c r="KB31" s="15"/>
-      <c r="KC31" s="15"/>
-      <c r="KD31" s="15"/>
-      <c r="KE31" s="15"/>
-      <c r="KF31" s="15"/>
-      <c r="KG31" s="15"/>
-      <c r="KH31" s="15"/>
-      <c r="KI31" s="15"/>
-      <c r="KJ31" s="15"/>
-      <c r="KK31" s="15"/>
-      <c r="KL31" s="15"/>
-      <c r="KM31" s="15"/>
-      <c r="KN31" s="15"/>
-      <c r="KO31" s="15"/>
-      <c r="KP31" s="15"/>
-      <c r="KQ31" s="15"/>
-      <c r="KR31" s="15"/>
-      <c r="KS31" s="15"/>
-      <c r="KT31" s="15"/>
-      <c r="KU31" s="15"/>
-      <c r="KV31" s="15"/>
-      <c r="KW31" s="15"/>
-      <c r="KX31" s="15"/>
-      <c r="KY31" s="15"/>
-      <c r="KZ31" s="15"/>
-      <c r="LA31" s="15"/>
-      <c r="LB31" s="15"/>
-      <c r="LC31" s="15"/>
-      <c r="LD31" s="15"/>
-      <c r="LE31" s="15"/>
-      <c r="LF31" s="15"/>
-      <c r="LG31" s="15"/>
-      <c r="LH31" s="15"/>
-      <c r="LI31" s="15"/>
-      <c r="LJ31" s="15"/>
-      <c r="LK31" s="15"/>
-      <c r="LL31" s="15"/>
-      <c r="LM31" s="15"/>
-      <c r="LN31" s="15"/>
-      <c r="LO31" s="15"/>
-      <c r="LP31" s="15"/>
-      <c r="LQ31" s="15"/>
-      <c r="LR31" s="15"/>
-      <c r="LS31" s="15"/>
-      <c r="LT31" s="15"/>
-      <c r="LU31" s="15"/>
-      <c r="LV31" s="15"/>
-      <c r="LW31" s="15"/>
-      <c r="LX31" s="15"/>
-      <c r="LY31" s="15"/>
-      <c r="LZ31" s="15"/>
-      <c r="MA31" s="15"/>
-      <c r="MB31" s="15"/>
-      <c r="MC31" s="15"/>
-      <c r="MD31" s="15"/>
-      <c r="ME31" s="15"/>
-      <c r="MF31" s="15"/>
-      <c r="MG31" s="15"/>
-      <c r="MH31" s="15"/>
-      <c r="MI31" s="15"/>
-      <c r="MJ31" s="15"/>
-      <c r="MK31" s="15"/>
-      <c r="ML31" s="15"/>
-      <c r="MM31" s="15"/>
-      <c r="MN31" s="15"/>
-      <c r="MO31" s="15"/>
-      <c r="MP31" s="15"/>
-      <c r="MQ31" s="15"/>
-      <c r="MR31" s="15"/>
-      <c r="MS31" s="15"/>
-      <c r="MT31" s="15"/>
-      <c r="MU31" s="15"/>
-      <c r="MV31" s="15"/>
-      <c r="MW31" s="15"/>
-      <c r="MX31" s="15"/>
-      <c r="MY31" s="15"/>
-      <c r="MZ31" s="15"/>
-      <c r="NA31" s="15"/>
-      <c r="NB31" s="15"/>
-      <c r="NC31" s="15"/>
-      <c r="ND31" s="15"/>
-      <c r="NE31" s="15"/>
-      <c r="NF31" s="15"/>
-      <c r="NG31" s="15"/>
-      <c r="NH31" s="15"/>
-      <c r="NI31" s="15"/>
-      <c r="NJ31" s="15"/>
-      <c r="NK31" s="15"/>
-      <c r="NL31" s="15"/>
-      <c r="NM31" s="15"/>
-      <c r="NN31" s="15"/>
-      <c r="NO31" s="15"/>
-      <c r="NP31" s="15"/>
-      <c r="NQ31" s="15"/>
-      <c r="NR31" s="15"/>
-      <c r="NS31" s="15"/>
-      <c r="NT31" s="15"/>
-      <c r="NU31" s="15"/>
-      <c r="NV31" s="15"/>
-      <c r="NW31" s="15"/>
-      <c r="NX31" s="15"/>
-      <c r="NY31" s="15"/>
-      <c r="NZ31" s="15"/>
-      <c r="OA31" s="15"/>
-      <c r="OB31" s="15"/>
-      <c r="OC31" s="15"/>
-      <c r="OD31" s="15"/>
-      <c r="OE31" s="15"/>
-      <c r="OF31" s="15"/>
-      <c r="OG31" s="15"/>
-      <c r="OH31" s="15"/>
-      <c r="OI31" s="15"/>
-      <c r="OJ31" s="15"/>
-      <c r="OK31" s="15"/>
-      <c r="OL31" s="15"/>
-      <c r="OM31" s="15"/>
-      <c r="ON31" s="15"/>
-      <c r="OO31" s="15"/>
-      <c r="OP31" s="15"/>
-      <c r="OQ31" s="15"/>
-      <c r="OR31" s="15"/>
-      <c r="OS31" s="15"/>
-      <c r="OT31" s="15"/>
-      <c r="OU31" s="15"/>
-      <c r="OV31" s="15"/>
-      <c r="OW31" s="15"/>
-      <c r="OX31" s="15"/>
-      <c r="OY31" s="15"/>
-      <c r="OZ31" s="15"/>
-      <c r="PA31" s="15"/>
-      <c r="PB31" s="15"/>
-      <c r="PC31" s="15"/>
-      <c r="PD31" s="15"/>
-      <c r="PE31" s="15"/>
-      <c r="PF31" s="15"/>
-      <c r="PG31" s="15"/>
-      <c r="PH31" s="15"/>
-      <c r="PI31" s="15"/>
-      <c r="PJ31" s="15"/>
-      <c r="PK31" s="15"/>
-      <c r="PL31" s="15"/>
-      <c r="PM31" s="15"/>
-      <c r="PN31" s="15"/>
-      <c r="PO31" s="15"/>
-      <c r="PP31" s="15"/>
-      <c r="PQ31" s="15"/>
-      <c r="PR31" s="15"/>
-      <c r="PS31" s="15"/>
-      <c r="PT31" s="15"/>
-      <c r="PU31" s="15"/>
-      <c r="PV31" s="15"/>
-      <c r="PW31" s="15"/>
-      <c r="PX31" s="15"/>
-      <c r="PY31" s="15"/>
-      <c r="PZ31" s="15"/>
-      <c r="QA31" s="15"/>
-      <c r="QB31" s="15"/>
-      <c r="QC31" s="15"/>
-      <c r="QD31" s="15"/>
-      <c r="QE31" s="15"/>
-      <c r="QF31" s="15"/>
-      <c r="QG31" s="15"/>
-      <c r="QH31" s="15"/>
-      <c r="QI31" s="15"/>
-      <c r="QJ31" s="15"/>
-      <c r="QK31" s="15"/>
-      <c r="QL31" s="15"/>
-      <c r="QM31" s="15"/>
-      <c r="QN31" s="15"/>
-      <c r="QO31" s="15"/>
-      <c r="QP31" s="15"/>
-      <c r="QQ31" s="15"/>
-      <c r="QR31" s="15"/>
-      <c r="QS31" s="15"/>
-      <c r="QT31" s="15"/>
-      <c r="QU31" s="15"/>
-      <c r="QV31" s="15"/>
-      <c r="QW31" s="15"/>
-      <c r="QX31" s="15"/>
-      <c r="QY31" s="15"/>
-      <c r="QZ31" s="15"/>
-      <c r="RA31" s="15"/>
-      <c r="RB31" s="15"/>
-      <c r="RC31" s="15"/>
-      <c r="RD31" s="15"/>
-      <c r="RE31" s="15"/>
-      <c r="RF31" s="15"/>
-      <c r="RG31" s="15"/>
-      <c r="RH31" s="15"/>
-      <c r="RI31" s="15"/>
-      <c r="RJ31" s="15"/>
-      <c r="RK31" s="15"/>
-      <c r="RL31" s="15"/>
-      <c r="RM31" s="15"/>
-      <c r="RN31" s="15"/>
-      <c r="RO31" s="15"/>
-      <c r="RP31" s="15"/>
-      <c r="RQ31" s="15"/>
-      <c r="RR31" s="15"/>
-      <c r="RS31" s="15"/>
-      <c r="RT31" s="15"/>
-      <c r="RU31" s="15"/>
-      <c r="RV31" s="15"/>
-      <c r="RW31" s="15"/>
-      <c r="RX31" s="15"/>
-      <c r="RY31" s="15"/>
-      <c r="RZ31" s="15"/>
-      <c r="SA31" s="15"/>
-      <c r="SB31" s="15"/>
-      <c r="SC31" s="15"/>
-      <c r="SD31" s="15"/>
-      <c r="SE31" s="15"/>
-      <c r="SF31" s="15"/>
-      <c r="SG31" s="15"/>
-      <c r="SH31" s="15"/>
-      <c r="SI31" s="15"/>
-      <c r="SJ31" s="15"/>
-      <c r="SK31" s="15"/>
-      <c r="SL31" s="15"/>
-      <c r="SM31" s="15"/>
-      <c r="SN31" s="15"/>
-      <c r="SO31" s="15"/>
-      <c r="SP31" s="15"/>
-      <c r="SQ31" s="15"/>
-      <c r="SR31" s="15"/>
-      <c r="SS31" s="15"/>
-      <c r="ST31" s="15"/>
-      <c r="SU31" s="15"/>
-      <c r="SV31" s="15"/>
-      <c r="SW31" s="15"/>
-      <c r="SX31" s="15"/>
-      <c r="SY31" s="15"/>
-      <c r="SZ31" s="15"/>
-      <c r="TA31" s="15"/>
-      <c r="TB31" s="15"/>
-      <c r="TC31" s="15"/>
-      <c r="TD31" s="15"/>
-      <c r="TE31" s="15"/>
-      <c r="TF31" s="15"/>
-      <c r="TG31" s="15"/>
-      <c r="TH31" s="15"/>
-      <c r="TI31" s="15"/>
-      <c r="TJ31" s="15"/>
-      <c r="TK31" s="15"/>
-      <c r="TL31" s="15"/>
-      <c r="TM31" s="15"/>
-      <c r="TN31" s="15"/>
-      <c r="TO31" s="15"/>
-      <c r="TP31" s="15"/>
-      <c r="TQ31" s="15"/>
-      <c r="TR31" s="15"/>
-      <c r="TS31" s="15"/>
-      <c r="TT31" s="15"/>
-      <c r="TU31" s="15"/>
-      <c r="TV31" s="15"/>
-      <c r="TW31" s="15"/>
-      <c r="TX31" s="15"/>
-      <c r="TY31" s="15"/>
-      <c r="TZ31" s="15"/>
-      <c r="UA31" s="15"/>
-      <c r="UB31" s="15"/>
-      <c r="UC31" s="15"/>
-      <c r="UD31" s="15"/>
-      <c r="UE31" s="15"/>
-      <c r="UF31" s="15"/>
-      <c r="UG31" s="15"/>
-      <c r="UH31" s="15"/>
-      <c r="UI31" s="15"/>
-      <c r="UJ31" s="15"/>
-      <c r="UK31" s="15"/>
-      <c r="UL31" s="15"/>
-      <c r="UM31" s="15"/>
-      <c r="UN31" s="15"/>
-      <c r="UO31" s="15"/>
-      <c r="UP31" s="15"/>
-      <c r="UQ31" s="15"/>
-      <c r="UR31" s="15"/>
-      <c r="US31" s="15"/>
-      <c r="UT31" s="15"/>
-      <c r="UU31" s="15"/>
-      <c r="UV31" s="15"/>
-      <c r="UW31" s="15"/>
-      <c r="UX31" s="15"/>
-      <c r="UY31" s="15"/>
-      <c r="UZ31" s="15"/>
-      <c r="VA31" s="15"/>
-      <c r="VB31" s="15"/>
-      <c r="VC31" s="15"/>
-      <c r="VD31" s="15"/>
-      <c r="VE31" s="15"/>
-      <c r="VF31" s="15"/>
-      <c r="VG31" s="15"/>
-      <c r="VH31" s="15"/>
-      <c r="VI31" s="15"/>
-      <c r="VJ31" s="15"/>
-      <c r="VK31" s="15"/>
-      <c r="VL31" s="15"/>
-      <c r="VM31" s="15"/>
-      <c r="VN31" s="15"/>
-      <c r="VO31" s="15"/>
-      <c r="VP31" s="15"/>
-      <c r="VQ31" s="15"/>
-      <c r="VR31" s="15"/>
-      <c r="VS31" s="15"/>
-      <c r="VT31" s="15"/>
-      <c r="VU31" s="15"/>
-      <c r="VV31" s="15"/>
-      <c r="VW31" s="15"/>
-      <c r="VX31" s="15"/>
-      <c r="VY31" s="15"/>
-      <c r="VZ31" s="15"/>
-      <c r="WA31" s="15"/>
-      <c r="WB31" s="15"/>
-      <c r="WC31" s="15"/>
-      <c r="WD31" s="15"/>
-      <c r="WE31" s="15"/>
-      <c r="WF31" s="15"/>
-      <c r="WG31" s="15"/>
-      <c r="WH31" s="15"/>
-      <c r="WI31" s="15"/>
-      <c r="WJ31" s="15"/>
-      <c r="WK31" s="15"/>
-      <c r="WL31" s="15"/>
-      <c r="WM31" s="15"/>
-      <c r="WN31" s="15"/>
-      <c r="WO31" s="15"/>
-      <c r="WP31" s="15"/>
-      <c r="WQ31" s="15"/>
-      <c r="WR31" s="15"/>
-      <c r="WS31" s="15"/>
-      <c r="WT31" s="15"/>
-      <c r="WU31" s="15"/>
-      <c r="WV31" s="15"/>
-      <c r="WW31" s="15"/>
-      <c r="WX31" s="15"/>
-      <c r="WY31" s="15"/>
-      <c r="WZ31" s="15"/>
-      <c r="XA31" s="15"/>
-      <c r="XB31" s="15"/>
-      <c r="XC31" s="15"/>
-      <c r="XD31" s="15"/>
-      <c r="XE31" s="15"/>
-      <c r="XF31" s="15"/>
-      <c r="XG31" s="15"/>
-      <c r="XH31" s="15"/>
-      <c r="XI31" s="15"/>
-      <c r="XJ31" s="15"/>
-      <c r="XK31" s="15"/>
-      <c r="XL31" s="15"/>
-      <c r="XM31" s="15"/>
-      <c r="XN31" s="15"/>
-      <c r="XO31" s="15"/>
-      <c r="XP31" s="15"/>
-      <c r="XQ31" s="15"/>
-      <c r="XR31" s="15"/>
-      <c r="XS31" s="15"/>
-      <c r="XT31" s="15"/>
-      <c r="XU31" s="15"/>
-      <c r="XV31" s="15"/>
-      <c r="XW31" s="15"/>
-      <c r="XX31" s="15"/>
-      <c r="XY31" s="15"/>
-      <c r="XZ31" s="15"/>
-      <c r="YA31" s="15"/>
-      <c r="YB31" s="15"/>
-      <c r="YC31" s="15"/>
-      <c r="YD31" s="15"/>
-      <c r="YE31" s="15"/>
-      <c r="YF31" s="15"/>
-      <c r="YG31" s="15"/>
-      <c r="YH31" s="15"/>
-      <c r="YI31" s="15"/>
-      <c r="YJ31" s="15"/>
-      <c r="YK31" s="15"/>
-      <c r="YL31" s="15"/>
-      <c r="YM31" s="15"/>
-      <c r="YN31" s="15"/>
-      <c r="YO31" s="15"/>
-      <c r="YP31" s="15"/>
-      <c r="YQ31" s="15"/>
-      <c r="YR31" s="15"/>
-      <c r="YS31" s="15"/>
-      <c r="YT31" s="15"/>
-      <c r="YU31" s="15"/>
-      <c r="YV31" s="15"/>
-      <c r="YW31" s="15"/>
-      <c r="YX31" s="15"/>
-      <c r="YY31" s="15"/>
-      <c r="YZ31" s="15"/>
-      <c r="ZA31" s="15"/>
-      <c r="ZB31" s="15"/>
-      <c r="ZC31" s="15"/>
-      <c r="ZD31" s="15"/>
-      <c r="ZE31" s="15"/>
-      <c r="ZF31" s="15"/>
-      <c r="ZG31" s="15"/>
-      <c r="ZH31" s="15"/>
-      <c r="ZI31" s="15"/>
-      <c r="ZJ31" s="15"/>
-      <c r="ZK31" s="15"/>
-      <c r="ZL31" s="15"/>
-      <c r="ZM31" s="15"/>
-      <c r="ZN31" s="15"/>
-      <c r="ZO31" s="15"/>
-      <c r="ZP31" s="15"/>
-      <c r="ZQ31" s="15"/>
-      <c r="ZR31" s="15"/>
-      <c r="ZS31" s="15"/>
-      <c r="ZT31" s="15"/>
-      <c r="ZU31" s="15"/>
-      <c r="ZV31" s="15"/>
-      <c r="ZW31" s="15"/>
-      <c r="ZX31" s="15"/>
-      <c r="ZY31" s="15"/>
-      <c r="ZZ31" s="15"/>
-      <c r="AAA31" s="15"/>
-      <c r="AAB31" s="15"/>
-      <c r="AAC31" s="15"/>
-      <c r="AAD31" s="15"/>
-      <c r="AAE31" s="15"/>
-      <c r="AAF31" s="15"/>
-      <c r="AAG31" s="15"/>
-      <c r="AAH31" s="15"/>
-      <c r="AAI31" s="15"/>
-      <c r="AAJ31" s="15"/>
-      <c r="AAK31" s="15"/>
-      <c r="AAL31" s="15"/>
-      <c r="AAM31" s="15"/>
-      <c r="AAN31" s="15"/>
-      <c r="AAO31" s="15"/>
-      <c r="AAP31" s="15"/>
-      <c r="AAQ31" s="15"/>
-      <c r="AAR31" s="15"/>
-      <c r="AAS31" s="15"/>
-      <c r="AAT31" s="15"/>
-      <c r="AAU31" s="15"/>
-      <c r="AAV31" s="15"/>
-      <c r="AAW31" s="15"/>
-      <c r="AAX31" s="15"/>
-      <c r="AAY31" s="15"/>
-      <c r="AAZ31" s="15"/>
-      <c r="ABA31" s="15"/>
-      <c r="ABB31" s="15"/>
-      <c r="ABC31" s="15"/>
-      <c r="ABD31" s="15"/>
-      <c r="ABE31" s="15"/>
-      <c r="ABF31" s="15"/>
-      <c r="ABG31" s="15"/>
-      <c r="ABH31" s="15"/>
-      <c r="ABI31" s="15"/>
-      <c r="ABJ31" s="15"/>
-      <c r="ABK31" s="15"/>
-      <c r="ABL31" s="15"/>
-      <c r="ABM31" s="15"/>
-      <c r="ABN31" s="15"/>
-      <c r="ABO31" s="15"/>
-      <c r="ABP31" s="15"/>
-      <c r="ABQ31" s="15"/>
-      <c r="ABR31" s="15"/>
-      <c r="ABS31" s="15"/>
-      <c r="ABT31" s="15"/>
-      <c r="ABU31" s="15"/>
-      <c r="ABV31" s="15"/>
-      <c r="ABW31" s="15"/>
-      <c r="ABX31" s="15"/>
-      <c r="ABY31" s="15"/>
-      <c r="ABZ31" s="15"/>
-      <c r="ACA31" s="15"/>
-      <c r="ACB31" s="15"/>
-      <c r="ACC31" s="15"/>
-      <c r="ACD31" s="15"/>
-      <c r="ACE31" s="15"/>
-      <c r="ACF31" s="15"/>
-      <c r="ACG31" s="15"/>
-      <c r="ACH31" s="15"/>
-      <c r="ACI31" s="15"/>
-      <c r="ACJ31" s="15"/>
-      <c r="ACK31" s="15"/>
-      <c r="ACL31" s="15"/>
-      <c r="ACM31" s="15"/>
-      <c r="ACN31" s="15"/>
-      <c r="ACO31" s="15"/>
-      <c r="ACP31" s="15"/>
-      <c r="ACQ31" s="15"/>
-      <c r="ACR31" s="15"/>
-      <c r="ACS31" s="15"/>
-      <c r="ACT31" s="15"/>
-      <c r="ACU31" s="15"/>
-      <c r="ACV31" s="15"/>
-      <c r="ACW31" s="15"/>
-      <c r="ACX31" s="15"/>
-      <c r="ACY31" s="15"/>
-      <c r="ACZ31" s="15"/>
-      <c r="ADA31" s="15"/>
-      <c r="ADB31" s="15"/>
-      <c r="ADC31" s="15"/>
-      <c r="ADD31" s="15"/>
-      <c r="ADE31" s="15"/>
-      <c r="ADF31" s="15"/>
-      <c r="ADG31" s="15"/>
-      <c r="ADH31" s="15"/>
-      <c r="ADI31" s="15"/>
-      <c r="ADJ31" s="15"/>
-      <c r="ADK31" s="15"/>
-      <c r="ADL31" s="15"/>
-      <c r="ADM31" s="15"/>
-      <c r="ADN31" s="15"/>
-      <c r="ADO31" s="15"/>
-      <c r="ADP31" s="15"/>
-      <c r="ADQ31" s="15"/>
-      <c r="ADR31" s="15"/>
-      <c r="ADS31" s="15"/>
-      <c r="ADT31" s="15"/>
-      <c r="ADU31" s="15"/>
-      <c r="ADV31" s="15"/>
-      <c r="ADW31" s="15"/>
-      <c r="ADX31" s="15"/>
-      <c r="ADY31" s="15"/>
-      <c r="ADZ31" s="15"/>
-      <c r="AEA31" s="15"/>
-      <c r="AEB31" s="15"/>
-      <c r="AEC31" s="15"/>
-      <c r="AED31" s="15"/>
-      <c r="AEE31" s="15"/>
-      <c r="AEF31" s="15"/>
-      <c r="AEG31" s="15"/>
-      <c r="AEH31" s="15"/>
-      <c r="AEI31" s="15"/>
-      <c r="AEJ31" s="15"/>
-      <c r="AEK31" s="15"/>
-      <c r="AEL31" s="15"/>
-      <c r="AEM31" s="15"/>
-      <c r="AEN31" s="15"/>
-      <c r="AEO31" s="15"/>
-      <c r="AEP31" s="15"/>
-      <c r="AEQ31" s="15"/>
-      <c r="AER31" s="15"/>
-      <c r="AES31" s="15"/>
-      <c r="AET31" s="15"/>
-      <c r="AEU31" s="15"/>
-      <c r="AEV31" s="15"/>
-      <c r="AEW31" s="15"/>
-      <c r="AEX31" s="15"/>
-      <c r="AEY31" s="15"/>
-      <c r="AEZ31" s="15"/>
-      <c r="AFA31" s="15"/>
-      <c r="AFB31" s="15"/>
-      <c r="AFC31" s="15"/>
-      <c r="AFD31" s="15"/>
-      <c r="AFE31" s="15"/>
-      <c r="AFF31" s="15"/>
-      <c r="AFG31" s="15"/>
-      <c r="AFH31" s="15"/>
-      <c r="AFI31" s="15"/>
-      <c r="AFJ31" s="15"/>
-      <c r="AFK31" s="15"/>
-      <c r="AFL31" s="15"/>
-      <c r="AFM31" s="15"/>
-      <c r="AFN31" s="15"/>
-      <c r="AFO31" s="15"/>
-      <c r="AFP31" s="15"/>
-      <c r="AFQ31" s="15"/>
-      <c r="AFR31" s="15"/>
-      <c r="AFS31" s="15"/>
-      <c r="AFT31" s="15"/>
-      <c r="AFU31" s="15"/>
-      <c r="AFV31" s="15"/>
-      <c r="AFW31" s="15"/>
-      <c r="AFX31" s="15"/>
-      <c r="AFY31" s="15"/>
-      <c r="AFZ31" s="15"/>
-      <c r="AGA31" s="15"/>
-      <c r="AGB31" s="15"/>
-      <c r="AGC31" s="15"/>
-      <c r="AGD31" s="15"/>
-      <c r="AGE31" s="15"/>
-      <c r="AGF31" s="15"/>
-      <c r="AGG31" s="15"/>
-      <c r="AGH31" s="15"/>
-      <c r="AGI31" s="15"/>
-      <c r="AGJ31" s="15"/>
-      <c r="AGK31" s="15"/>
-      <c r="AGL31" s="15"/>
-      <c r="AGM31" s="15"/>
-      <c r="AGN31" s="15"/>
-      <c r="AGO31" s="15"/>
-      <c r="AGP31" s="15"/>
-      <c r="AGQ31" s="15"/>
-      <c r="AGR31" s="15"/>
-      <c r="AGS31" s="15"/>
-      <c r="AGT31" s="15"/>
-      <c r="AGU31" s="15"/>
-      <c r="AGV31" s="15"/>
-      <c r="AGW31" s="15"/>
-      <c r="AGX31" s="15"/>
-      <c r="AGY31" s="15"/>
-      <c r="AGZ31" s="15"/>
-      <c r="AHA31" s="15"/>
-      <c r="AHB31" s="15"/>
-      <c r="AHC31" s="15"/>
-      <c r="AHD31" s="15"/>
-      <c r="AHE31" s="15"/>
-      <c r="AHF31" s="15"/>
-      <c r="AHG31" s="15"/>
-      <c r="AHH31" s="15"/>
-      <c r="AHI31" s="15"/>
-      <c r="AHJ31" s="15"/>
-      <c r="AHK31" s="15"/>
-      <c r="AHL31" s="15"/>
-      <c r="AHM31" s="15"/>
-      <c r="AHN31" s="15"/>
-      <c r="AHO31" s="15"/>
-      <c r="AHP31" s="15"/>
-      <c r="AHQ31" s="15"/>
-      <c r="AHR31" s="15"/>
-      <c r="AHS31" s="15"/>
-      <c r="AHT31" s="15"/>
-      <c r="AHU31" s="15"/>
-      <c r="AHV31" s="15"/>
-      <c r="AHW31" s="15"/>
-      <c r="AHX31" s="15"/>
-      <c r="AHY31" s="15"/>
-      <c r="AHZ31" s="15"/>
-      <c r="AIA31" s="15"/>
-      <c r="AIB31" s="15"/>
-      <c r="AIC31" s="15"/>
-      <c r="AID31" s="15"/>
-      <c r="AIE31" s="15"/>
-      <c r="AIF31" s="15"/>
-      <c r="AIG31" s="15"/>
-      <c r="AIH31" s="15"/>
-      <c r="AII31" s="15"/>
-      <c r="AIJ31" s="15"/>
-      <c r="AIK31" s="15"/>
-      <c r="AIL31" s="15"/>
-      <c r="AIM31" s="15"/>
-      <c r="AIN31" s="15"/>
-      <c r="AIO31" s="15"/>
-      <c r="AIP31" s="15"/>
-      <c r="AIQ31" s="15"/>
-      <c r="AIR31" s="15"/>
-      <c r="AIS31" s="15"/>
-      <c r="AIT31" s="15"/>
-      <c r="AIU31" s="15"/>
-      <c r="AIV31" s="15"/>
-      <c r="AIW31" s="15"/>
-      <c r="AIX31" s="15"/>
-      <c r="AIY31" s="15"/>
-      <c r="AIZ31" s="15"/>
-      <c r="AJA31" s="15"/>
-      <c r="AJB31" s="15"/>
-      <c r="AJC31" s="15"/>
-      <c r="AJD31" s="15"/>
-      <c r="AJE31" s="15"/>
-      <c r="AJF31" s="15"/>
-      <c r="AJG31" s="15"/>
-      <c r="AJH31" s="15"/>
-      <c r="AJI31" s="15"/>
-      <c r="AJJ31" s="15"/>
-      <c r="AJK31" s="15"/>
-      <c r="AJL31" s="15"/>
-      <c r="AJM31" s="15"/>
-      <c r="AJN31" s="15"/>
-      <c r="AJO31" s="15"/>
-      <c r="AJP31" s="15"/>
-      <c r="AJQ31" s="15"/>
-      <c r="AJR31" s="15"/>
-      <c r="AJS31" s="15"/>
-      <c r="AJT31" s="15"/>
-      <c r="AJU31" s="15"/>
-      <c r="AJV31" s="15"/>
-      <c r="AJW31" s="15"/>
-      <c r="AJX31" s="15"/>
-      <c r="AJY31" s="15"/>
-      <c r="AJZ31" s="15"/>
-      <c r="AKA31" s="15"/>
-      <c r="AKB31" s="15"/>
-      <c r="AKC31" s="15"/>
-      <c r="AKD31" s="15"/>
-      <c r="AKE31" s="15"/>
-      <c r="AKF31" s="15"/>
-      <c r="AKG31" s="15"/>
-      <c r="AKH31" s="15"/>
-      <c r="AKI31" s="15"/>
-      <c r="AKJ31" s="15"/>
-      <c r="AKK31" s="15"/>
-      <c r="AKL31" s="15"/>
-      <c r="AKM31" s="15"/>
-      <c r="AKN31" s="15"/>
-      <c r="AKO31" s="15"/>
-      <c r="AKP31" s="15"/>
-      <c r="AKQ31" s="15"/>
-      <c r="AKR31" s="15"/>
-      <c r="AKS31" s="15"/>
-      <c r="AKT31" s="15"/>
-      <c r="AKU31" s="15"/>
-      <c r="AKV31" s="15"/>
-      <c r="AKW31" s="15"/>
-      <c r="AKX31" s="15"/>
-      <c r="AKY31" s="15"/>
-      <c r="AKZ31" s="15"/>
-      <c r="ALA31" s="15"/>
-      <c r="ALB31" s="15"/>
-      <c r="ALC31" s="15"/>
-      <c r="ALD31" s="15"/>
-      <c r="ALE31" s="15"/>
-      <c r="ALF31" s="15"/>
-      <c r="ALG31" s="15"/>
-      <c r="ALH31" s="15"/>
-      <c r="ALI31" s="15"/>
-      <c r="ALJ31" s="15"/>
-      <c r="ALK31" s="15"/>
-      <c r="ALL31" s="15"/>
-      <c r="ALM31" s="15"/>
-      <c r="ALN31" s="15"/>
-      <c r="ALO31" s="15"/>
-      <c r="ALP31" s="15"/>
-      <c r="ALQ31" s="15"/>
-      <c r="ALR31" s="15"/>
-      <c r="ALS31" s="15"/>
-      <c r="ALT31" s="15"/>
-      <c r="ALU31" s="15"/>
-      <c r="ALV31" s="15"/>
-      <c r="ALW31" s="15"/>
-      <c r="ALX31" s="15"/>
-      <c r="ALY31" s="15"/>
-      <c r="ALZ31" s="15"/>
-      <c r="AMA31" s="15"/>
-      <c r="AMB31" s="15"/>
-      <c r="AMC31" s="15"/>
-      <c r="AMD31" s="15"/>
-      <c r="AME31" s="15"/>
-      <c r="AMF31" s="15"/>
-      <c r="AMG31" s="15"/>
-      <c r="AMH31" s="15"/>
-      <c r="AMI31" s="15"/>
-      <c r="AMJ31" s="15"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -2907,15 +1929,15 @@
       <c r="AMJ32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -3937,15 +2959,15 @@
       <c r="AMJ33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -4967,15 +3989,15 @@
       <c r="AMJ34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="B35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -5996,6 +5018,1036 @@
       <c r="AMI35" s="15"/>
       <c r="AMJ35" s="15"/>
     </row>
+    <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="15"/>
+      <c r="AZ36" s="15"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="15"/>
+      <c r="BD36" s="15"/>
+      <c r="BE36" s="15"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="15"/>
+      <c r="BH36" s="15"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="15"/>
+      <c r="BK36" s="15"/>
+      <c r="BL36" s="15"/>
+      <c r="BM36" s="15"/>
+      <c r="BN36" s="15"/>
+      <c r="BO36" s="15"/>
+      <c r="BP36" s="15"/>
+      <c r="BQ36" s="15"/>
+      <c r="BR36" s="15"/>
+      <c r="BS36" s="15"/>
+      <c r="BT36" s="15"/>
+      <c r="BU36" s="15"/>
+      <c r="BV36" s="15"/>
+      <c r="BW36" s="15"/>
+      <c r="BX36" s="15"/>
+      <c r="BY36" s="15"/>
+      <c r="BZ36" s="15"/>
+      <c r="CA36" s="15"/>
+      <c r="CB36" s="15"/>
+      <c r="CC36" s="15"/>
+      <c r="CD36" s="15"/>
+      <c r="CE36" s="15"/>
+      <c r="CF36" s="15"/>
+      <c r="CG36" s="15"/>
+      <c r="CH36" s="15"/>
+      <c r="CI36" s="15"/>
+      <c r="CJ36" s="15"/>
+      <c r="CK36" s="15"/>
+      <c r="CL36" s="15"/>
+      <c r="CM36" s="15"/>
+      <c r="CN36" s="15"/>
+      <c r="CO36" s="15"/>
+      <c r="CP36" s="15"/>
+      <c r="CQ36" s="15"/>
+      <c r="CR36" s="15"/>
+      <c r="CS36" s="15"/>
+      <c r="CT36" s="15"/>
+      <c r="CU36" s="15"/>
+      <c r="CV36" s="15"/>
+      <c r="CW36" s="15"/>
+      <c r="CX36" s="15"/>
+      <c r="CY36" s="15"/>
+      <c r="CZ36" s="15"/>
+      <c r="DA36" s="15"/>
+      <c r="DB36" s="15"/>
+      <c r="DC36" s="15"/>
+      <c r="DD36" s="15"/>
+      <c r="DE36" s="15"/>
+      <c r="DF36" s="15"/>
+      <c r="DG36" s="15"/>
+      <c r="DH36" s="15"/>
+      <c r="DI36" s="15"/>
+      <c r="DJ36" s="15"/>
+      <c r="DK36" s="15"/>
+      <c r="DL36" s="15"/>
+      <c r="DM36" s="15"/>
+      <c r="DN36" s="15"/>
+      <c r="DO36" s="15"/>
+      <c r="DP36" s="15"/>
+      <c r="DQ36" s="15"/>
+      <c r="DR36" s="15"/>
+      <c r="DS36" s="15"/>
+      <c r="DT36" s="15"/>
+      <c r="DU36" s="15"/>
+      <c r="DV36" s="15"/>
+      <c r="DW36" s="15"/>
+      <c r="DX36" s="15"/>
+      <c r="DY36" s="15"/>
+      <c r="DZ36" s="15"/>
+      <c r="EA36" s="15"/>
+      <c r="EB36" s="15"/>
+      <c r="EC36" s="15"/>
+      <c r="ED36" s="15"/>
+      <c r="EE36" s="15"/>
+      <c r="EF36" s="15"/>
+      <c r="EG36" s="15"/>
+      <c r="EH36" s="15"/>
+      <c r="EI36" s="15"/>
+      <c r="EJ36" s="15"/>
+      <c r="EK36" s="15"/>
+      <c r="EL36" s="15"/>
+      <c r="EM36" s="15"/>
+      <c r="EN36" s="15"/>
+      <c r="EO36" s="15"/>
+      <c r="EP36" s="15"/>
+      <c r="EQ36" s="15"/>
+      <c r="ER36" s="15"/>
+      <c r="ES36" s="15"/>
+      <c r="ET36" s="15"/>
+      <c r="EU36" s="15"/>
+      <c r="EV36" s="15"/>
+      <c r="EW36" s="15"/>
+      <c r="EX36" s="15"/>
+      <c r="EY36" s="15"/>
+      <c r="EZ36" s="15"/>
+      <c r="FA36" s="15"/>
+      <c r="FB36" s="15"/>
+      <c r="FC36" s="15"/>
+      <c r="FD36" s="15"/>
+      <c r="FE36" s="15"/>
+      <c r="FF36" s="15"/>
+      <c r="FG36" s="15"/>
+      <c r="FH36" s="15"/>
+      <c r="FI36" s="15"/>
+      <c r="FJ36" s="15"/>
+      <c r="FK36" s="15"/>
+      <c r="FL36" s="15"/>
+      <c r="FM36" s="15"/>
+      <c r="FN36" s="15"/>
+      <c r="FO36" s="15"/>
+      <c r="FP36" s="15"/>
+      <c r="FQ36" s="15"/>
+      <c r="FR36" s="15"/>
+      <c r="FS36" s="15"/>
+      <c r="FT36" s="15"/>
+      <c r="FU36" s="15"/>
+      <c r="FV36" s="15"/>
+      <c r="FW36" s="15"/>
+      <c r="FX36" s="15"/>
+      <c r="FY36" s="15"/>
+      <c r="FZ36" s="15"/>
+      <c r="GA36" s="15"/>
+      <c r="GB36" s="15"/>
+      <c r="GC36" s="15"/>
+      <c r="GD36" s="15"/>
+      <c r="GE36" s="15"/>
+      <c r="GF36" s="15"/>
+      <c r="GG36" s="15"/>
+      <c r="GH36" s="15"/>
+      <c r="GI36" s="15"/>
+      <c r="GJ36" s="15"/>
+      <c r="GK36" s="15"/>
+      <c r="GL36" s="15"/>
+      <c r="GM36" s="15"/>
+      <c r="GN36" s="15"/>
+      <c r="GO36" s="15"/>
+      <c r="GP36" s="15"/>
+      <c r="GQ36" s="15"/>
+      <c r="GR36" s="15"/>
+      <c r="GS36" s="15"/>
+      <c r="GT36" s="15"/>
+      <c r="GU36" s="15"/>
+      <c r="GV36" s="15"/>
+      <c r="GW36" s="15"/>
+      <c r="GX36" s="15"/>
+      <c r="GY36" s="15"/>
+      <c r="GZ36" s="15"/>
+      <c r="HA36" s="15"/>
+      <c r="HB36" s="15"/>
+      <c r="HC36" s="15"/>
+      <c r="HD36" s="15"/>
+      <c r="HE36" s="15"/>
+      <c r="HF36" s="15"/>
+      <c r="HG36" s="15"/>
+      <c r="HH36" s="15"/>
+      <c r="HI36" s="15"/>
+      <c r="HJ36" s="15"/>
+      <c r="HK36" s="15"/>
+      <c r="HL36" s="15"/>
+      <c r="HM36" s="15"/>
+      <c r="HN36" s="15"/>
+      <c r="HO36" s="15"/>
+      <c r="HP36" s="15"/>
+      <c r="HQ36" s="15"/>
+      <c r="HR36" s="15"/>
+      <c r="HS36" s="15"/>
+      <c r="HT36" s="15"/>
+      <c r="HU36" s="15"/>
+      <c r="HV36" s="15"/>
+      <c r="HW36" s="15"/>
+      <c r="HX36" s="15"/>
+      <c r="HY36" s="15"/>
+      <c r="HZ36" s="15"/>
+      <c r="IA36" s="15"/>
+      <c r="IB36" s="15"/>
+      <c r="IC36" s="15"/>
+      <c r="ID36" s="15"/>
+      <c r="IE36" s="15"/>
+      <c r="IF36" s="15"/>
+      <c r="IG36" s="15"/>
+      <c r="IH36" s="15"/>
+      <c r="II36" s="15"/>
+      <c r="IJ36" s="15"/>
+      <c r="IK36" s="15"/>
+      <c r="IL36" s="15"/>
+      <c r="IM36" s="15"/>
+      <c r="IN36" s="15"/>
+      <c r="IO36" s="15"/>
+      <c r="IP36" s="15"/>
+      <c r="IQ36" s="15"/>
+      <c r="IR36" s="15"/>
+      <c r="IS36" s="15"/>
+      <c r="IT36" s="15"/>
+      <c r="IU36" s="15"/>
+      <c r="IV36" s="15"/>
+      <c r="IW36" s="15"/>
+      <c r="IX36" s="15"/>
+      <c r="IY36" s="15"/>
+      <c r="IZ36" s="15"/>
+      <c r="JA36" s="15"/>
+      <c r="JB36" s="15"/>
+      <c r="JC36" s="15"/>
+      <c r="JD36" s="15"/>
+      <c r="JE36" s="15"/>
+      <c r="JF36" s="15"/>
+      <c r="JG36" s="15"/>
+      <c r="JH36" s="15"/>
+      <c r="JI36" s="15"/>
+      <c r="JJ36" s="15"/>
+      <c r="JK36" s="15"/>
+      <c r="JL36" s="15"/>
+      <c r="JM36" s="15"/>
+      <c r="JN36" s="15"/>
+      <c r="JO36" s="15"/>
+      <c r="JP36" s="15"/>
+      <c r="JQ36" s="15"/>
+      <c r="JR36" s="15"/>
+      <c r="JS36" s="15"/>
+      <c r="JT36" s="15"/>
+      <c r="JU36" s="15"/>
+      <c r="JV36" s="15"/>
+      <c r="JW36" s="15"/>
+      <c r="JX36" s="15"/>
+      <c r="JY36" s="15"/>
+      <c r="JZ36" s="15"/>
+      <c r="KA36" s="15"/>
+      <c r="KB36" s="15"/>
+      <c r="KC36" s="15"/>
+      <c r="KD36" s="15"/>
+      <c r="KE36" s="15"/>
+      <c r="KF36" s="15"/>
+      <c r="KG36" s="15"/>
+      <c r="KH36" s="15"/>
+      <c r="KI36" s="15"/>
+      <c r="KJ36" s="15"/>
+      <c r="KK36" s="15"/>
+      <c r="KL36" s="15"/>
+      <c r="KM36" s="15"/>
+      <c r="KN36" s="15"/>
+      <c r="KO36" s="15"/>
+      <c r="KP36" s="15"/>
+      <c r="KQ36" s="15"/>
+      <c r="KR36" s="15"/>
+      <c r="KS36" s="15"/>
+      <c r="KT36" s="15"/>
+      <c r="KU36" s="15"/>
+      <c r="KV36" s="15"/>
+      <c r="KW36" s="15"/>
+      <c r="KX36" s="15"/>
+      <c r="KY36" s="15"/>
+      <c r="KZ36" s="15"/>
+      <c r="LA36" s="15"/>
+      <c r="LB36" s="15"/>
+      <c r="LC36" s="15"/>
+      <c r="LD36" s="15"/>
+      <c r="LE36" s="15"/>
+      <c r="LF36" s="15"/>
+      <c r="LG36" s="15"/>
+      <c r="LH36" s="15"/>
+      <c r="LI36" s="15"/>
+      <c r="LJ36" s="15"/>
+      <c r="LK36" s="15"/>
+      <c r="LL36" s="15"/>
+      <c r="LM36" s="15"/>
+      <c r="LN36" s="15"/>
+      <c r="LO36" s="15"/>
+      <c r="LP36" s="15"/>
+      <c r="LQ36" s="15"/>
+      <c r="LR36" s="15"/>
+      <c r="LS36" s="15"/>
+      <c r="LT36" s="15"/>
+      <c r="LU36" s="15"/>
+      <c r="LV36" s="15"/>
+      <c r="LW36" s="15"/>
+      <c r="LX36" s="15"/>
+      <c r="LY36" s="15"/>
+      <c r="LZ36" s="15"/>
+      <c r="MA36" s="15"/>
+      <c r="MB36" s="15"/>
+      <c r="MC36" s="15"/>
+      <c r="MD36" s="15"/>
+      <c r="ME36" s="15"/>
+      <c r="MF36" s="15"/>
+      <c r="MG36" s="15"/>
+      <c r="MH36" s="15"/>
+      <c r="MI36" s="15"/>
+      <c r="MJ36" s="15"/>
+      <c r="MK36" s="15"/>
+      <c r="ML36" s="15"/>
+      <c r="MM36" s="15"/>
+      <c r="MN36" s="15"/>
+      <c r="MO36" s="15"/>
+      <c r="MP36" s="15"/>
+      <c r="MQ36" s="15"/>
+      <c r="MR36" s="15"/>
+      <c r="MS36" s="15"/>
+      <c r="MT36" s="15"/>
+      <c r="MU36" s="15"/>
+      <c r="MV36" s="15"/>
+      <c r="MW36" s="15"/>
+      <c r="MX36" s="15"/>
+      <c r="MY36" s="15"/>
+      <c r="MZ36" s="15"/>
+      <c r="NA36" s="15"/>
+      <c r="NB36" s="15"/>
+      <c r="NC36" s="15"/>
+      <c r="ND36" s="15"/>
+      <c r="NE36" s="15"/>
+      <c r="NF36" s="15"/>
+      <c r="NG36" s="15"/>
+      <c r="NH36" s="15"/>
+      <c r="NI36" s="15"/>
+      <c r="NJ36" s="15"/>
+      <c r="NK36" s="15"/>
+      <c r="NL36" s="15"/>
+      <c r="NM36" s="15"/>
+      <c r="NN36" s="15"/>
+      <c r="NO36" s="15"/>
+      <c r="NP36" s="15"/>
+      <c r="NQ36" s="15"/>
+      <c r="NR36" s="15"/>
+      <c r="NS36" s="15"/>
+      <c r="NT36" s="15"/>
+      <c r="NU36" s="15"/>
+      <c r="NV36" s="15"/>
+      <c r="NW36" s="15"/>
+      <c r="NX36" s="15"/>
+      <c r="NY36" s="15"/>
+      <c r="NZ36" s="15"/>
+      <c r="OA36" s="15"/>
+      <c r="OB36" s="15"/>
+      <c r="OC36" s="15"/>
+      <c r="OD36" s="15"/>
+      <c r="OE36" s="15"/>
+      <c r="OF36" s="15"/>
+      <c r="OG36" s="15"/>
+      <c r="OH36" s="15"/>
+      <c r="OI36" s="15"/>
+      <c r="OJ36" s="15"/>
+      <c r="OK36" s="15"/>
+      <c r="OL36" s="15"/>
+      <c r="OM36" s="15"/>
+      <c r="ON36" s="15"/>
+      <c r="OO36" s="15"/>
+      <c r="OP36" s="15"/>
+      <c r="OQ36" s="15"/>
+      <c r="OR36" s="15"/>
+      <c r="OS36" s="15"/>
+      <c r="OT36" s="15"/>
+      <c r="OU36" s="15"/>
+      <c r="OV36" s="15"/>
+      <c r="OW36" s="15"/>
+      <c r="OX36" s="15"/>
+      <c r="OY36" s="15"/>
+      <c r="OZ36" s="15"/>
+      <c r="PA36" s="15"/>
+      <c r="PB36" s="15"/>
+      <c r="PC36" s="15"/>
+      <c r="PD36" s="15"/>
+      <c r="PE36" s="15"/>
+      <c r="PF36" s="15"/>
+      <c r="PG36" s="15"/>
+      <c r="PH36" s="15"/>
+      <c r="PI36" s="15"/>
+      <c r="PJ36" s="15"/>
+      <c r="PK36" s="15"/>
+      <c r="PL36" s="15"/>
+      <c r="PM36" s="15"/>
+      <c r="PN36" s="15"/>
+      <c r="PO36" s="15"/>
+      <c r="PP36" s="15"/>
+      <c r="PQ36" s="15"/>
+      <c r="PR36" s="15"/>
+      <c r="PS36" s="15"/>
+      <c r="PT36" s="15"/>
+      <c r="PU36" s="15"/>
+      <c r="PV36" s="15"/>
+      <c r="PW36" s="15"/>
+      <c r="PX36" s="15"/>
+      <c r="PY36" s="15"/>
+      <c r="PZ36" s="15"/>
+      <c r="QA36" s="15"/>
+      <c r="QB36" s="15"/>
+      <c r="QC36" s="15"/>
+      <c r="QD36" s="15"/>
+      <c r="QE36" s="15"/>
+      <c r="QF36" s="15"/>
+      <c r="QG36" s="15"/>
+      <c r="QH36" s="15"/>
+      <c r="QI36" s="15"/>
+      <c r="QJ36" s="15"/>
+      <c r="QK36" s="15"/>
+      <c r="QL36" s="15"/>
+      <c r="QM36" s="15"/>
+      <c r="QN36" s="15"/>
+      <c r="QO36" s="15"/>
+      <c r="QP36" s="15"/>
+      <c r="QQ36" s="15"/>
+      <c r="QR36" s="15"/>
+      <c r="QS36" s="15"/>
+      <c r="QT36" s="15"/>
+      <c r="QU36" s="15"/>
+      <c r="QV36" s="15"/>
+      <c r="QW36" s="15"/>
+      <c r="QX36" s="15"/>
+      <c r="QY36" s="15"/>
+      <c r="QZ36" s="15"/>
+      <c r="RA36" s="15"/>
+      <c r="RB36" s="15"/>
+      <c r="RC36" s="15"/>
+      <c r="RD36" s="15"/>
+      <c r="RE36" s="15"/>
+      <c r="RF36" s="15"/>
+      <c r="RG36" s="15"/>
+      <c r="RH36" s="15"/>
+      <c r="RI36" s="15"/>
+      <c r="RJ36" s="15"/>
+      <c r="RK36" s="15"/>
+      <c r="RL36" s="15"/>
+      <c r="RM36" s="15"/>
+      <c r="RN36" s="15"/>
+      <c r="RO36" s="15"/>
+      <c r="RP36" s="15"/>
+      <c r="RQ36" s="15"/>
+      <c r="RR36" s="15"/>
+      <c r="RS36" s="15"/>
+      <c r="RT36" s="15"/>
+      <c r="RU36" s="15"/>
+      <c r="RV36" s="15"/>
+      <c r="RW36" s="15"/>
+      <c r="RX36" s="15"/>
+      <c r="RY36" s="15"/>
+      <c r="RZ36" s="15"/>
+      <c r="SA36" s="15"/>
+      <c r="SB36" s="15"/>
+      <c r="SC36" s="15"/>
+      <c r="SD36" s="15"/>
+      <c r="SE36" s="15"/>
+      <c r="SF36" s="15"/>
+      <c r="SG36" s="15"/>
+      <c r="SH36" s="15"/>
+      <c r="SI36" s="15"/>
+      <c r="SJ36" s="15"/>
+      <c r="SK36" s="15"/>
+      <c r="SL36" s="15"/>
+      <c r="SM36" s="15"/>
+      <c r="SN36" s="15"/>
+      <c r="SO36" s="15"/>
+      <c r="SP36" s="15"/>
+      <c r="SQ36" s="15"/>
+      <c r="SR36" s="15"/>
+      <c r="SS36" s="15"/>
+      <c r="ST36" s="15"/>
+      <c r="SU36" s="15"/>
+      <c r="SV36" s="15"/>
+      <c r="SW36" s="15"/>
+      <c r="SX36" s="15"/>
+      <c r="SY36" s="15"/>
+      <c r="SZ36" s="15"/>
+      <c r="TA36" s="15"/>
+      <c r="TB36" s="15"/>
+      <c r="TC36" s="15"/>
+      <c r="TD36" s="15"/>
+      <c r="TE36" s="15"/>
+      <c r="TF36" s="15"/>
+      <c r="TG36" s="15"/>
+      <c r="TH36" s="15"/>
+      <c r="TI36" s="15"/>
+      <c r="TJ36" s="15"/>
+      <c r="TK36" s="15"/>
+      <c r="TL36" s="15"/>
+      <c r="TM36" s="15"/>
+      <c r="TN36" s="15"/>
+      <c r="TO36" s="15"/>
+      <c r="TP36" s="15"/>
+      <c r="TQ36" s="15"/>
+      <c r="TR36" s="15"/>
+      <c r="TS36" s="15"/>
+      <c r="TT36" s="15"/>
+      <c r="TU36" s="15"/>
+      <c r="TV36" s="15"/>
+      <c r="TW36" s="15"/>
+      <c r="TX36" s="15"/>
+      <c r="TY36" s="15"/>
+      <c r="TZ36" s="15"/>
+      <c r="UA36" s="15"/>
+      <c r="UB36" s="15"/>
+      <c r="UC36" s="15"/>
+      <c r="UD36" s="15"/>
+      <c r="UE36" s="15"/>
+      <c r="UF36" s="15"/>
+      <c r="UG36" s="15"/>
+      <c r="UH36" s="15"/>
+      <c r="UI36" s="15"/>
+      <c r="UJ36" s="15"/>
+      <c r="UK36" s="15"/>
+      <c r="UL36" s="15"/>
+      <c r="UM36" s="15"/>
+      <c r="UN36" s="15"/>
+      <c r="UO36" s="15"/>
+      <c r="UP36" s="15"/>
+      <c r="UQ36" s="15"/>
+      <c r="UR36" s="15"/>
+      <c r="US36" s="15"/>
+      <c r="UT36" s="15"/>
+      <c r="UU36" s="15"/>
+      <c r="UV36" s="15"/>
+      <c r="UW36" s="15"/>
+      <c r="UX36" s="15"/>
+      <c r="UY36" s="15"/>
+      <c r="UZ36" s="15"/>
+      <c r="VA36" s="15"/>
+      <c r="VB36" s="15"/>
+      <c r="VC36" s="15"/>
+      <c r="VD36" s="15"/>
+      <c r="VE36" s="15"/>
+      <c r="VF36" s="15"/>
+      <c r="VG36" s="15"/>
+      <c r="VH36" s="15"/>
+      <c r="VI36" s="15"/>
+      <c r="VJ36" s="15"/>
+      <c r="VK36" s="15"/>
+      <c r="VL36" s="15"/>
+      <c r="VM36" s="15"/>
+      <c r="VN36" s="15"/>
+      <c r="VO36" s="15"/>
+      <c r="VP36" s="15"/>
+      <c r="VQ36" s="15"/>
+      <c r="VR36" s="15"/>
+      <c r="VS36" s="15"/>
+      <c r="VT36" s="15"/>
+      <c r="VU36" s="15"/>
+      <c r="VV36" s="15"/>
+      <c r="VW36" s="15"/>
+      <c r="VX36" s="15"/>
+      <c r="VY36" s="15"/>
+      <c r="VZ36" s="15"/>
+      <c r="WA36" s="15"/>
+      <c r="WB36" s="15"/>
+      <c r="WC36" s="15"/>
+      <c r="WD36" s="15"/>
+      <c r="WE36" s="15"/>
+      <c r="WF36" s="15"/>
+      <c r="WG36" s="15"/>
+      <c r="WH36" s="15"/>
+      <c r="WI36" s="15"/>
+      <c r="WJ36" s="15"/>
+      <c r="WK36" s="15"/>
+      <c r="WL36" s="15"/>
+      <c r="WM36" s="15"/>
+      <c r="WN36" s="15"/>
+      <c r="WO36" s="15"/>
+      <c r="WP36" s="15"/>
+      <c r="WQ36" s="15"/>
+      <c r="WR36" s="15"/>
+      <c r="WS36" s="15"/>
+      <c r="WT36" s="15"/>
+      <c r="WU36" s="15"/>
+      <c r="WV36" s="15"/>
+      <c r="WW36" s="15"/>
+      <c r="WX36" s="15"/>
+      <c r="WY36" s="15"/>
+      <c r="WZ36" s="15"/>
+      <c r="XA36" s="15"/>
+      <c r="XB36" s="15"/>
+      <c r="XC36" s="15"/>
+      <c r="XD36" s="15"/>
+      <c r="XE36" s="15"/>
+      <c r="XF36" s="15"/>
+      <c r="XG36" s="15"/>
+      <c r="XH36" s="15"/>
+      <c r="XI36" s="15"/>
+      <c r="XJ36" s="15"/>
+      <c r="XK36" s="15"/>
+      <c r="XL36" s="15"/>
+      <c r="XM36" s="15"/>
+      <c r="XN36" s="15"/>
+      <c r="XO36" s="15"/>
+      <c r="XP36" s="15"/>
+      <c r="XQ36" s="15"/>
+      <c r="XR36" s="15"/>
+      <c r="XS36" s="15"/>
+      <c r="XT36" s="15"/>
+      <c r="XU36" s="15"/>
+      <c r="XV36" s="15"/>
+      <c r="XW36" s="15"/>
+      <c r="XX36" s="15"/>
+      <c r="XY36" s="15"/>
+      <c r="XZ36" s="15"/>
+      <c r="YA36" s="15"/>
+      <c r="YB36" s="15"/>
+      <c r="YC36" s="15"/>
+      <c r="YD36" s="15"/>
+      <c r="YE36" s="15"/>
+      <c r="YF36" s="15"/>
+      <c r="YG36" s="15"/>
+      <c r="YH36" s="15"/>
+      <c r="YI36" s="15"/>
+      <c r="YJ36" s="15"/>
+      <c r="YK36" s="15"/>
+      <c r="YL36" s="15"/>
+      <c r="YM36" s="15"/>
+      <c r="YN36" s="15"/>
+      <c r="YO36" s="15"/>
+      <c r="YP36" s="15"/>
+      <c r="YQ36" s="15"/>
+      <c r="YR36" s="15"/>
+      <c r="YS36" s="15"/>
+      <c r="YT36" s="15"/>
+      <c r="YU36" s="15"/>
+      <c r="YV36" s="15"/>
+      <c r="YW36" s="15"/>
+      <c r="YX36" s="15"/>
+      <c r="YY36" s="15"/>
+      <c r="YZ36" s="15"/>
+      <c r="ZA36" s="15"/>
+      <c r="ZB36" s="15"/>
+      <c r="ZC36" s="15"/>
+      <c r="ZD36" s="15"/>
+      <c r="ZE36" s="15"/>
+      <c r="ZF36" s="15"/>
+      <c r="ZG36" s="15"/>
+      <c r="ZH36" s="15"/>
+      <c r="ZI36" s="15"/>
+      <c r="ZJ36" s="15"/>
+      <c r="ZK36" s="15"/>
+      <c r="ZL36" s="15"/>
+      <c r="ZM36" s="15"/>
+      <c r="ZN36" s="15"/>
+      <c r="ZO36" s="15"/>
+      <c r="ZP36" s="15"/>
+      <c r="ZQ36" s="15"/>
+      <c r="ZR36" s="15"/>
+      <c r="ZS36" s="15"/>
+      <c r="ZT36" s="15"/>
+      <c r="ZU36" s="15"/>
+      <c r="ZV36" s="15"/>
+      <c r="ZW36" s="15"/>
+      <c r="ZX36" s="15"/>
+      <c r="ZY36" s="15"/>
+      <c r="ZZ36" s="15"/>
+      <c r="AAA36" s="15"/>
+      <c r="AAB36" s="15"/>
+      <c r="AAC36" s="15"/>
+      <c r="AAD36" s="15"/>
+      <c r="AAE36" s="15"/>
+      <c r="AAF36" s="15"/>
+      <c r="AAG36" s="15"/>
+      <c r="AAH36" s="15"/>
+      <c r="AAI36" s="15"/>
+      <c r="AAJ36" s="15"/>
+      <c r="AAK36" s="15"/>
+      <c r="AAL36" s="15"/>
+      <c r="AAM36" s="15"/>
+      <c r="AAN36" s="15"/>
+      <c r="AAO36" s="15"/>
+      <c r="AAP36" s="15"/>
+      <c r="AAQ36" s="15"/>
+      <c r="AAR36" s="15"/>
+      <c r="AAS36" s="15"/>
+      <c r="AAT36" s="15"/>
+      <c r="AAU36" s="15"/>
+      <c r="AAV36" s="15"/>
+      <c r="AAW36" s="15"/>
+      <c r="AAX36" s="15"/>
+      <c r="AAY36" s="15"/>
+      <c r="AAZ36" s="15"/>
+      <c r="ABA36" s="15"/>
+      <c r="ABB36" s="15"/>
+      <c r="ABC36" s="15"/>
+      <c r="ABD36" s="15"/>
+      <c r="ABE36" s="15"/>
+      <c r="ABF36" s="15"/>
+      <c r="ABG36" s="15"/>
+      <c r="ABH36" s="15"/>
+      <c r="ABI36" s="15"/>
+      <c r="ABJ36" s="15"/>
+      <c r="ABK36" s="15"/>
+      <c r="ABL36" s="15"/>
+      <c r="ABM36" s="15"/>
+      <c r="ABN36" s="15"/>
+      <c r="ABO36" s="15"/>
+      <c r="ABP36" s="15"/>
+      <c r="ABQ36" s="15"/>
+      <c r="ABR36" s="15"/>
+      <c r="ABS36" s="15"/>
+      <c r="ABT36" s="15"/>
+      <c r="ABU36" s="15"/>
+      <c r="ABV36" s="15"/>
+      <c r="ABW36" s="15"/>
+      <c r="ABX36" s="15"/>
+      <c r="ABY36" s="15"/>
+      <c r="ABZ36" s="15"/>
+      <c r="ACA36" s="15"/>
+      <c r="ACB36" s="15"/>
+      <c r="ACC36" s="15"/>
+      <c r="ACD36" s="15"/>
+      <c r="ACE36" s="15"/>
+      <c r="ACF36" s="15"/>
+      <c r="ACG36" s="15"/>
+      <c r="ACH36" s="15"/>
+      <c r="ACI36" s="15"/>
+      <c r="ACJ36" s="15"/>
+      <c r="ACK36" s="15"/>
+      <c r="ACL36" s="15"/>
+      <c r="ACM36" s="15"/>
+      <c r="ACN36" s="15"/>
+      <c r="ACO36" s="15"/>
+      <c r="ACP36" s="15"/>
+      <c r="ACQ36" s="15"/>
+      <c r="ACR36" s="15"/>
+      <c r="ACS36" s="15"/>
+      <c r="ACT36" s="15"/>
+      <c r="ACU36" s="15"/>
+      <c r="ACV36" s="15"/>
+      <c r="ACW36" s="15"/>
+      <c r="ACX36" s="15"/>
+      <c r="ACY36" s="15"/>
+      <c r="ACZ36" s="15"/>
+      <c r="ADA36" s="15"/>
+      <c r="ADB36" s="15"/>
+      <c r="ADC36" s="15"/>
+      <c r="ADD36" s="15"/>
+      <c r="ADE36" s="15"/>
+      <c r="ADF36" s="15"/>
+      <c r="ADG36" s="15"/>
+      <c r="ADH36" s="15"/>
+      <c r="ADI36" s="15"/>
+      <c r="ADJ36" s="15"/>
+      <c r="ADK36" s="15"/>
+      <c r="ADL36" s="15"/>
+      <c r="ADM36" s="15"/>
+      <c r="ADN36" s="15"/>
+      <c r="ADO36" s="15"/>
+      <c r="ADP36" s="15"/>
+      <c r="ADQ36" s="15"/>
+      <c r="ADR36" s="15"/>
+      <c r="ADS36" s="15"/>
+      <c r="ADT36" s="15"/>
+      <c r="ADU36" s="15"/>
+      <c r="ADV36" s="15"/>
+      <c r="ADW36" s="15"/>
+      <c r="ADX36" s="15"/>
+      <c r="ADY36" s="15"/>
+      <c r="ADZ36" s="15"/>
+      <c r="AEA36" s="15"/>
+      <c r="AEB36" s="15"/>
+      <c r="AEC36" s="15"/>
+      <c r="AED36" s="15"/>
+      <c r="AEE36" s="15"/>
+      <c r="AEF36" s="15"/>
+      <c r="AEG36" s="15"/>
+      <c r="AEH36" s="15"/>
+      <c r="AEI36" s="15"/>
+      <c r="AEJ36" s="15"/>
+      <c r="AEK36" s="15"/>
+      <c r="AEL36" s="15"/>
+      <c r="AEM36" s="15"/>
+      <c r="AEN36" s="15"/>
+      <c r="AEO36" s="15"/>
+      <c r="AEP36" s="15"/>
+      <c r="AEQ36" s="15"/>
+      <c r="AER36" s="15"/>
+      <c r="AES36" s="15"/>
+      <c r="AET36" s="15"/>
+      <c r="AEU36" s="15"/>
+      <c r="AEV36" s="15"/>
+      <c r="AEW36" s="15"/>
+      <c r="AEX36" s="15"/>
+      <c r="AEY36" s="15"/>
+      <c r="AEZ36" s="15"/>
+      <c r="AFA36" s="15"/>
+      <c r="AFB36" s="15"/>
+      <c r="AFC36" s="15"/>
+      <c r="AFD36" s="15"/>
+      <c r="AFE36" s="15"/>
+      <c r="AFF36" s="15"/>
+      <c r="AFG36" s="15"/>
+      <c r="AFH36" s="15"/>
+      <c r="AFI36" s="15"/>
+      <c r="AFJ36" s="15"/>
+      <c r="AFK36" s="15"/>
+      <c r="AFL36" s="15"/>
+      <c r="AFM36" s="15"/>
+      <c r="AFN36" s="15"/>
+      <c r="AFO36" s="15"/>
+      <c r="AFP36" s="15"/>
+      <c r="AFQ36" s="15"/>
+      <c r="AFR36" s="15"/>
+      <c r="AFS36" s="15"/>
+      <c r="AFT36" s="15"/>
+      <c r="AFU36" s="15"/>
+      <c r="AFV36" s="15"/>
+      <c r="AFW36" s="15"/>
+      <c r="AFX36" s="15"/>
+      <c r="AFY36" s="15"/>
+      <c r="AFZ36" s="15"/>
+      <c r="AGA36" s="15"/>
+      <c r="AGB36" s="15"/>
+      <c r="AGC36" s="15"/>
+      <c r="AGD36" s="15"/>
+      <c r="AGE36" s="15"/>
+      <c r="AGF36" s="15"/>
+      <c r="AGG36" s="15"/>
+      <c r="AGH36" s="15"/>
+      <c r="AGI36" s="15"/>
+      <c r="AGJ36" s="15"/>
+      <c r="AGK36" s="15"/>
+      <c r="AGL36" s="15"/>
+      <c r="AGM36" s="15"/>
+      <c r="AGN36" s="15"/>
+      <c r="AGO36" s="15"/>
+      <c r="AGP36" s="15"/>
+      <c r="AGQ36" s="15"/>
+      <c r="AGR36" s="15"/>
+      <c r="AGS36" s="15"/>
+      <c r="AGT36" s="15"/>
+      <c r="AGU36" s="15"/>
+      <c r="AGV36" s="15"/>
+      <c r="AGW36" s="15"/>
+      <c r="AGX36" s="15"/>
+      <c r="AGY36" s="15"/>
+      <c r="AGZ36" s="15"/>
+      <c r="AHA36" s="15"/>
+      <c r="AHB36" s="15"/>
+      <c r="AHC36" s="15"/>
+      <c r="AHD36" s="15"/>
+      <c r="AHE36" s="15"/>
+      <c r="AHF36" s="15"/>
+      <c r="AHG36" s="15"/>
+      <c r="AHH36" s="15"/>
+      <c r="AHI36" s="15"/>
+      <c r="AHJ36" s="15"/>
+      <c r="AHK36" s="15"/>
+      <c r="AHL36" s="15"/>
+      <c r="AHM36" s="15"/>
+      <c r="AHN36" s="15"/>
+      <c r="AHO36" s="15"/>
+      <c r="AHP36" s="15"/>
+      <c r="AHQ36" s="15"/>
+      <c r="AHR36" s="15"/>
+      <c r="AHS36" s="15"/>
+      <c r="AHT36" s="15"/>
+      <c r="AHU36" s="15"/>
+      <c r="AHV36" s="15"/>
+      <c r="AHW36" s="15"/>
+      <c r="AHX36" s="15"/>
+      <c r="AHY36" s="15"/>
+      <c r="AHZ36" s="15"/>
+      <c r="AIA36" s="15"/>
+      <c r="AIB36" s="15"/>
+      <c r="AIC36" s="15"/>
+      <c r="AID36" s="15"/>
+      <c r="AIE36" s="15"/>
+      <c r="AIF36" s="15"/>
+      <c r="AIG36" s="15"/>
+      <c r="AIH36" s="15"/>
+      <c r="AII36" s="15"/>
+      <c r="AIJ36" s="15"/>
+      <c r="AIK36" s="15"/>
+      <c r="AIL36" s="15"/>
+      <c r="AIM36" s="15"/>
+      <c r="AIN36" s="15"/>
+      <c r="AIO36" s="15"/>
+      <c r="AIP36" s="15"/>
+      <c r="AIQ36" s="15"/>
+      <c r="AIR36" s="15"/>
+      <c r="AIS36" s="15"/>
+      <c r="AIT36" s="15"/>
+      <c r="AIU36" s="15"/>
+      <c r="AIV36" s="15"/>
+      <c r="AIW36" s="15"/>
+      <c r="AIX36" s="15"/>
+      <c r="AIY36" s="15"/>
+      <c r="AIZ36" s="15"/>
+      <c r="AJA36" s="15"/>
+      <c r="AJB36" s="15"/>
+      <c r="AJC36" s="15"/>
+      <c r="AJD36" s="15"/>
+      <c r="AJE36" s="15"/>
+      <c r="AJF36" s="15"/>
+      <c r="AJG36" s="15"/>
+      <c r="AJH36" s="15"/>
+      <c r="AJI36" s="15"/>
+      <c r="AJJ36" s="15"/>
+      <c r="AJK36" s="15"/>
+      <c r="AJL36" s="15"/>
+      <c r="AJM36" s="15"/>
+      <c r="AJN36" s="15"/>
+      <c r="AJO36" s="15"/>
+      <c r="AJP36" s="15"/>
+      <c r="AJQ36" s="15"/>
+      <c r="AJR36" s="15"/>
+      <c r="AJS36" s="15"/>
+      <c r="AJT36" s="15"/>
+      <c r="AJU36" s="15"/>
+      <c r="AJV36" s="15"/>
+      <c r="AJW36" s="15"/>
+      <c r="AJX36" s="15"/>
+      <c r="AJY36" s="15"/>
+      <c r="AJZ36" s="15"/>
+      <c r="AKA36" s="15"/>
+      <c r="AKB36" s="15"/>
+      <c r="AKC36" s="15"/>
+      <c r="AKD36" s="15"/>
+      <c r="AKE36" s="15"/>
+      <c r="AKF36" s="15"/>
+      <c r="AKG36" s="15"/>
+      <c r="AKH36" s="15"/>
+      <c r="AKI36" s="15"/>
+      <c r="AKJ36" s="15"/>
+      <c r="AKK36" s="15"/>
+      <c r="AKL36" s="15"/>
+      <c r="AKM36" s="15"/>
+      <c r="AKN36" s="15"/>
+      <c r="AKO36" s="15"/>
+      <c r="AKP36" s="15"/>
+      <c r="AKQ36" s="15"/>
+      <c r="AKR36" s="15"/>
+      <c r="AKS36" s="15"/>
+      <c r="AKT36" s="15"/>
+      <c r="AKU36" s="15"/>
+      <c r="AKV36" s="15"/>
+      <c r="AKW36" s="15"/>
+      <c r="AKX36" s="15"/>
+      <c r="AKY36" s="15"/>
+      <c r="AKZ36" s="15"/>
+      <c r="ALA36" s="15"/>
+      <c r="ALB36" s="15"/>
+      <c r="ALC36" s="15"/>
+      <c r="ALD36" s="15"/>
+      <c r="ALE36" s="15"/>
+      <c r="ALF36" s="15"/>
+      <c r="ALG36" s="15"/>
+      <c r="ALH36" s="15"/>
+      <c r="ALI36" s="15"/>
+      <c r="ALJ36" s="15"/>
+      <c r="ALK36" s="15"/>
+      <c r="ALL36" s="15"/>
+      <c r="ALM36" s="15"/>
+      <c r="ALN36" s="15"/>
+      <c r="ALO36" s="15"/>
+      <c r="ALP36" s="15"/>
+      <c r="ALQ36" s="15"/>
+      <c r="ALR36" s="15"/>
+      <c r="ALS36" s="15"/>
+      <c r="ALT36" s="15"/>
+      <c r="ALU36" s="15"/>
+      <c r="ALV36" s="15"/>
+      <c r="ALW36" s="15"/>
+      <c r="ALX36" s="15"/>
+      <c r="ALY36" s="15"/>
+      <c r="ALZ36" s="15"/>
+      <c r="AMA36" s="15"/>
+      <c r="AMB36" s="15"/>
+      <c r="AMC36" s="15"/>
+      <c r="AMD36" s="15"/>
+      <c r="AME36" s="15"/>
+      <c r="AMF36" s="15"/>
+      <c r="AMG36" s="15"/>
+      <c r="AMH36" s="15"/>
+      <c r="AMI36" s="15"/>
+      <c r="AMJ36" s="15"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
-    <t xml:space="preserve">Jan-Apr</t>
+    <t xml:space="preserve">May-Jun</t>
   </si>
   <si>
     <t xml:space="preserve">Check template status</t>
@@ -34,10 +34,10 @@
     <t xml:space="preserve">Archive old months</t>
   </si>
   <si>
-    <t xml:space="preserve">Sep-Dec</t>
+    <t xml:space="preserve">Edit archive links in booksindex</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit archive links in booksindex</t>
+    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">Run media index generator if needed</t>
@@ -84,9 +84,6 @@
       </rPr>
       <t xml:space="preserve">year must be explicit if services are generated in the previous year</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">Generate html English</t>
@@ -145,19 +142,22 @@
     <t xml:space="preserve">Jan</t>
   </si>
   <si>
-    <t xml:space="preserve">Feb</t>
+    <t xml:space="preserve">Feb-Mar</t>
   </si>
   <si>
-    <t xml:space="preserve">Mar</t>
+    <t xml:space="preserve">May</t>
   </si>
   <si>
-    <t xml:space="preserve">Apr</t>
+    <t xml:space="preserve">Jun</t>
   </si>
   <si>
     <t xml:space="preserve">set master to hchcchapel (website should be set to goa)</t>
   </si>
   <si>
     <t xml:space="preserve">Seminary Chapel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan-Apr</t>
   </si>
   <si>
     <t xml:space="preserve">reset master to goarch</t>
@@ -555,7 +555,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -568,7 +568,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="n">
-        <v>45673</v>
+        <v>45707</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -590,19 +590,16 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -613,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -624,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -657,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -665,10 +662,10 @@
     </row>
     <row r="10" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -676,7 +673,7 @@
     </row>
     <row r="11" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
@@ -684,7 +681,7 @@
     </row>
     <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
@@ -692,7 +689,7 @@
     </row>
     <row r="13" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
@@ -700,7 +697,7 @@
     </row>
     <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
@@ -708,29 +705,29 @@
     </row>
     <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
@@ -747,24 +744,24 @@
     </row>
     <row r="18" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
@@ -781,7 +778,7 @@
     </row>
     <row r="20" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
@@ -798,7 +795,7 @@
     </row>
     <row r="21" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -806,20 +803,20 @@
     </row>
     <row r="22" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>0</v>
-      </c>
       <c r="C22" s="13" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
@@ -841,7 +838,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
-    <t xml:space="preserve">May-Jun</t>
+    <t xml:space="preserve">July-Dec</t>
   </si>
   <si>
     <t xml:space="preserve">Check template status</t>
@@ -34,10 +34,10 @@
     <t xml:space="preserve">Archive old months</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit archive links in booksindex</t>
+    <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
+    <t xml:space="preserve">Edit archive links in booksindex</t>
   </si>
   <si>
     <t xml:space="preserve">Run media index generator if needed</t>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Generate html English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul-Dec</t>
   </si>
   <si>
     <t xml:space="preserve">Find and fix empty strings: select h/s and Find: &lt;p class='hymn'&gt;&lt;span class='kvp dummy'</t>
@@ -139,16 +142,22 @@
     <t xml:space="preserve">pdf G</t>
   </si>
   <si>
-    <t xml:space="preserve">Jan</t>
+    <t xml:space="preserve">Jul</t>
   </si>
   <si>
-    <t xml:space="preserve">Feb-Mar</t>
+    <t xml:space="preserve">Aug</t>
   </si>
   <si>
-    <t xml:space="preserve">May</t>
+    <t xml:space="preserve">Sep</t>
   </si>
   <si>
-    <t xml:space="preserve">Jun</t>
+    <t xml:space="preserve">Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec</t>
   </si>
   <si>
     <t xml:space="preserve">set master to hchcchapel (website should be set to goa)</t>
@@ -157,7 +166,7 @@
     <t xml:space="preserve">Seminary Chapel</t>
   </si>
   <si>
-    <t xml:space="preserve">Jan-Apr</t>
+    <t xml:space="preserve">Sep-Dec</t>
   </si>
   <si>
     <t xml:space="preserve">reset master to goarch</t>
@@ -553,10 +562,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ37"/>
+  <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -568,7 +577,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="n">
-        <v>45707</v>
+        <v>45717</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -590,16 +599,19 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -610,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -621,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -642,9 +654,6 @@
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -654,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -665,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -673,172 +682,118 @@
     </row>
     <row r="11" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>26</v>
+      <c r="A21" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="14"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>29</v>
+      <c r="A24" s="6" t="s">
+        <v>30</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>2</v>
+      <c r="B24" s="13" t="s">
+        <v>31</v>
       </c>
+      <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
+      <c r="A25" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -846,21 +801,15 @@
     </row>
     <row r="26" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>32</v>
+      <c r="A27" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -868,10 +817,7 @@
     </row>
     <row r="28" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -879,10 +825,7 @@
     </row>
     <row r="29" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -890,10 +833,7 @@
     </row>
     <row r="30" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -901,10 +841,7 @@
     </row>
     <row r="31" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -912,2082 +849,33 @@
     </row>
     <row r="32" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="16"/>
-      <c r="AM33" s="16"/>
-      <c r="AN33" s="16"/>
-      <c r="AO33" s="16"/>
-      <c r="AP33" s="16"/>
-      <c r="AQ33" s="16"/>
-      <c r="AR33" s="16"/>
-      <c r="AS33" s="16"/>
-      <c r="AT33" s="16"/>
-      <c r="AU33" s="16"/>
-      <c r="AV33" s="16"/>
-      <c r="AW33" s="16"/>
-      <c r="AX33" s="16"/>
-      <c r="AY33" s="16"/>
-      <c r="AZ33" s="16"/>
-      <c r="BA33" s="16"/>
-      <c r="BB33" s="16"/>
-      <c r="BC33" s="16"/>
-      <c r="BD33" s="16"/>
-      <c r="BE33" s="16"/>
-      <c r="BF33" s="16"/>
-      <c r="BG33" s="16"/>
-      <c r="BH33" s="16"/>
-      <c r="BI33" s="16"/>
-      <c r="BJ33" s="16"/>
-      <c r="BK33" s="16"/>
-      <c r="BL33" s="16"/>
-      <c r="BM33" s="16"/>
-      <c r="BN33" s="16"/>
-      <c r="BO33" s="16"/>
-      <c r="BP33" s="16"/>
-      <c r="BQ33" s="16"/>
-      <c r="BR33" s="16"/>
-      <c r="BS33" s="16"/>
-      <c r="BT33" s="16"/>
-      <c r="BU33" s="16"/>
-      <c r="BV33" s="16"/>
-      <c r="BW33" s="16"/>
-      <c r="BX33" s="16"/>
-      <c r="BY33" s="16"/>
-      <c r="BZ33" s="16"/>
-      <c r="CA33" s="16"/>
-      <c r="CB33" s="16"/>
-      <c r="CC33" s="16"/>
-      <c r="CD33" s="16"/>
-      <c r="CE33" s="16"/>
-      <c r="CF33" s="16"/>
-      <c r="CG33" s="16"/>
-      <c r="CH33" s="16"/>
-      <c r="CI33" s="16"/>
-      <c r="CJ33" s="16"/>
-      <c r="CK33" s="16"/>
-      <c r="CL33" s="16"/>
-      <c r="CM33" s="16"/>
-      <c r="CN33" s="16"/>
-      <c r="CO33" s="16"/>
-      <c r="CP33" s="16"/>
-      <c r="CQ33" s="16"/>
-      <c r="CR33" s="16"/>
-      <c r="CS33" s="16"/>
-      <c r="CT33" s="16"/>
-      <c r="CU33" s="16"/>
-      <c r="CV33" s="16"/>
-      <c r="CW33" s="16"/>
-      <c r="CX33" s="16"/>
-      <c r="CY33" s="16"/>
-      <c r="CZ33" s="16"/>
-      <c r="DA33" s="16"/>
-      <c r="DB33" s="16"/>
-      <c r="DC33" s="16"/>
-      <c r="DD33" s="16"/>
-      <c r="DE33" s="16"/>
-      <c r="DF33" s="16"/>
-      <c r="DG33" s="16"/>
-      <c r="DH33" s="16"/>
-      <c r="DI33" s="16"/>
-      <c r="DJ33" s="16"/>
-      <c r="DK33" s="16"/>
-      <c r="DL33" s="16"/>
-      <c r="DM33" s="16"/>
-      <c r="DN33" s="16"/>
-      <c r="DO33" s="16"/>
-      <c r="DP33" s="16"/>
-      <c r="DQ33" s="16"/>
-      <c r="DR33" s="16"/>
-      <c r="DS33" s="16"/>
-      <c r="DT33" s="16"/>
-      <c r="DU33" s="16"/>
-      <c r="DV33" s="16"/>
-      <c r="DW33" s="16"/>
-      <c r="DX33" s="16"/>
-      <c r="DY33" s="16"/>
-      <c r="DZ33" s="16"/>
-      <c r="EA33" s="16"/>
-      <c r="EB33" s="16"/>
-      <c r="EC33" s="16"/>
-      <c r="ED33" s="16"/>
-      <c r="EE33" s="16"/>
-      <c r="EF33" s="16"/>
-      <c r="EG33" s="16"/>
-      <c r="EH33" s="16"/>
-      <c r="EI33" s="16"/>
-      <c r="EJ33" s="16"/>
-      <c r="EK33" s="16"/>
-      <c r="EL33" s="16"/>
-      <c r="EM33" s="16"/>
-      <c r="EN33" s="16"/>
-      <c r="EO33" s="16"/>
-      <c r="EP33" s="16"/>
-      <c r="EQ33" s="16"/>
-      <c r="ER33" s="16"/>
-      <c r="ES33" s="16"/>
-      <c r="ET33" s="16"/>
-      <c r="EU33" s="16"/>
-      <c r="EV33" s="16"/>
-      <c r="EW33" s="16"/>
-      <c r="EX33" s="16"/>
-      <c r="EY33" s="16"/>
-      <c r="EZ33" s="16"/>
-      <c r="FA33" s="16"/>
-      <c r="FB33" s="16"/>
-      <c r="FC33" s="16"/>
-      <c r="FD33" s="16"/>
-      <c r="FE33" s="16"/>
-      <c r="FF33" s="16"/>
-      <c r="FG33" s="16"/>
-      <c r="FH33" s="16"/>
-      <c r="FI33" s="16"/>
-      <c r="FJ33" s="16"/>
-      <c r="FK33" s="16"/>
-      <c r="FL33" s="16"/>
-      <c r="FM33" s="16"/>
-      <c r="FN33" s="16"/>
-      <c r="FO33" s="16"/>
-      <c r="FP33" s="16"/>
-      <c r="FQ33" s="16"/>
-      <c r="FR33" s="16"/>
-      <c r="FS33" s="16"/>
-      <c r="FT33" s="16"/>
-      <c r="FU33" s="16"/>
-      <c r="FV33" s="16"/>
-      <c r="FW33" s="16"/>
-      <c r="FX33" s="16"/>
-      <c r="FY33" s="16"/>
-      <c r="FZ33" s="16"/>
-      <c r="GA33" s="16"/>
-      <c r="GB33" s="16"/>
-      <c r="GC33" s="16"/>
-      <c r="GD33" s="16"/>
-      <c r="GE33" s="16"/>
-      <c r="GF33" s="16"/>
-      <c r="GG33" s="16"/>
-      <c r="GH33" s="16"/>
-      <c r="GI33" s="16"/>
-      <c r="GJ33" s="16"/>
-      <c r="GK33" s="16"/>
-      <c r="GL33" s="16"/>
-      <c r="GM33" s="16"/>
-      <c r="GN33" s="16"/>
-      <c r="GO33" s="16"/>
-      <c r="GP33" s="16"/>
-      <c r="GQ33" s="16"/>
-      <c r="GR33" s="16"/>
-      <c r="GS33" s="16"/>
-      <c r="GT33" s="16"/>
-      <c r="GU33" s="16"/>
-      <c r="GV33" s="16"/>
-      <c r="GW33" s="16"/>
-      <c r="GX33" s="16"/>
-      <c r="GY33" s="16"/>
-      <c r="GZ33" s="16"/>
-      <c r="HA33" s="16"/>
-      <c r="HB33" s="16"/>
-      <c r="HC33" s="16"/>
-      <c r="HD33" s="16"/>
-      <c r="HE33" s="16"/>
-      <c r="HF33" s="16"/>
-      <c r="HG33" s="16"/>
-      <c r="HH33" s="16"/>
-      <c r="HI33" s="16"/>
-      <c r="HJ33" s="16"/>
-      <c r="HK33" s="16"/>
-      <c r="HL33" s="16"/>
-      <c r="HM33" s="16"/>
-      <c r="HN33" s="16"/>
-      <c r="HO33" s="16"/>
-      <c r="HP33" s="16"/>
-      <c r="HQ33" s="16"/>
-      <c r="HR33" s="16"/>
-      <c r="HS33" s="16"/>
-      <c r="HT33" s="16"/>
-      <c r="HU33" s="16"/>
-      <c r="HV33" s="16"/>
-      <c r="HW33" s="16"/>
-      <c r="HX33" s="16"/>
-      <c r="HY33" s="16"/>
-      <c r="HZ33" s="16"/>
-      <c r="IA33" s="16"/>
-      <c r="IB33" s="16"/>
-      <c r="IC33" s="16"/>
-      <c r="ID33" s="16"/>
-      <c r="IE33" s="16"/>
-      <c r="IF33" s="16"/>
-      <c r="IG33" s="16"/>
-      <c r="IH33" s="16"/>
-      <c r="II33" s="16"/>
-      <c r="IJ33" s="16"/>
-      <c r="IK33" s="16"/>
-      <c r="IL33" s="16"/>
-      <c r="IM33" s="16"/>
-      <c r="IN33" s="16"/>
-      <c r="IO33" s="16"/>
-      <c r="IP33" s="16"/>
-      <c r="IQ33" s="16"/>
-      <c r="IR33" s="16"/>
-      <c r="IS33" s="16"/>
-      <c r="IT33" s="16"/>
-      <c r="IU33" s="16"/>
-      <c r="IV33" s="16"/>
-      <c r="IW33" s="16"/>
-      <c r="IX33" s="16"/>
-      <c r="IY33" s="16"/>
-      <c r="IZ33" s="16"/>
-      <c r="JA33" s="16"/>
-      <c r="JB33" s="16"/>
-      <c r="JC33" s="16"/>
-      <c r="JD33" s="16"/>
-      <c r="JE33" s="16"/>
-      <c r="JF33" s="16"/>
-      <c r="JG33" s="16"/>
-      <c r="JH33" s="16"/>
-      <c r="JI33" s="16"/>
-      <c r="JJ33" s="16"/>
-      <c r="JK33" s="16"/>
-      <c r="JL33" s="16"/>
-      <c r="JM33" s="16"/>
-      <c r="JN33" s="16"/>
-      <c r="JO33" s="16"/>
-      <c r="JP33" s="16"/>
-      <c r="JQ33" s="16"/>
-      <c r="JR33" s="16"/>
-      <c r="JS33" s="16"/>
-      <c r="JT33" s="16"/>
-      <c r="JU33" s="16"/>
-      <c r="JV33" s="16"/>
-      <c r="JW33" s="16"/>
-      <c r="JX33" s="16"/>
-      <c r="JY33" s="16"/>
-      <c r="JZ33" s="16"/>
-      <c r="KA33" s="16"/>
-      <c r="KB33" s="16"/>
-      <c r="KC33" s="16"/>
-      <c r="KD33" s="16"/>
-      <c r="KE33" s="16"/>
-      <c r="KF33" s="16"/>
-      <c r="KG33" s="16"/>
-      <c r="KH33" s="16"/>
-      <c r="KI33" s="16"/>
-      <c r="KJ33" s="16"/>
-      <c r="KK33" s="16"/>
-      <c r="KL33" s="16"/>
-      <c r="KM33" s="16"/>
-      <c r="KN33" s="16"/>
-      <c r="KO33" s="16"/>
-      <c r="KP33" s="16"/>
-      <c r="KQ33" s="16"/>
-      <c r="KR33" s="16"/>
-      <c r="KS33" s="16"/>
-      <c r="KT33" s="16"/>
-      <c r="KU33" s="16"/>
-      <c r="KV33" s="16"/>
-      <c r="KW33" s="16"/>
-      <c r="KX33" s="16"/>
-      <c r="KY33" s="16"/>
-      <c r="KZ33" s="16"/>
-      <c r="LA33" s="16"/>
-      <c r="LB33" s="16"/>
-      <c r="LC33" s="16"/>
-      <c r="LD33" s="16"/>
-      <c r="LE33" s="16"/>
-      <c r="LF33" s="16"/>
-      <c r="LG33" s="16"/>
-      <c r="LH33" s="16"/>
-      <c r="LI33" s="16"/>
-      <c r="LJ33" s="16"/>
-      <c r="LK33" s="16"/>
-      <c r="LL33" s="16"/>
-      <c r="LM33" s="16"/>
-      <c r="LN33" s="16"/>
-      <c r="LO33" s="16"/>
-      <c r="LP33" s="16"/>
-      <c r="LQ33" s="16"/>
-      <c r="LR33" s="16"/>
-      <c r="LS33" s="16"/>
-      <c r="LT33" s="16"/>
-      <c r="LU33" s="16"/>
-      <c r="LV33" s="16"/>
-      <c r="LW33" s="16"/>
-      <c r="LX33" s="16"/>
-      <c r="LY33" s="16"/>
-      <c r="LZ33" s="16"/>
-      <c r="MA33" s="16"/>
-      <c r="MB33" s="16"/>
-      <c r="MC33" s="16"/>
-      <c r="MD33" s="16"/>
-      <c r="ME33" s="16"/>
-      <c r="MF33" s="16"/>
-      <c r="MG33" s="16"/>
-      <c r="MH33" s="16"/>
-      <c r="MI33" s="16"/>
-      <c r="MJ33" s="16"/>
-      <c r="MK33" s="16"/>
-      <c r="ML33" s="16"/>
-      <c r="MM33" s="16"/>
-      <c r="MN33" s="16"/>
-      <c r="MO33" s="16"/>
-      <c r="MP33" s="16"/>
-      <c r="MQ33" s="16"/>
-      <c r="MR33" s="16"/>
-      <c r="MS33" s="16"/>
-      <c r="MT33" s="16"/>
-      <c r="MU33" s="16"/>
-      <c r="MV33" s="16"/>
-      <c r="MW33" s="16"/>
-      <c r="MX33" s="16"/>
-      <c r="MY33" s="16"/>
-      <c r="MZ33" s="16"/>
-      <c r="NA33" s="16"/>
-      <c r="NB33" s="16"/>
-      <c r="NC33" s="16"/>
-      <c r="ND33" s="16"/>
-      <c r="NE33" s="16"/>
-      <c r="NF33" s="16"/>
-      <c r="NG33" s="16"/>
-      <c r="NH33" s="16"/>
-      <c r="NI33" s="16"/>
-      <c r="NJ33" s="16"/>
-      <c r="NK33" s="16"/>
-      <c r="NL33" s="16"/>
-      <c r="NM33" s="16"/>
-      <c r="NN33" s="16"/>
-      <c r="NO33" s="16"/>
-      <c r="NP33" s="16"/>
-      <c r="NQ33" s="16"/>
-      <c r="NR33" s="16"/>
-      <c r="NS33" s="16"/>
-      <c r="NT33" s="16"/>
-      <c r="NU33" s="16"/>
-      <c r="NV33" s="16"/>
-      <c r="NW33" s="16"/>
-      <c r="NX33" s="16"/>
-      <c r="NY33" s="16"/>
-      <c r="NZ33" s="16"/>
-      <c r="OA33" s="16"/>
-      <c r="OB33" s="16"/>
-      <c r="OC33" s="16"/>
-      <c r="OD33" s="16"/>
-      <c r="OE33" s="16"/>
-      <c r="OF33" s="16"/>
-      <c r="OG33" s="16"/>
-      <c r="OH33" s="16"/>
-      <c r="OI33" s="16"/>
-      <c r="OJ33" s="16"/>
-      <c r="OK33" s="16"/>
-      <c r="OL33" s="16"/>
-      <c r="OM33" s="16"/>
-      <c r="ON33" s="16"/>
-      <c r="OO33" s="16"/>
-      <c r="OP33" s="16"/>
-      <c r="OQ33" s="16"/>
-      <c r="OR33" s="16"/>
-      <c r="OS33" s="16"/>
-      <c r="OT33" s="16"/>
-      <c r="OU33" s="16"/>
-      <c r="OV33" s="16"/>
-      <c r="OW33" s="16"/>
-      <c r="OX33" s="16"/>
-      <c r="OY33" s="16"/>
-      <c r="OZ33" s="16"/>
-      <c r="PA33" s="16"/>
-      <c r="PB33" s="16"/>
-      <c r="PC33" s="16"/>
-      <c r="PD33" s="16"/>
-      <c r="PE33" s="16"/>
-      <c r="PF33" s="16"/>
-      <c r="PG33" s="16"/>
-      <c r="PH33" s="16"/>
-      <c r="PI33" s="16"/>
-      <c r="PJ33" s="16"/>
-      <c r="PK33" s="16"/>
-      <c r="PL33" s="16"/>
-      <c r="PM33" s="16"/>
-      <c r="PN33" s="16"/>
-      <c r="PO33" s="16"/>
-      <c r="PP33" s="16"/>
-      <c r="PQ33" s="16"/>
-      <c r="PR33" s="16"/>
-      <c r="PS33" s="16"/>
-      <c r="PT33" s="16"/>
-      <c r="PU33" s="16"/>
-      <c r="PV33" s="16"/>
-      <c r="PW33" s="16"/>
-      <c r="PX33" s="16"/>
-      <c r="PY33" s="16"/>
-      <c r="PZ33" s="16"/>
-      <c r="QA33" s="16"/>
-      <c r="QB33" s="16"/>
-      <c r="QC33" s="16"/>
-      <c r="QD33" s="16"/>
-      <c r="QE33" s="16"/>
-      <c r="QF33" s="16"/>
-      <c r="QG33" s="16"/>
-      <c r="QH33" s="16"/>
-      <c r="QI33" s="16"/>
-      <c r="QJ33" s="16"/>
-      <c r="QK33" s="16"/>
-      <c r="QL33" s="16"/>
-      <c r="QM33" s="16"/>
-      <c r="QN33" s="16"/>
-      <c r="QO33" s="16"/>
-      <c r="QP33" s="16"/>
-      <c r="QQ33" s="16"/>
-      <c r="QR33" s="16"/>
-      <c r="QS33" s="16"/>
-      <c r="QT33" s="16"/>
-      <c r="QU33" s="16"/>
-      <c r="QV33" s="16"/>
-      <c r="QW33" s="16"/>
-      <c r="QX33" s="16"/>
-      <c r="QY33" s="16"/>
-      <c r="QZ33" s="16"/>
-      <c r="RA33" s="16"/>
-      <c r="RB33" s="16"/>
-      <c r="RC33" s="16"/>
-      <c r="RD33" s="16"/>
-      <c r="RE33" s="16"/>
-      <c r="RF33" s="16"/>
-      <c r="RG33" s="16"/>
-      <c r="RH33" s="16"/>
-      <c r="RI33" s="16"/>
-      <c r="RJ33" s="16"/>
-      <c r="RK33" s="16"/>
-      <c r="RL33" s="16"/>
-      <c r="RM33" s="16"/>
-      <c r="RN33" s="16"/>
-      <c r="RO33" s="16"/>
-      <c r="RP33" s="16"/>
-      <c r="RQ33" s="16"/>
-      <c r="RR33" s="16"/>
-      <c r="RS33" s="16"/>
-      <c r="RT33" s="16"/>
-      <c r="RU33" s="16"/>
-      <c r="RV33" s="16"/>
-      <c r="RW33" s="16"/>
-      <c r="RX33" s="16"/>
-      <c r="RY33" s="16"/>
-      <c r="RZ33" s="16"/>
-      <c r="SA33" s="16"/>
-      <c r="SB33" s="16"/>
-      <c r="SC33" s="16"/>
-      <c r="SD33" s="16"/>
-      <c r="SE33" s="16"/>
-      <c r="SF33" s="16"/>
-      <c r="SG33" s="16"/>
-      <c r="SH33" s="16"/>
-      <c r="SI33" s="16"/>
-      <c r="SJ33" s="16"/>
-      <c r="SK33" s="16"/>
-      <c r="SL33" s="16"/>
-      <c r="SM33" s="16"/>
-      <c r="SN33" s="16"/>
-      <c r="SO33" s="16"/>
-      <c r="SP33" s="16"/>
-      <c r="SQ33" s="16"/>
-      <c r="SR33" s="16"/>
-      <c r="SS33" s="16"/>
-      <c r="ST33" s="16"/>
-      <c r="SU33" s="16"/>
-      <c r="SV33" s="16"/>
-      <c r="SW33" s="16"/>
-      <c r="SX33" s="16"/>
-      <c r="SY33" s="16"/>
-      <c r="SZ33" s="16"/>
-      <c r="TA33" s="16"/>
-      <c r="TB33" s="16"/>
-      <c r="TC33" s="16"/>
-      <c r="TD33" s="16"/>
-      <c r="TE33" s="16"/>
-      <c r="TF33" s="16"/>
-      <c r="TG33" s="16"/>
-      <c r="TH33" s="16"/>
-      <c r="TI33" s="16"/>
-      <c r="TJ33" s="16"/>
-      <c r="TK33" s="16"/>
-      <c r="TL33" s="16"/>
-      <c r="TM33" s="16"/>
-      <c r="TN33" s="16"/>
-      <c r="TO33" s="16"/>
-      <c r="TP33" s="16"/>
-      <c r="TQ33" s="16"/>
-      <c r="TR33" s="16"/>
-      <c r="TS33" s="16"/>
-      <c r="TT33" s="16"/>
-      <c r="TU33" s="16"/>
-      <c r="TV33" s="16"/>
-      <c r="TW33" s="16"/>
-      <c r="TX33" s="16"/>
-      <c r="TY33" s="16"/>
-      <c r="TZ33" s="16"/>
-      <c r="UA33" s="16"/>
-      <c r="UB33" s="16"/>
-      <c r="UC33" s="16"/>
-      <c r="UD33" s="16"/>
-      <c r="UE33" s="16"/>
-      <c r="UF33" s="16"/>
-      <c r="UG33" s="16"/>
-      <c r="UH33" s="16"/>
-      <c r="UI33" s="16"/>
-      <c r="UJ33" s="16"/>
-      <c r="UK33" s="16"/>
-      <c r="UL33" s="16"/>
-      <c r="UM33" s="16"/>
-      <c r="UN33" s="16"/>
-      <c r="UO33" s="16"/>
-      <c r="UP33" s="16"/>
-      <c r="UQ33" s="16"/>
-      <c r="UR33" s="16"/>
-      <c r="US33" s="16"/>
-      <c r="UT33" s="16"/>
-      <c r="UU33" s="16"/>
-      <c r="UV33" s="16"/>
-      <c r="UW33" s="16"/>
-      <c r="UX33" s="16"/>
-      <c r="UY33" s="16"/>
-      <c r="UZ33" s="16"/>
-      <c r="VA33" s="16"/>
-      <c r="VB33" s="16"/>
-      <c r="VC33" s="16"/>
-      <c r="VD33" s="16"/>
-      <c r="VE33" s="16"/>
-      <c r="VF33" s="16"/>
-      <c r="VG33" s="16"/>
-      <c r="VH33" s="16"/>
-      <c r="VI33" s="16"/>
-      <c r="VJ33" s="16"/>
-      <c r="VK33" s="16"/>
-      <c r="VL33" s="16"/>
-      <c r="VM33" s="16"/>
-      <c r="VN33" s="16"/>
-      <c r="VO33" s="16"/>
-      <c r="VP33" s="16"/>
-      <c r="VQ33" s="16"/>
-      <c r="VR33" s="16"/>
-      <c r="VS33" s="16"/>
-      <c r="VT33" s="16"/>
-      <c r="VU33" s="16"/>
-      <c r="VV33" s="16"/>
-      <c r="VW33" s="16"/>
-      <c r="VX33" s="16"/>
-      <c r="VY33" s="16"/>
-      <c r="VZ33" s="16"/>
-      <c r="WA33" s="16"/>
-      <c r="WB33" s="16"/>
-      <c r="WC33" s="16"/>
-      <c r="WD33" s="16"/>
-      <c r="WE33" s="16"/>
-      <c r="WF33" s="16"/>
-      <c r="WG33" s="16"/>
-      <c r="WH33" s="16"/>
-      <c r="WI33" s="16"/>
-      <c r="WJ33" s="16"/>
-      <c r="WK33" s="16"/>
-      <c r="WL33" s="16"/>
-      <c r="WM33" s="16"/>
-      <c r="WN33" s="16"/>
-      <c r="WO33" s="16"/>
-      <c r="WP33" s="16"/>
-      <c r="WQ33" s="16"/>
-      <c r="WR33" s="16"/>
-      <c r="WS33" s="16"/>
-      <c r="WT33" s="16"/>
-      <c r="WU33" s="16"/>
-      <c r="WV33" s="16"/>
-      <c r="WW33" s="16"/>
-      <c r="WX33" s="16"/>
-      <c r="WY33" s="16"/>
-      <c r="WZ33" s="16"/>
-      <c r="XA33" s="16"/>
-      <c r="XB33" s="16"/>
-      <c r="XC33" s="16"/>
-      <c r="XD33" s="16"/>
-      <c r="XE33" s="16"/>
-      <c r="XF33" s="16"/>
-      <c r="XG33" s="16"/>
-      <c r="XH33" s="16"/>
-      <c r="XI33" s="16"/>
-      <c r="XJ33" s="16"/>
-      <c r="XK33" s="16"/>
-      <c r="XL33" s="16"/>
-      <c r="XM33" s="16"/>
-      <c r="XN33" s="16"/>
-      <c r="XO33" s="16"/>
-      <c r="XP33" s="16"/>
-      <c r="XQ33" s="16"/>
-      <c r="XR33" s="16"/>
-      <c r="XS33" s="16"/>
-      <c r="XT33" s="16"/>
-      <c r="XU33" s="16"/>
-      <c r="XV33" s="16"/>
-      <c r="XW33" s="16"/>
-      <c r="XX33" s="16"/>
-      <c r="XY33" s="16"/>
-      <c r="XZ33" s="16"/>
-      <c r="YA33" s="16"/>
-      <c r="YB33" s="16"/>
-      <c r="YC33" s="16"/>
-      <c r="YD33" s="16"/>
-      <c r="YE33" s="16"/>
-      <c r="YF33" s="16"/>
-      <c r="YG33" s="16"/>
-      <c r="YH33" s="16"/>
-      <c r="YI33" s="16"/>
-      <c r="YJ33" s="16"/>
-      <c r="YK33" s="16"/>
-      <c r="YL33" s="16"/>
-      <c r="YM33" s="16"/>
-      <c r="YN33" s="16"/>
-      <c r="YO33" s="16"/>
-      <c r="YP33" s="16"/>
-      <c r="YQ33" s="16"/>
-      <c r="YR33" s="16"/>
-      <c r="YS33" s="16"/>
-      <c r="YT33" s="16"/>
-      <c r="YU33" s="16"/>
-      <c r="YV33" s="16"/>
-      <c r="YW33" s="16"/>
-      <c r="YX33" s="16"/>
-      <c r="YY33" s="16"/>
-      <c r="YZ33" s="16"/>
-      <c r="ZA33" s="16"/>
-      <c r="ZB33" s="16"/>
-      <c r="ZC33" s="16"/>
-      <c r="ZD33" s="16"/>
-      <c r="ZE33" s="16"/>
-      <c r="ZF33" s="16"/>
-      <c r="ZG33" s="16"/>
-      <c r="ZH33" s="16"/>
-      <c r="ZI33" s="16"/>
-      <c r="ZJ33" s="16"/>
-      <c r="ZK33" s="16"/>
-      <c r="ZL33" s="16"/>
-      <c r="ZM33" s="16"/>
-      <c r="ZN33" s="16"/>
-      <c r="ZO33" s="16"/>
-      <c r="ZP33" s="16"/>
-      <c r="ZQ33" s="16"/>
-      <c r="ZR33" s="16"/>
-      <c r="ZS33" s="16"/>
-      <c r="ZT33" s="16"/>
-      <c r="ZU33" s="16"/>
-      <c r="ZV33" s="16"/>
-      <c r="ZW33" s="16"/>
-      <c r="ZX33" s="16"/>
-      <c r="ZY33" s="16"/>
-      <c r="ZZ33" s="16"/>
-      <c r="AAA33" s="16"/>
-      <c r="AAB33" s="16"/>
-      <c r="AAC33" s="16"/>
-      <c r="AAD33" s="16"/>
-      <c r="AAE33" s="16"/>
-      <c r="AAF33" s="16"/>
-      <c r="AAG33" s="16"/>
-      <c r="AAH33" s="16"/>
-      <c r="AAI33" s="16"/>
-      <c r="AAJ33" s="16"/>
-      <c r="AAK33" s="16"/>
-      <c r="AAL33" s="16"/>
-      <c r="AAM33" s="16"/>
-      <c r="AAN33" s="16"/>
-      <c r="AAO33" s="16"/>
-      <c r="AAP33" s="16"/>
-      <c r="AAQ33" s="16"/>
-      <c r="AAR33" s="16"/>
-      <c r="AAS33" s="16"/>
-      <c r="AAT33" s="16"/>
-      <c r="AAU33" s="16"/>
-      <c r="AAV33" s="16"/>
-      <c r="AAW33" s="16"/>
-      <c r="AAX33" s="16"/>
-      <c r="AAY33" s="16"/>
-      <c r="AAZ33" s="16"/>
-      <c r="ABA33" s="16"/>
-      <c r="ABB33" s="16"/>
-      <c r="ABC33" s="16"/>
-      <c r="ABD33" s="16"/>
-      <c r="ABE33" s="16"/>
-      <c r="ABF33" s="16"/>
-      <c r="ABG33" s="16"/>
-      <c r="ABH33" s="16"/>
-      <c r="ABI33" s="16"/>
-      <c r="ABJ33" s="16"/>
-      <c r="ABK33" s="16"/>
-      <c r="ABL33" s="16"/>
-      <c r="ABM33" s="16"/>
-      <c r="ABN33" s="16"/>
-      <c r="ABO33" s="16"/>
-      <c r="ABP33" s="16"/>
-      <c r="ABQ33" s="16"/>
-      <c r="ABR33" s="16"/>
-      <c r="ABS33" s="16"/>
-      <c r="ABT33" s="16"/>
-      <c r="ABU33" s="16"/>
-      <c r="ABV33" s="16"/>
-      <c r="ABW33" s="16"/>
-      <c r="ABX33" s="16"/>
-      <c r="ABY33" s="16"/>
-      <c r="ABZ33" s="16"/>
-      <c r="ACA33" s="16"/>
-      <c r="ACB33" s="16"/>
-      <c r="ACC33" s="16"/>
-      <c r="ACD33" s="16"/>
-      <c r="ACE33" s="16"/>
-      <c r="ACF33" s="16"/>
-      <c r="ACG33" s="16"/>
-      <c r="ACH33" s="16"/>
-      <c r="ACI33" s="16"/>
-      <c r="ACJ33" s="16"/>
-      <c r="ACK33" s="16"/>
-      <c r="ACL33" s="16"/>
-      <c r="ACM33" s="16"/>
-      <c r="ACN33" s="16"/>
-      <c r="ACO33" s="16"/>
-      <c r="ACP33" s="16"/>
-      <c r="ACQ33" s="16"/>
-      <c r="ACR33" s="16"/>
-      <c r="ACS33" s="16"/>
-      <c r="ACT33" s="16"/>
-      <c r="ACU33" s="16"/>
-      <c r="ACV33" s="16"/>
-      <c r="ACW33" s="16"/>
-      <c r="ACX33" s="16"/>
-      <c r="ACY33" s="16"/>
-      <c r="ACZ33" s="16"/>
-      <c r="ADA33" s="16"/>
-      <c r="ADB33" s="16"/>
-      <c r="ADC33" s="16"/>
-      <c r="ADD33" s="16"/>
-      <c r="ADE33" s="16"/>
-      <c r="ADF33" s="16"/>
-      <c r="ADG33" s="16"/>
-      <c r="ADH33" s="16"/>
-      <c r="ADI33" s="16"/>
-      <c r="ADJ33" s="16"/>
-      <c r="ADK33" s="16"/>
-      <c r="ADL33" s="16"/>
-      <c r="ADM33" s="16"/>
-      <c r="ADN33" s="16"/>
-      <c r="ADO33" s="16"/>
-      <c r="ADP33" s="16"/>
-      <c r="ADQ33" s="16"/>
-      <c r="ADR33" s="16"/>
-      <c r="ADS33" s="16"/>
-      <c r="ADT33" s="16"/>
-      <c r="ADU33" s="16"/>
-      <c r="ADV33" s="16"/>
-      <c r="ADW33" s="16"/>
-      <c r="ADX33" s="16"/>
-      <c r="ADY33" s="16"/>
-      <c r="ADZ33" s="16"/>
-      <c r="AEA33" s="16"/>
-      <c r="AEB33" s="16"/>
-      <c r="AEC33" s="16"/>
-      <c r="AED33" s="16"/>
-      <c r="AEE33" s="16"/>
-      <c r="AEF33" s="16"/>
-      <c r="AEG33" s="16"/>
-      <c r="AEH33" s="16"/>
-      <c r="AEI33" s="16"/>
-      <c r="AEJ33" s="16"/>
-      <c r="AEK33" s="16"/>
-      <c r="AEL33" s="16"/>
-      <c r="AEM33" s="16"/>
-      <c r="AEN33" s="16"/>
-      <c r="AEO33" s="16"/>
-      <c r="AEP33" s="16"/>
-      <c r="AEQ33" s="16"/>
-      <c r="AER33" s="16"/>
-      <c r="AES33" s="16"/>
-      <c r="AET33" s="16"/>
-      <c r="AEU33" s="16"/>
-      <c r="AEV33" s="16"/>
-      <c r="AEW33" s="16"/>
-      <c r="AEX33" s="16"/>
-      <c r="AEY33" s="16"/>
-      <c r="AEZ33" s="16"/>
-      <c r="AFA33" s="16"/>
-      <c r="AFB33" s="16"/>
-      <c r="AFC33" s="16"/>
-      <c r="AFD33" s="16"/>
-      <c r="AFE33" s="16"/>
-      <c r="AFF33" s="16"/>
-      <c r="AFG33" s="16"/>
-      <c r="AFH33" s="16"/>
-      <c r="AFI33" s="16"/>
-      <c r="AFJ33" s="16"/>
-      <c r="AFK33" s="16"/>
-      <c r="AFL33" s="16"/>
-      <c r="AFM33" s="16"/>
-      <c r="AFN33" s="16"/>
-      <c r="AFO33" s="16"/>
-      <c r="AFP33" s="16"/>
-      <c r="AFQ33" s="16"/>
-      <c r="AFR33" s="16"/>
-      <c r="AFS33" s="16"/>
-      <c r="AFT33" s="16"/>
-      <c r="AFU33" s="16"/>
-      <c r="AFV33" s="16"/>
-      <c r="AFW33" s="16"/>
-      <c r="AFX33" s="16"/>
-      <c r="AFY33" s="16"/>
-      <c r="AFZ33" s="16"/>
-      <c r="AGA33" s="16"/>
-      <c r="AGB33" s="16"/>
-      <c r="AGC33" s="16"/>
-      <c r="AGD33" s="16"/>
-      <c r="AGE33" s="16"/>
-      <c r="AGF33" s="16"/>
-      <c r="AGG33" s="16"/>
-      <c r="AGH33" s="16"/>
-      <c r="AGI33" s="16"/>
-      <c r="AGJ33" s="16"/>
-      <c r="AGK33" s="16"/>
-      <c r="AGL33" s="16"/>
-      <c r="AGM33" s="16"/>
-      <c r="AGN33" s="16"/>
-      <c r="AGO33" s="16"/>
-      <c r="AGP33" s="16"/>
-      <c r="AGQ33" s="16"/>
-      <c r="AGR33" s="16"/>
-      <c r="AGS33" s="16"/>
-      <c r="AGT33" s="16"/>
-      <c r="AGU33" s="16"/>
-      <c r="AGV33" s="16"/>
-      <c r="AGW33" s="16"/>
-      <c r="AGX33" s="16"/>
-      <c r="AGY33" s="16"/>
-      <c r="AGZ33" s="16"/>
-      <c r="AHA33" s="16"/>
-      <c r="AHB33" s="16"/>
-      <c r="AHC33" s="16"/>
-      <c r="AHD33" s="16"/>
-      <c r="AHE33" s="16"/>
-      <c r="AHF33" s="16"/>
-      <c r="AHG33" s="16"/>
-      <c r="AHH33" s="16"/>
-      <c r="AHI33" s="16"/>
-      <c r="AHJ33" s="16"/>
-      <c r="AHK33" s="16"/>
-      <c r="AHL33" s="16"/>
-      <c r="AHM33" s="16"/>
-      <c r="AHN33" s="16"/>
-      <c r="AHO33" s="16"/>
-      <c r="AHP33" s="16"/>
-      <c r="AHQ33" s="16"/>
-      <c r="AHR33" s="16"/>
-      <c r="AHS33" s="16"/>
-      <c r="AHT33" s="16"/>
-      <c r="AHU33" s="16"/>
-      <c r="AHV33" s="16"/>
-      <c r="AHW33" s="16"/>
-      <c r="AHX33" s="16"/>
-      <c r="AHY33" s="16"/>
-      <c r="AHZ33" s="16"/>
-      <c r="AIA33" s="16"/>
-      <c r="AIB33" s="16"/>
-      <c r="AIC33" s="16"/>
-      <c r="AID33" s="16"/>
-      <c r="AIE33" s="16"/>
-      <c r="AIF33" s="16"/>
-      <c r="AIG33" s="16"/>
-      <c r="AIH33" s="16"/>
-      <c r="AII33" s="16"/>
-      <c r="AIJ33" s="16"/>
-      <c r="AIK33" s="16"/>
-      <c r="AIL33" s="16"/>
-      <c r="AIM33" s="16"/>
-      <c r="AIN33" s="16"/>
-      <c r="AIO33" s="16"/>
-      <c r="AIP33" s="16"/>
-      <c r="AIQ33" s="16"/>
-      <c r="AIR33" s="16"/>
-      <c r="AIS33" s="16"/>
-      <c r="AIT33" s="16"/>
-      <c r="AIU33" s="16"/>
-      <c r="AIV33" s="16"/>
-      <c r="AIW33" s="16"/>
-      <c r="AIX33" s="16"/>
-      <c r="AIY33" s="16"/>
-      <c r="AIZ33" s="16"/>
-      <c r="AJA33" s="16"/>
-      <c r="AJB33" s="16"/>
-      <c r="AJC33" s="16"/>
-      <c r="AJD33" s="16"/>
-      <c r="AJE33" s="16"/>
-      <c r="AJF33" s="16"/>
-      <c r="AJG33" s="16"/>
-      <c r="AJH33" s="16"/>
-      <c r="AJI33" s="16"/>
-      <c r="AJJ33" s="16"/>
-      <c r="AJK33" s="16"/>
-      <c r="AJL33" s="16"/>
-      <c r="AJM33" s="16"/>
-      <c r="AJN33" s="16"/>
-      <c r="AJO33" s="16"/>
-      <c r="AJP33" s="16"/>
-      <c r="AJQ33" s="16"/>
-      <c r="AJR33" s="16"/>
-      <c r="AJS33" s="16"/>
-      <c r="AJT33" s="16"/>
-      <c r="AJU33" s="16"/>
-      <c r="AJV33" s="16"/>
-      <c r="AJW33" s="16"/>
-      <c r="AJX33" s="16"/>
-      <c r="AJY33" s="16"/>
-      <c r="AJZ33" s="16"/>
-      <c r="AKA33" s="16"/>
-      <c r="AKB33" s="16"/>
-      <c r="AKC33" s="16"/>
-      <c r="AKD33" s="16"/>
-      <c r="AKE33" s="16"/>
-      <c r="AKF33" s="16"/>
-      <c r="AKG33" s="16"/>
-      <c r="AKH33" s="16"/>
-      <c r="AKI33" s="16"/>
-      <c r="AKJ33" s="16"/>
-      <c r="AKK33" s="16"/>
-      <c r="AKL33" s="16"/>
-      <c r="AKM33" s="16"/>
-      <c r="AKN33" s="16"/>
-      <c r="AKO33" s="16"/>
-      <c r="AKP33" s="16"/>
-      <c r="AKQ33" s="16"/>
-      <c r="AKR33" s="16"/>
-      <c r="AKS33" s="16"/>
-      <c r="AKT33" s="16"/>
-      <c r="AKU33" s="16"/>
-      <c r="AKV33" s="16"/>
-      <c r="AKW33" s="16"/>
-      <c r="AKX33" s="16"/>
-      <c r="AKY33" s="16"/>
-      <c r="AKZ33" s="16"/>
-      <c r="ALA33" s="16"/>
-      <c r="ALB33" s="16"/>
-      <c r="ALC33" s="16"/>
-      <c r="ALD33" s="16"/>
-      <c r="ALE33" s="16"/>
-      <c r="ALF33" s="16"/>
-      <c r="ALG33" s="16"/>
-      <c r="ALH33" s="16"/>
-      <c r="ALI33" s="16"/>
-      <c r="ALJ33" s="16"/>
-      <c r="ALK33" s="16"/>
-      <c r="ALL33" s="16"/>
-      <c r="ALM33" s="16"/>
-      <c r="ALN33" s="16"/>
-      <c r="ALO33" s="16"/>
-      <c r="ALP33" s="16"/>
-      <c r="ALQ33" s="16"/>
-      <c r="ALR33" s="16"/>
-      <c r="ALS33" s="16"/>
-      <c r="ALT33" s="16"/>
-      <c r="ALU33" s="16"/>
-      <c r="ALV33" s="16"/>
-      <c r="ALW33" s="16"/>
-      <c r="ALX33" s="16"/>
-      <c r="ALY33" s="16"/>
-      <c r="ALZ33" s="16"/>
-      <c r="AMA33" s="16"/>
-      <c r="AMB33" s="16"/>
-      <c r="AMC33" s="16"/>
-      <c r="AMD33" s="16"/>
-      <c r="AME33" s="16"/>
-      <c r="AMF33" s="16"/>
-      <c r="AMG33" s="16"/>
-      <c r="AMH33" s="16"/>
-      <c r="AMI33" s="16"/>
-      <c r="AMJ33" s="16"/>
-    </row>
-    <row r="34" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+    <row r="33" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>2</v>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>40</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="16"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="16"/>
-      <c r="AH34" s="16"/>
-      <c r="AI34" s="16"/>
-      <c r="AJ34" s="16"/>
-      <c r="AK34" s="16"/>
-      <c r="AL34" s="16"/>
-      <c r="AM34" s="16"/>
-      <c r="AN34" s="16"/>
-      <c r="AO34" s="16"/>
-      <c r="AP34" s="16"/>
-      <c r="AQ34" s="16"/>
-      <c r="AR34" s="16"/>
-      <c r="AS34" s="16"/>
-      <c r="AT34" s="16"/>
-      <c r="AU34" s="16"/>
-      <c r="AV34" s="16"/>
-      <c r="AW34" s="16"/>
-      <c r="AX34" s="16"/>
-      <c r="AY34" s="16"/>
-      <c r="AZ34" s="16"/>
-      <c r="BA34" s="16"/>
-      <c r="BB34" s="16"/>
-      <c r="BC34" s="16"/>
-      <c r="BD34" s="16"/>
-      <c r="BE34" s="16"/>
-      <c r="BF34" s="16"/>
-      <c r="BG34" s="16"/>
-      <c r="BH34" s="16"/>
-      <c r="BI34" s="16"/>
-      <c r="BJ34" s="16"/>
-      <c r="BK34" s="16"/>
-      <c r="BL34" s="16"/>
-      <c r="BM34" s="16"/>
-      <c r="BN34" s="16"/>
-      <c r="BO34" s="16"/>
-      <c r="BP34" s="16"/>
-      <c r="BQ34" s="16"/>
-      <c r="BR34" s="16"/>
-      <c r="BS34" s="16"/>
-      <c r="BT34" s="16"/>
-      <c r="BU34" s="16"/>
-      <c r="BV34" s="16"/>
-      <c r="BW34" s="16"/>
-      <c r="BX34" s="16"/>
-      <c r="BY34" s="16"/>
-      <c r="BZ34" s="16"/>
-      <c r="CA34" s="16"/>
-      <c r="CB34" s="16"/>
-      <c r="CC34" s="16"/>
-      <c r="CD34" s="16"/>
-      <c r="CE34" s="16"/>
-      <c r="CF34" s="16"/>
-      <c r="CG34" s="16"/>
-      <c r="CH34" s="16"/>
-      <c r="CI34" s="16"/>
-      <c r="CJ34" s="16"/>
-      <c r="CK34" s="16"/>
-      <c r="CL34" s="16"/>
-      <c r="CM34" s="16"/>
-      <c r="CN34" s="16"/>
-      <c r="CO34" s="16"/>
-      <c r="CP34" s="16"/>
-      <c r="CQ34" s="16"/>
-      <c r="CR34" s="16"/>
-      <c r="CS34" s="16"/>
-      <c r="CT34" s="16"/>
-      <c r="CU34" s="16"/>
-      <c r="CV34" s="16"/>
-      <c r="CW34" s="16"/>
-      <c r="CX34" s="16"/>
-      <c r="CY34" s="16"/>
-      <c r="CZ34" s="16"/>
-      <c r="DA34" s="16"/>
-      <c r="DB34" s="16"/>
-      <c r="DC34" s="16"/>
-      <c r="DD34" s="16"/>
-      <c r="DE34" s="16"/>
-      <c r="DF34" s="16"/>
-      <c r="DG34" s="16"/>
-      <c r="DH34" s="16"/>
-      <c r="DI34" s="16"/>
-      <c r="DJ34" s="16"/>
-      <c r="DK34" s="16"/>
-      <c r="DL34" s="16"/>
-      <c r="DM34" s="16"/>
-      <c r="DN34" s="16"/>
-      <c r="DO34" s="16"/>
-      <c r="DP34" s="16"/>
-      <c r="DQ34" s="16"/>
-      <c r="DR34" s="16"/>
-      <c r="DS34" s="16"/>
-      <c r="DT34" s="16"/>
-      <c r="DU34" s="16"/>
-      <c r="DV34" s="16"/>
-      <c r="DW34" s="16"/>
-      <c r="DX34" s="16"/>
-      <c r="DY34" s="16"/>
-      <c r="DZ34" s="16"/>
-      <c r="EA34" s="16"/>
-      <c r="EB34" s="16"/>
-      <c r="EC34" s="16"/>
-      <c r="ED34" s="16"/>
-      <c r="EE34" s="16"/>
-      <c r="EF34" s="16"/>
-      <c r="EG34" s="16"/>
-      <c r="EH34" s="16"/>
-      <c r="EI34" s="16"/>
-      <c r="EJ34" s="16"/>
-      <c r="EK34" s="16"/>
-      <c r="EL34" s="16"/>
-      <c r="EM34" s="16"/>
-      <c r="EN34" s="16"/>
-      <c r="EO34" s="16"/>
-      <c r="EP34" s="16"/>
-      <c r="EQ34" s="16"/>
-      <c r="ER34" s="16"/>
-      <c r="ES34" s="16"/>
-      <c r="ET34" s="16"/>
-      <c r="EU34" s="16"/>
-      <c r="EV34" s="16"/>
-      <c r="EW34" s="16"/>
-      <c r="EX34" s="16"/>
-      <c r="EY34" s="16"/>
-      <c r="EZ34" s="16"/>
-      <c r="FA34" s="16"/>
-      <c r="FB34" s="16"/>
-      <c r="FC34" s="16"/>
-      <c r="FD34" s="16"/>
-      <c r="FE34" s="16"/>
-      <c r="FF34" s="16"/>
-      <c r="FG34" s="16"/>
-      <c r="FH34" s="16"/>
-      <c r="FI34" s="16"/>
-      <c r="FJ34" s="16"/>
-      <c r="FK34" s="16"/>
-      <c r="FL34" s="16"/>
-      <c r="FM34" s="16"/>
-      <c r="FN34" s="16"/>
-      <c r="FO34" s="16"/>
-      <c r="FP34" s="16"/>
-      <c r="FQ34" s="16"/>
-      <c r="FR34" s="16"/>
-      <c r="FS34" s="16"/>
-      <c r="FT34" s="16"/>
-      <c r="FU34" s="16"/>
-      <c r="FV34" s="16"/>
-      <c r="FW34" s="16"/>
-      <c r="FX34" s="16"/>
-      <c r="FY34" s="16"/>
-      <c r="FZ34" s="16"/>
-      <c r="GA34" s="16"/>
-      <c r="GB34" s="16"/>
-      <c r="GC34" s="16"/>
-      <c r="GD34" s="16"/>
-      <c r="GE34" s="16"/>
-      <c r="GF34" s="16"/>
-      <c r="GG34" s="16"/>
-      <c r="GH34" s="16"/>
-      <c r="GI34" s="16"/>
-      <c r="GJ34" s="16"/>
-      <c r="GK34" s="16"/>
-      <c r="GL34" s="16"/>
-      <c r="GM34" s="16"/>
-      <c r="GN34" s="16"/>
-      <c r="GO34" s="16"/>
-      <c r="GP34" s="16"/>
-      <c r="GQ34" s="16"/>
-      <c r="GR34" s="16"/>
-      <c r="GS34" s="16"/>
-      <c r="GT34" s="16"/>
-      <c r="GU34" s="16"/>
-      <c r="GV34" s="16"/>
-      <c r="GW34" s="16"/>
-      <c r="GX34" s="16"/>
-      <c r="GY34" s="16"/>
-      <c r="GZ34" s="16"/>
-      <c r="HA34" s="16"/>
-      <c r="HB34" s="16"/>
-      <c r="HC34" s="16"/>
-      <c r="HD34" s="16"/>
-      <c r="HE34" s="16"/>
-      <c r="HF34" s="16"/>
-      <c r="HG34" s="16"/>
-      <c r="HH34" s="16"/>
-      <c r="HI34" s="16"/>
-      <c r="HJ34" s="16"/>
-      <c r="HK34" s="16"/>
-      <c r="HL34" s="16"/>
-      <c r="HM34" s="16"/>
-      <c r="HN34" s="16"/>
-      <c r="HO34" s="16"/>
-      <c r="HP34" s="16"/>
-      <c r="HQ34" s="16"/>
-      <c r="HR34" s="16"/>
-      <c r="HS34" s="16"/>
-      <c r="HT34" s="16"/>
-      <c r="HU34" s="16"/>
-      <c r="HV34" s="16"/>
-      <c r="HW34" s="16"/>
-      <c r="HX34" s="16"/>
-      <c r="HY34" s="16"/>
-      <c r="HZ34" s="16"/>
-      <c r="IA34" s="16"/>
-      <c r="IB34" s="16"/>
-      <c r="IC34" s="16"/>
-      <c r="ID34" s="16"/>
-      <c r="IE34" s="16"/>
-      <c r="IF34" s="16"/>
-      <c r="IG34" s="16"/>
-      <c r="IH34" s="16"/>
-      <c r="II34" s="16"/>
-      <c r="IJ34" s="16"/>
-      <c r="IK34" s="16"/>
-      <c r="IL34" s="16"/>
-      <c r="IM34" s="16"/>
-      <c r="IN34" s="16"/>
-      <c r="IO34" s="16"/>
-      <c r="IP34" s="16"/>
-      <c r="IQ34" s="16"/>
-      <c r="IR34" s="16"/>
-      <c r="IS34" s="16"/>
-      <c r="IT34" s="16"/>
-      <c r="IU34" s="16"/>
-      <c r="IV34" s="16"/>
-      <c r="IW34" s="16"/>
-      <c r="IX34" s="16"/>
-      <c r="IY34" s="16"/>
-      <c r="IZ34" s="16"/>
-      <c r="JA34" s="16"/>
-      <c r="JB34" s="16"/>
-      <c r="JC34" s="16"/>
-      <c r="JD34" s="16"/>
-      <c r="JE34" s="16"/>
-      <c r="JF34" s="16"/>
-      <c r="JG34" s="16"/>
-      <c r="JH34" s="16"/>
-      <c r="JI34" s="16"/>
-      <c r="JJ34" s="16"/>
-      <c r="JK34" s="16"/>
-      <c r="JL34" s="16"/>
-      <c r="JM34" s="16"/>
-      <c r="JN34" s="16"/>
-      <c r="JO34" s="16"/>
-      <c r="JP34" s="16"/>
-      <c r="JQ34" s="16"/>
-      <c r="JR34" s="16"/>
-      <c r="JS34" s="16"/>
-      <c r="JT34" s="16"/>
-      <c r="JU34" s="16"/>
-      <c r="JV34" s="16"/>
-      <c r="JW34" s="16"/>
-      <c r="JX34" s="16"/>
-      <c r="JY34" s="16"/>
-      <c r="JZ34" s="16"/>
-      <c r="KA34" s="16"/>
-      <c r="KB34" s="16"/>
-      <c r="KC34" s="16"/>
-      <c r="KD34" s="16"/>
-      <c r="KE34" s="16"/>
-      <c r="KF34" s="16"/>
-      <c r="KG34" s="16"/>
-      <c r="KH34" s="16"/>
-      <c r="KI34" s="16"/>
-      <c r="KJ34" s="16"/>
-      <c r="KK34" s="16"/>
-      <c r="KL34" s="16"/>
-      <c r="KM34" s="16"/>
-      <c r="KN34" s="16"/>
-      <c r="KO34" s="16"/>
-      <c r="KP34" s="16"/>
-      <c r="KQ34" s="16"/>
-      <c r="KR34" s="16"/>
-      <c r="KS34" s="16"/>
-      <c r="KT34" s="16"/>
-      <c r="KU34" s="16"/>
-      <c r="KV34" s="16"/>
-      <c r="KW34" s="16"/>
-      <c r="KX34" s="16"/>
-      <c r="KY34" s="16"/>
-      <c r="KZ34" s="16"/>
-      <c r="LA34" s="16"/>
-      <c r="LB34" s="16"/>
-      <c r="LC34" s="16"/>
-      <c r="LD34" s="16"/>
-      <c r="LE34" s="16"/>
-      <c r="LF34" s="16"/>
-      <c r="LG34" s="16"/>
-      <c r="LH34" s="16"/>
-      <c r="LI34" s="16"/>
-      <c r="LJ34" s="16"/>
-      <c r="LK34" s="16"/>
-      <c r="LL34" s="16"/>
-      <c r="LM34" s="16"/>
-      <c r="LN34" s="16"/>
-      <c r="LO34" s="16"/>
-      <c r="LP34" s="16"/>
-      <c r="LQ34" s="16"/>
-      <c r="LR34" s="16"/>
-      <c r="LS34" s="16"/>
-      <c r="LT34" s="16"/>
-      <c r="LU34" s="16"/>
-      <c r="LV34" s="16"/>
-      <c r="LW34" s="16"/>
-      <c r="LX34" s="16"/>
-      <c r="LY34" s="16"/>
-      <c r="LZ34" s="16"/>
-      <c r="MA34" s="16"/>
-      <c r="MB34" s="16"/>
-      <c r="MC34" s="16"/>
-      <c r="MD34" s="16"/>
-      <c r="ME34" s="16"/>
-      <c r="MF34" s="16"/>
-      <c r="MG34" s="16"/>
-      <c r="MH34" s="16"/>
-      <c r="MI34" s="16"/>
-      <c r="MJ34" s="16"/>
-      <c r="MK34" s="16"/>
-      <c r="ML34" s="16"/>
-      <c r="MM34" s="16"/>
-      <c r="MN34" s="16"/>
-      <c r="MO34" s="16"/>
-      <c r="MP34" s="16"/>
-      <c r="MQ34" s="16"/>
-      <c r="MR34" s="16"/>
-      <c r="MS34" s="16"/>
-      <c r="MT34" s="16"/>
-      <c r="MU34" s="16"/>
-      <c r="MV34" s="16"/>
-      <c r="MW34" s="16"/>
-      <c r="MX34" s="16"/>
-      <c r="MY34" s="16"/>
-      <c r="MZ34" s="16"/>
-      <c r="NA34" s="16"/>
-      <c r="NB34" s="16"/>
-      <c r="NC34" s="16"/>
-      <c r="ND34" s="16"/>
-      <c r="NE34" s="16"/>
-      <c r="NF34" s="16"/>
-      <c r="NG34" s="16"/>
-      <c r="NH34" s="16"/>
-      <c r="NI34" s="16"/>
-      <c r="NJ34" s="16"/>
-      <c r="NK34" s="16"/>
-      <c r="NL34" s="16"/>
-      <c r="NM34" s="16"/>
-      <c r="NN34" s="16"/>
-      <c r="NO34" s="16"/>
-      <c r="NP34" s="16"/>
-      <c r="NQ34" s="16"/>
-      <c r="NR34" s="16"/>
-      <c r="NS34" s="16"/>
-      <c r="NT34" s="16"/>
-      <c r="NU34" s="16"/>
-      <c r="NV34" s="16"/>
-      <c r="NW34" s="16"/>
-      <c r="NX34" s="16"/>
-      <c r="NY34" s="16"/>
-      <c r="NZ34" s="16"/>
-      <c r="OA34" s="16"/>
-      <c r="OB34" s="16"/>
-      <c r="OC34" s="16"/>
-      <c r="OD34" s="16"/>
-      <c r="OE34" s="16"/>
-      <c r="OF34" s="16"/>
-      <c r="OG34" s="16"/>
-      <c r="OH34" s="16"/>
-      <c r="OI34" s="16"/>
-      <c r="OJ34" s="16"/>
-      <c r="OK34" s="16"/>
-      <c r="OL34" s="16"/>
-      <c r="OM34" s="16"/>
-      <c r="ON34" s="16"/>
-      <c r="OO34" s="16"/>
-      <c r="OP34" s="16"/>
-      <c r="OQ34" s="16"/>
-      <c r="OR34" s="16"/>
-      <c r="OS34" s="16"/>
-      <c r="OT34" s="16"/>
-      <c r="OU34" s="16"/>
-      <c r="OV34" s="16"/>
-      <c r="OW34" s="16"/>
-      <c r="OX34" s="16"/>
-      <c r="OY34" s="16"/>
-      <c r="OZ34" s="16"/>
-      <c r="PA34" s="16"/>
-      <c r="PB34" s="16"/>
-      <c r="PC34" s="16"/>
-      <c r="PD34" s="16"/>
-      <c r="PE34" s="16"/>
-      <c r="PF34" s="16"/>
-      <c r="PG34" s="16"/>
-      <c r="PH34" s="16"/>
-      <c r="PI34" s="16"/>
-      <c r="PJ34" s="16"/>
-      <c r="PK34" s="16"/>
-      <c r="PL34" s="16"/>
-      <c r="PM34" s="16"/>
-      <c r="PN34" s="16"/>
-      <c r="PO34" s="16"/>
-      <c r="PP34" s="16"/>
-      <c r="PQ34" s="16"/>
-      <c r="PR34" s="16"/>
-      <c r="PS34" s="16"/>
-      <c r="PT34" s="16"/>
-      <c r="PU34" s="16"/>
-      <c r="PV34" s="16"/>
-      <c r="PW34" s="16"/>
-      <c r="PX34" s="16"/>
-      <c r="PY34" s="16"/>
-      <c r="PZ34" s="16"/>
-      <c r="QA34" s="16"/>
-      <c r="QB34" s="16"/>
-      <c r="QC34" s="16"/>
-      <c r="QD34" s="16"/>
-      <c r="QE34" s="16"/>
-      <c r="QF34" s="16"/>
-      <c r="QG34" s="16"/>
-      <c r="QH34" s="16"/>
-      <c r="QI34" s="16"/>
-      <c r="QJ34" s="16"/>
-      <c r="QK34" s="16"/>
-      <c r="QL34" s="16"/>
-      <c r="QM34" s="16"/>
-      <c r="QN34" s="16"/>
-      <c r="QO34" s="16"/>
-      <c r="QP34" s="16"/>
-      <c r="QQ34" s="16"/>
-      <c r="QR34" s="16"/>
-      <c r="QS34" s="16"/>
-      <c r="QT34" s="16"/>
-      <c r="QU34" s="16"/>
-      <c r="QV34" s="16"/>
-      <c r="QW34" s="16"/>
-      <c r="QX34" s="16"/>
-      <c r="QY34" s="16"/>
-      <c r="QZ34" s="16"/>
-      <c r="RA34" s="16"/>
-      <c r="RB34" s="16"/>
-      <c r="RC34" s="16"/>
-      <c r="RD34" s="16"/>
-      <c r="RE34" s="16"/>
-      <c r="RF34" s="16"/>
-      <c r="RG34" s="16"/>
-      <c r="RH34" s="16"/>
-      <c r="RI34" s="16"/>
-      <c r="RJ34" s="16"/>
-      <c r="RK34" s="16"/>
-      <c r="RL34" s="16"/>
-      <c r="RM34" s="16"/>
-      <c r="RN34" s="16"/>
-      <c r="RO34" s="16"/>
-      <c r="RP34" s="16"/>
-      <c r="RQ34" s="16"/>
-      <c r="RR34" s="16"/>
-      <c r="RS34" s="16"/>
-      <c r="RT34" s="16"/>
-      <c r="RU34" s="16"/>
-      <c r="RV34" s="16"/>
-      <c r="RW34" s="16"/>
-      <c r="RX34" s="16"/>
-      <c r="RY34" s="16"/>
-      <c r="RZ34" s="16"/>
-      <c r="SA34" s="16"/>
-      <c r="SB34" s="16"/>
-      <c r="SC34" s="16"/>
-      <c r="SD34" s="16"/>
-      <c r="SE34" s="16"/>
-      <c r="SF34" s="16"/>
-      <c r="SG34" s="16"/>
-      <c r="SH34" s="16"/>
-      <c r="SI34" s="16"/>
-      <c r="SJ34" s="16"/>
-      <c r="SK34" s="16"/>
-      <c r="SL34" s="16"/>
-      <c r="SM34" s="16"/>
-      <c r="SN34" s="16"/>
-      <c r="SO34" s="16"/>
-      <c r="SP34" s="16"/>
-      <c r="SQ34" s="16"/>
-      <c r="SR34" s="16"/>
-      <c r="SS34" s="16"/>
-      <c r="ST34" s="16"/>
-      <c r="SU34" s="16"/>
-      <c r="SV34" s="16"/>
-      <c r="SW34" s="16"/>
-      <c r="SX34" s="16"/>
-      <c r="SY34" s="16"/>
-      <c r="SZ34" s="16"/>
-      <c r="TA34" s="16"/>
-      <c r="TB34" s="16"/>
-      <c r="TC34" s="16"/>
-      <c r="TD34" s="16"/>
-      <c r="TE34" s="16"/>
-      <c r="TF34" s="16"/>
-      <c r="TG34" s="16"/>
-      <c r="TH34" s="16"/>
-      <c r="TI34" s="16"/>
-      <c r="TJ34" s="16"/>
-      <c r="TK34" s="16"/>
-      <c r="TL34" s="16"/>
-      <c r="TM34" s="16"/>
-      <c r="TN34" s="16"/>
-      <c r="TO34" s="16"/>
-      <c r="TP34" s="16"/>
-      <c r="TQ34" s="16"/>
-      <c r="TR34" s="16"/>
-      <c r="TS34" s="16"/>
-      <c r="TT34" s="16"/>
-      <c r="TU34" s="16"/>
-      <c r="TV34" s="16"/>
-      <c r="TW34" s="16"/>
-      <c r="TX34" s="16"/>
-      <c r="TY34" s="16"/>
-      <c r="TZ34" s="16"/>
-      <c r="UA34" s="16"/>
-      <c r="UB34" s="16"/>
-      <c r="UC34" s="16"/>
-      <c r="UD34" s="16"/>
-      <c r="UE34" s="16"/>
-      <c r="UF34" s="16"/>
-      <c r="UG34" s="16"/>
-      <c r="UH34" s="16"/>
-      <c r="UI34" s="16"/>
-      <c r="UJ34" s="16"/>
-      <c r="UK34" s="16"/>
-      <c r="UL34" s="16"/>
-      <c r="UM34" s="16"/>
-      <c r="UN34" s="16"/>
-      <c r="UO34" s="16"/>
-      <c r="UP34" s="16"/>
-      <c r="UQ34" s="16"/>
-      <c r="UR34" s="16"/>
-      <c r="US34" s="16"/>
-      <c r="UT34" s="16"/>
-      <c r="UU34" s="16"/>
-      <c r="UV34" s="16"/>
-      <c r="UW34" s="16"/>
-      <c r="UX34" s="16"/>
-      <c r="UY34" s="16"/>
-      <c r="UZ34" s="16"/>
-      <c r="VA34" s="16"/>
-      <c r="VB34" s="16"/>
-      <c r="VC34" s="16"/>
-      <c r="VD34" s="16"/>
-      <c r="VE34" s="16"/>
-      <c r="VF34" s="16"/>
-      <c r="VG34" s="16"/>
-      <c r="VH34" s="16"/>
-      <c r="VI34" s="16"/>
-      <c r="VJ34" s="16"/>
-      <c r="VK34" s="16"/>
-      <c r="VL34" s="16"/>
-      <c r="VM34" s="16"/>
-      <c r="VN34" s="16"/>
-      <c r="VO34" s="16"/>
-      <c r="VP34" s="16"/>
-      <c r="VQ34" s="16"/>
-      <c r="VR34" s="16"/>
-      <c r="VS34" s="16"/>
-      <c r="VT34" s="16"/>
-      <c r="VU34" s="16"/>
-      <c r="VV34" s="16"/>
-      <c r="VW34" s="16"/>
-      <c r="VX34" s="16"/>
-      <c r="VY34" s="16"/>
-      <c r="VZ34" s="16"/>
-      <c r="WA34" s="16"/>
-      <c r="WB34" s="16"/>
-      <c r="WC34" s="16"/>
-      <c r="WD34" s="16"/>
-      <c r="WE34" s="16"/>
-      <c r="WF34" s="16"/>
-      <c r="WG34" s="16"/>
-      <c r="WH34" s="16"/>
-      <c r="WI34" s="16"/>
-      <c r="WJ34" s="16"/>
-      <c r="WK34" s="16"/>
-      <c r="WL34" s="16"/>
-      <c r="WM34" s="16"/>
-      <c r="WN34" s="16"/>
-      <c r="WO34" s="16"/>
-      <c r="WP34" s="16"/>
-      <c r="WQ34" s="16"/>
-      <c r="WR34" s="16"/>
-      <c r="WS34" s="16"/>
-      <c r="WT34" s="16"/>
-      <c r="WU34" s="16"/>
-      <c r="WV34" s="16"/>
-      <c r="WW34" s="16"/>
-      <c r="WX34" s="16"/>
-      <c r="WY34" s="16"/>
-      <c r="WZ34" s="16"/>
-      <c r="XA34" s="16"/>
-      <c r="XB34" s="16"/>
-      <c r="XC34" s="16"/>
-      <c r="XD34" s="16"/>
-      <c r="XE34" s="16"/>
-      <c r="XF34" s="16"/>
-      <c r="XG34" s="16"/>
-      <c r="XH34" s="16"/>
-      <c r="XI34" s="16"/>
-      <c r="XJ34" s="16"/>
-      <c r="XK34" s="16"/>
-      <c r="XL34" s="16"/>
-      <c r="XM34" s="16"/>
-      <c r="XN34" s="16"/>
-      <c r="XO34" s="16"/>
-      <c r="XP34" s="16"/>
-      <c r="XQ34" s="16"/>
-      <c r="XR34" s="16"/>
-      <c r="XS34" s="16"/>
-      <c r="XT34" s="16"/>
-      <c r="XU34" s="16"/>
-      <c r="XV34" s="16"/>
-      <c r="XW34" s="16"/>
-      <c r="XX34" s="16"/>
-      <c r="XY34" s="16"/>
-      <c r="XZ34" s="16"/>
-      <c r="YA34" s="16"/>
-      <c r="YB34" s="16"/>
-      <c r="YC34" s="16"/>
-      <c r="YD34" s="16"/>
-      <c r="YE34" s="16"/>
-      <c r="YF34" s="16"/>
-      <c r="YG34" s="16"/>
-      <c r="YH34" s="16"/>
-      <c r="YI34" s="16"/>
-      <c r="YJ34" s="16"/>
-      <c r="YK34" s="16"/>
-      <c r="YL34" s="16"/>
-      <c r="YM34" s="16"/>
-      <c r="YN34" s="16"/>
-      <c r="YO34" s="16"/>
-      <c r="YP34" s="16"/>
-      <c r="YQ34" s="16"/>
-      <c r="YR34" s="16"/>
-      <c r="YS34" s="16"/>
-      <c r="YT34" s="16"/>
-      <c r="YU34" s="16"/>
-      <c r="YV34" s="16"/>
-      <c r="YW34" s="16"/>
-      <c r="YX34" s="16"/>
-      <c r="YY34" s="16"/>
-      <c r="YZ34" s="16"/>
-      <c r="ZA34" s="16"/>
-      <c r="ZB34" s="16"/>
-      <c r="ZC34" s="16"/>
-      <c r="ZD34" s="16"/>
-      <c r="ZE34" s="16"/>
-      <c r="ZF34" s="16"/>
-      <c r="ZG34" s="16"/>
-      <c r="ZH34" s="16"/>
-      <c r="ZI34" s="16"/>
-      <c r="ZJ34" s="16"/>
-      <c r="ZK34" s="16"/>
-      <c r="ZL34" s="16"/>
-      <c r="ZM34" s="16"/>
-      <c r="ZN34" s="16"/>
-      <c r="ZO34" s="16"/>
-      <c r="ZP34" s="16"/>
-      <c r="ZQ34" s="16"/>
-      <c r="ZR34" s="16"/>
-      <c r="ZS34" s="16"/>
-      <c r="ZT34" s="16"/>
-      <c r="ZU34" s="16"/>
-      <c r="ZV34" s="16"/>
-      <c r="ZW34" s="16"/>
-      <c r="ZX34" s="16"/>
-      <c r="ZY34" s="16"/>
-      <c r="ZZ34" s="16"/>
-      <c r="AAA34" s="16"/>
-      <c r="AAB34" s="16"/>
-      <c r="AAC34" s="16"/>
-      <c r="AAD34" s="16"/>
-      <c r="AAE34" s="16"/>
-      <c r="AAF34" s="16"/>
-      <c r="AAG34" s="16"/>
-      <c r="AAH34" s="16"/>
-      <c r="AAI34" s="16"/>
-      <c r="AAJ34" s="16"/>
-      <c r="AAK34" s="16"/>
-      <c r="AAL34" s="16"/>
-      <c r="AAM34" s="16"/>
-      <c r="AAN34" s="16"/>
-      <c r="AAO34" s="16"/>
-      <c r="AAP34" s="16"/>
-      <c r="AAQ34" s="16"/>
-      <c r="AAR34" s="16"/>
-      <c r="AAS34" s="16"/>
-      <c r="AAT34" s="16"/>
-      <c r="AAU34" s="16"/>
-      <c r="AAV34" s="16"/>
-      <c r="AAW34" s="16"/>
-      <c r="AAX34" s="16"/>
-      <c r="AAY34" s="16"/>
-      <c r="AAZ34" s="16"/>
-      <c r="ABA34" s="16"/>
-      <c r="ABB34" s="16"/>
-      <c r="ABC34" s="16"/>
-      <c r="ABD34" s="16"/>
-      <c r="ABE34" s="16"/>
-      <c r="ABF34" s="16"/>
-      <c r="ABG34" s="16"/>
-      <c r="ABH34" s="16"/>
-      <c r="ABI34" s="16"/>
-      <c r="ABJ34" s="16"/>
-      <c r="ABK34" s="16"/>
-      <c r="ABL34" s="16"/>
-      <c r="ABM34" s="16"/>
-      <c r="ABN34" s="16"/>
-      <c r="ABO34" s="16"/>
-      <c r="ABP34" s="16"/>
-      <c r="ABQ34" s="16"/>
-      <c r="ABR34" s="16"/>
-      <c r="ABS34" s="16"/>
-      <c r="ABT34" s="16"/>
-      <c r="ABU34" s="16"/>
-      <c r="ABV34" s="16"/>
-      <c r="ABW34" s="16"/>
-      <c r="ABX34" s="16"/>
-      <c r="ABY34" s="16"/>
-      <c r="ABZ34" s="16"/>
-      <c r="ACA34" s="16"/>
-      <c r="ACB34" s="16"/>
-      <c r="ACC34" s="16"/>
-      <c r="ACD34" s="16"/>
-      <c r="ACE34" s="16"/>
-      <c r="ACF34" s="16"/>
-      <c r="ACG34" s="16"/>
-      <c r="ACH34" s="16"/>
-      <c r="ACI34" s="16"/>
-      <c r="ACJ34" s="16"/>
-      <c r="ACK34" s="16"/>
-      <c r="ACL34" s="16"/>
-      <c r="ACM34" s="16"/>
-      <c r="ACN34" s="16"/>
-      <c r="ACO34" s="16"/>
-      <c r="ACP34" s="16"/>
-      <c r="ACQ34" s="16"/>
-      <c r="ACR34" s="16"/>
-      <c r="ACS34" s="16"/>
-      <c r="ACT34" s="16"/>
-      <c r="ACU34" s="16"/>
-      <c r="ACV34" s="16"/>
-      <c r="ACW34" s="16"/>
-      <c r="ACX34" s="16"/>
-      <c r="ACY34" s="16"/>
-      <c r="ACZ34" s="16"/>
-      <c r="ADA34" s="16"/>
-      <c r="ADB34" s="16"/>
-      <c r="ADC34" s="16"/>
-      <c r="ADD34" s="16"/>
-      <c r="ADE34" s="16"/>
-      <c r="ADF34" s="16"/>
-      <c r="ADG34" s="16"/>
-      <c r="ADH34" s="16"/>
-      <c r="ADI34" s="16"/>
-      <c r="ADJ34" s="16"/>
-      <c r="ADK34" s="16"/>
-      <c r="ADL34" s="16"/>
-      <c r="ADM34" s="16"/>
-      <c r="ADN34" s="16"/>
-      <c r="ADO34" s="16"/>
-      <c r="ADP34" s="16"/>
-      <c r="ADQ34" s="16"/>
-      <c r="ADR34" s="16"/>
-      <c r="ADS34" s="16"/>
-      <c r="ADT34" s="16"/>
-      <c r="ADU34" s="16"/>
-      <c r="ADV34" s="16"/>
-      <c r="ADW34" s="16"/>
-      <c r="ADX34" s="16"/>
-      <c r="ADY34" s="16"/>
-      <c r="ADZ34" s="16"/>
-      <c r="AEA34" s="16"/>
-      <c r="AEB34" s="16"/>
-      <c r="AEC34" s="16"/>
-      <c r="AED34" s="16"/>
-      <c r="AEE34" s="16"/>
-      <c r="AEF34" s="16"/>
-      <c r="AEG34" s="16"/>
-      <c r="AEH34" s="16"/>
-      <c r="AEI34" s="16"/>
-      <c r="AEJ34" s="16"/>
-      <c r="AEK34" s="16"/>
-      <c r="AEL34" s="16"/>
-      <c r="AEM34" s="16"/>
-      <c r="AEN34" s="16"/>
-      <c r="AEO34" s="16"/>
-      <c r="AEP34" s="16"/>
-      <c r="AEQ34" s="16"/>
-      <c r="AER34" s="16"/>
-      <c r="AES34" s="16"/>
-      <c r="AET34" s="16"/>
-      <c r="AEU34" s="16"/>
-      <c r="AEV34" s="16"/>
-      <c r="AEW34" s="16"/>
-      <c r="AEX34" s="16"/>
-      <c r="AEY34" s="16"/>
-      <c r="AEZ34" s="16"/>
-      <c r="AFA34" s="16"/>
-      <c r="AFB34" s="16"/>
-      <c r="AFC34" s="16"/>
-      <c r="AFD34" s="16"/>
-      <c r="AFE34" s="16"/>
-      <c r="AFF34" s="16"/>
-      <c r="AFG34" s="16"/>
-      <c r="AFH34" s="16"/>
-      <c r="AFI34" s="16"/>
-      <c r="AFJ34" s="16"/>
-      <c r="AFK34" s="16"/>
-      <c r="AFL34" s="16"/>
-      <c r="AFM34" s="16"/>
-      <c r="AFN34" s="16"/>
-      <c r="AFO34" s="16"/>
-      <c r="AFP34" s="16"/>
-      <c r="AFQ34" s="16"/>
-      <c r="AFR34" s="16"/>
-      <c r="AFS34" s="16"/>
-      <c r="AFT34" s="16"/>
-      <c r="AFU34" s="16"/>
-      <c r="AFV34" s="16"/>
-      <c r="AFW34" s="16"/>
-      <c r="AFX34" s="16"/>
-      <c r="AFY34" s="16"/>
-      <c r="AFZ34" s="16"/>
-      <c r="AGA34" s="16"/>
-      <c r="AGB34" s="16"/>
-      <c r="AGC34" s="16"/>
-      <c r="AGD34" s="16"/>
-      <c r="AGE34" s="16"/>
-      <c r="AGF34" s="16"/>
-      <c r="AGG34" s="16"/>
-      <c r="AGH34" s="16"/>
-      <c r="AGI34" s="16"/>
-      <c r="AGJ34" s="16"/>
-      <c r="AGK34" s="16"/>
-      <c r="AGL34" s="16"/>
-      <c r="AGM34" s="16"/>
-      <c r="AGN34" s="16"/>
-      <c r="AGO34" s="16"/>
-      <c r="AGP34" s="16"/>
-      <c r="AGQ34" s="16"/>
-      <c r="AGR34" s="16"/>
-      <c r="AGS34" s="16"/>
-      <c r="AGT34" s="16"/>
-      <c r="AGU34" s="16"/>
-      <c r="AGV34" s="16"/>
-      <c r="AGW34" s="16"/>
-      <c r="AGX34" s="16"/>
-      <c r="AGY34" s="16"/>
-      <c r="AGZ34" s="16"/>
-      <c r="AHA34" s="16"/>
-      <c r="AHB34" s="16"/>
-      <c r="AHC34" s="16"/>
-      <c r="AHD34" s="16"/>
-      <c r="AHE34" s="16"/>
-      <c r="AHF34" s="16"/>
-      <c r="AHG34" s="16"/>
-      <c r="AHH34" s="16"/>
-      <c r="AHI34" s="16"/>
-      <c r="AHJ34" s="16"/>
-      <c r="AHK34" s="16"/>
-      <c r="AHL34" s="16"/>
-      <c r="AHM34" s="16"/>
-      <c r="AHN34" s="16"/>
-      <c r="AHO34" s="16"/>
-      <c r="AHP34" s="16"/>
-      <c r="AHQ34" s="16"/>
-      <c r="AHR34" s="16"/>
-      <c r="AHS34" s="16"/>
-      <c r="AHT34" s="16"/>
-      <c r="AHU34" s="16"/>
-      <c r="AHV34" s="16"/>
-      <c r="AHW34" s="16"/>
-      <c r="AHX34" s="16"/>
-      <c r="AHY34" s="16"/>
-      <c r="AHZ34" s="16"/>
-      <c r="AIA34" s="16"/>
-      <c r="AIB34" s="16"/>
-      <c r="AIC34" s="16"/>
-      <c r="AID34" s="16"/>
-      <c r="AIE34" s="16"/>
-      <c r="AIF34" s="16"/>
-      <c r="AIG34" s="16"/>
-      <c r="AIH34" s="16"/>
-      <c r="AII34" s="16"/>
-      <c r="AIJ34" s="16"/>
-      <c r="AIK34" s="16"/>
-      <c r="AIL34" s="16"/>
-      <c r="AIM34" s="16"/>
-      <c r="AIN34" s="16"/>
-      <c r="AIO34" s="16"/>
-      <c r="AIP34" s="16"/>
-      <c r="AIQ34" s="16"/>
-      <c r="AIR34" s="16"/>
-      <c r="AIS34" s="16"/>
-      <c r="AIT34" s="16"/>
-      <c r="AIU34" s="16"/>
-      <c r="AIV34" s="16"/>
-      <c r="AIW34" s="16"/>
-      <c r="AIX34" s="16"/>
-      <c r="AIY34" s="16"/>
-      <c r="AIZ34" s="16"/>
-      <c r="AJA34" s="16"/>
-      <c r="AJB34" s="16"/>
-      <c r="AJC34" s="16"/>
-      <c r="AJD34" s="16"/>
-      <c r="AJE34" s="16"/>
-      <c r="AJF34" s="16"/>
-      <c r="AJG34" s="16"/>
-      <c r="AJH34" s="16"/>
-      <c r="AJI34" s="16"/>
-      <c r="AJJ34" s="16"/>
-      <c r="AJK34" s="16"/>
-      <c r="AJL34" s="16"/>
-      <c r="AJM34" s="16"/>
-      <c r="AJN34" s="16"/>
-      <c r="AJO34" s="16"/>
-      <c r="AJP34" s="16"/>
-      <c r="AJQ34" s="16"/>
-      <c r="AJR34" s="16"/>
-      <c r="AJS34" s="16"/>
-      <c r="AJT34" s="16"/>
-      <c r="AJU34" s="16"/>
-      <c r="AJV34" s="16"/>
-      <c r="AJW34" s="16"/>
-      <c r="AJX34" s="16"/>
-      <c r="AJY34" s="16"/>
-      <c r="AJZ34" s="16"/>
-      <c r="AKA34" s="16"/>
-      <c r="AKB34" s="16"/>
-      <c r="AKC34" s="16"/>
-      <c r="AKD34" s="16"/>
-      <c r="AKE34" s="16"/>
-      <c r="AKF34" s="16"/>
-      <c r="AKG34" s="16"/>
-      <c r="AKH34" s="16"/>
-      <c r="AKI34" s="16"/>
-      <c r="AKJ34" s="16"/>
-      <c r="AKK34" s="16"/>
-      <c r="AKL34" s="16"/>
-      <c r="AKM34" s="16"/>
-      <c r="AKN34" s="16"/>
-      <c r="AKO34" s="16"/>
-      <c r="AKP34" s="16"/>
-      <c r="AKQ34" s="16"/>
-      <c r="AKR34" s="16"/>
-      <c r="AKS34" s="16"/>
-      <c r="AKT34" s="16"/>
-      <c r="AKU34" s="16"/>
-      <c r="AKV34" s="16"/>
-      <c r="AKW34" s="16"/>
-      <c r="AKX34" s="16"/>
-      <c r="AKY34" s="16"/>
-      <c r="AKZ34" s="16"/>
-      <c r="ALA34" s="16"/>
-      <c r="ALB34" s="16"/>
-      <c r="ALC34" s="16"/>
-      <c r="ALD34" s="16"/>
-      <c r="ALE34" s="16"/>
-      <c r="ALF34" s="16"/>
-      <c r="ALG34" s="16"/>
-      <c r="ALH34" s="16"/>
-      <c r="ALI34" s="16"/>
-      <c r="ALJ34" s="16"/>
-      <c r="ALK34" s="16"/>
-      <c r="ALL34" s="16"/>
-      <c r="ALM34" s="16"/>
-      <c r="ALN34" s="16"/>
-      <c r="ALO34" s="16"/>
-      <c r="ALP34" s="16"/>
-      <c r="ALQ34" s="16"/>
-      <c r="ALR34" s="16"/>
-      <c r="ALS34" s="16"/>
-      <c r="ALT34" s="16"/>
-      <c r="ALU34" s="16"/>
-      <c r="ALV34" s="16"/>
-      <c r="ALW34" s="16"/>
-      <c r="ALX34" s="16"/>
-      <c r="ALY34" s="16"/>
-      <c r="ALZ34" s="16"/>
-      <c r="AMA34" s="16"/>
-      <c r="AMB34" s="16"/>
-      <c r="AMC34" s="16"/>
-      <c r="AMD34" s="16"/>
-      <c r="AME34" s="16"/>
-      <c r="AMF34" s="16"/>
-      <c r="AMG34" s="16"/>
-      <c r="AMH34" s="16"/>
-      <c r="AMI34" s="16"/>
-      <c r="AMJ34" s="16"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -4012,12 +1900,10 @@
       <c r="AMJ35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
-        <v>41</v>
+      <c r="A36" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -5042,12 +2928,10 @@
       <c r="AMJ36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>42</v>
+      <c r="A37" s="15" t="s">
+        <v>43</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -6071,6 +3955,2062 @@
       <c r="AMI37" s="16"/>
       <c r="AMJ37" s="16"/>
     </row>
+    <row r="38" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="16"/>
+      <c r="AO38" s="16"/>
+      <c r="AP38" s="16"/>
+      <c r="AQ38" s="16"/>
+      <c r="AR38" s="16"/>
+      <c r="AS38" s="16"/>
+      <c r="AT38" s="16"/>
+      <c r="AU38" s="16"/>
+      <c r="AV38" s="16"/>
+      <c r="AW38" s="16"/>
+      <c r="AX38" s="16"/>
+      <c r="AY38" s="16"/>
+      <c r="AZ38" s="16"/>
+      <c r="BA38" s="16"/>
+      <c r="BB38" s="16"/>
+      <c r="BC38" s="16"/>
+      <c r="BD38" s="16"/>
+      <c r="BE38" s="16"/>
+      <c r="BF38" s="16"/>
+      <c r="BG38" s="16"/>
+      <c r="BH38" s="16"/>
+      <c r="BI38" s="16"/>
+      <c r="BJ38" s="16"/>
+      <c r="BK38" s="16"/>
+      <c r="BL38" s="16"/>
+      <c r="BM38" s="16"/>
+      <c r="BN38" s="16"/>
+      <c r="BO38" s="16"/>
+      <c r="BP38" s="16"/>
+      <c r="BQ38" s="16"/>
+      <c r="BR38" s="16"/>
+      <c r="BS38" s="16"/>
+      <c r="BT38" s="16"/>
+      <c r="BU38" s="16"/>
+      <c r="BV38" s="16"/>
+      <c r="BW38" s="16"/>
+      <c r="BX38" s="16"/>
+      <c r="BY38" s="16"/>
+      <c r="BZ38" s="16"/>
+      <c r="CA38" s="16"/>
+      <c r="CB38" s="16"/>
+      <c r="CC38" s="16"/>
+      <c r="CD38" s="16"/>
+      <c r="CE38" s="16"/>
+      <c r="CF38" s="16"/>
+      <c r="CG38" s="16"/>
+      <c r="CH38" s="16"/>
+      <c r="CI38" s="16"/>
+      <c r="CJ38" s="16"/>
+      <c r="CK38" s="16"/>
+      <c r="CL38" s="16"/>
+      <c r="CM38" s="16"/>
+      <c r="CN38" s="16"/>
+      <c r="CO38" s="16"/>
+      <c r="CP38" s="16"/>
+      <c r="CQ38" s="16"/>
+      <c r="CR38" s="16"/>
+      <c r="CS38" s="16"/>
+      <c r="CT38" s="16"/>
+      <c r="CU38" s="16"/>
+      <c r="CV38" s="16"/>
+      <c r="CW38" s="16"/>
+      <c r="CX38" s="16"/>
+      <c r="CY38" s="16"/>
+      <c r="CZ38" s="16"/>
+      <c r="DA38" s="16"/>
+      <c r="DB38" s="16"/>
+      <c r="DC38" s="16"/>
+      <c r="DD38" s="16"/>
+      <c r="DE38" s="16"/>
+      <c r="DF38" s="16"/>
+      <c r="DG38" s="16"/>
+      <c r="DH38" s="16"/>
+      <c r="DI38" s="16"/>
+      <c r="DJ38" s="16"/>
+      <c r="DK38" s="16"/>
+      <c r="DL38" s="16"/>
+      <c r="DM38" s="16"/>
+      <c r="DN38" s="16"/>
+      <c r="DO38" s="16"/>
+      <c r="DP38" s="16"/>
+      <c r="DQ38" s="16"/>
+      <c r="DR38" s="16"/>
+      <c r="DS38" s="16"/>
+      <c r="DT38" s="16"/>
+      <c r="DU38" s="16"/>
+      <c r="DV38" s="16"/>
+      <c r="DW38" s="16"/>
+      <c r="DX38" s="16"/>
+      <c r="DY38" s="16"/>
+      <c r="DZ38" s="16"/>
+      <c r="EA38" s="16"/>
+      <c r="EB38" s="16"/>
+      <c r="EC38" s="16"/>
+      <c r="ED38" s="16"/>
+      <c r="EE38" s="16"/>
+      <c r="EF38" s="16"/>
+      <c r="EG38" s="16"/>
+      <c r="EH38" s="16"/>
+      <c r="EI38" s="16"/>
+      <c r="EJ38" s="16"/>
+      <c r="EK38" s="16"/>
+      <c r="EL38" s="16"/>
+      <c r="EM38" s="16"/>
+      <c r="EN38" s="16"/>
+      <c r="EO38" s="16"/>
+      <c r="EP38" s="16"/>
+      <c r="EQ38" s="16"/>
+      <c r="ER38" s="16"/>
+      <c r="ES38" s="16"/>
+      <c r="ET38" s="16"/>
+      <c r="EU38" s="16"/>
+      <c r="EV38" s="16"/>
+      <c r="EW38" s="16"/>
+      <c r="EX38" s="16"/>
+      <c r="EY38" s="16"/>
+      <c r="EZ38" s="16"/>
+      <c r="FA38" s="16"/>
+      <c r="FB38" s="16"/>
+      <c r="FC38" s="16"/>
+      <c r="FD38" s="16"/>
+      <c r="FE38" s="16"/>
+      <c r="FF38" s="16"/>
+      <c r="FG38" s="16"/>
+      <c r="FH38" s="16"/>
+      <c r="FI38" s="16"/>
+      <c r="FJ38" s="16"/>
+      <c r="FK38" s="16"/>
+      <c r="FL38" s="16"/>
+      <c r="FM38" s="16"/>
+      <c r="FN38" s="16"/>
+      <c r="FO38" s="16"/>
+      <c r="FP38" s="16"/>
+      <c r="FQ38" s="16"/>
+      <c r="FR38" s="16"/>
+      <c r="FS38" s="16"/>
+      <c r="FT38" s="16"/>
+      <c r="FU38" s="16"/>
+      <c r="FV38" s="16"/>
+      <c r="FW38" s="16"/>
+      <c r="FX38" s="16"/>
+      <c r="FY38" s="16"/>
+      <c r="FZ38" s="16"/>
+      <c r="GA38" s="16"/>
+      <c r="GB38" s="16"/>
+      <c r="GC38" s="16"/>
+      <c r="GD38" s="16"/>
+      <c r="GE38" s="16"/>
+      <c r="GF38" s="16"/>
+      <c r="GG38" s="16"/>
+      <c r="GH38" s="16"/>
+      <c r="GI38" s="16"/>
+      <c r="GJ38" s="16"/>
+      <c r="GK38" s="16"/>
+      <c r="GL38" s="16"/>
+      <c r="GM38" s="16"/>
+      <c r="GN38" s="16"/>
+      <c r="GO38" s="16"/>
+      <c r="GP38" s="16"/>
+      <c r="GQ38" s="16"/>
+      <c r="GR38" s="16"/>
+      <c r="GS38" s="16"/>
+      <c r="GT38" s="16"/>
+      <c r="GU38" s="16"/>
+      <c r="GV38" s="16"/>
+      <c r="GW38" s="16"/>
+      <c r="GX38" s="16"/>
+      <c r="GY38" s="16"/>
+      <c r="GZ38" s="16"/>
+      <c r="HA38" s="16"/>
+      <c r="HB38" s="16"/>
+      <c r="HC38" s="16"/>
+      <c r="HD38" s="16"/>
+      <c r="HE38" s="16"/>
+      <c r="HF38" s="16"/>
+      <c r="HG38" s="16"/>
+      <c r="HH38" s="16"/>
+      <c r="HI38" s="16"/>
+      <c r="HJ38" s="16"/>
+      <c r="HK38" s="16"/>
+      <c r="HL38" s="16"/>
+      <c r="HM38" s="16"/>
+      <c r="HN38" s="16"/>
+      <c r="HO38" s="16"/>
+      <c r="HP38" s="16"/>
+      <c r="HQ38" s="16"/>
+      <c r="HR38" s="16"/>
+      <c r="HS38" s="16"/>
+      <c r="HT38" s="16"/>
+      <c r="HU38" s="16"/>
+      <c r="HV38" s="16"/>
+      <c r="HW38" s="16"/>
+      <c r="HX38" s="16"/>
+      <c r="HY38" s="16"/>
+      <c r="HZ38" s="16"/>
+      <c r="IA38" s="16"/>
+      <c r="IB38" s="16"/>
+      <c r="IC38" s="16"/>
+      <c r="ID38" s="16"/>
+      <c r="IE38" s="16"/>
+      <c r="IF38" s="16"/>
+      <c r="IG38" s="16"/>
+      <c r="IH38" s="16"/>
+      <c r="II38" s="16"/>
+      <c r="IJ38" s="16"/>
+      <c r="IK38" s="16"/>
+      <c r="IL38" s="16"/>
+      <c r="IM38" s="16"/>
+      <c r="IN38" s="16"/>
+      <c r="IO38" s="16"/>
+      <c r="IP38" s="16"/>
+      <c r="IQ38" s="16"/>
+      <c r="IR38" s="16"/>
+      <c r="IS38" s="16"/>
+      <c r="IT38" s="16"/>
+      <c r="IU38" s="16"/>
+      <c r="IV38" s="16"/>
+      <c r="IW38" s="16"/>
+      <c r="IX38" s="16"/>
+      <c r="IY38" s="16"/>
+      <c r="IZ38" s="16"/>
+      <c r="JA38" s="16"/>
+      <c r="JB38" s="16"/>
+      <c r="JC38" s="16"/>
+      <c r="JD38" s="16"/>
+      <c r="JE38" s="16"/>
+      <c r="JF38" s="16"/>
+      <c r="JG38" s="16"/>
+      <c r="JH38" s="16"/>
+      <c r="JI38" s="16"/>
+      <c r="JJ38" s="16"/>
+      <c r="JK38" s="16"/>
+      <c r="JL38" s="16"/>
+      <c r="JM38" s="16"/>
+      <c r="JN38" s="16"/>
+      <c r="JO38" s="16"/>
+      <c r="JP38" s="16"/>
+      <c r="JQ38" s="16"/>
+      <c r="JR38" s="16"/>
+      <c r="JS38" s="16"/>
+      <c r="JT38" s="16"/>
+      <c r="JU38" s="16"/>
+      <c r="JV38" s="16"/>
+      <c r="JW38" s="16"/>
+      <c r="JX38" s="16"/>
+      <c r="JY38" s="16"/>
+      <c r="JZ38" s="16"/>
+      <c r="KA38" s="16"/>
+      <c r="KB38" s="16"/>
+      <c r="KC38" s="16"/>
+      <c r="KD38" s="16"/>
+      <c r="KE38" s="16"/>
+      <c r="KF38" s="16"/>
+      <c r="KG38" s="16"/>
+      <c r="KH38" s="16"/>
+      <c r="KI38" s="16"/>
+      <c r="KJ38" s="16"/>
+      <c r="KK38" s="16"/>
+      <c r="KL38" s="16"/>
+      <c r="KM38" s="16"/>
+      <c r="KN38" s="16"/>
+      <c r="KO38" s="16"/>
+      <c r="KP38" s="16"/>
+      <c r="KQ38" s="16"/>
+      <c r="KR38" s="16"/>
+      <c r="KS38" s="16"/>
+      <c r="KT38" s="16"/>
+      <c r="KU38" s="16"/>
+      <c r="KV38" s="16"/>
+      <c r="KW38" s="16"/>
+      <c r="KX38" s="16"/>
+      <c r="KY38" s="16"/>
+      <c r="KZ38" s="16"/>
+      <c r="LA38" s="16"/>
+      <c r="LB38" s="16"/>
+      <c r="LC38" s="16"/>
+      <c r="LD38" s="16"/>
+      <c r="LE38" s="16"/>
+      <c r="LF38" s="16"/>
+      <c r="LG38" s="16"/>
+      <c r="LH38" s="16"/>
+      <c r="LI38" s="16"/>
+      <c r="LJ38" s="16"/>
+      <c r="LK38" s="16"/>
+      <c r="LL38" s="16"/>
+      <c r="LM38" s="16"/>
+      <c r="LN38" s="16"/>
+      <c r="LO38" s="16"/>
+      <c r="LP38" s="16"/>
+      <c r="LQ38" s="16"/>
+      <c r="LR38" s="16"/>
+      <c r="LS38" s="16"/>
+      <c r="LT38" s="16"/>
+      <c r="LU38" s="16"/>
+      <c r="LV38" s="16"/>
+      <c r="LW38" s="16"/>
+      <c r="LX38" s="16"/>
+      <c r="LY38" s="16"/>
+      <c r="LZ38" s="16"/>
+      <c r="MA38" s="16"/>
+      <c r="MB38" s="16"/>
+      <c r="MC38" s="16"/>
+      <c r="MD38" s="16"/>
+      <c r="ME38" s="16"/>
+      <c r="MF38" s="16"/>
+      <c r="MG38" s="16"/>
+      <c r="MH38" s="16"/>
+      <c r="MI38" s="16"/>
+      <c r="MJ38" s="16"/>
+      <c r="MK38" s="16"/>
+      <c r="ML38" s="16"/>
+      <c r="MM38" s="16"/>
+      <c r="MN38" s="16"/>
+      <c r="MO38" s="16"/>
+      <c r="MP38" s="16"/>
+      <c r="MQ38" s="16"/>
+      <c r="MR38" s="16"/>
+      <c r="MS38" s="16"/>
+      <c r="MT38" s="16"/>
+      <c r="MU38" s="16"/>
+      <c r="MV38" s="16"/>
+      <c r="MW38" s="16"/>
+      <c r="MX38" s="16"/>
+      <c r="MY38" s="16"/>
+      <c r="MZ38" s="16"/>
+      <c r="NA38" s="16"/>
+      <c r="NB38" s="16"/>
+      <c r="NC38" s="16"/>
+      <c r="ND38" s="16"/>
+      <c r="NE38" s="16"/>
+      <c r="NF38" s="16"/>
+      <c r="NG38" s="16"/>
+      <c r="NH38" s="16"/>
+      <c r="NI38" s="16"/>
+      <c r="NJ38" s="16"/>
+      <c r="NK38" s="16"/>
+      <c r="NL38" s="16"/>
+      <c r="NM38" s="16"/>
+      <c r="NN38" s="16"/>
+      <c r="NO38" s="16"/>
+      <c r="NP38" s="16"/>
+      <c r="NQ38" s="16"/>
+      <c r="NR38" s="16"/>
+      <c r="NS38" s="16"/>
+      <c r="NT38" s="16"/>
+      <c r="NU38" s="16"/>
+      <c r="NV38" s="16"/>
+      <c r="NW38" s="16"/>
+      <c r="NX38" s="16"/>
+      <c r="NY38" s="16"/>
+      <c r="NZ38" s="16"/>
+      <c r="OA38" s="16"/>
+      <c r="OB38" s="16"/>
+      <c r="OC38" s="16"/>
+      <c r="OD38" s="16"/>
+      <c r="OE38" s="16"/>
+      <c r="OF38" s="16"/>
+      <c r="OG38" s="16"/>
+      <c r="OH38" s="16"/>
+      <c r="OI38" s="16"/>
+      <c r="OJ38" s="16"/>
+      <c r="OK38" s="16"/>
+      <c r="OL38" s="16"/>
+      <c r="OM38" s="16"/>
+      <c r="ON38" s="16"/>
+      <c r="OO38" s="16"/>
+      <c r="OP38" s="16"/>
+      <c r="OQ38" s="16"/>
+      <c r="OR38" s="16"/>
+      <c r="OS38" s="16"/>
+      <c r="OT38" s="16"/>
+      <c r="OU38" s="16"/>
+      <c r="OV38" s="16"/>
+      <c r="OW38" s="16"/>
+      <c r="OX38" s="16"/>
+      <c r="OY38" s="16"/>
+      <c r="OZ38" s="16"/>
+      <c r="PA38" s="16"/>
+      <c r="PB38" s="16"/>
+      <c r="PC38" s="16"/>
+      <c r="PD38" s="16"/>
+      <c r="PE38" s="16"/>
+      <c r="PF38" s="16"/>
+      <c r="PG38" s="16"/>
+      <c r="PH38" s="16"/>
+      <c r="PI38" s="16"/>
+      <c r="PJ38" s="16"/>
+      <c r="PK38" s="16"/>
+      <c r="PL38" s="16"/>
+      <c r="PM38" s="16"/>
+      <c r="PN38" s="16"/>
+      <c r="PO38" s="16"/>
+      <c r="PP38" s="16"/>
+      <c r="PQ38" s="16"/>
+      <c r="PR38" s="16"/>
+      <c r="PS38" s="16"/>
+      <c r="PT38" s="16"/>
+      <c r="PU38" s="16"/>
+      <c r="PV38" s="16"/>
+      <c r="PW38" s="16"/>
+      <c r="PX38" s="16"/>
+      <c r="PY38" s="16"/>
+      <c r="PZ38" s="16"/>
+      <c r="QA38" s="16"/>
+      <c r="QB38" s="16"/>
+      <c r="QC38" s="16"/>
+      <c r="QD38" s="16"/>
+      <c r="QE38" s="16"/>
+      <c r="QF38" s="16"/>
+      <c r="QG38" s="16"/>
+      <c r="QH38" s="16"/>
+      <c r="QI38" s="16"/>
+      <c r="QJ38" s="16"/>
+      <c r="QK38" s="16"/>
+      <c r="QL38" s="16"/>
+      <c r="QM38" s="16"/>
+      <c r="QN38" s="16"/>
+      <c r="QO38" s="16"/>
+      <c r="QP38" s="16"/>
+      <c r="QQ38" s="16"/>
+      <c r="QR38" s="16"/>
+      <c r="QS38" s="16"/>
+      <c r="QT38" s="16"/>
+      <c r="QU38" s="16"/>
+      <c r="QV38" s="16"/>
+      <c r="QW38" s="16"/>
+      <c r="QX38" s="16"/>
+      <c r="QY38" s="16"/>
+      <c r="QZ38" s="16"/>
+      <c r="RA38" s="16"/>
+      <c r="RB38" s="16"/>
+      <c r="RC38" s="16"/>
+      <c r="RD38" s="16"/>
+      <c r="RE38" s="16"/>
+      <c r="RF38" s="16"/>
+      <c r="RG38" s="16"/>
+      <c r="RH38" s="16"/>
+      <c r="RI38" s="16"/>
+      <c r="RJ38" s="16"/>
+      <c r="RK38" s="16"/>
+      <c r="RL38" s="16"/>
+      <c r="RM38" s="16"/>
+      <c r="RN38" s="16"/>
+      <c r="RO38" s="16"/>
+      <c r="RP38" s="16"/>
+      <c r="RQ38" s="16"/>
+      <c r="RR38" s="16"/>
+      <c r="RS38" s="16"/>
+      <c r="RT38" s="16"/>
+      <c r="RU38" s="16"/>
+      <c r="RV38" s="16"/>
+      <c r="RW38" s="16"/>
+      <c r="RX38" s="16"/>
+      <c r="RY38" s="16"/>
+      <c r="RZ38" s="16"/>
+      <c r="SA38" s="16"/>
+      <c r="SB38" s="16"/>
+      <c r="SC38" s="16"/>
+      <c r="SD38" s="16"/>
+      <c r="SE38" s="16"/>
+      <c r="SF38" s="16"/>
+      <c r="SG38" s="16"/>
+      <c r="SH38" s="16"/>
+      <c r="SI38" s="16"/>
+      <c r="SJ38" s="16"/>
+      <c r="SK38" s="16"/>
+      <c r="SL38" s="16"/>
+      <c r="SM38" s="16"/>
+      <c r="SN38" s="16"/>
+      <c r="SO38" s="16"/>
+      <c r="SP38" s="16"/>
+      <c r="SQ38" s="16"/>
+      <c r="SR38" s="16"/>
+      <c r="SS38" s="16"/>
+      <c r="ST38" s="16"/>
+      <c r="SU38" s="16"/>
+      <c r="SV38" s="16"/>
+      <c r="SW38" s="16"/>
+      <c r="SX38" s="16"/>
+      <c r="SY38" s="16"/>
+      <c r="SZ38" s="16"/>
+      <c r="TA38" s="16"/>
+      <c r="TB38" s="16"/>
+      <c r="TC38" s="16"/>
+      <c r="TD38" s="16"/>
+      <c r="TE38" s="16"/>
+      <c r="TF38" s="16"/>
+      <c r="TG38" s="16"/>
+      <c r="TH38" s="16"/>
+      <c r="TI38" s="16"/>
+      <c r="TJ38" s="16"/>
+      <c r="TK38" s="16"/>
+      <c r="TL38" s="16"/>
+      <c r="TM38" s="16"/>
+      <c r="TN38" s="16"/>
+      <c r="TO38" s="16"/>
+      <c r="TP38" s="16"/>
+      <c r="TQ38" s="16"/>
+      <c r="TR38" s="16"/>
+      <c r="TS38" s="16"/>
+      <c r="TT38" s="16"/>
+      <c r="TU38" s="16"/>
+      <c r="TV38" s="16"/>
+      <c r="TW38" s="16"/>
+      <c r="TX38" s="16"/>
+      <c r="TY38" s="16"/>
+      <c r="TZ38" s="16"/>
+      <c r="UA38" s="16"/>
+      <c r="UB38" s="16"/>
+      <c r="UC38" s="16"/>
+      <c r="UD38" s="16"/>
+      <c r="UE38" s="16"/>
+      <c r="UF38" s="16"/>
+      <c r="UG38" s="16"/>
+      <c r="UH38" s="16"/>
+      <c r="UI38" s="16"/>
+      <c r="UJ38" s="16"/>
+      <c r="UK38" s="16"/>
+      <c r="UL38" s="16"/>
+      <c r="UM38" s="16"/>
+      <c r="UN38" s="16"/>
+      <c r="UO38" s="16"/>
+      <c r="UP38" s="16"/>
+      <c r="UQ38" s="16"/>
+      <c r="UR38" s="16"/>
+      <c r="US38" s="16"/>
+      <c r="UT38" s="16"/>
+      <c r="UU38" s="16"/>
+      <c r="UV38" s="16"/>
+      <c r="UW38" s="16"/>
+      <c r="UX38" s="16"/>
+      <c r="UY38" s="16"/>
+      <c r="UZ38" s="16"/>
+      <c r="VA38" s="16"/>
+      <c r="VB38" s="16"/>
+      <c r="VC38" s="16"/>
+      <c r="VD38" s="16"/>
+      <c r="VE38" s="16"/>
+      <c r="VF38" s="16"/>
+      <c r="VG38" s="16"/>
+      <c r="VH38" s="16"/>
+      <c r="VI38" s="16"/>
+      <c r="VJ38" s="16"/>
+      <c r="VK38" s="16"/>
+      <c r="VL38" s="16"/>
+      <c r="VM38" s="16"/>
+      <c r="VN38" s="16"/>
+      <c r="VO38" s="16"/>
+      <c r="VP38" s="16"/>
+      <c r="VQ38" s="16"/>
+      <c r="VR38" s="16"/>
+      <c r="VS38" s="16"/>
+      <c r="VT38" s="16"/>
+      <c r="VU38" s="16"/>
+      <c r="VV38" s="16"/>
+      <c r="VW38" s="16"/>
+      <c r="VX38" s="16"/>
+      <c r="VY38" s="16"/>
+      <c r="VZ38" s="16"/>
+      <c r="WA38" s="16"/>
+      <c r="WB38" s="16"/>
+      <c r="WC38" s="16"/>
+      <c r="WD38" s="16"/>
+      <c r="WE38" s="16"/>
+      <c r="WF38" s="16"/>
+      <c r="WG38" s="16"/>
+      <c r="WH38" s="16"/>
+      <c r="WI38" s="16"/>
+      <c r="WJ38" s="16"/>
+      <c r="WK38" s="16"/>
+      <c r="WL38" s="16"/>
+      <c r="WM38" s="16"/>
+      <c r="WN38" s="16"/>
+      <c r="WO38" s="16"/>
+      <c r="WP38" s="16"/>
+      <c r="WQ38" s="16"/>
+      <c r="WR38" s="16"/>
+      <c r="WS38" s="16"/>
+      <c r="WT38" s="16"/>
+      <c r="WU38" s="16"/>
+      <c r="WV38" s="16"/>
+      <c r="WW38" s="16"/>
+      <c r="WX38" s="16"/>
+      <c r="WY38" s="16"/>
+      <c r="WZ38" s="16"/>
+      <c r="XA38" s="16"/>
+      <c r="XB38" s="16"/>
+      <c r="XC38" s="16"/>
+      <c r="XD38" s="16"/>
+      <c r="XE38" s="16"/>
+      <c r="XF38" s="16"/>
+      <c r="XG38" s="16"/>
+      <c r="XH38" s="16"/>
+      <c r="XI38" s="16"/>
+      <c r="XJ38" s="16"/>
+      <c r="XK38" s="16"/>
+      <c r="XL38" s="16"/>
+      <c r="XM38" s="16"/>
+      <c r="XN38" s="16"/>
+      <c r="XO38" s="16"/>
+      <c r="XP38" s="16"/>
+      <c r="XQ38" s="16"/>
+      <c r="XR38" s="16"/>
+      <c r="XS38" s="16"/>
+      <c r="XT38" s="16"/>
+      <c r="XU38" s="16"/>
+      <c r="XV38" s="16"/>
+      <c r="XW38" s="16"/>
+      <c r="XX38" s="16"/>
+      <c r="XY38" s="16"/>
+      <c r="XZ38" s="16"/>
+      <c r="YA38" s="16"/>
+      <c r="YB38" s="16"/>
+      <c r="YC38" s="16"/>
+      <c r="YD38" s="16"/>
+      <c r="YE38" s="16"/>
+      <c r="YF38" s="16"/>
+      <c r="YG38" s="16"/>
+      <c r="YH38" s="16"/>
+      <c r="YI38" s="16"/>
+      <c r="YJ38" s="16"/>
+      <c r="YK38" s="16"/>
+      <c r="YL38" s="16"/>
+      <c r="YM38" s="16"/>
+      <c r="YN38" s="16"/>
+      <c r="YO38" s="16"/>
+      <c r="YP38" s="16"/>
+      <c r="YQ38" s="16"/>
+      <c r="YR38" s="16"/>
+      <c r="YS38" s="16"/>
+      <c r="YT38" s="16"/>
+      <c r="YU38" s="16"/>
+      <c r="YV38" s="16"/>
+      <c r="YW38" s="16"/>
+      <c r="YX38" s="16"/>
+      <c r="YY38" s="16"/>
+      <c r="YZ38" s="16"/>
+      <c r="ZA38" s="16"/>
+      <c r="ZB38" s="16"/>
+      <c r="ZC38" s="16"/>
+      <c r="ZD38" s="16"/>
+      <c r="ZE38" s="16"/>
+      <c r="ZF38" s="16"/>
+      <c r="ZG38" s="16"/>
+      <c r="ZH38" s="16"/>
+      <c r="ZI38" s="16"/>
+      <c r="ZJ38" s="16"/>
+      <c r="ZK38" s="16"/>
+      <c r="ZL38" s="16"/>
+      <c r="ZM38" s="16"/>
+      <c r="ZN38" s="16"/>
+      <c r="ZO38" s="16"/>
+      <c r="ZP38" s="16"/>
+      <c r="ZQ38" s="16"/>
+      <c r="ZR38" s="16"/>
+      <c r="ZS38" s="16"/>
+      <c r="ZT38" s="16"/>
+      <c r="ZU38" s="16"/>
+      <c r="ZV38" s="16"/>
+      <c r="ZW38" s="16"/>
+      <c r="ZX38" s="16"/>
+      <c r="ZY38" s="16"/>
+      <c r="ZZ38" s="16"/>
+      <c r="AAA38" s="16"/>
+      <c r="AAB38" s="16"/>
+      <c r="AAC38" s="16"/>
+      <c r="AAD38" s="16"/>
+      <c r="AAE38" s="16"/>
+      <c r="AAF38" s="16"/>
+      <c r="AAG38" s="16"/>
+      <c r="AAH38" s="16"/>
+      <c r="AAI38" s="16"/>
+      <c r="AAJ38" s="16"/>
+      <c r="AAK38" s="16"/>
+      <c r="AAL38" s="16"/>
+      <c r="AAM38" s="16"/>
+      <c r="AAN38" s="16"/>
+      <c r="AAO38" s="16"/>
+      <c r="AAP38" s="16"/>
+      <c r="AAQ38" s="16"/>
+      <c r="AAR38" s="16"/>
+      <c r="AAS38" s="16"/>
+      <c r="AAT38" s="16"/>
+      <c r="AAU38" s="16"/>
+      <c r="AAV38" s="16"/>
+      <c r="AAW38" s="16"/>
+      <c r="AAX38" s="16"/>
+      <c r="AAY38" s="16"/>
+      <c r="AAZ38" s="16"/>
+      <c r="ABA38" s="16"/>
+      <c r="ABB38" s="16"/>
+      <c r="ABC38" s="16"/>
+      <c r="ABD38" s="16"/>
+      <c r="ABE38" s="16"/>
+      <c r="ABF38" s="16"/>
+      <c r="ABG38" s="16"/>
+      <c r="ABH38" s="16"/>
+      <c r="ABI38" s="16"/>
+      <c r="ABJ38" s="16"/>
+      <c r="ABK38" s="16"/>
+      <c r="ABL38" s="16"/>
+      <c r="ABM38" s="16"/>
+      <c r="ABN38" s="16"/>
+      <c r="ABO38" s="16"/>
+      <c r="ABP38" s="16"/>
+      <c r="ABQ38" s="16"/>
+      <c r="ABR38" s="16"/>
+      <c r="ABS38" s="16"/>
+      <c r="ABT38" s="16"/>
+      <c r="ABU38" s="16"/>
+      <c r="ABV38" s="16"/>
+      <c r="ABW38" s="16"/>
+      <c r="ABX38" s="16"/>
+      <c r="ABY38" s="16"/>
+      <c r="ABZ38" s="16"/>
+      <c r="ACA38" s="16"/>
+      <c r="ACB38" s="16"/>
+      <c r="ACC38" s="16"/>
+      <c r="ACD38" s="16"/>
+      <c r="ACE38" s="16"/>
+      <c r="ACF38" s="16"/>
+      <c r="ACG38" s="16"/>
+      <c r="ACH38" s="16"/>
+      <c r="ACI38" s="16"/>
+      <c r="ACJ38" s="16"/>
+      <c r="ACK38" s="16"/>
+      <c r="ACL38" s="16"/>
+      <c r="ACM38" s="16"/>
+      <c r="ACN38" s="16"/>
+      <c r="ACO38" s="16"/>
+      <c r="ACP38" s="16"/>
+      <c r="ACQ38" s="16"/>
+      <c r="ACR38" s="16"/>
+      <c r="ACS38" s="16"/>
+      <c r="ACT38" s="16"/>
+      <c r="ACU38" s="16"/>
+      <c r="ACV38" s="16"/>
+      <c r="ACW38" s="16"/>
+      <c r="ACX38" s="16"/>
+      <c r="ACY38" s="16"/>
+      <c r="ACZ38" s="16"/>
+      <c r="ADA38" s="16"/>
+      <c r="ADB38" s="16"/>
+      <c r="ADC38" s="16"/>
+      <c r="ADD38" s="16"/>
+      <c r="ADE38" s="16"/>
+      <c r="ADF38" s="16"/>
+      <c r="ADG38" s="16"/>
+      <c r="ADH38" s="16"/>
+      <c r="ADI38" s="16"/>
+      <c r="ADJ38" s="16"/>
+      <c r="ADK38" s="16"/>
+      <c r="ADL38" s="16"/>
+      <c r="ADM38" s="16"/>
+      <c r="ADN38" s="16"/>
+      <c r="ADO38" s="16"/>
+      <c r="ADP38" s="16"/>
+      <c r="ADQ38" s="16"/>
+      <c r="ADR38" s="16"/>
+      <c r="ADS38" s="16"/>
+      <c r="ADT38" s="16"/>
+      <c r="ADU38" s="16"/>
+      <c r="ADV38" s="16"/>
+      <c r="ADW38" s="16"/>
+      <c r="ADX38" s="16"/>
+      <c r="ADY38" s="16"/>
+      <c r="ADZ38" s="16"/>
+      <c r="AEA38" s="16"/>
+      <c r="AEB38" s="16"/>
+      <c r="AEC38" s="16"/>
+      <c r="AED38" s="16"/>
+      <c r="AEE38" s="16"/>
+      <c r="AEF38" s="16"/>
+      <c r="AEG38" s="16"/>
+      <c r="AEH38" s="16"/>
+      <c r="AEI38" s="16"/>
+      <c r="AEJ38" s="16"/>
+      <c r="AEK38" s="16"/>
+      <c r="AEL38" s="16"/>
+      <c r="AEM38" s="16"/>
+      <c r="AEN38" s="16"/>
+      <c r="AEO38" s="16"/>
+      <c r="AEP38" s="16"/>
+      <c r="AEQ38" s="16"/>
+      <c r="AER38" s="16"/>
+      <c r="AES38" s="16"/>
+      <c r="AET38" s="16"/>
+      <c r="AEU38" s="16"/>
+      <c r="AEV38" s="16"/>
+      <c r="AEW38" s="16"/>
+      <c r="AEX38" s="16"/>
+      <c r="AEY38" s="16"/>
+      <c r="AEZ38" s="16"/>
+      <c r="AFA38" s="16"/>
+      <c r="AFB38" s="16"/>
+      <c r="AFC38" s="16"/>
+      <c r="AFD38" s="16"/>
+      <c r="AFE38" s="16"/>
+      <c r="AFF38" s="16"/>
+      <c r="AFG38" s="16"/>
+      <c r="AFH38" s="16"/>
+      <c r="AFI38" s="16"/>
+      <c r="AFJ38" s="16"/>
+      <c r="AFK38" s="16"/>
+      <c r="AFL38" s="16"/>
+      <c r="AFM38" s="16"/>
+      <c r="AFN38" s="16"/>
+      <c r="AFO38" s="16"/>
+      <c r="AFP38" s="16"/>
+      <c r="AFQ38" s="16"/>
+      <c r="AFR38" s="16"/>
+      <c r="AFS38" s="16"/>
+      <c r="AFT38" s="16"/>
+      <c r="AFU38" s="16"/>
+      <c r="AFV38" s="16"/>
+      <c r="AFW38" s="16"/>
+      <c r="AFX38" s="16"/>
+      <c r="AFY38" s="16"/>
+      <c r="AFZ38" s="16"/>
+      <c r="AGA38" s="16"/>
+      <c r="AGB38" s="16"/>
+      <c r="AGC38" s="16"/>
+      <c r="AGD38" s="16"/>
+      <c r="AGE38" s="16"/>
+      <c r="AGF38" s="16"/>
+      <c r="AGG38" s="16"/>
+      <c r="AGH38" s="16"/>
+      <c r="AGI38" s="16"/>
+      <c r="AGJ38" s="16"/>
+      <c r="AGK38" s="16"/>
+      <c r="AGL38" s="16"/>
+      <c r="AGM38" s="16"/>
+      <c r="AGN38" s="16"/>
+      <c r="AGO38" s="16"/>
+      <c r="AGP38" s="16"/>
+      <c r="AGQ38" s="16"/>
+      <c r="AGR38" s="16"/>
+      <c r="AGS38" s="16"/>
+      <c r="AGT38" s="16"/>
+      <c r="AGU38" s="16"/>
+      <c r="AGV38" s="16"/>
+      <c r="AGW38" s="16"/>
+      <c r="AGX38" s="16"/>
+      <c r="AGY38" s="16"/>
+      <c r="AGZ38" s="16"/>
+      <c r="AHA38" s="16"/>
+      <c r="AHB38" s="16"/>
+      <c r="AHC38" s="16"/>
+      <c r="AHD38" s="16"/>
+      <c r="AHE38" s="16"/>
+      <c r="AHF38" s="16"/>
+      <c r="AHG38" s="16"/>
+      <c r="AHH38" s="16"/>
+      <c r="AHI38" s="16"/>
+      <c r="AHJ38" s="16"/>
+      <c r="AHK38" s="16"/>
+      <c r="AHL38" s="16"/>
+      <c r="AHM38" s="16"/>
+      <c r="AHN38" s="16"/>
+      <c r="AHO38" s="16"/>
+      <c r="AHP38" s="16"/>
+      <c r="AHQ38" s="16"/>
+      <c r="AHR38" s="16"/>
+      <c r="AHS38" s="16"/>
+      <c r="AHT38" s="16"/>
+      <c r="AHU38" s="16"/>
+      <c r="AHV38" s="16"/>
+      <c r="AHW38" s="16"/>
+      <c r="AHX38" s="16"/>
+      <c r="AHY38" s="16"/>
+      <c r="AHZ38" s="16"/>
+      <c r="AIA38" s="16"/>
+      <c r="AIB38" s="16"/>
+      <c r="AIC38" s="16"/>
+      <c r="AID38" s="16"/>
+      <c r="AIE38" s="16"/>
+      <c r="AIF38" s="16"/>
+      <c r="AIG38" s="16"/>
+      <c r="AIH38" s="16"/>
+      <c r="AII38" s="16"/>
+      <c r="AIJ38" s="16"/>
+      <c r="AIK38" s="16"/>
+      <c r="AIL38" s="16"/>
+      <c r="AIM38" s="16"/>
+      <c r="AIN38" s="16"/>
+      <c r="AIO38" s="16"/>
+      <c r="AIP38" s="16"/>
+      <c r="AIQ38" s="16"/>
+      <c r="AIR38" s="16"/>
+      <c r="AIS38" s="16"/>
+      <c r="AIT38" s="16"/>
+      <c r="AIU38" s="16"/>
+      <c r="AIV38" s="16"/>
+      <c r="AIW38" s="16"/>
+      <c r="AIX38" s="16"/>
+      <c r="AIY38" s="16"/>
+      <c r="AIZ38" s="16"/>
+      <c r="AJA38" s="16"/>
+      <c r="AJB38" s="16"/>
+      <c r="AJC38" s="16"/>
+      <c r="AJD38" s="16"/>
+      <c r="AJE38" s="16"/>
+      <c r="AJF38" s="16"/>
+      <c r="AJG38" s="16"/>
+      <c r="AJH38" s="16"/>
+      <c r="AJI38" s="16"/>
+      <c r="AJJ38" s="16"/>
+      <c r="AJK38" s="16"/>
+      <c r="AJL38" s="16"/>
+      <c r="AJM38" s="16"/>
+      <c r="AJN38" s="16"/>
+      <c r="AJO38" s="16"/>
+      <c r="AJP38" s="16"/>
+      <c r="AJQ38" s="16"/>
+      <c r="AJR38" s="16"/>
+      <c r="AJS38" s="16"/>
+      <c r="AJT38" s="16"/>
+      <c r="AJU38" s="16"/>
+      <c r="AJV38" s="16"/>
+      <c r="AJW38" s="16"/>
+      <c r="AJX38" s="16"/>
+      <c r="AJY38" s="16"/>
+      <c r="AJZ38" s="16"/>
+      <c r="AKA38" s="16"/>
+      <c r="AKB38" s="16"/>
+      <c r="AKC38" s="16"/>
+      <c r="AKD38" s="16"/>
+      <c r="AKE38" s="16"/>
+      <c r="AKF38" s="16"/>
+      <c r="AKG38" s="16"/>
+      <c r="AKH38" s="16"/>
+      <c r="AKI38" s="16"/>
+      <c r="AKJ38" s="16"/>
+      <c r="AKK38" s="16"/>
+      <c r="AKL38" s="16"/>
+      <c r="AKM38" s="16"/>
+      <c r="AKN38" s="16"/>
+      <c r="AKO38" s="16"/>
+      <c r="AKP38" s="16"/>
+      <c r="AKQ38" s="16"/>
+      <c r="AKR38" s="16"/>
+      <c r="AKS38" s="16"/>
+      <c r="AKT38" s="16"/>
+      <c r="AKU38" s="16"/>
+      <c r="AKV38" s="16"/>
+      <c r="AKW38" s="16"/>
+      <c r="AKX38" s="16"/>
+      <c r="AKY38" s="16"/>
+      <c r="AKZ38" s="16"/>
+      <c r="ALA38" s="16"/>
+      <c r="ALB38" s="16"/>
+      <c r="ALC38" s="16"/>
+      <c r="ALD38" s="16"/>
+      <c r="ALE38" s="16"/>
+      <c r="ALF38" s="16"/>
+      <c r="ALG38" s="16"/>
+      <c r="ALH38" s="16"/>
+      <c r="ALI38" s="16"/>
+      <c r="ALJ38" s="16"/>
+      <c r="ALK38" s="16"/>
+      <c r="ALL38" s="16"/>
+      <c r="ALM38" s="16"/>
+      <c r="ALN38" s="16"/>
+      <c r="ALO38" s="16"/>
+      <c r="ALP38" s="16"/>
+      <c r="ALQ38" s="16"/>
+      <c r="ALR38" s="16"/>
+      <c r="ALS38" s="16"/>
+      <c r="ALT38" s="16"/>
+      <c r="ALU38" s="16"/>
+      <c r="ALV38" s="16"/>
+      <c r="ALW38" s="16"/>
+      <c r="ALX38" s="16"/>
+      <c r="ALY38" s="16"/>
+      <c r="ALZ38" s="16"/>
+      <c r="AMA38" s="16"/>
+      <c r="AMB38" s="16"/>
+      <c r="AMC38" s="16"/>
+      <c r="AMD38" s="16"/>
+      <c r="AME38" s="16"/>
+      <c r="AMF38" s="16"/>
+      <c r="AMG38" s="16"/>
+      <c r="AMH38" s="16"/>
+      <c r="AMI38" s="16"/>
+      <c r="AMJ38" s="16"/>
+    </row>
+    <row r="39" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="16"/>
+      <c r="AO39" s="16"/>
+      <c r="AP39" s="16"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="16"/>
+      <c r="AS39" s="16"/>
+      <c r="AT39" s="16"/>
+      <c r="AU39" s="16"/>
+      <c r="AV39" s="16"/>
+      <c r="AW39" s="16"/>
+      <c r="AX39" s="16"/>
+      <c r="AY39" s="16"/>
+      <c r="AZ39" s="16"/>
+      <c r="BA39" s="16"/>
+      <c r="BB39" s="16"/>
+      <c r="BC39" s="16"/>
+      <c r="BD39" s="16"/>
+      <c r="BE39" s="16"/>
+      <c r="BF39" s="16"/>
+      <c r="BG39" s="16"/>
+      <c r="BH39" s="16"/>
+      <c r="BI39" s="16"/>
+      <c r="BJ39" s="16"/>
+      <c r="BK39" s="16"/>
+      <c r="BL39" s="16"/>
+      <c r="BM39" s="16"/>
+      <c r="BN39" s="16"/>
+      <c r="BO39" s="16"/>
+      <c r="BP39" s="16"/>
+      <c r="BQ39" s="16"/>
+      <c r="BR39" s="16"/>
+      <c r="BS39" s="16"/>
+      <c r="BT39" s="16"/>
+      <c r="BU39" s="16"/>
+      <c r="BV39" s="16"/>
+      <c r="BW39" s="16"/>
+      <c r="BX39" s="16"/>
+      <c r="BY39" s="16"/>
+      <c r="BZ39" s="16"/>
+      <c r="CA39" s="16"/>
+      <c r="CB39" s="16"/>
+      <c r="CC39" s="16"/>
+      <c r="CD39" s="16"/>
+      <c r="CE39" s="16"/>
+      <c r="CF39" s="16"/>
+      <c r="CG39" s="16"/>
+      <c r="CH39" s="16"/>
+      <c r="CI39" s="16"/>
+      <c r="CJ39" s="16"/>
+      <c r="CK39" s="16"/>
+      <c r="CL39" s="16"/>
+      <c r="CM39" s="16"/>
+      <c r="CN39" s="16"/>
+      <c r="CO39" s="16"/>
+      <c r="CP39" s="16"/>
+      <c r="CQ39" s="16"/>
+      <c r="CR39" s="16"/>
+      <c r="CS39" s="16"/>
+      <c r="CT39" s="16"/>
+      <c r="CU39" s="16"/>
+      <c r="CV39" s="16"/>
+      <c r="CW39" s="16"/>
+      <c r="CX39" s="16"/>
+      <c r="CY39" s="16"/>
+      <c r="CZ39" s="16"/>
+      <c r="DA39" s="16"/>
+      <c r="DB39" s="16"/>
+      <c r="DC39" s="16"/>
+      <c r="DD39" s="16"/>
+      <c r="DE39" s="16"/>
+      <c r="DF39" s="16"/>
+      <c r="DG39" s="16"/>
+      <c r="DH39" s="16"/>
+      <c r="DI39" s="16"/>
+      <c r="DJ39" s="16"/>
+      <c r="DK39" s="16"/>
+      <c r="DL39" s="16"/>
+      <c r="DM39" s="16"/>
+      <c r="DN39" s="16"/>
+      <c r="DO39" s="16"/>
+      <c r="DP39" s="16"/>
+      <c r="DQ39" s="16"/>
+      <c r="DR39" s="16"/>
+      <c r="DS39" s="16"/>
+      <c r="DT39" s="16"/>
+      <c r="DU39" s="16"/>
+      <c r="DV39" s="16"/>
+      <c r="DW39" s="16"/>
+      <c r="DX39" s="16"/>
+      <c r="DY39" s="16"/>
+      <c r="DZ39" s="16"/>
+      <c r="EA39" s="16"/>
+      <c r="EB39" s="16"/>
+      <c r="EC39" s="16"/>
+      <c r="ED39" s="16"/>
+      <c r="EE39" s="16"/>
+      <c r="EF39" s="16"/>
+      <c r="EG39" s="16"/>
+      <c r="EH39" s="16"/>
+      <c r="EI39" s="16"/>
+      <c r="EJ39" s="16"/>
+      <c r="EK39" s="16"/>
+      <c r="EL39" s="16"/>
+      <c r="EM39" s="16"/>
+      <c r="EN39" s="16"/>
+      <c r="EO39" s="16"/>
+      <c r="EP39" s="16"/>
+      <c r="EQ39" s="16"/>
+      <c r="ER39" s="16"/>
+      <c r="ES39" s="16"/>
+      <c r="ET39" s="16"/>
+      <c r="EU39" s="16"/>
+      <c r="EV39" s="16"/>
+      <c r="EW39" s="16"/>
+      <c r="EX39" s="16"/>
+      <c r="EY39" s="16"/>
+      <c r="EZ39" s="16"/>
+      <c r="FA39" s="16"/>
+      <c r="FB39" s="16"/>
+      <c r="FC39" s="16"/>
+      <c r="FD39" s="16"/>
+      <c r="FE39" s="16"/>
+      <c r="FF39" s="16"/>
+      <c r="FG39" s="16"/>
+      <c r="FH39" s="16"/>
+      <c r="FI39" s="16"/>
+      <c r="FJ39" s="16"/>
+      <c r="FK39" s="16"/>
+      <c r="FL39" s="16"/>
+      <c r="FM39" s="16"/>
+      <c r="FN39" s="16"/>
+      <c r="FO39" s="16"/>
+      <c r="FP39" s="16"/>
+      <c r="FQ39" s="16"/>
+      <c r="FR39" s="16"/>
+      <c r="FS39" s="16"/>
+      <c r="FT39" s="16"/>
+      <c r="FU39" s="16"/>
+      <c r="FV39" s="16"/>
+      <c r="FW39" s="16"/>
+      <c r="FX39" s="16"/>
+      <c r="FY39" s="16"/>
+      <c r="FZ39" s="16"/>
+      <c r="GA39" s="16"/>
+      <c r="GB39" s="16"/>
+      <c r="GC39" s="16"/>
+      <c r="GD39" s="16"/>
+      <c r="GE39" s="16"/>
+      <c r="GF39" s="16"/>
+      <c r="GG39" s="16"/>
+      <c r="GH39" s="16"/>
+      <c r="GI39" s="16"/>
+      <c r="GJ39" s="16"/>
+      <c r="GK39" s="16"/>
+      <c r="GL39" s="16"/>
+      <c r="GM39" s="16"/>
+      <c r="GN39" s="16"/>
+      <c r="GO39" s="16"/>
+      <c r="GP39" s="16"/>
+      <c r="GQ39" s="16"/>
+      <c r="GR39" s="16"/>
+      <c r="GS39" s="16"/>
+      <c r="GT39" s="16"/>
+      <c r="GU39" s="16"/>
+      <c r="GV39" s="16"/>
+      <c r="GW39" s="16"/>
+      <c r="GX39" s="16"/>
+      <c r="GY39" s="16"/>
+      <c r="GZ39" s="16"/>
+      <c r="HA39" s="16"/>
+      <c r="HB39" s="16"/>
+      <c r="HC39" s="16"/>
+      <c r="HD39" s="16"/>
+      <c r="HE39" s="16"/>
+      <c r="HF39" s="16"/>
+      <c r="HG39" s="16"/>
+      <c r="HH39" s="16"/>
+      <c r="HI39" s="16"/>
+      <c r="HJ39" s="16"/>
+      <c r="HK39" s="16"/>
+      <c r="HL39" s="16"/>
+      <c r="HM39" s="16"/>
+      <c r="HN39" s="16"/>
+      <c r="HO39" s="16"/>
+      <c r="HP39" s="16"/>
+      <c r="HQ39" s="16"/>
+      <c r="HR39" s="16"/>
+      <c r="HS39" s="16"/>
+      <c r="HT39" s="16"/>
+      <c r="HU39" s="16"/>
+      <c r="HV39" s="16"/>
+      <c r="HW39" s="16"/>
+      <c r="HX39" s="16"/>
+      <c r="HY39" s="16"/>
+      <c r="HZ39" s="16"/>
+      <c r="IA39" s="16"/>
+      <c r="IB39" s="16"/>
+      <c r="IC39" s="16"/>
+      <c r="ID39" s="16"/>
+      <c r="IE39" s="16"/>
+      <c r="IF39" s="16"/>
+      <c r="IG39" s="16"/>
+      <c r="IH39" s="16"/>
+      <c r="II39" s="16"/>
+      <c r="IJ39" s="16"/>
+      <c r="IK39" s="16"/>
+      <c r="IL39" s="16"/>
+      <c r="IM39" s="16"/>
+      <c r="IN39" s="16"/>
+      <c r="IO39" s="16"/>
+      <c r="IP39" s="16"/>
+      <c r="IQ39" s="16"/>
+      <c r="IR39" s="16"/>
+      <c r="IS39" s="16"/>
+      <c r="IT39" s="16"/>
+      <c r="IU39" s="16"/>
+      <c r="IV39" s="16"/>
+      <c r="IW39" s="16"/>
+      <c r="IX39" s="16"/>
+      <c r="IY39" s="16"/>
+      <c r="IZ39" s="16"/>
+      <c r="JA39" s="16"/>
+      <c r="JB39" s="16"/>
+      <c r="JC39" s="16"/>
+      <c r="JD39" s="16"/>
+      <c r="JE39" s="16"/>
+      <c r="JF39" s="16"/>
+      <c r="JG39" s="16"/>
+      <c r="JH39" s="16"/>
+      <c r="JI39" s="16"/>
+      <c r="JJ39" s="16"/>
+      <c r="JK39" s="16"/>
+      <c r="JL39" s="16"/>
+      <c r="JM39" s="16"/>
+      <c r="JN39" s="16"/>
+      <c r="JO39" s="16"/>
+      <c r="JP39" s="16"/>
+      <c r="JQ39" s="16"/>
+      <c r="JR39" s="16"/>
+      <c r="JS39" s="16"/>
+      <c r="JT39" s="16"/>
+      <c r="JU39" s="16"/>
+      <c r="JV39" s="16"/>
+      <c r="JW39" s="16"/>
+      <c r="JX39" s="16"/>
+      <c r="JY39" s="16"/>
+      <c r="JZ39" s="16"/>
+      <c r="KA39" s="16"/>
+      <c r="KB39" s="16"/>
+      <c r="KC39" s="16"/>
+      <c r="KD39" s="16"/>
+      <c r="KE39" s="16"/>
+      <c r="KF39" s="16"/>
+      <c r="KG39" s="16"/>
+      <c r="KH39" s="16"/>
+      <c r="KI39" s="16"/>
+      <c r="KJ39" s="16"/>
+      <c r="KK39" s="16"/>
+      <c r="KL39" s="16"/>
+      <c r="KM39" s="16"/>
+      <c r="KN39" s="16"/>
+      <c r="KO39" s="16"/>
+      <c r="KP39" s="16"/>
+      <c r="KQ39" s="16"/>
+      <c r="KR39" s="16"/>
+      <c r="KS39" s="16"/>
+      <c r="KT39" s="16"/>
+      <c r="KU39" s="16"/>
+      <c r="KV39" s="16"/>
+      <c r="KW39" s="16"/>
+      <c r="KX39" s="16"/>
+      <c r="KY39" s="16"/>
+      <c r="KZ39" s="16"/>
+      <c r="LA39" s="16"/>
+      <c r="LB39" s="16"/>
+      <c r="LC39" s="16"/>
+      <c r="LD39" s="16"/>
+      <c r="LE39" s="16"/>
+      <c r="LF39" s="16"/>
+      <c r="LG39" s="16"/>
+      <c r="LH39" s="16"/>
+      <c r="LI39" s="16"/>
+      <c r="LJ39" s="16"/>
+      <c r="LK39" s="16"/>
+      <c r="LL39" s="16"/>
+      <c r="LM39" s="16"/>
+      <c r="LN39" s="16"/>
+      <c r="LO39" s="16"/>
+      <c r="LP39" s="16"/>
+      <c r="LQ39" s="16"/>
+      <c r="LR39" s="16"/>
+      <c r="LS39" s="16"/>
+      <c r="LT39" s="16"/>
+      <c r="LU39" s="16"/>
+      <c r="LV39" s="16"/>
+      <c r="LW39" s="16"/>
+      <c r="LX39" s="16"/>
+      <c r="LY39" s="16"/>
+      <c r="LZ39" s="16"/>
+      <c r="MA39" s="16"/>
+      <c r="MB39" s="16"/>
+      <c r="MC39" s="16"/>
+      <c r="MD39" s="16"/>
+      <c r="ME39" s="16"/>
+      <c r="MF39" s="16"/>
+      <c r="MG39" s="16"/>
+      <c r="MH39" s="16"/>
+      <c r="MI39" s="16"/>
+      <c r="MJ39" s="16"/>
+      <c r="MK39" s="16"/>
+      <c r="ML39" s="16"/>
+      <c r="MM39" s="16"/>
+      <c r="MN39" s="16"/>
+      <c r="MO39" s="16"/>
+      <c r="MP39" s="16"/>
+      <c r="MQ39" s="16"/>
+      <c r="MR39" s="16"/>
+      <c r="MS39" s="16"/>
+      <c r="MT39" s="16"/>
+      <c r="MU39" s="16"/>
+      <c r="MV39" s="16"/>
+      <c r="MW39" s="16"/>
+      <c r="MX39" s="16"/>
+      <c r="MY39" s="16"/>
+      <c r="MZ39" s="16"/>
+      <c r="NA39" s="16"/>
+      <c r="NB39" s="16"/>
+      <c r="NC39" s="16"/>
+      <c r="ND39" s="16"/>
+      <c r="NE39" s="16"/>
+      <c r="NF39" s="16"/>
+      <c r="NG39" s="16"/>
+      <c r="NH39" s="16"/>
+      <c r="NI39" s="16"/>
+      <c r="NJ39" s="16"/>
+      <c r="NK39" s="16"/>
+      <c r="NL39" s="16"/>
+      <c r="NM39" s="16"/>
+      <c r="NN39" s="16"/>
+      <c r="NO39" s="16"/>
+      <c r="NP39" s="16"/>
+      <c r="NQ39" s="16"/>
+      <c r="NR39" s="16"/>
+      <c r="NS39" s="16"/>
+      <c r="NT39" s="16"/>
+      <c r="NU39" s="16"/>
+      <c r="NV39" s="16"/>
+      <c r="NW39" s="16"/>
+      <c r="NX39" s="16"/>
+      <c r="NY39" s="16"/>
+      <c r="NZ39" s="16"/>
+      <c r="OA39" s="16"/>
+      <c r="OB39" s="16"/>
+      <c r="OC39" s="16"/>
+      <c r="OD39" s="16"/>
+      <c r="OE39" s="16"/>
+      <c r="OF39" s="16"/>
+      <c r="OG39" s="16"/>
+      <c r="OH39" s="16"/>
+      <c r="OI39" s="16"/>
+      <c r="OJ39" s="16"/>
+      <c r="OK39" s="16"/>
+      <c r="OL39" s="16"/>
+      <c r="OM39" s="16"/>
+      <c r="ON39" s="16"/>
+      <c r="OO39" s="16"/>
+      <c r="OP39" s="16"/>
+      <c r="OQ39" s="16"/>
+      <c r="OR39" s="16"/>
+      <c r="OS39" s="16"/>
+      <c r="OT39" s="16"/>
+      <c r="OU39" s="16"/>
+      <c r="OV39" s="16"/>
+      <c r="OW39" s="16"/>
+      <c r="OX39" s="16"/>
+      <c r="OY39" s="16"/>
+      <c r="OZ39" s="16"/>
+      <c r="PA39" s="16"/>
+      <c r="PB39" s="16"/>
+      <c r="PC39" s="16"/>
+      <c r="PD39" s="16"/>
+      <c r="PE39" s="16"/>
+      <c r="PF39" s="16"/>
+      <c r="PG39" s="16"/>
+      <c r="PH39" s="16"/>
+      <c r="PI39" s="16"/>
+      <c r="PJ39" s="16"/>
+      <c r="PK39" s="16"/>
+      <c r="PL39" s="16"/>
+      <c r="PM39" s="16"/>
+      <c r="PN39" s="16"/>
+      <c r="PO39" s="16"/>
+      <c r="PP39" s="16"/>
+      <c r="PQ39" s="16"/>
+      <c r="PR39" s="16"/>
+      <c r="PS39" s="16"/>
+      <c r="PT39" s="16"/>
+      <c r="PU39" s="16"/>
+      <c r="PV39" s="16"/>
+      <c r="PW39" s="16"/>
+      <c r="PX39" s="16"/>
+      <c r="PY39" s="16"/>
+      <c r="PZ39" s="16"/>
+      <c r="QA39" s="16"/>
+      <c r="QB39" s="16"/>
+      <c r="QC39" s="16"/>
+      <c r="QD39" s="16"/>
+      <c r="QE39" s="16"/>
+      <c r="QF39" s="16"/>
+      <c r="QG39" s="16"/>
+      <c r="QH39" s="16"/>
+      <c r="QI39" s="16"/>
+      <c r="QJ39" s="16"/>
+      <c r="QK39" s="16"/>
+      <c r="QL39" s="16"/>
+      <c r="QM39" s="16"/>
+      <c r="QN39" s="16"/>
+      <c r="QO39" s="16"/>
+      <c r="QP39" s="16"/>
+      <c r="QQ39" s="16"/>
+      <c r="QR39" s="16"/>
+      <c r="QS39" s="16"/>
+      <c r="QT39" s="16"/>
+      <c r="QU39" s="16"/>
+      <c r="QV39" s="16"/>
+      <c r="QW39" s="16"/>
+      <c r="QX39" s="16"/>
+      <c r="QY39" s="16"/>
+      <c r="QZ39" s="16"/>
+      <c r="RA39" s="16"/>
+      <c r="RB39" s="16"/>
+      <c r="RC39" s="16"/>
+      <c r="RD39" s="16"/>
+      <c r="RE39" s="16"/>
+      <c r="RF39" s="16"/>
+      <c r="RG39" s="16"/>
+      <c r="RH39" s="16"/>
+      <c r="RI39" s="16"/>
+      <c r="RJ39" s="16"/>
+      <c r="RK39" s="16"/>
+      <c r="RL39" s="16"/>
+      <c r="RM39" s="16"/>
+      <c r="RN39" s="16"/>
+      <c r="RO39" s="16"/>
+      <c r="RP39" s="16"/>
+      <c r="RQ39" s="16"/>
+      <c r="RR39" s="16"/>
+      <c r="RS39" s="16"/>
+      <c r="RT39" s="16"/>
+      <c r="RU39" s="16"/>
+      <c r="RV39" s="16"/>
+      <c r="RW39" s="16"/>
+      <c r="RX39" s="16"/>
+      <c r="RY39" s="16"/>
+      <c r="RZ39" s="16"/>
+      <c r="SA39" s="16"/>
+      <c r="SB39" s="16"/>
+      <c r="SC39" s="16"/>
+      <c r="SD39" s="16"/>
+      <c r="SE39" s="16"/>
+      <c r="SF39" s="16"/>
+      <c r="SG39" s="16"/>
+      <c r="SH39" s="16"/>
+      <c r="SI39" s="16"/>
+      <c r="SJ39" s="16"/>
+      <c r="SK39" s="16"/>
+      <c r="SL39" s="16"/>
+      <c r="SM39" s="16"/>
+      <c r="SN39" s="16"/>
+      <c r="SO39" s="16"/>
+      <c r="SP39" s="16"/>
+      <c r="SQ39" s="16"/>
+      <c r="SR39" s="16"/>
+      <c r="SS39" s="16"/>
+      <c r="ST39" s="16"/>
+      <c r="SU39" s="16"/>
+      <c r="SV39" s="16"/>
+      <c r="SW39" s="16"/>
+      <c r="SX39" s="16"/>
+      <c r="SY39" s="16"/>
+      <c r="SZ39" s="16"/>
+      <c r="TA39" s="16"/>
+      <c r="TB39" s="16"/>
+      <c r="TC39" s="16"/>
+      <c r="TD39" s="16"/>
+      <c r="TE39" s="16"/>
+      <c r="TF39" s="16"/>
+      <c r="TG39" s="16"/>
+      <c r="TH39" s="16"/>
+      <c r="TI39" s="16"/>
+      <c r="TJ39" s="16"/>
+      <c r="TK39" s="16"/>
+      <c r="TL39" s="16"/>
+      <c r="TM39" s="16"/>
+      <c r="TN39" s="16"/>
+      <c r="TO39" s="16"/>
+      <c r="TP39" s="16"/>
+      <c r="TQ39" s="16"/>
+      <c r="TR39" s="16"/>
+      <c r="TS39" s="16"/>
+      <c r="TT39" s="16"/>
+      <c r="TU39" s="16"/>
+      <c r="TV39" s="16"/>
+      <c r="TW39" s="16"/>
+      <c r="TX39" s="16"/>
+      <c r="TY39" s="16"/>
+      <c r="TZ39" s="16"/>
+      <c r="UA39" s="16"/>
+      <c r="UB39" s="16"/>
+      <c r="UC39" s="16"/>
+      <c r="UD39" s="16"/>
+      <c r="UE39" s="16"/>
+      <c r="UF39" s="16"/>
+      <c r="UG39" s="16"/>
+      <c r="UH39" s="16"/>
+      <c r="UI39" s="16"/>
+      <c r="UJ39" s="16"/>
+      <c r="UK39" s="16"/>
+      <c r="UL39" s="16"/>
+      <c r="UM39" s="16"/>
+      <c r="UN39" s="16"/>
+      <c r="UO39" s="16"/>
+      <c r="UP39" s="16"/>
+      <c r="UQ39" s="16"/>
+      <c r="UR39" s="16"/>
+      <c r="US39" s="16"/>
+      <c r="UT39" s="16"/>
+      <c r="UU39" s="16"/>
+      <c r="UV39" s="16"/>
+      <c r="UW39" s="16"/>
+      <c r="UX39" s="16"/>
+      <c r="UY39" s="16"/>
+      <c r="UZ39" s="16"/>
+      <c r="VA39" s="16"/>
+      <c r="VB39" s="16"/>
+      <c r="VC39" s="16"/>
+      <c r="VD39" s="16"/>
+      <c r="VE39" s="16"/>
+      <c r="VF39" s="16"/>
+      <c r="VG39" s="16"/>
+      <c r="VH39" s="16"/>
+      <c r="VI39" s="16"/>
+      <c r="VJ39" s="16"/>
+      <c r="VK39" s="16"/>
+      <c r="VL39" s="16"/>
+      <c r="VM39" s="16"/>
+      <c r="VN39" s="16"/>
+      <c r="VO39" s="16"/>
+      <c r="VP39" s="16"/>
+      <c r="VQ39" s="16"/>
+      <c r="VR39" s="16"/>
+      <c r="VS39" s="16"/>
+      <c r="VT39" s="16"/>
+      <c r="VU39" s="16"/>
+      <c r="VV39" s="16"/>
+      <c r="VW39" s="16"/>
+      <c r="VX39" s="16"/>
+      <c r="VY39" s="16"/>
+      <c r="VZ39" s="16"/>
+      <c r="WA39" s="16"/>
+      <c r="WB39" s="16"/>
+      <c r="WC39" s="16"/>
+      <c r="WD39" s="16"/>
+      <c r="WE39" s="16"/>
+      <c r="WF39" s="16"/>
+      <c r="WG39" s="16"/>
+      <c r="WH39" s="16"/>
+      <c r="WI39" s="16"/>
+      <c r="WJ39" s="16"/>
+      <c r="WK39" s="16"/>
+      <c r="WL39" s="16"/>
+      <c r="WM39" s="16"/>
+      <c r="WN39" s="16"/>
+      <c r="WO39" s="16"/>
+      <c r="WP39" s="16"/>
+      <c r="WQ39" s="16"/>
+      <c r="WR39" s="16"/>
+      <c r="WS39" s="16"/>
+      <c r="WT39" s="16"/>
+      <c r="WU39" s="16"/>
+      <c r="WV39" s="16"/>
+      <c r="WW39" s="16"/>
+      <c r="WX39" s="16"/>
+      <c r="WY39" s="16"/>
+      <c r="WZ39" s="16"/>
+      <c r="XA39" s="16"/>
+      <c r="XB39" s="16"/>
+      <c r="XC39" s="16"/>
+      <c r="XD39" s="16"/>
+      <c r="XE39" s="16"/>
+      <c r="XF39" s="16"/>
+      <c r="XG39" s="16"/>
+      <c r="XH39" s="16"/>
+      <c r="XI39" s="16"/>
+      <c r="XJ39" s="16"/>
+      <c r="XK39" s="16"/>
+      <c r="XL39" s="16"/>
+      <c r="XM39" s="16"/>
+      <c r="XN39" s="16"/>
+      <c r="XO39" s="16"/>
+      <c r="XP39" s="16"/>
+      <c r="XQ39" s="16"/>
+      <c r="XR39" s="16"/>
+      <c r="XS39" s="16"/>
+      <c r="XT39" s="16"/>
+      <c r="XU39" s="16"/>
+      <c r="XV39" s="16"/>
+      <c r="XW39" s="16"/>
+      <c r="XX39" s="16"/>
+      <c r="XY39" s="16"/>
+      <c r="XZ39" s="16"/>
+      <c r="YA39" s="16"/>
+      <c r="YB39" s="16"/>
+      <c r="YC39" s="16"/>
+      <c r="YD39" s="16"/>
+      <c r="YE39" s="16"/>
+      <c r="YF39" s="16"/>
+      <c r="YG39" s="16"/>
+      <c r="YH39" s="16"/>
+      <c r="YI39" s="16"/>
+      <c r="YJ39" s="16"/>
+      <c r="YK39" s="16"/>
+      <c r="YL39" s="16"/>
+      <c r="YM39" s="16"/>
+      <c r="YN39" s="16"/>
+      <c r="YO39" s="16"/>
+      <c r="YP39" s="16"/>
+      <c r="YQ39" s="16"/>
+      <c r="YR39" s="16"/>
+      <c r="YS39" s="16"/>
+      <c r="YT39" s="16"/>
+      <c r="YU39" s="16"/>
+      <c r="YV39" s="16"/>
+      <c r="YW39" s="16"/>
+      <c r="YX39" s="16"/>
+      <c r="YY39" s="16"/>
+      <c r="YZ39" s="16"/>
+      <c r="ZA39" s="16"/>
+      <c r="ZB39" s="16"/>
+      <c r="ZC39" s="16"/>
+      <c r="ZD39" s="16"/>
+      <c r="ZE39" s="16"/>
+      <c r="ZF39" s="16"/>
+      <c r="ZG39" s="16"/>
+      <c r="ZH39" s="16"/>
+      <c r="ZI39" s="16"/>
+      <c r="ZJ39" s="16"/>
+      <c r="ZK39" s="16"/>
+      <c r="ZL39" s="16"/>
+      <c r="ZM39" s="16"/>
+      <c r="ZN39" s="16"/>
+      <c r="ZO39" s="16"/>
+      <c r="ZP39" s="16"/>
+      <c r="ZQ39" s="16"/>
+      <c r="ZR39" s="16"/>
+      <c r="ZS39" s="16"/>
+      <c r="ZT39" s="16"/>
+      <c r="ZU39" s="16"/>
+      <c r="ZV39" s="16"/>
+      <c r="ZW39" s="16"/>
+      <c r="ZX39" s="16"/>
+      <c r="ZY39" s="16"/>
+      <c r="ZZ39" s="16"/>
+      <c r="AAA39" s="16"/>
+      <c r="AAB39" s="16"/>
+      <c r="AAC39" s="16"/>
+      <c r="AAD39" s="16"/>
+      <c r="AAE39" s="16"/>
+      <c r="AAF39" s="16"/>
+      <c r="AAG39" s="16"/>
+      <c r="AAH39" s="16"/>
+      <c r="AAI39" s="16"/>
+      <c r="AAJ39" s="16"/>
+      <c r="AAK39" s="16"/>
+      <c r="AAL39" s="16"/>
+      <c r="AAM39" s="16"/>
+      <c r="AAN39" s="16"/>
+      <c r="AAO39" s="16"/>
+      <c r="AAP39" s="16"/>
+      <c r="AAQ39" s="16"/>
+      <c r="AAR39" s="16"/>
+      <c r="AAS39" s="16"/>
+      <c r="AAT39" s="16"/>
+      <c r="AAU39" s="16"/>
+      <c r="AAV39" s="16"/>
+      <c r="AAW39" s="16"/>
+      <c r="AAX39" s="16"/>
+      <c r="AAY39" s="16"/>
+      <c r="AAZ39" s="16"/>
+      <c r="ABA39" s="16"/>
+      <c r="ABB39" s="16"/>
+      <c r="ABC39" s="16"/>
+      <c r="ABD39" s="16"/>
+      <c r="ABE39" s="16"/>
+      <c r="ABF39" s="16"/>
+      <c r="ABG39" s="16"/>
+      <c r="ABH39" s="16"/>
+      <c r="ABI39" s="16"/>
+      <c r="ABJ39" s="16"/>
+      <c r="ABK39" s="16"/>
+      <c r="ABL39" s="16"/>
+      <c r="ABM39" s="16"/>
+      <c r="ABN39" s="16"/>
+      <c r="ABO39" s="16"/>
+      <c r="ABP39" s="16"/>
+      <c r="ABQ39" s="16"/>
+      <c r="ABR39" s="16"/>
+      <c r="ABS39" s="16"/>
+      <c r="ABT39" s="16"/>
+      <c r="ABU39" s="16"/>
+      <c r="ABV39" s="16"/>
+      <c r="ABW39" s="16"/>
+      <c r="ABX39" s="16"/>
+      <c r="ABY39" s="16"/>
+      <c r="ABZ39" s="16"/>
+      <c r="ACA39" s="16"/>
+      <c r="ACB39" s="16"/>
+      <c r="ACC39" s="16"/>
+      <c r="ACD39" s="16"/>
+      <c r="ACE39" s="16"/>
+      <c r="ACF39" s="16"/>
+      <c r="ACG39" s="16"/>
+      <c r="ACH39" s="16"/>
+      <c r="ACI39" s="16"/>
+      <c r="ACJ39" s="16"/>
+      <c r="ACK39" s="16"/>
+      <c r="ACL39" s="16"/>
+      <c r="ACM39" s="16"/>
+      <c r="ACN39" s="16"/>
+      <c r="ACO39" s="16"/>
+      <c r="ACP39" s="16"/>
+      <c r="ACQ39" s="16"/>
+      <c r="ACR39" s="16"/>
+      <c r="ACS39" s="16"/>
+      <c r="ACT39" s="16"/>
+      <c r="ACU39" s="16"/>
+      <c r="ACV39" s="16"/>
+      <c r="ACW39" s="16"/>
+      <c r="ACX39" s="16"/>
+      <c r="ACY39" s="16"/>
+      <c r="ACZ39" s="16"/>
+      <c r="ADA39" s="16"/>
+      <c r="ADB39" s="16"/>
+      <c r="ADC39" s="16"/>
+      <c r="ADD39" s="16"/>
+      <c r="ADE39" s="16"/>
+      <c r="ADF39" s="16"/>
+      <c r="ADG39" s="16"/>
+      <c r="ADH39" s="16"/>
+      <c r="ADI39" s="16"/>
+      <c r="ADJ39" s="16"/>
+      <c r="ADK39" s="16"/>
+      <c r="ADL39" s="16"/>
+      <c r="ADM39" s="16"/>
+      <c r="ADN39" s="16"/>
+      <c r="ADO39" s="16"/>
+      <c r="ADP39" s="16"/>
+      <c r="ADQ39" s="16"/>
+      <c r="ADR39" s="16"/>
+      <c r="ADS39" s="16"/>
+      <c r="ADT39" s="16"/>
+      <c r="ADU39" s="16"/>
+      <c r="ADV39" s="16"/>
+      <c r="ADW39" s="16"/>
+      <c r="ADX39" s="16"/>
+      <c r="ADY39" s="16"/>
+      <c r="ADZ39" s="16"/>
+      <c r="AEA39" s="16"/>
+      <c r="AEB39" s="16"/>
+      <c r="AEC39" s="16"/>
+      <c r="AED39" s="16"/>
+      <c r="AEE39" s="16"/>
+      <c r="AEF39" s="16"/>
+      <c r="AEG39" s="16"/>
+      <c r="AEH39" s="16"/>
+      <c r="AEI39" s="16"/>
+      <c r="AEJ39" s="16"/>
+      <c r="AEK39" s="16"/>
+      <c r="AEL39" s="16"/>
+      <c r="AEM39" s="16"/>
+      <c r="AEN39" s="16"/>
+      <c r="AEO39" s="16"/>
+      <c r="AEP39" s="16"/>
+      <c r="AEQ39" s="16"/>
+      <c r="AER39" s="16"/>
+      <c r="AES39" s="16"/>
+      <c r="AET39" s="16"/>
+      <c r="AEU39" s="16"/>
+      <c r="AEV39" s="16"/>
+      <c r="AEW39" s="16"/>
+      <c r="AEX39" s="16"/>
+      <c r="AEY39" s="16"/>
+      <c r="AEZ39" s="16"/>
+      <c r="AFA39" s="16"/>
+      <c r="AFB39" s="16"/>
+      <c r="AFC39" s="16"/>
+      <c r="AFD39" s="16"/>
+      <c r="AFE39" s="16"/>
+      <c r="AFF39" s="16"/>
+      <c r="AFG39" s="16"/>
+      <c r="AFH39" s="16"/>
+      <c r="AFI39" s="16"/>
+      <c r="AFJ39" s="16"/>
+      <c r="AFK39" s="16"/>
+      <c r="AFL39" s="16"/>
+      <c r="AFM39" s="16"/>
+      <c r="AFN39" s="16"/>
+      <c r="AFO39" s="16"/>
+      <c r="AFP39" s="16"/>
+      <c r="AFQ39" s="16"/>
+      <c r="AFR39" s="16"/>
+      <c r="AFS39" s="16"/>
+      <c r="AFT39" s="16"/>
+      <c r="AFU39" s="16"/>
+      <c r="AFV39" s="16"/>
+      <c r="AFW39" s="16"/>
+      <c r="AFX39" s="16"/>
+      <c r="AFY39" s="16"/>
+      <c r="AFZ39" s="16"/>
+      <c r="AGA39" s="16"/>
+      <c r="AGB39" s="16"/>
+      <c r="AGC39" s="16"/>
+      <c r="AGD39" s="16"/>
+      <c r="AGE39" s="16"/>
+      <c r="AGF39" s="16"/>
+      <c r="AGG39" s="16"/>
+      <c r="AGH39" s="16"/>
+      <c r="AGI39" s="16"/>
+      <c r="AGJ39" s="16"/>
+      <c r="AGK39" s="16"/>
+      <c r="AGL39" s="16"/>
+      <c r="AGM39" s="16"/>
+      <c r="AGN39" s="16"/>
+      <c r="AGO39" s="16"/>
+      <c r="AGP39" s="16"/>
+      <c r="AGQ39" s="16"/>
+      <c r="AGR39" s="16"/>
+      <c r="AGS39" s="16"/>
+      <c r="AGT39" s="16"/>
+      <c r="AGU39" s="16"/>
+      <c r="AGV39" s="16"/>
+      <c r="AGW39" s="16"/>
+      <c r="AGX39" s="16"/>
+      <c r="AGY39" s="16"/>
+      <c r="AGZ39" s="16"/>
+      <c r="AHA39" s="16"/>
+      <c r="AHB39" s="16"/>
+      <c r="AHC39" s="16"/>
+      <c r="AHD39" s="16"/>
+      <c r="AHE39" s="16"/>
+      <c r="AHF39" s="16"/>
+      <c r="AHG39" s="16"/>
+      <c r="AHH39" s="16"/>
+      <c r="AHI39" s="16"/>
+      <c r="AHJ39" s="16"/>
+      <c r="AHK39" s="16"/>
+      <c r="AHL39" s="16"/>
+      <c r="AHM39" s="16"/>
+      <c r="AHN39" s="16"/>
+      <c r="AHO39" s="16"/>
+      <c r="AHP39" s="16"/>
+      <c r="AHQ39" s="16"/>
+      <c r="AHR39" s="16"/>
+      <c r="AHS39" s="16"/>
+      <c r="AHT39" s="16"/>
+      <c r="AHU39" s="16"/>
+      <c r="AHV39" s="16"/>
+      <c r="AHW39" s="16"/>
+      <c r="AHX39" s="16"/>
+      <c r="AHY39" s="16"/>
+      <c r="AHZ39" s="16"/>
+      <c r="AIA39" s="16"/>
+      <c r="AIB39" s="16"/>
+      <c r="AIC39" s="16"/>
+      <c r="AID39" s="16"/>
+      <c r="AIE39" s="16"/>
+      <c r="AIF39" s="16"/>
+      <c r="AIG39" s="16"/>
+      <c r="AIH39" s="16"/>
+      <c r="AII39" s="16"/>
+      <c r="AIJ39" s="16"/>
+      <c r="AIK39" s="16"/>
+      <c r="AIL39" s="16"/>
+      <c r="AIM39" s="16"/>
+      <c r="AIN39" s="16"/>
+      <c r="AIO39" s="16"/>
+      <c r="AIP39" s="16"/>
+      <c r="AIQ39" s="16"/>
+      <c r="AIR39" s="16"/>
+      <c r="AIS39" s="16"/>
+      <c r="AIT39" s="16"/>
+      <c r="AIU39" s="16"/>
+      <c r="AIV39" s="16"/>
+      <c r="AIW39" s="16"/>
+      <c r="AIX39" s="16"/>
+      <c r="AIY39" s="16"/>
+      <c r="AIZ39" s="16"/>
+      <c r="AJA39" s="16"/>
+      <c r="AJB39" s="16"/>
+      <c r="AJC39" s="16"/>
+      <c r="AJD39" s="16"/>
+      <c r="AJE39" s="16"/>
+      <c r="AJF39" s="16"/>
+      <c r="AJG39" s="16"/>
+      <c r="AJH39" s="16"/>
+      <c r="AJI39" s="16"/>
+      <c r="AJJ39" s="16"/>
+      <c r="AJK39" s="16"/>
+      <c r="AJL39" s="16"/>
+      <c r="AJM39" s="16"/>
+      <c r="AJN39" s="16"/>
+      <c r="AJO39" s="16"/>
+      <c r="AJP39" s="16"/>
+      <c r="AJQ39" s="16"/>
+      <c r="AJR39" s="16"/>
+      <c r="AJS39" s="16"/>
+      <c r="AJT39" s="16"/>
+      <c r="AJU39" s="16"/>
+      <c r="AJV39" s="16"/>
+      <c r="AJW39" s="16"/>
+      <c r="AJX39" s="16"/>
+      <c r="AJY39" s="16"/>
+      <c r="AJZ39" s="16"/>
+      <c r="AKA39" s="16"/>
+      <c r="AKB39" s="16"/>
+      <c r="AKC39" s="16"/>
+      <c r="AKD39" s="16"/>
+      <c r="AKE39" s="16"/>
+      <c r="AKF39" s="16"/>
+      <c r="AKG39" s="16"/>
+      <c r="AKH39" s="16"/>
+      <c r="AKI39" s="16"/>
+      <c r="AKJ39" s="16"/>
+      <c r="AKK39" s="16"/>
+      <c r="AKL39" s="16"/>
+      <c r="AKM39" s="16"/>
+      <c r="AKN39" s="16"/>
+      <c r="AKO39" s="16"/>
+      <c r="AKP39" s="16"/>
+      <c r="AKQ39" s="16"/>
+      <c r="AKR39" s="16"/>
+      <c r="AKS39" s="16"/>
+      <c r="AKT39" s="16"/>
+      <c r="AKU39" s="16"/>
+      <c r="AKV39" s="16"/>
+      <c r="AKW39" s="16"/>
+      <c r="AKX39" s="16"/>
+      <c r="AKY39" s="16"/>
+      <c r="AKZ39" s="16"/>
+      <c r="ALA39" s="16"/>
+      <c r="ALB39" s="16"/>
+      <c r="ALC39" s="16"/>
+      <c r="ALD39" s="16"/>
+      <c r="ALE39" s="16"/>
+      <c r="ALF39" s="16"/>
+      <c r="ALG39" s="16"/>
+      <c r="ALH39" s="16"/>
+      <c r="ALI39" s="16"/>
+      <c r="ALJ39" s="16"/>
+      <c r="ALK39" s="16"/>
+      <c r="ALL39" s="16"/>
+      <c r="ALM39" s="16"/>
+      <c r="ALN39" s="16"/>
+      <c r="ALO39" s="16"/>
+      <c r="ALP39" s="16"/>
+      <c r="ALQ39" s="16"/>
+      <c r="ALR39" s="16"/>
+      <c r="ALS39" s="16"/>
+      <c r="ALT39" s="16"/>
+      <c r="ALU39" s="16"/>
+      <c r="ALV39" s="16"/>
+      <c r="ALW39" s="16"/>
+      <c r="ALX39" s="16"/>
+      <c r="ALY39" s="16"/>
+      <c r="ALZ39" s="16"/>
+      <c r="AMA39" s="16"/>
+      <c r="AMB39" s="16"/>
+      <c r="AMC39" s="16"/>
+      <c r="AMD39" s="16"/>
+      <c r="AME39" s="16"/>
+      <c r="AMF39" s="16"/>
+      <c r="AMG39" s="16"/>
+      <c r="AMH39" s="16"/>
+      <c r="AMI39" s="16"/>
+      <c r="AMJ39" s="16"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t xml:space="preserve">July-Dec</t>
   </si>
@@ -564,8 +564,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -654,6 +654,9 @@
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -684,21 +687,33 @@
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -726,7 +741,12 @@
       <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
@@ -734,7 +754,12 @@
       <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
@@ -742,13 +767,21 @@
       <c r="A19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -758,6 +791,9 @@
       <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -765,6 +801,9 @@
     <row r="22" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
         <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t xml:space="preserve">July-Dec</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t xml:space="preserve">Seminary Chapel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep-Dec</t>
   </si>
   <si>
     <t xml:space="preserve">reset master to goarch</t>
@@ -364,7 +361,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -564,8 +561,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -760,8 +757,12 @@
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -773,8 +774,12 @@
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
@@ -783,9 +788,15 @@
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
@@ -794,9 +805,15 @@
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
@@ -805,9 +822,15 @@
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
@@ -822,10 +845,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="2"/>
@@ -840,12 +863,15 @@
     </row>
     <row r="26" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -856,7 +882,10 @@
     </row>
     <row r="28" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -864,7 +893,10 @@
     </row>
     <row r="29" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -872,7 +904,10 @@
     </row>
     <row r="30" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -880,7 +915,10 @@
     </row>
     <row r="31" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -888,7 +926,10 @@
     </row>
     <row r="32" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -896,7 +937,10 @@
     </row>
     <row r="33" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -904,7 +948,7 @@
     </row>
     <row r="34" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -912,7 +956,7 @@
     </row>
     <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1940,7 +1984,7 @@
     </row>
     <row r="36" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2968,7 +3012,7 @@
     </row>
     <row r="37" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -3996,7 +4040,7 @@
     </row>
     <row r="38" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -5024,7 +5068,7 @@
     </row>
     <row r="39" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
-    <t xml:space="preserve">July-Dec</t>
+    <t xml:space="preserve">Jan-Jun 2026</t>
   </si>
   <si>
     <t xml:space="preserve">Check template status</t>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">Archive old months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">Edit archive links in booksindex</t>
@@ -89,9 +86,6 @@
     <t xml:space="preserve">Generate html English</t>
   </si>
   <si>
-    <t xml:space="preserve">Jul-Dec</t>
-  </si>
-  <si>
     <t xml:space="preserve">Find and fix empty strings: select h/s and Find: &lt;p class='hymn'&gt;&lt;span class='kvp dummy'</t>
   </si>
   <si>
@@ -142,22 +136,22 @@
     <t xml:space="preserve">pdf G</t>
   </si>
   <si>
-    <t xml:space="preserve">Jul</t>
+    <t xml:space="preserve">Jan</t>
   </si>
   <si>
-    <t xml:space="preserve">Aug</t>
+    <t xml:space="preserve">Feb</t>
   </si>
   <si>
-    <t xml:space="preserve">Sep</t>
+    <t xml:space="preserve">Mar</t>
   </si>
   <si>
-    <t xml:space="preserve">Oct</t>
+    <t xml:space="preserve">Apr</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov</t>
+    <t xml:space="preserve">May</t>
   </si>
   <si>
-    <t xml:space="preserve">Dec</t>
+    <t xml:space="preserve">Jun</t>
   </si>
   <si>
     <t xml:space="preserve">set master to hchcchapel (website should be set to goa)</t>
@@ -386,7 +380,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,8 +577,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -596,7 +590,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="n">
-        <v>45717</v>
+        <v>45975</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -619,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -627,10 +621,10 @@
     </row>
     <row r="4" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -638,10 +632,10 @@
     </row>
     <row r="5" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -649,10 +643,10 @@
     </row>
     <row r="6" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -660,7 +654,7 @@
     </row>
     <row r="7" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>2</v>
@@ -671,7 +665,7 @@
     </row>
     <row r="8" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -682,21 +676,19 @@
     </row>
     <row r="9" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -704,7 +696,7 @@
     </row>
     <row r="11" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -712,7 +704,7 @@
     </row>
     <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
@@ -720,143 +712,95 @@
     </row>
     <row r="13" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -864,20 +808,16 @@
     </row>
     <row r="24" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="14"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -885,92 +825,76 @@
     </row>
     <row r="26" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -978,10 +902,10 @@
     </row>
     <row r="35" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -989,10 +913,10 @@
     </row>
     <row r="36" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1000,7 +924,7 @@
     </row>
     <row r="37" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2028,7 +1952,7 @@
     </row>
     <row r="38" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -3056,7 +2980,7 @@
     </row>
     <row r="39" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -4084,7 +4008,7 @@
     </row>
     <row r="40" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -5112,7 +5036,7 @@
     </row>
     <row r="41" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/generation check list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t xml:space="preserve">Jul-Dec</t>
   </si>
@@ -83,6 +83,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">select which dates to generate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Generate html English</t>
   </si>
   <si>
@@ -92,7 +95,7 @@
     <t xml:space="preserve">Find and fix empty strings: select h/s and Find: &lt;p class='reading'&gt;&lt;span class='kvp dummy'</t>
   </si>
   <si>
-    <t xml:space="preserve">set master to goarch</t>
+    <t xml:space="preserve">set client to goarch / website to goa</t>
   </si>
   <si>
     <r>
@@ -158,22 +161,28 @@
     <t xml:space="preserve">brand pdf covers</t>
   </si>
   <si>
-    <t xml:space="preserve">set master to hchcchapel (website should be set to goa)</t>
+    <t xml:space="preserve">set client to hchcchapel (website should be set to goa)</t>
   </si>
   <si>
-    <t xml:space="preserve">Seminary Chapel</t>
+    <t xml:space="preserve">select Seminary Chapel services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generate Seminary Chapel services</t>
   </si>
   <si>
     <t xml:space="preserve">Aug-Dec</t>
   </si>
   <si>
-    <t xml:space="preserve">reset master to goarch</t>
+    <t xml:space="preserve">reset client to goarch (website should be goa)</t>
   </si>
   <si>
     <t xml:space="preserve">remove last day of Dec when applicable</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete old indexes</t>
+    <t xml:space="preserve">Delete old indexes from goa/dcs/indexes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set Indexer to yes</t>
   </si>
   <si>
     <r>
@@ -199,26 +208,26 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Edit blank / _app in assets</t>
+    <t xml:space="preserve">Edit blank.html and blank_app.html in assets project to announce new content</t>
   </si>
   <si>
     <t xml:space="preserve">Generate Website</t>
   </si>
   <si>
-    <t xml:space="preserve">Turn off goa site indexer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reset master to test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify indexes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add google analytics code to html, using the java utility</t>
+    <t xml:space="preserve">add google analytics code</t>
   </si>
   <si>
     <t xml:space="preserve">Find: (&lt;html&gt;\R\t&lt;head&gt;\R)
 Replace: $1&lt;!-- Google tag \(gtag\.js\) --&gt;\R&lt;script async src="https://www\.googletagmanager\.com/gtag/js\?id=G-LKDVHGGRVQ"&gt;&lt;/script&gt;\R&lt;script&gt;\R  window\.dataLayer = window\.dataLayer \|\| \[\];\R  function gtag\(\)\{dataLayer\.push\(arguments\);\}\R  gtag\('js', new Date\(\)\);\R\R  gtag\('config', 'G-LKDVHGGRVQ'\);\R&lt;/script&gt;\R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn off goa site indexer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reset client to test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify indexes</t>
   </si>
   <si>
     <t xml:space="preserve">Rename goa website folder
@@ -602,15 +611,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ41"/>
+  <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="3" width="11.53"/>
   </cols>
@@ -712,13 +721,11 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -730,6 +737,9 @@
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
@@ -748,7 +758,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -756,42 +766,33 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -812,7 +813,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -880,60 +881,67 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="15"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>32</v>
+      <c r="A28" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>2</v>
@@ -949,12 +957,9 @@
       <c r="B29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -976,19 +981,21 @@
       <c r="E31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>2</v>
@@ -999,7 +1006,7 @@
     </row>
     <row r="34" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>2</v>
@@ -1009,2092 +1016,54 @@
       <c r="E34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>39</v>
+      <c r="A35" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="s">
-        <v>40</v>
+      <c r="A36" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="s">
-        <v>42</v>
+    <row r="37" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="18"/>
-      <c r="AF37" s="18"/>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="18"/>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="18"/>
-      <c r="AK37" s="18"/>
-      <c r="AL37" s="18"/>
-      <c r="AM37" s="18"/>
-      <c r="AN37" s="18"/>
-      <c r="AO37" s="18"/>
-      <c r="AP37" s="18"/>
-      <c r="AQ37" s="18"/>
-      <c r="AR37" s="18"/>
-      <c r="AS37" s="18"/>
-      <c r="AT37" s="18"/>
-      <c r="AU37" s="18"/>
-      <c r="AV37" s="18"/>
-      <c r="AW37" s="18"/>
-      <c r="AX37" s="18"/>
-      <c r="AY37" s="18"/>
-      <c r="AZ37" s="18"/>
-      <c r="BA37" s="18"/>
-      <c r="BB37" s="18"/>
-      <c r="BC37" s="18"/>
-      <c r="BD37" s="18"/>
-      <c r="BE37" s="18"/>
-      <c r="BF37" s="18"/>
-      <c r="BG37" s="18"/>
-      <c r="BH37" s="18"/>
-      <c r="BI37" s="18"/>
-      <c r="BJ37" s="18"/>
-      <c r="BK37" s="18"/>
-      <c r="BL37" s="18"/>
-      <c r="BM37" s="18"/>
-      <c r="BN37" s="18"/>
-      <c r="BO37" s="18"/>
-      <c r="BP37" s="18"/>
-      <c r="BQ37" s="18"/>
-      <c r="BR37" s="18"/>
-      <c r="BS37" s="18"/>
-      <c r="BT37" s="18"/>
-      <c r="BU37" s="18"/>
-      <c r="BV37" s="18"/>
-      <c r="BW37" s="18"/>
-      <c r="BX37" s="18"/>
-      <c r="BY37" s="18"/>
-      <c r="BZ37" s="18"/>
-      <c r="CA37" s="18"/>
-      <c r="CB37" s="18"/>
-      <c r="CC37" s="18"/>
-      <c r="CD37" s="18"/>
-      <c r="CE37" s="18"/>
-      <c r="CF37" s="18"/>
-      <c r="CG37" s="18"/>
-      <c r="CH37" s="18"/>
-      <c r="CI37" s="18"/>
-      <c r="CJ37" s="18"/>
-      <c r="CK37" s="18"/>
-      <c r="CL37" s="18"/>
-      <c r="CM37" s="18"/>
-      <c r="CN37" s="18"/>
-      <c r="CO37" s="18"/>
-      <c r="CP37" s="18"/>
-      <c r="CQ37" s="18"/>
-      <c r="CR37" s="18"/>
-      <c r="CS37" s="18"/>
-      <c r="CT37" s="18"/>
-      <c r="CU37" s="18"/>
-      <c r="CV37" s="18"/>
-      <c r="CW37" s="18"/>
-      <c r="CX37" s="18"/>
-      <c r="CY37" s="18"/>
-      <c r="CZ37" s="18"/>
-      <c r="DA37" s="18"/>
-      <c r="DB37" s="18"/>
-      <c r="DC37" s="18"/>
-      <c r="DD37" s="18"/>
-      <c r="DE37" s="18"/>
-      <c r="DF37" s="18"/>
-      <c r="DG37" s="18"/>
-      <c r="DH37" s="18"/>
-      <c r="DI37" s="18"/>
-      <c r="DJ37" s="18"/>
-      <c r="DK37" s="18"/>
-      <c r="DL37" s="18"/>
-      <c r="DM37" s="18"/>
-      <c r="DN37" s="18"/>
-      <c r="DO37" s="18"/>
-      <c r="DP37" s="18"/>
-      <c r="DQ37" s="18"/>
-      <c r="DR37" s="18"/>
-      <c r="DS37" s="18"/>
-      <c r="DT37" s="18"/>
-      <c r="DU37" s="18"/>
-      <c r="DV37" s="18"/>
-      <c r="DW37" s="18"/>
-      <c r="DX37" s="18"/>
-      <c r="DY37" s="18"/>
-      <c r="DZ37" s="18"/>
-      <c r="EA37" s="18"/>
-      <c r="EB37" s="18"/>
-      <c r="EC37" s="18"/>
-      <c r="ED37" s="18"/>
-      <c r="EE37" s="18"/>
-      <c r="EF37" s="18"/>
-      <c r="EG37" s="18"/>
-      <c r="EH37" s="18"/>
-      <c r="EI37" s="18"/>
-      <c r="EJ37" s="18"/>
-      <c r="EK37" s="18"/>
-      <c r="EL37" s="18"/>
-      <c r="EM37" s="18"/>
-      <c r="EN37" s="18"/>
-      <c r="EO37" s="18"/>
-      <c r="EP37" s="18"/>
-      <c r="EQ37" s="18"/>
-      <c r="ER37" s="18"/>
-      <c r="ES37" s="18"/>
-      <c r="ET37" s="18"/>
-      <c r="EU37" s="18"/>
-      <c r="EV37" s="18"/>
-      <c r="EW37" s="18"/>
-      <c r="EX37" s="18"/>
-      <c r="EY37" s="18"/>
-      <c r="EZ37" s="18"/>
-      <c r="FA37" s="18"/>
-      <c r="FB37" s="18"/>
-      <c r="FC37" s="18"/>
-      <c r="FD37" s="18"/>
-      <c r="FE37" s="18"/>
-      <c r="FF37" s="18"/>
-      <c r="FG37" s="18"/>
-      <c r="FH37" s="18"/>
-      <c r="FI37" s="18"/>
-      <c r="FJ37" s="18"/>
-      <c r="FK37" s="18"/>
-      <c r="FL37" s="18"/>
-      <c r="FM37" s="18"/>
-      <c r="FN37" s="18"/>
-      <c r="FO37" s="18"/>
-      <c r="FP37" s="18"/>
-      <c r="FQ37" s="18"/>
-      <c r="FR37" s="18"/>
-      <c r="FS37" s="18"/>
-      <c r="FT37" s="18"/>
-      <c r="FU37" s="18"/>
-      <c r="FV37" s="18"/>
-      <c r="FW37" s="18"/>
-      <c r="FX37" s="18"/>
-      <c r="FY37" s="18"/>
-      <c r="FZ37" s="18"/>
-      <c r="GA37" s="18"/>
-      <c r="GB37" s="18"/>
-      <c r="GC37" s="18"/>
-      <c r="GD37" s="18"/>
-      <c r="GE37" s="18"/>
-      <c r="GF37" s="18"/>
-      <c r="GG37" s="18"/>
-      <c r="GH37" s="18"/>
-      <c r="GI37" s="18"/>
-      <c r="GJ37" s="18"/>
-      <c r="GK37" s="18"/>
-      <c r="GL37" s="18"/>
-      <c r="GM37" s="18"/>
-      <c r="GN37" s="18"/>
-      <c r="GO37" s="18"/>
-      <c r="GP37" s="18"/>
-      <c r="GQ37" s="18"/>
-      <c r="GR37" s="18"/>
-      <c r="GS37" s="18"/>
-      <c r="GT37" s="18"/>
-      <c r="GU37" s="18"/>
-      <c r="GV37" s="18"/>
-      <c r="GW37" s="18"/>
-      <c r="GX37" s="18"/>
-      <c r="GY37" s="18"/>
-      <c r="GZ37" s="18"/>
-      <c r="HA37" s="18"/>
-      <c r="HB37" s="18"/>
-      <c r="HC37" s="18"/>
-      <c r="HD37" s="18"/>
-      <c r="HE37" s="18"/>
-      <c r="HF37" s="18"/>
-      <c r="HG37" s="18"/>
-      <c r="HH37" s="18"/>
-      <c r="HI37" s="18"/>
-      <c r="HJ37" s="18"/>
-      <c r="HK37" s="18"/>
-      <c r="HL37" s="18"/>
-      <c r="HM37" s="18"/>
-      <c r="HN37" s="18"/>
-      <c r="HO37" s="18"/>
-      <c r="HP37" s="18"/>
-      <c r="HQ37" s="18"/>
-      <c r="HR37" s="18"/>
-      <c r="HS37" s="18"/>
-      <c r="HT37" s="18"/>
-      <c r="HU37" s="18"/>
-      <c r="HV37" s="18"/>
-      <c r="HW37" s="18"/>
-      <c r="HX37" s="18"/>
-      <c r="HY37" s="18"/>
-      <c r="HZ37" s="18"/>
-      <c r="IA37" s="18"/>
-      <c r="IB37" s="18"/>
-      <c r="IC37" s="18"/>
-      <c r="ID37" s="18"/>
-      <c r="IE37" s="18"/>
-      <c r="IF37" s="18"/>
-      <c r="IG37" s="18"/>
-      <c r="IH37" s="18"/>
-      <c r="II37" s="18"/>
-      <c r="IJ37" s="18"/>
-      <c r="IK37" s="18"/>
-      <c r="IL37" s="18"/>
-      <c r="IM37" s="18"/>
-      <c r="IN37" s="18"/>
-      <c r="IO37" s="18"/>
-      <c r="IP37" s="18"/>
-      <c r="IQ37" s="18"/>
-      <c r="IR37" s="18"/>
-      <c r="IS37" s="18"/>
-      <c r="IT37" s="18"/>
-      <c r="IU37" s="18"/>
-      <c r="IV37" s="18"/>
-      <c r="IW37" s="18"/>
-      <c r="IX37" s="18"/>
-      <c r="IY37" s="18"/>
-      <c r="IZ37" s="18"/>
-      <c r="JA37" s="18"/>
-      <c r="JB37" s="18"/>
-      <c r="JC37" s="18"/>
-      <c r="JD37" s="18"/>
-      <c r="JE37" s="18"/>
-      <c r="JF37" s="18"/>
-      <c r="JG37" s="18"/>
-      <c r="JH37" s="18"/>
-      <c r="JI37" s="18"/>
-      <c r="JJ37" s="18"/>
-      <c r="JK37" s="18"/>
-      <c r="JL37" s="18"/>
-      <c r="JM37" s="18"/>
-      <c r="JN37" s="18"/>
-      <c r="JO37" s="18"/>
-      <c r="JP37" s="18"/>
-      <c r="JQ37" s="18"/>
-      <c r="JR37" s="18"/>
-      <c r="JS37" s="18"/>
-      <c r="JT37" s="18"/>
-      <c r="JU37" s="18"/>
-      <c r="JV37" s="18"/>
-      <c r="JW37" s="18"/>
-      <c r="JX37" s="18"/>
-      <c r="JY37" s="18"/>
-      <c r="JZ37" s="18"/>
-      <c r="KA37" s="18"/>
-      <c r="KB37" s="18"/>
-      <c r="KC37" s="18"/>
-      <c r="KD37" s="18"/>
-      <c r="KE37" s="18"/>
-      <c r="KF37" s="18"/>
-      <c r="KG37" s="18"/>
-      <c r="KH37" s="18"/>
-      <c r="KI37" s="18"/>
-      <c r="KJ37" s="18"/>
-      <c r="KK37" s="18"/>
-      <c r="KL37" s="18"/>
-      <c r="KM37" s="18"/>
-      <c r="KN37" s="18"/>
-      <c r="KO37" s="18"/>
-      <c r="KP37" s="18"/>
-      <c r="KQ37" s="18"/>
-      <c r="KR37" s="18"/>
-      <c r="KS37" s="18"/>
-      <c r="KT37" s="18"/>
-      <c r="KU37" s="18"/>
-      <c r="KV37" s="18"/>
-      <c r="KW37" s="18"/>
-      <c r="KX37" s="18"/>
-      <c r="KY37" s="18"/>
-      <c r="KZ37" s="18"/>
-      <c r="LA37" s="18"/>
-      <c r="LB37" s="18"/>
-      <c r="LC37" s="18"/>
-      <c r="LD37" s="18"/>
-      <c r="LE37" s="18"/>
-      <c r="LF37" s="18"/>
-      <c r="LG37" s="18"/>
-      <c r="LH37" s="18"/>
-      <c r="LI37" s="18"/>
-      <c r="LJ37" s="18"/>
-      <c r="LK37" s="18"/>
-      <c r="LL37" s="18"/>
-      <c r="LM37" s="18"/>
-      <c r="LN37" s="18"/>
-      <c r="LO37" s="18"/>
-      <c r="LP37" s="18"/>
-      <c r="LQ37" s="18"/>
-      <c r="LR37" s="18"/>
-      <c r="LS37" s="18"/>
-      <c r="LT37" s="18"/>
-      <c r="LU37" s="18"/>
-      <c r="LV37" s="18"/>
-      <c r="LW37" s="18"/>
-      <c r="LX37" s="18"/>
-      <c r="LY37" s="18"/>
-      <c r="LZ37" s="18"/>
-      <c r="MA37" s="18"/>
-      <c r="MB37" s="18"/>
-      <c r="MC37" s="18"/>
-      <c r="MD37" s="18"/>
-      <c r="ME37" s="18"/>
-      <c r="MF37" s="18"/>
-      <c r="MG37" s="18"/>
-      <c r="MH37" s="18"/>
-      <c r="MI37" s="18"/>
-      <c r="MJ37" s="18"/>
-      <c r="MK37" s="18"/>
-      <c r="ML37" s="18"/>
-      <c r="MM37" s="18"/>
-      <c r="MN37" s="18"/>
-      <c r="MO37" s="18"/>
-      <c r="MP37" s="18"/>
-      <c r="MQ37" s="18"/>
-      <c r="MR37" s="18"/>
-      <c r="MS37" s="18"/>
-      <c r="MT37" s="18"/>
-      <c r="MU37" s="18"/>
-      <c r="MV37" s="18"/>
-      <c r="MW37" s="18"/>
-      <c r="MX37" s="18"/>
-      <c r="MY37" s="18"/>
-      <c r="MZ37" s="18"/>
-      <c r="NA37" s="18"/>
-      <c r="NB37" s="18"/>
-      <c r="NC37" s="18"/>
-      <c r="ND37" s="18"/>
-      <c r="NE37" s="18"/>
-      <c r="NF37" s="18"/>
-      <c r="NG37" s="18"/>
-      <c r="NH37" s="18"/>
-      <c r="NI37" s="18"/>
-      <c r="NJ37" s="18"/>
-      <c r="NK37" s="18"/>
-      <c r="NL37" s="18"/>
-      <c r="NM37" s="18"/>
-      <c r="NN37" s="18"/>
-      <c r="NO37" s="18"/>
-      <c r="NP37" s="18"/>
-      <c r="NQ37" s="18"/>
-      <c r="NR37" s="18"/>
-      <c r="NS37" s="18"/>
-      <c r="NT37" s="18"/>
-      <c r="NU37" s="18"/>
-      <c r="NV37" s="18"/>
-      <c r="NW37" s="18"/>
-      <c r="NX37" s="18"/>
-      <c r="NY37" s="18"/>
-      <c r="NZ37" s="18"/>
-      <c r="OA37" s="18"/>
-      <c r="OB37" s="18"/>
-      <c r="OC37" s="18"/>
-      <c r="OD37" s="18"/>
-      <c r="OE37" s="18"/>
-      <c r="OF37" s="18"/>
-      <c r="OG37" s="18"/>
-      <c r="OH37" s="18"/>
-      <c r="OI37" s="18"/>
-      <c r="OJ37" s="18"/>
-      <c r="OK37" s="18"/>
-      <c r="OL37" s="18"/>
-      <c r="OM37" s="18"/>
-      <c r="ON37" s="18"/>
-      <c r="OO37" s="18"/>
-      <c r="OP37" s="18"/>
-      <c r="OQ37" s="18"/>
-      <c r="OR37" s="18"/>
-      <c r="OS37" s="18"/>
-      <c r="OT37" s="18"/>
-      <c r="OU37" s="18"/>
-      <c r="OV37" s="18"/>
-      <c r="OW37" s="18"/>
-      <c r="OX37" s="18"/>
-      <c r="OY37" s="18"/>
-      <c r="OZ37" s="18"/>
-      <c r="PA37" s="18"/>
-      <c r="PB37" s="18"/>
-      <c r="PC37" s="18"/>
-      <c r="PD37" s="18"/>
-      <c r="PE37" s="18"/>
-      <c r="PF37" s="18"/>
-      <c r="PG37" s="18"/>
-      <c r="PH37" s="18"/>
-      <c r="PI37" s="18"/>
-      <c r="PJ37" s="18"/>
-      <c r="PK37" s="18"/>
-      <c r="PL37" s="18"/>
-      <c r="PM37" s="18"/>
-      <c r="PN37" s="18"/>
-      <c r="PO37" s="18"/>
-      <c r="PP37" s="18"/>
-      <c r="PQ37" s="18"/>
-      <c r="PR37" s="18"/>
-      <c r="PS37" s="18"/>
-      <c r="PT37" s="18"/>
-      <c r="PU37" s="18"/>
-      <c r="PV37" s="18"/>
-      <c r="PW37" s="18"/>
-      <c r="PX37" s="18"/>
-      <c r="PY37" s="18"/>
-      <c r="PZ37" s="18"/>
-      <c r="QA37" s="18"/>
-      <c r="QB37" s="18"/>
-      <c r="QC37" s="18"/>
-      <c r="QD37" s="18"/>
-      <c r="QE37" s="18"/>
-      <c r="QF37" s="18"/>
-      <c r="QG37" s="18"/>
-      <c r="QH37" s="18"/>
-      <c r="QI37" s="18"/>
-      <c r="QJ37" s="18"/>
-      <c r="QK37" s="18"/>
-      <c r="QL37" s="18"/>
-      <c r="QM37" s="18"/>
-      <c r="QN37" s="18"/>
-      <c r="QO37" s="18"/>
-      <c r="QP37" s="18"/>
-      <c r="QQ37" s="18"/>
-      <c r="QR37" s="18"/>
-      <c r="QS37" s="18"/>
-      <c r="QT37" s="18"/>
-      <c r="QU37" s="18"/>
-      <c r="QV37" s="18"/>
-      <c r="QW37" s="18"/>
-      <c r="QX37" s="18"/>
-      <c r="QY37" s="18"/>
-      <c r="QZ37" s="18"/>
-      <c r="RA37" s="18"/>
-      <c r="RB37" s="18"/>
-      <c r="RC37" s="18"/>
-      <c r="RD37" s="18"/>
-      <c r="RE37" s="18"/>
-      <c r="RF37" s="18"/>
-      <c r="RG37" s="18"/>
-      <c r="RH37" s="18"/>
-      <c r="RI37" s="18"/>
-      <c r="RJ37" s="18"/>
-      <c r="RK37" s="18"/>
-      <c r="RL37" s="18"/>
-      <c r="RM37" s="18"/>
-      <c r="RN37" s="18"/>
-      <c r="RO37" s="18"/>
-      <c r="RP37" s="18"/>
-      <c r="RQ37" s="18"/>
-      <c r="RR37" s="18"/>
-      <c r="RS37" s="18"/>
-      <c r="RT37" s="18"/>
-      <c r="RU37" s="18"/>
-      <c r="RV37" s="18"/>
-      <c r="RW37" s="18"/>
-      <c r="RX37" s="18"/>
-      <c r="RY37" s="18"/>
-      <c r="RZ37" s="18"/>
-      <c r="SA37" s="18"/>
-      <c r="SB37" s="18"/>
-      <c r="SC37" s="18"/>
-      <c r="SD37" s="18"/>
-      <c r="SE37" s="18"/>
-      <c r="SF37" s="18"/>
-      <c r="SG37" s="18"/>
-      <c r="SH37" s="18"/>
-      <c r="SI37" s="18"/>
-      <c r="SJ37" s="18"/>
-      <c r="SK37" s="18"/>
-      <c r="SL37" s="18"/>
-      <c r="SM37" s="18"/>
-      <c r="SN37" s="18"/>
-      <c r="SO37" s="18"/>
-      <c r="SP37" s="18"/>
-      <c r="SQ37" s="18"/>
-      <c r="SR37" s="18"/>
-      <c r="SS37" s="18"/>
-      <c r="ST37" s="18"/>
-      <c r="SU37" s="18"/>
-      <c r="SV37" s="18"/>
-      <c r="SW37" s="18"/>
-      <c r="SX37" s="18"/>
-      <c r="SY37" s="18"/>
-      <c r="SZ37" s="18"/>
-      <c r="TA37" s="18"/>
-      <c r="TB37" s="18"/>
-      <c r="TC37" s="18"/>
-      <c r="TD37" s="18"/>
-      <c r="TE37" s="18"/>
-      <c r="TF37" s="18"/>
-      <c r="TG37" s="18"/>
-      <c r="TH37" s="18"/>
-      <c r="TI37" s="18"/>
-      <c r="TJ37" s="18"/>
-      <c r="TK37" s="18"/>
-      <c r="TL37" s="18"/>
-      <c r="TM37" s="18"/>
-      <c r="TN37" s="18"/>
-      <c r="TO37" s="18"/>
-      <c r="TP37" s="18"/>
-      <c r="TQ37" s="18"/>
-      <c r="TR37" s="18"/>
-      <c r="TS37" s="18"/>
-      <c r="TT37" s="18"/>
-      <c r="TU37" s="18"/>
-      <c r="TV37" s="18"/>
-      <c r="TW37" s="18"/>
-      <c r="TX37" s="18"/>
-      <c r="TY37" s="18"/>
-      <c r="TZ37" s="18"/>
-      <c r="UA37" s="18"/>
-      <c r="UB37" s="18"/>
-      <c r="UC37" s="18"/>
-      <c r="UD37" s="18"/>
-      <c r="UE37" s="18"/>
-      <c r="UF37" s="18"/>
-      <c r="UG37" s="18"/>
-      <c r="UH37" s="18"/>
-      <c r="UI37" s="18"/>
-      <c r="UJ37" s="18"/>
-      <c r="UK37" s="18"/>
-      <c r="UL37" s="18"/>
-      <c r="UM37" s="18"/>
-      <c r="UN37" s="18"/>
-      <c r="UO37" s="18"/>
-      <c r="UP37" s="18"/>
-      <c r="UQ37" s="18"/>
-      <c r="UR37" s="18"/>
-      <c r="US37" s="18"/>
-      <c r="UT37" s="18"/>
-      <c r="UU37" s="18"/>
-      <c r="UV37" s="18"/>
-      <c r="UW37" s="18"/>
-      <c r="UX37" s="18"/>
-      <c r="UY37" s="18"/>
-      <c r="UZ37" s="18"/>
-      <c r="VA37" s="18"/>
-      <c r="VB37" s="18"/>
-      <c r="VC37" s="18"/>
-      <c r="VD37" s="18"/>
-      <c r="VE37" s="18"/>
-      <c r="VF37" s="18"/>
-      <c r="VG37" s="18"/>
-      <c r="VH37" s="18"/>
-      <c r="VI37" s="18"/>
-      <c r="VJ37" s="18"/>
-      <c r="VK37" s="18"/>
-      <c r="VL37" s="18"/>
-      <c r="VM37" s="18"/>
-      <c r="VN37" s="18"/>
-      <c r="VO37" s="18"/>
-      <c r="VP37" s="18"/>
-      <c r="VQ37" s="18"/>
-      <c r="VR37" s="18"/>
-      <c r="VS37" s="18"/>
-      <c r="VT37" s="18"/>
-      <c r="VU37" s="18"/>
-      <c r="VV37" s="18"/>
-      <c r="VW37" s="18"/>
-      <c r="VX37" s="18"/>
-      <c r="VY37" s="18"/>
-      <c r="VZ37" s="18"/>
-      <c r="WA37" s="18"/>
-      <c r="WB37" s="18"/>
-      <c r="WC37" s="18"/>
-      <c r="WD37" s="18"/>
-      <c r="WE37" s="18"/>
-      <c r="WF37" s="18"/>
-      <c r="WG37" s="18"/>
-      <c r="WH37" s="18"/>
-      <c r="WI37" s="18"/>
-      <c r="WJ37" s="18"/>
-      <c r="WK37" s="18"/>
-      <c r="WL37" s="18"/>
-      <c r="WM37" s="18"/>
-      <c r="WN37" s="18"/>
-      <c r="WO37" s="18"/>
-      <c r="WP37" s="18"/>
-      <c r="WQ37" s="18"/>
-      <c r="WR37" s="18"/>
-      <c r="WS37" s="18"/>
-      <c r="WT37" s="18"/>
-      <c r="WU37" s="18"/>
-      <c r="WV37" s="18"/>
-      <c r="WW37" s="18"/>
-      <c r="WX37" s="18"/>
-      <c r="WY37" s="18"/>
-      <c r="WZ37" s="18"/>
-      <c r="XA37" s="18"/>
-      <c r="XB37" s="18"/>
-      <c r="XC37" s="18"/>
-      <c r="XD37" s="18"/>
-      <c r="XE37" s="18"/>
-      <c r="XF37" s="18"/>
-      <c r="XG37" s="18"/>
-      <c r="XH37" s="18"/>
-      <c r="XI37" s="18"/>
-      <c r="XJ37" s="18"/>
-      <c r="XK37" s="18"/>
-      <c r="XL37" s="18"/>
-      <c r="XM37" s="18"/>
-      <c r="XN37" s="18"/>
-      <c r="XO37" s="18"/>
-      <c r="XP37" s="18"/>
-      <c r="XQ37" s="18"/>
-      <c r="XR37" s="18"/>
-      <c r="XS37" s="18"/>
-      <c r="XT37" s="18"/>
-      <c r="XU37" s="18"/>
-      <c r="XV37" s="18"/>
-      <c r="XW37" s="18"/>
-      <c r="XX37" s="18"/>
-      <c r="XY37" s="18"/>
-      <c r="XZ37" s="18"/>
-      <c r="YA37" s="18"/>
-      <c r="YB37" s="18"/>
-      <c r="YC37" s="18"/>
-      <c r="YD37" s="18"/>
-      <c r="YE37" s="18"/>
-      <c r="YF37" s="18"/>
-      <c r="YG37" s="18"/>
-      <c r="YH37" s="18"/>
-      <c r="YI37" s="18"/>
-      <c r="YJ37" s="18"/>
-      <c r="YK37" s="18"/>
-      <c r="YL37" s="18"/>
-      <c r="YM37" s="18"/>
-      <c r="YN37" s="18"/>
-      <c r="YO37" s="18"/>
-      <c r="YP37" s="18"/>
-      <c r="YQ37" s="18"/>
-      <c r="YR37" s="18"/>
-      <c r="YS37" s="18"/>
-      <c r="YT37" s="18"/>
-      <c r="YU37" s="18"/>
-      <c r="YV37" s="18"/>
-      <c r="YW37" s="18"/>
-      <c r="YX37" s="18"/>
-      <c r="YY37" s="18"/>
-      <c r="YZ37" s="18"/>
-      <c r="ZA37" s="18"/>
-      <c r="ZB37" s="18"/>
-      <c r="ZC37" s="18"/>
-      <c r="ZD37" s="18"/>
-      <c r="ZE37" s="18"/>
-      <c r="ZF37" s="18"/>
-      <c r="ZG37" s="18"/>
-      <c r="ZH37" s="18"/>
-      <c r="ZI37" s="18"/>
-      <c r="ZJ37" s="18"/>
-      <c r="ZK37" s="18"/>
-      <c r="ZL37" s="18"/>
-      <c r="ZM37" s="18"/>
-      <c r="ZN37" s="18"/>
-      <c r="ZO37" s="18"/>
-      <c r="ZP37" s="18"/>
-      <c r="ZQ37" s="18"/>
-      <c r="ZR37" s="18"/>
-      <c r="ZS37" s="18"/>
-      <c r="ZT37" s="18"/>
-      <c r="ZU37" s="18"/>
-      <c r="ZV37" s="18"/>
-      <c r="ZW37" s="18"/>
-      <c r="ZX37" s="18"/>
-      <c r="ZY37" s="18"/>
-      <c r="ZZ37" s="18"/>
-      <c r="AAA37" s="18"/>
-      <c r="AAB37" s="18"/>
-      <c r="AAC37" s="18"/>
-      <c r="AAD37" s="18"/>
-      <c r="AAE37" s="18"/>
-      <c r="AAF37" s="18"/>
-      <c r="AAG37" s="18"/>
-      <c r="AAH37" s="18"/>
-      <c r="AAI37" s="18"/>
-      <c r="AAJ37" s="18"/>
-      <c r="AAK37" s="18"/>
-      <c r="AAL37" s="18"/>
-      <c r="AAM37" s="18"/>
-      <c r="AAN37" s="18"/>
-      <c r="AAO37" s="18"/>
-      <c r="AAP37" s="18"/>
-      <c r="AAQ37" s="18"/>
-      <c r="AAR37" s="18"/>
-      <c r="AAS37" s="18"/>
-      <c r="AAT37" s="18"/>
-      <c r="AAU37" s="18"/>
-      <c r="AAV37" s="18"/>
-      <c r="AAW37" s="18"/>
-      <c r="AAX37" s="18"/>
-      <c r="AAY37" s="18"/>
-      <c r="AAZ37" s="18"/>
-      <c r="ABA37" s="18"/>
-      <c r="ABB37" s="18"/>
-      <c r="ABC37" s="18"/>
-      <c r="ABD37" s="18"/>
-      <c r="ABE37" s="18"/>
-      <c r="ABF37" s="18"/>
-      <c r="ABG37" s="18"/>
-      <c r="ABH37" s="18"/>
-      <c r="ABI37" s="18"/>
-      <c r="ABJ37" s="18"/>
-      <c r="ABK37" s="18"/>
-      <c r="ABL37" s="18"/>
-      <c r="ABM37" s="18"/>
-      <c r="ABN37" s="18"/>
-      <c r="ABO37" s="18"/>
-      <c r="ABP37" s="18"/>
-      <c r="ABQ37" s="18"/>
-      <c r="ABR37" s="18"/>
-      <c r="ABS37" s="18"/>
-      <c r="ABT37" s="18"/>
-      <c r="ABU37" s="18"/>
-      <c r="ABV37" s="18"/>
-      <c r="ABW37" s="18"/>
-      <c r="ABX37" s="18"/>
-      <c r="ABY37" s="18"/>
-      <c r="ABZ37" s="18"/>
-      <c r="ACA37" s="18"/>
-      <c r="ACB37" s="18"/>
-      <c r="ACC37" s="18"/>
-      <c r="ACD37" s="18"/>
-      <c r="ACE37" s="18"/>
-      <c r="ACF37" s="18"/>
-      <c r="ACG37" s="18"/>
-      <c r="ACH37" s="18"/>
-      <c r="ACI37" s="18"/>
-      <c r="ACJ37" s="18"/>
-      <c r="ACK37" s="18"/>
-      <c r="ACL37" s="18"/>
-      <c r="ACM37" s="18"/>
-      <c r="ACN37" s="18"/>
-      <c r="ACO37" s="18"/>
-      <c r="ACP37" s="18"/>
-      <c r="ACQ37" s="18"/>
-      <c r="ACR37" s="18"/>
-      <c r="ACS37" s="18"/>
-      <c r="ACT37" s="18"/>
-      <c r="ACU37" s="18"/>
-      <c r="ACV37" s="18"/>
-      <c r="ACW37" s="18"/>
-      <c r="ACX37" s="18"/>
-      <c r="ACY37" s="18"/>
-      <c r="ACZ37" s="18"/>
-      <c r="ADA37" s="18"/>
-      <c r="ADB37" s="18"/>
-      <c r="ADC37" s="18"/>
-      <c r="ADD37" s="18"/>
-      <c r="ADE37" s="18"/>
-      <c r="ADF37" s="18"/>
-      <c r="ADG37" s="18"/>
-      <c r="ADH37" s="18"/>
-      <c r="ADI37" s="18"/>
-      <c r="ADJ37" s="18"/>
-      <c r="ADK37" s="18"/>
-      <c r="ADL37" s="18"/>
-      <c r="ADM37" s="18"/>
-      <c r="ADN37" s="18"/>
-      <c r="ADO37" s="18"/>
-      <c r="ADP37" s="18"/>
-      <c r="ADQ37" s="18"/>
-      <c r="ADR37" s="18"/>
-      <c r="ADS37" s="18"/>
-      <c r="ADT37" s="18"/>
-      <c r="ADU37" s="18"/>
-      <c r="ADV37" s="18"/>
-      <c r="ADW37" s="18"/>
-      <c r="ADX37" s="18"/>
-      <c r="ADY37" s="18"/>
-      <c r="ADZ37" s="18"/>
-      <c r="AEA37" s="18"/>
-      <c r="AEB37" s="18"/>
-      <c r="AEC37" s="18"/>
-      <c r="AED37" s="18"/>
-      <c r="AEE37" s="18"/>
-      <c r="AEF37" s="18"/>
-      <c r="AEG37" s="18"/>
-      <c r="AEH37" s="18"/>
-      <c r="AEI37" s="18"/>
-      <c r="AEJ37" s="18"/>
-      <c r="AEK37" s="18"/>
-      <c r="AEL37" s="18"/>
-      <c r="AEM37" s="18"/>
-      <c r="AEN37" s="18"/>
-      <c r="AEO37" s="18"/>
-      <c r="AEP37" s="18"/>
-      <c r="AEQ37" s="18"/>
-      <c r="AER37" s="18"/>
-      <c r="AES37" s="18"/>
-      <c r="AET37" s="18"/>
-      <c r="AEU37" s="18"/>
-      <c r="AEV37" s="18"/>
-      <c r="AEW37" s="18"/>
-      <c r="AEX37" s="18"/>
-      <c r="AEY37" s="18"/>
-      <c r="AEZ37" s="18"/>
-      <c r="AFA37" s="18"/>
-      <c r="AFB37" s="18"/>
-      <c r="AFC37" s="18"/>
-      <c r="AFD37" s="18"/>
-      <c r="AFE37" s="18"/>
-      <c r="AFF37" s="18"/>
-      <c r="AFG37" s="18"/>
-      <c r="AFH37" s="18"/>
-      <c r="AFI37" s="18"/>
-      <c r="AFJ37" s="18"/>
-      <c r="AFK37" s="18"/>
-      <c r="AFL37" s="18"/>
-      <c r="AFM37" s="18"/>
-      <c r="AFN37" s="18"/>
-      <c r="AFO37" s="18"/>
-      <c r="AFP37" s="18"/>
-      <c r="AFQ37" s="18"/>
-      <c r="AFR37" s="18"/>
-      <c r="AFS37" s="18"/>
-      <c r="AFT37" s="18"/>
-      <c r="AFU37" s="18"/>
-      <c r="AFV37" s="18"/>
-      <c r="AFW37" s="18"/>
-      <c r="AFX37" s="18"/>
-      <c r="AFY37" s="18"/>
-      <c r="AFZ37" s="18"/>
-      <c r="AGA37" s="18"/>
-      <c r="AGB37" s="18"/>
-      <c r="AGC37" s="18"/>
-      <c r="AGD37" s="18"/>
-      <c r="AGE37" s="18"/>
-      <c r="AGF37" s="18"/>
-      <c r="AGG37" s="18"/>
-      <c r="AGH37" s="18"/>
-      <c r="AGI37" s="18"/>
-      <c r="AGJ37" s="18"/>
-      <c r="AGK37" s="18"/>
-      <c r="AGL37" s="18"/>
-      <c r="AGM37" s="18"/>
-      <c r="AGN37" s="18"/>
-      <c r="AGO37" s="18"/>
-      <c r="AGP37" s="18"/>
-      <c r="AGQ37" s="18"/>
-      <c r="AGR37" s="18"/>
-      <c r="AGS37" s="18"/>
-      <c r="AGT37" s="18"/>
-      <c r="AGU37" s="18"/>
-      <c r="AGV37" s="18"/>
-      <c r="AGW37" s="18"/>
-      <c r="AGX37" s="18"/>
-      <c r="AGY37" s="18"/>
-      <c r="AGZ37" s="18"/>
-      <c r="AHA37" s="18"/>
-      <c r="AHB37" s="18"/>
-      <c r="AHC37" s="18"/>
-      <c r="AHD37" s="18"/>
-      <c r="AHE37" s="18"/>
-      <c r="AHF37" s="18"/>
-      <c r="AHG37" s="18"/>
-      <c r="AHH37" s="18"/>
-      <c r="AHI37" s="18"/>
-      <c r="AHJ37" s="18"/>
-      <c r="AHK37" s="18"/>
-      <c r="AHL37" s="18"/>
-      <c r="AHM37" s="18"/>
-      <c r="AHN37" s="18"/>
-      <c r="AHO37" s="18"/>
-      <c r="AHP37" s="18"/>
-      <c r="AHQ37" s="18"/>
-      <c r="AHR37" s="18"/>
-      <c r="AHS37" s="18"/>
-      <c r="AHT37" s="18"/>
-      <c r="AHU37" s="18"/>
-      <c r="AHV37" s="18"/>
-      <c r="AHW37" s="18"/>
-      <c r="AHX37" s="18"/>
-      <c r="AHY37" s="18"/>
-      <c r="AHZ37" s="18"/>
-      <c r="AIA37" s="18"/>
-      <c r="AIB37" s="18"/>
-      <c r="AIC37" s="18"/>
-      <c r="AID37" s="18"/>
-      <c r="AIE37" s="18"/>
-      <c r="AIF37" s="18"/>
-      <c r="AIG37" s="18"/>
-      <c r="AIH37" s="18"/>
-      <c r="AII37" s="18"/>
-      <c r="AIJ37" s="18"/>
-      <c r="AIK37" s="18"/>
-      <c r="AIL37" s="18"/>
-      <c r="AIM37" s="18"/>
-      <c r="AIN37" s="18"/>
-      <c r="AIO37" s="18"/>
-      <c r="AIP37" s="18"/>
-      <c r="AIQ37" s="18"/>
-      <c r="AIR37" s="18"/>
-      <c r="AIS37" s="18"/>
-      <c r="AIT37" s="18"/>
-      <c r="AIU37" s="18"/>
-      <c r="AIV37" s="18"/>
-      <c r="AIW37" s="18"/>
-      <c r="AIX37" s="18"/>
-      <c r="AIY37" s="18"/>
-      <c r="AIZ37" s="18"/>
-      <c r="AJA37" s="18"/>
-      <c r="AJB37" s="18"/>
-      <c r="AJC37" s="18"/>
-      <c r="AJD37" s="18"/>
-      <c r="AJE37" s="18"/>
-      <c r="AJF37" s="18"/>
-      <c r="AJG37" s="18"/>
-      <c r="AJH37" s="18"/>
-      <c r="AJI37" s="18"/>
-      <c r="AJJ37" s="18"/>
-      <c r="AJK37" s="18"/>
-      <c r="AJL37" s="18"/>
-      <c r="AJM37" s="18"/>
-      <c r="AJN37" s="18"/>
-      <c r="AJO37" s="18"/>
-      <c r="AJP37" s="18"/>
-      <c r="AJQ37" s="18"/>
-      <c r="AJR37" s="18"/>
-      <c r="AJS37" s="18"/>
-      <c r="AJT37" s="18"/>
-      <c r="AJU37" s="18"/>
-      <c r="AJV37" s="18"/>
-      <c r="AJW37" s="18"/>
-      <c r="AJX37" s="18"/>
-      <c r="AJY37" s="18"/>
-      <c r="AJZ37" s="18"/>
-      <c r="AKA37" s="18"/>
-      <c r="AKB37" s="18"/>
-      <c r="AKC37" s="18"/>
-      <c r="AKD37" s="18"/>
-      <c r="AKE37" s="18"/>
-      <c r="AKF37" s="18"/>
-      <c r="AKG37" s="18"/>
-      <c r="AKH37" s="18"/>
-      <c r="AKI37" s="18"/>
-      <c r="AKJ37" s="18"/>
-      <c r="AKK37" s="18"/>
-      <c r="AKL37" s="18"/>
-      <c r="AKM37" s="18"/>
-      <c r="AKN37" s="18"/>
-      <c r="AKO37" s="18"/>
-      <c r="AKP37" s="18"/>
-      <c r="AKQ37" s="18"/>
-      <c r="AKR37" s="18"/>
-      <c r="AKS37" s="18"/>
-      <c r="AKT37" s="18"/>
-      <c r="AKU37" s="18"/>
-      <c r="AKV37" s="18"/>
-      <c r="AKW37" s="18"/>
-      <c r="AKX37" s="18"/>
-      <c r="AKY37" s="18"/>
-      <c r="AKZ37" s="18"/>
-      <c r="ALA37" s="18"/>
-      <c r="ALB37" s="18"/>
-      <c r="ALC37" s="18"/>
-      <c r="ALD37" s="18"/>
-      <c r="ALE37" s="18"/>
-      <c r="ALF37" s="18"/>
-      <c r="ALG37" s="18"/>
-      <c r="ALH37" s="18"/>
-      <c r="ALI37" s="18"/>
-      <c r="ALJ37" s="18"/>
-      <c r="ALK37" s="18"/>
-      <c r="ALL37" s="18"/>
-      <c r="ALM37" s="18"/>
-      <c r="ALN37" s="18"/>
-      <c r="ALO37" s="18"/>
-      <c r="ALP37" s="18"/>
-      <c r="ALQ37" s="18"/>
-      <c r="ALR37" s="18"/>
-      <c r="ALS37" s="18"/>
-      <c r="ALT37" s="18"/>
-      <c r="ALU37" s="18"/>
-      <c r="ALV37" s="18"/>
-      <c r="ALW37" s="18"/>
-      <c r="ALX37" s="18"/>
-      <c r="ALY37" s="18"/>
-      <c r="ALZ37" s="18"/>
-      <c r="AMA37" s="18"/>
-      <c r="AMB37" s="18"/>
-      <c r="AMC37" s="18"/>
-      <c r="AMD37" s="18"/>
-      <c r="AME37" s="18"/>
-      <c r="AMF37" s="18"/>
-      <c r="AMG37" s="18"/>
-      <c r="AMH37" s="18"/>
-      <c r="AMI37" s="18"/>
-      <c r="AMJ37" s="18"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="18"/>
-      <c r="AI38" s="18"/>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="18"/>
-      <c r="AL38" s="18"/>
-      <c r="AM38" s="18"/>
-      <c r="AN38" s="18"/>
-      <c r="AO38" s="18"/>
-      <c r="AP38" s="18"/>
-      <c r="AQ38" s="18"/>
-      <c r="AR38" s="18"/>
-      <c r="AS38" s="18"/>
-      <c r="AT38" s="18"/>
-      <c r="AU38" s="18"/>
-      <c r="AV38" s="18"/>
-      <c r="AW38" s="18"/>
-      <c r="AX38" s="18"/>
-      <c r="AY38" s="18"/>
-      <c r="AZ38" s="18"/>
-      <c r="BA38" s="18"/>
-      <c r="BB38" s="18"/>
-      <c r="BC38" s="18"/>
-      <c r="BD38" s="18"/>
-      <c r="BE38" s="18"/>
-      <c r="BF38" s="18"/>
-      <c r="BG38" s="18"/>
-      <c r="BH38" s="18"/>
-      <c r="BI38" s="18"/>
-      <c r="BJ38" s="18"/>
-      <c r="BK38" s="18"/>
-      <c r="BL38" s="18"/>
-      <c r="BM38" s="18"/>
-      <c r="BN38" s="18"/>
-      <c r="BO38" s="18"/>
-      <c r="BP38" s="18"/>
-      <c r="BQ38" s="18"/>
-      <c r="BR38" s="18"/>
-      <c r="BS38" s="18"/>
-      <c r="BT38" s="18"/>
-      <c r="BU38" s="18"/>
-      <c r="BV38" s="18"/>
-      <c r="BW38" s="18"/>
-      <c r="BX38" s="18"/>
-      <c r="BY38" s="18"/>
-      <c r="BZ38" s="18"/>
-      <c r="CA38" s="18"/>
-      <c r="CB38" s="18"/>
-      <c r="CC38" s="18"/>
-      <c r="CD38" s="18"/>
-      <c r="CE38" s="18"/>
-      <c r="CF38" s="18"/>
-      <c r="CG38" s="18"/>
-      <c r="CH38" s="18"/>
-      <c r="CI38" s="18"/>
-      <c r="CJ38" s="18"/>
-      <c r="CK38" s="18"/>
-      <c r="CL38" s="18"/>
-      <c r="CM38" s="18"/>
-      <c r="CN38" s="18"/>
-      <c r="CO38" s="18"/>
-      <c r="CP38" s="18"/>
-      <c r="CQ38" s="18"/>
-      <c r="CR38" s="18"/>
-      <c r="CS38" s="18"/>
-      <c r="CT38" s="18"/>
-      <c r="CU38" s="18"/>
-      <c r="CV38" s="18"/>
-      <c r="CW38" s="18"/>
-      <c r="CX38" s="18"/>
-      <c r="CY38" s="18"/>
-      <c r="CZ38" s="18"/>
-      <c r="DA38" s="18"/>
-      <c r="DB38" s="18"/>
-      <c r="DC38" s="18"/>
-      <c r="DD38" s="18"/>
-      <c r="DE38" s="18"/>
-      <c r="DF38" s="18"/>
-      <c r="DG38" s="18"/>
-      <c r="DH38" s="18"/>
-      <c r="DI38" s="18"/>
-      <c r="DJ38" s="18"/>
-      <c r="DK38" s="18"/>
-      <c r="DL38" s="18"/>
-      <c r="DM38" s="18"/>
-      <c r="DN38" s="18"/>
-      <c r="DO38" s="18"/>
-      <c r="DP38" s="18"/>
-      <c r="DQ38" s="18"/>
-      <c r="DR38" s="18"/>
-      <c r="DS38" s="18"/>
-      <c r="DT38" s="18"/>
-      <c r="DU38" s="18"/>
-      <c r="DV38" s="18"/>
-      <c r="DW38" s="18"/>
-      <c r="DX38" s="18"/>
-      <c r="DY38" s="18"/>
-      <c r="DZ38" s="18"/>
-      <c r="EA38" s="18"/>
-      <c r="EB38" s="18"/>
-      <c r="EC38" s="18"/>
-      <c r="ED38" s="18"/>
-      <c r="EE38" s="18"/>
-      <c r="EF38" s="18"/>
-      <c r="EG38" s="18"/>
-      <c r="EH38" s="18"/>
-      <c r="EI38" s="18"/>
-      <c r="EJ38" s="18"/>
-      <c r="EK38" s="18"/>
-      <c r="EL38" s="18"/>
-      <c r="EM38" s="18"/>
-      <c r="EN38" s="18"/>
-      <c r="EO38" s="18"/>
-      <c r="EP38" s="18"/>
-      <c r="EQ38" s="18"/>
-      <c r="ER38" s="18"/>
-      <c r="ES38" s="18"/>
-      <c r="ET38" s="18"/>
-      <c r="EU38" s="18"/>
-      <c r="EV38" s="18"/>
-      <c r="EW38" s="18"/>
-      <c r="EX38" s="18"/>
-      <c r="EY38" s="18"/>
-      <c r="EZ38" s="18"/>
-      <c r="FA38" s="18"/>
-      <c r="FB38" s="18"/>
-      <c r="FC38" s="18"/>
-      <c r="FD38" s="18"/>
-      <c r="FE38" s="18"/>
-      <c r="FF38" s="18"/>
-      <c r="FG38" s="18"/>
-      <c r="FH38" s="18"/>
-      <c r="FI38" s="18"/>
-      <c r="FJ38" s="18"/>
-      <c r="FK38" s="18"/>
-      <c r="FL38" s="18"/>
-      <c r="FM38" s="18"/>
-      <c r="FN38" s="18"/>
-      <c r="FO38" s="18"/>
-      <c r="FP38" s="18"/>
-      <c r="FQ38" s="18"/>
-      <c r="FR38" s="18"/>
-      <c r="FS38" s="18"/>
-      <c r="FT38" s="18"/>
-      <c r="FU38" s="18"/>
-      <c r="FV38" s="18"/>
-      <c r="FW38" s="18"/>
-      <c r="FX38" s="18"/>
-      <c r="FY38" s="18"/>
-      <c r="FZ38" s="18"/>
-      <c r="GA38" s="18"/>
-      <c r="GB38" s="18"/>
-      <c r="GC38" s="18"/>
-      <c r="GD38" s="18"/>
-      <c r="GE38" s="18"/>
-      <c r="GF38" s="18"/>
-      <c r="GG38" s="18"/>
-      <c r="GH38" s="18"/>
-      <c r="GI38" s="18"/>
-      <c r="GJ38" s="18"/>
-      <c r="GK38" s="18"/>
-      <c r="GL38" s="18"/>
-      <c r="GM38" s="18"/>
-      <c r="GN38" s="18"/>
-      <c r="GO38" s="18"/>
-      <c r="GP38" s="18"/>
-      <c r="GQ38" s="18"/>
-      <c r="GR38" s="18"/>
-      <c r="GS38" s="18"/>
-      <c r="GT38" s="18"/>
-      <c r="GU38" s="18"/>
-      <c r="GV38" s="18"/>
-      <c r="GW38" s="18"/>
-      <c r="GX38" s="18"/>
-      <c r="GY38" s="18"/>
-      <c r="GZ38" s="18"/>
-      <c r="HA38" s="18"/>
-      <c r="HB38" s="18"/>
-      <c r="HC38" s="18"/>
-      <c r="HD38" s="18"/>
-      <c r="HE38" s="18"/>
-      <c r="HF38" s="18"/>
-      <c r="HG38" s="18"/>
-      <c r="HH38" s="18"/>
-      <c r="HI38" s="18"/>
-      <c r="HJ38" s="18"/>
-      <c r="HK38" s="18"/>
-      <c r="HL38" s="18"/>
-      <c r="HM38" s="18"/>
-      <c r="HN38" s="18"/>
-      <c r="HO38" s="18"/>
-      <c r="HP38" s="18"/>
-      <c r="HQ38" s="18"/>
-      <c r="HR38" s="18"/>
-      <c r="HS38" s="18"/>
-      <c r="HT38" s="18"/>
-      <c r="HU38" s="18"/>
-      <c r="HV38" s="18"/>
-      <c r="HW38" s="18"/>
-      <c r="HX38" s="18"/>
-      <c r="HY38" s="18"/>
-      <c r="HZ38" s="18"/>
-      <c r="IA38" s="18"/>
-      <c r="IB38" s="18"/>
-      <c r="IC38" s="18"/>
-      <c r="ID38" s="18"/>
-      <c r="IE38" s="18"/>
-      <c r="IF38" s="18"/>
-      <c r="IG38" s="18"/>
-      <c r="IH38" s="18"/>
-      <c r="II38" s="18"/>
-      <c r="IJ38" s="18"/>
-      <c r="IK38" s="18"/>
-      <c r="IL38" s="18"/>
-      <c r="IM38" s="18"/>
-      <c r="IN38" s="18"/>
-      <c r="IO38" s="18"/>
-      <c r="IP38" s="18"/>
-      <c r="IQ38" s="18"/>
-      <c r="IR38" s="18"/>
-      <c r="IS38" s="18"/>
-      <c r="IT38" s="18"/>
-      <c r="IU38" s="18"/>
-      <c r="IV38" s="18"/>
-      <c r="IW38" s="18"/>
-      <c r="IX38" s="18"/>
-      <c r="IY38" s="18"/>
-      <c r="IZ38" s="18"/>
-      <c r="JA38" s="18"/>
-      <c r="JB38" s="18"/>
-      <c r="JC38" s="18"/>
-      <c r="JD38" s="18"/>
-      <c r="JE38" s="18"/>
-      <c r="JF38" s="18"/>
-      <c r="JG38" s="18"/>
-      <c r="JH38" s="18"/>
-      <c r="JI38" s="18"/>
-      <c r="JJ38" s="18"/>
-      <c r="JK38" s="18"/>
-      <c r="JL38" s="18"/>
-      <c r="JM38" s="18"/>
-      <c r="JN38" s="18"/>
-      <c r="JO38" s="18"/>
-      <c r="JP38" s="18"/>
-      <c r="JQ38" s="18"/>
-      <c r="JR38" s="18"/>
-      <c r="JS38" s="18"/>
-      <c r="JT38" s="18"/>
-      <c r="JU38" s="18"/>
-      <c r="JV38" s="18"/>
-      <c r="JW38" s="18"/>
-      <c r="JX38" s="18"/>
-      <c r="JY38" s="18"/>
-      <c r="JZ38" s="18"/>
-      <c r="KA38" s="18"/>
-      <c r="KB38" s="18"/>
-      <c r="KC38" s="18"/>
-      <c r="KD38" s="18"/>
-      <c r="KE38" s="18"/>
-      <c r="KF38" s="18"/>
-      <c r="KG38" s="18"/>
-      <c r="KH38" s="18"/>
-      <c r="KI38" s="18"/>
-      <c r="KJ38" s="18"/>
-      <c r="KK38" s="18"/>
-      <c r="KL38" s="18"/>
-      <c r="KM38" s="18"/>
-      <c r="KN38" s="18"/>
-      <c r="KO38" s="18"/>
-      <c r="KP38" s="18"/>
-      <c r="KQ38" s="18"/>
-      <c r="KR38" s="18"/>
-      <c r="KS38" s="18"/>
-      <c r="KT38" s="18"/>
-      <c r="KU38" s="18"/>
-      <c r="KV38" s="18"/>
-      <c r="KW38" s="18"/>
-      <c r="KX38" s="18"/>
-      <c r="KY38" s="18"/>
-      <c r="KZ38" s="18"/>
-      <c r="LA38" s="18"/>
-      <c r="LB38" s="18"/>
-      <c r="LC38" s="18"/>
-      <c r="LD38" s="18"/>
-      <c r="LE38" s="18"/>
-      <c r="LF38" s="18"/>
-      <c r="LG38" s="18"/>
-      <c r="LH38" s="18"/>
-      <c r="LI38" s="18"/>
-      <c r="LJ38" s="18"/>
-      <c r="LK38" s="18"/>
-      <c r="LL38" s="18"/>
-      <c r="LM38" s="18"/>
-      <c r="LN38" s="18"/>
-      <c r="LO38" s="18"/>
-      <c r="LP38" s="18"/>
-      <c r="LQ38" s="18"/>
-      <c r="LR38" s="18"/>
-      <c r="LS38" s="18"/>
-      <c r="LT38" s="18"/>
-      <c r="LU38" s="18"/>
-      <c r="LV38" s="18"/>
-      <c r="LW38" s="18"/>
-      <c r="LX38" s="18"/>
-      <c r="LY38" s="18"/>
-      <c r="LZ38" s="18"/>
-      <c r="MA38" s="18"/>
-      <c r="MB38" s="18"/>
-      <c r="MC38" s="18"/>
-      <c r="MD38" s="18"/>
-      <c r="ME38" s="18"/>
-      <c r="MF38" s="18"/>
-      <c r="MG38" s="18"/>
-      <c r="MH38" s="18"/>
-      <c r="MI38" s="18"/>
-      <c r="MJ38" s="18"/>
-      <c r="MK38" s="18"/>
-      <c r="ML38" s="18"/>
-      <c r="MM38" s="18"/>
-      <c r="MN38" s="18"/>
-      <c r="MO38" s="18"/>
-      <c r="MP38" s="18"/>
-      <c r="MQ38" s="18"/>
-      <c r="MR38" s="18"/>
-      <c r="MS38" s="18"/>
-      <c r="MT38" s="18"/>
-      <c r="MU38" s="18"/>
-      <c r="MV38" s="18"/>
-      <c r="MW38" s="18"/>
-      <c r="MX38" s="18"/>
-      <c r="MY38" s="18"/>
-      <c r="MZ38" s="18"/>
-      <c r="NA38" s="18"/>
-      <c r="NB38" s="18"/>
-      <c r="NC38" s="18"/>
-      <c r="ND38" s="18"/>
-      <c r="NE38" s="18"/>
-      <c r="NF38" s="18"/>
-      <c r="NG38" s="18"/>
-      <c r="NH38" s="18"/>
-      <c r="NI38" s="18"/>
-      <c r="NJ38" s="18"/>
-      <c r="NK38" s="18"/>
-      <c r="NL38" s="18"/>
-      <c r="NM38" s="18"/>
-      <c r="NN38" s="18"/>
-      <c r="NO38" s="18"/>
-      <c r="NP38" s="18"/>
-      <c r="NQ38" s="18"/>
-      <c r="NR38" s="18"/>
-      <c r="NS38" s="18"/>
-      <c r="NT38" s="18"/>
-      <c r="NU38" s="18"/>
-      <c r="NV38" s="18"/>
-      <c r="NW38" s="18"/>
-      <c r="NX38" s="18"/>
-      <c r="NY38" s="18"/>
-      <c r="NZ38" s="18"/>
-      <c r="OA38" s="18"/>
-      <c r="OB38" s="18"/>
-      <c r="OC38" s="18"/>
-      <c r="OD38" s="18"/>
-      <c r="OE38" s="18"/>
-      <c r="OF38" s="18"/>
-      <c r="OG38" s="18"/>
-      <c r="OH38" s="18"/>
-      <c r="OI38" s="18"/>
-      <c r="OJ38" s="18"/>
-      <c r="OK38" s="18"/>
-      <c r="OL38" s="18"/>
-      <c r="OM38" s="18"/>
-      <c r="ON38" s="18"/>
-      <c r="OO38" s="18"/>
-      <c r="OP38" s="18"/>
-      <c r="OQ38" s="18"/>
-      <c r="OR38" s="18"/>
-      <c r="OS38" s="18"/>
-      <c r="OT38" s="18"/>
-      <c r="OU38" s="18"/>
-      <c r="OV38" s="18"/>
-      <c r="OW38" s="18"/>
-      <c r="OX38" s="18"/>
-      <c r="OY38" s="18"/>
-      <c r="OZ38" s="18"/>
-      <c r="PA38" s="18"/>
-      <c r="PB38" s="18"/>
-      <c r="PC38" s="18"/>
-      <c r="PD38" s="18"/>
-      <c r="PE38" s="18"/>
-      <c r="PF38" s="18"/>
-      <c r="PG38" s="18"/>
-      <c r="PH38" s="18"/>
-      <c r="PI38" s="18"/>
-      <c r="PJ38" s="18"/>
-      <c r="PK38" s="18"/>
-      <c r="PL38" s="18"/>
-      <c r="PM38" s="18"/>
-      <c r="PN38" s="18"/>
-      <c r="PO38" s="18"/>
-      <c r="PP38" s="18"/>
-      <c r="PQ38" s="18"/>
-      <c r="PR38" s="18"/>
-      <c r="PS38" s="18"/>
-      <c r="PT38" s="18"/>
-      <c r="PU38" s="18"/>
-      <c r="PV38" s="18"/>
-      <c r="PW38" s="18"/>
-      <c r="PX38" s="18"/>
-      <c r="PY38" s="18"/>
-      <c r="PZ38" s="18"/>
-      <c r="QA38" s="18"/>
-      <c r="QB38" s="18"/>
-      <c r="QC38" s="18"/>
-      <c r="QD38" s="18"/>
-      <c r="QE38" s="18"/>
-      <c r="QF38" s="18"/>
-      <c r="QG38" s="18"/>
-      <c r="QH38" s="18"/>
-      <c r="QI38" s="18"/>
-      <c r="QJ38" s="18"/>
-      <c r="QK38" s="18"/>
-      <c r="QL38" s="18"/>
-      <c r="QM38" s="18"/>
-      <c r="QN38" s="18"/>
-      <c r="QO38" s="18"/>
-      <c r="QP38" s="18"/>
-      <c r="QQ38" s="18"/>
-      <c r="QR38" s="18"/>
-      <c r="QS38" s="18"/>
-      <c r="QT38" s="18"/>
-      <c r="QU38" s="18"/>
-      <c r="QV38" s="18"/>
-      <c r="QW38" s="18"/>
-      <c r="QX38" s="18"/>
-      <c r="QY38" s="18"/>
-      <c r="QZ38" s="18"/>
-      <c r="RA38" s="18"/>
-      <c r="RB38" s="18"/>
-      <c r="RC38" s="18"/>
-      <c r="RD38" s="18"/>
-      <c r="RE38" s="18"/>
-      <c r="RF38" s="18"/>
-      <c r="RG38" s="18"/>
-      <c r="RH38" s="18"/>
-      <c r="RI38" s="18"/>
-      <c r="RJ38" s="18"/>
-      <c r="RK38" s="18"/>
-      <c r="RL38" s="18"/>
-      <c r="RM38" s="18"/>
-      <c r="RN38" s="18"/>
-      <c r="RO38" s="18"/>
-      <c r="RP38" s="18"/>
-      <c r="RQ38" s="18"/>
-      <c r="RR38" s="18"/>
-      <c r="RS38" s="18"/>
-      <c r="RT38" s="18"/>
-      <c r="RU38" s="18"/>
-      <c r="RV38" s="18"/>
-      <c r="RW38" s="18"/>
-      <c r="RX38" s="18"/>
-      <c r="RY38" s="18"/>
-      <c r="RZ38" s="18"/>
-      <c r="SA38" s="18"/>
-      <c r="SB38" s="18"/>
-      <c r="SC38" s="18"/>
-      <c r="SD38" s="18"/>
-      <c r="SE38" s="18"/>
-      <c r="SF38" s="18"/>
-      <c r="SG38" s="18"/>
-      <c r="SH38" s="18"/>
-      <c r="SI38" s="18"/>
-      <c r="SJ38" s="18"/>
-      <c r="SK38" s="18"/>
-      <c r="SL38" s="18"/>
-      <c r="SM38" s="18"/>
-      <c r="SN38" s="18"/>
-      <c r="SO38" s="18"/>
-      <c r="SP38" s="18"/>
-      <c r="SQ38" s="18"/>
-      <c r="SR38" s="18"/>
-      <c r="SS38" s="18"/>
-      <c r="ST38" s="18"/>
-      <c r="SU38" s="18"/>
-      <c r="SV38" s="18"/>
-      <c r="SW38" s="18"/>
-      <c r="SX38" s="18"/>
-      <c r="SY38" s="18"/>
-      <c r="SZ38" s="18"/>
-      <c r="TA38" s="18"/>
-      <c r="TB38" s="18"/>
-      <c r="TC38" s="18"/>
-      <c r="TD38" s="18"/>
-      <c r="TE38" s="18"/>
-      <c r="TF38" s="18"/>
-      <c r="TG38" s="18"/>
-      <c r="TH38" s="18"/>
-      <c r="TI38" s="18"/>
-      <c r="TJ38" s="18"/>
-      <c r="TK38" s="18"/>
-      <c r="TL38" s="18"/>
-      <c r="TM38" s="18"/>
-      <c r="TN38" s="18"/>
-      <c r="TO38" s="18"/>
-      <c r="TP38" s="18"/>
-      <c r="TQ38" s="18"/>
-      <c r="TR38" s="18"/>
-      <c r="TS38" s="18"/>
-      <c r="TT38" s="18"/>
-      <c r="TU38" s="18"/>
-      <c r="TV38" s="18"/>
-      <c r="TW38" s="18"/>
-      <c r="TX38" s="18"/>
-      <c r="TY38" s="18"/>
-      <c r="TZ38" s="18"/>
-      <c r="UA38" s="18"/>
-      <c r="UB38" s="18"/>
-      <c r="UC38" s="18"/>
-      <c r="UD38" s="18"/>
-      <c r="UE38" s="18"/>
-      <c r="UF38" s="18"/>
-      <c r="UG38" s="18"/>
-      <c r="UH38" s="18"/>
-      <c r="UI38" s="18"/>
-      <c r="UJ38" s="18"/>
-      <c r="UK38" s="18"/>
-      <c r="UL38" s="18"/>
-      <c r="UM38" s="18"/>
-      <c r="UN38" s="18"/>
-      <c r="UO38" s="18"/>
-      <c r="UP38" s="18"/>
-      <c r="UQ38" s="18"/>
-      <c r="UR38" s="18"/>
-      <c r="US38" s="18"/>
-      <c r="UT38" s="18"/>
-      <c r="UU38" s="18"/>
-      <c r="UV38" s="18"/>
-      <c r="UW38" s="18"/>
-      <c r="UX38" s="18"/>
-      <c r="UY38" s="18"/>
-      <c r="UZ38" s="18"/>
-      <c r="VA38" s="18"/>
-      <c r="VB38" s="18"/>
-      <c r="VC38" s="18"/>
-      <c r="VD38" s="18"/>
-      <c r="VE38" s="18"/>
-      <c r="VF38" s="18"/>
-      <c r="VG38" s="18"/>
-      <c r="VH38" s="18"/>
-      <c r="VI38" s="18"/>
-      <c r="VJ38" s="18"/>
-      <c r="VK38" s="18"/>
-      <c r="VL38" s="18"/>
-      <c r="VM38" s="18"/>
-      <c r="VN38" s="18"/>
-      <c r="VO38" s="18"/>
-      <c r="VP38" s="18"/>
-      <c r="VQ38" s="18"/>
-      <c r="VR38" s="18"/>
-      <c r="VS38" s="18"/>
-      <c r="VT38" s="18"/>
-      <c r="VU38" s="18"/>
-      <c r="VV38" s="18"/>
-      <c r="VW38" s="18"/>
-      <c r="VX38" s="18"/>
-      <c r="VY38" s="18"/>
-      <c r="VZ38" s="18"/>
-      <c r="WA38" s="18"/>
-      <c r="WB38" s="18"/>
-      <c r="WC38" s="18"/>
-      <c r="WD38" s="18"/>
-      <c r="WE38" s="18"/>
-      <c r="WF38" s="18"/>
-      <c r="WG38" s="18"/>
-      <c r="WH38" s="18"/>
-      <c r="WI38" s="18"/>
-      <c r="WJ38" s="18"/>
-      <c r="WK38" s="18"/>
-      <c r="WL38" s="18"/>
-      <c r="WM38" s="18"/>
-      <c r="WN38" s="18"/>
-      <c r="WO38" s="18"/>
-      <c r="WP38" s="18"/>
-      <c r="WQ38" s="18"/>
-      <c r="WR38" s="18"/>
-      <c r="WS38" s="18"/>
-      <c r="WT38" s="18"/>
-      <c r="WU38" s="18"/>
-      <c r="WV38" s="18"/>
-      <c r="WW38" s="18"/>
-      <c r="WX38" s="18"/>
-      <c r="WY38" s="18"/>
-      <c r="WZ38" s="18"/>
-      <c r="XA38" s="18"/>
-      <c r="XB38" s="18"/>
-      <c r="XC38" s="18"/>
-      <c r="XD38" s="18"/>
-      <c r="XE38" s="18"/>
-      <c r="XF38" s="18"/>
-      <c r="XG38" s="18"/>
-      <c r="XH38" s="18"/>
-      <c r="XI38" s="18"/>
-      <c r="XJ38" s="18"/>
-      <c r="XK38" s="18"/>
-      <c r="XL38" s="18"/>
-      <c r="XM38" s="18"/>
-      <c r="XN38" s="18"/>
-      <c r="XO38" s="18"/>
-      <c r="XP38" s="18"/>
-      <c r="XQ38" s="18"/>
-      <c r="XR38" s="18"/>
-      <c r="XS38" s="18"/>
-      <c r="XT38" s="18"/>
-      <c r="XU38" s="18"/>
-      <c r="XV38" s="18"/>
-      <c r="XW38" s="18"/>
-      <c r="XX38" s="18"/>
-      <c r="XY38" s="18"/>
-      <c r="XZ38" s="18"/>
-      <c r="YA38" s="18"/>
-      <c r="YB38" s="18"/>
-      <c r="YC38" s="18"/>
-      <c r="YD38" s="18"/>
-      <c r="YE38" s="18"/>
-      <c r="YF38" s="18"/>
-      <c r="YG38" s="18"/>
-      <c r="YH38" s="18"/>
-      <c r="YI38" s="18"/>
-      <c r="YJ38" s="18"/>
-      <c r="YK38" s="18"/>
-      <c r="YL38" s="18"/>
-      <c r="YM38" s="18"/>
-      <c r="YN38" s="18"/>
-      <c r="YO38" s="18"/>
-      <c r="YP38" s="18"/>
-      <c r="YQ38" s="18"/>
-      <c r="YR38" s="18"/>
-      <c r="YS38" s="18"/>
-      <c r="YT38" s="18"/>
-      <c r="YU38" s="18"/>
-      <c r="YV38" s="18"/>
-      <c r="YW38" s="18"/>
-      <c r="YX38" s="18"/>
-      <c r="YY38" s="18"/>
-      <c r="YZ38" s="18"/>
-      <c r="ZA38" s="18"/>
-      <c r="ZB38" s="18"/>
-      <c r="ZC38" s="18"/>
-      <c r="ZD38" s="18"/>
-      <c r="ZE38" s="18"/>
-      <c r="ZF38" s="18"/>
-      <c r="ZG38" s="18"/>
-      <c r="ZH38" s="18"/>
-      <c r="ZI38" s="18"/>
-      <c r="ZJ38" s="18"/>
-      <c r="ZK38" s="18"/>
-      <c r="ZL38" s="18"/>
-      <c r="ZM38" s="18"/>
-      <c r="ZN38" s="18"/>
-      <c r="ZO38" s="18"/>
-      <c r="ZP38" s="18"/>
-      <c r="ZQ38" s="18"/>
-      <c r="ZR38" s="18"/>
-      <c r="ZS38" s="18"/>
-      <c r="ZT38" s="18"/>
-      <c r="ZU38" s="18"/>
-      <c r="ZV38" s="18"/>
-      <c r="ZW38" s="18"/>
-      <c r="ZX38" s="18"/>
-      <c r="ZY38" s="18"/>
-      <c r="ZZ38" s="18"/>
-      <c r="AAA38" s="18"/>
-      <c r="AAB38" s="18"/>
-      <c r="AAC38" s="18"/>
-      <c r="AAD38" s="18"/>
-      <c r="AAE38" s="18"/>
-      <c r="AAF38" s="18"/>
-      <c r="AAG38" s="18"/>
-      <c r="AAH38" s="18"/>
-      <c r="AAI38" s="18"/>
-      <c r="AAJ38" s="18"/>
-      <c r="AAK38" s="18"/>
-      <c r="AAL38" s="18"/>
-      <c r="AAM38" s="18"/>
-      <c r="AAN38" s="18"/>
-      <c r="AAO38" s="18"/>
-      <c r="AAP38" s="18"/>
-      <c r="AAQ38" s="18"/>
-      <c r="AAR38" s="18"/>
-      <c r="AAS38" s="18"/>
-      <c r="AAT38" s="18"/>
-      <c r="AAU38" s="18"/>
-      <c r="AAV38" s="18"/>
-      <c r="AAW38" s="18"/>
-      <c r="AAX38" s="18"/>
-      <c r="AAY38" s="18"/>
-      <c r="AAZ38" s="18"/>
-      <c r="ABA38" s="18"/>
-      <c r="ABB38" s="18"/>
-      <c r="ABC38" s="18"/>
-      <c r="ABD38" s="18"/>
-      <c r="ABE38" s="18"/>
-      <c r="ABF38" s="18"/>
-      <c r="ABG38" s="18"/>
-      <c r="ABH38" s="18"/>
-      <c r="ABI38" s="18"/>
-      <c r="ABJ38" s="18"/>
-      <c r="ABK38" s="18"/>
-      <c r="ABL38" s="18"/>
-      <c r="ABM38" s="18"/>
-      <c r="ABN38" s="18"/>
-      <c r="ABO38" s="18"/>
-      <c r="ABP38" s="18"/>
-      <c r="ABQ38" s="18"/>
-      <c r="ABR38" s="18"/>
-      <c r="ABS38" s="18"/>
-      <c r="ABT38" s="18"/>
-      <c r="ABU38" s="18"/>
-      <c r="ABV38" s="18"/>
-      <c r="ABW38" s="18"/>
-      <c r="ABX38" s="18"/>
-      <c r="ABY38" s="18"/>
-      <c r="ABZ38" s="18"/>
-      <c r="ACA38" s="18"/>
-      <c r="ACB38" s="18"/>
-      <c r="ACC38" s="18"/>
-      <c r="ACD38" s="18"/>
-      <c r="ACE38" s="18"/>
-      <c r="ACF38" s="18"/>
-      <c r="ACG38" s="18"/>
-      <c r="ACH38" s="18"/>
-      <c r="ACI38" s="18"/>
-      <c r="ACJ38" s="18"/>
-      <c r="ACK38" s="18"/>
-      <c r="ACL38" s="18"/>
-      <c r="ACM38" s="18"/>
-      <c r="ACN38" s="18"/>
-      <c r="ACO38" s="18"/>
-      <c r="ACP38" s="18"/>
-      <c r="ACQ38" s="18"/>
-      <c r="ACR38" s="18"/>
-      <c r="ACS38" s="18"/>
-      <c r="ACT38" s="18"/>
-      <c r="ACU38" s="18"/>
-      <c r="ACV38" s="18"/>
-      <c r="ACW38" s="18"/>
-      <c r="ACX38" s="18"/>
-      <c r="ACY38" s="18"/>
-      <c r="ACZ38" s="18"/>
-      <c r="ADA38" s="18"/>
-      <c r="ADB38" s="18"/>
-      <c r="ADC38" s="18"/>
-      <c r="ADD38" s="18"/>
-      <c r="ADE38" s="18"/>
-      <c r="ADF38" s="18"/>
-      <c r="ADG38" s="18"/>
-      <c r="ADH38" s="18"/>
-      <c r="ADI38" s="18"/>
-      <c r="ADJ38" s="18"/>
-      <c r="ADK38" s="18"/>
-      <c r="ADL38" s="18"/>
-      <c r="ADM38" s="18"/>
-      <c r="ADN38" s="18"/>
-      <c r="ADO38" s="18"/>
-      <c r="ADP38" s="18"/>
-      <c r="ADQ38" s="18"/>
-      <c r="ADR38" s="18"/>
-      <c r="ADS38" s="18"/>
-      <c r="ADT38" s="18"/>
-      <c r="ADU38" s="18"/>
-      <c r="ADV38" s="18"/>
-      <c r="ADW38" s="18"/>
-      <c r="ADX38" s="18"/>
-      <c r="ADY38" s="18"/>
-      <c r="ADZ38" s="18"/>
-      <c r="AEA38" s="18"/>
-      <c r="AEB38" s="18"/>
-      <c r="AEC38" s="18"/>
-      <c r="AED38" s="18"/>
-      <c r="AEE38" s="18"/>
-      <c r="AEF38" s="18"/>
-      <c r="AEG38" s="18"/>
-      <c r="AEH38" s="18"/>
-      <c r="AEI38" s="18"/>
-      <c r="AEJ38" s="18"/>
-      <c r="AEK38" s="18"/>
-      <c r="AEL38" s="18"/>
-      <c r="AEM38" s="18"/>
-      <c r="AEN38" s="18"/>
-      <c r="AEO38" s="18"/>
-      <c r="AEP38" s="18"/>
-      <c r="AEQ38" s="18"/>
-      <c r="AER38" s="18"/>
-      <c r="AES38" s="18"/>
-      <c r="AET38" s="18"/>
-      <c r="AEU38" s="18"/>
-      <c r="AEV38" s="18"/>
-      <c r="AEW38" s="18"/>
-      <c r="AEX38" s="18"/>
-      <c r="AEY38" s="18"/>
-      <c r="AEZ38" s="18"/>
-      <c r="AFA38" s="18"/>
-      <c r="AFB38" s="18"/>
-      <c r="AFC38" s="18"/>
-      <c r="AFD38" s="18"/>
-      <c r="AFE38" s="18"/>
-      <c r="AFF38" s="18"/>
-      <c r="AFG38" s="18"/>
-      <c r="AFH38" s="18"/>
-      <c r="AFI38" s="18"/>
-      <c r="AFJ38" s="18"/>
-      <c r="AFK38" s="18"/>
-      <c r="AFL38" s="18"/>
-      <c r="AFM38" s="18"/>
-      <c r="AFN38" s="18"/>
-      <c r="AFO38" s="18"/>
-      <c r="AFP38" s="18"/>
-      <c r="AFQ38" s="18"/>
-      <c r="AFR38" s="18"/>
-      <c r="AFS38" s="18"/>
-      <c r="AFT38" s="18"/>
-      <c r="AFU38" s="18"/>
-      <c r="AFV38" s="18"/>
-      <c r="AFW38" s="18"/>
-      <c r="AFX38" s="18"/>
-      <c r="AFY38" s="18"/>
-      <c r="AFZ38" s="18"/>
-      <c r="AGA38" s="18"/>
-      <c r="AGB38" s="18"/>
-      <c r="AGC38" s="18"/>
-      <c r="AGD38" s="18"/>
-      <c r="AGE38" s="18"/>
-      <c r="AGF38" s="18"/>
-      <c r="AGG38" s="18"/>
-      <c r="AGH38" s="18"/>
-      <c r="AGI38" s="18"/>
-      <c r="AGJ38" s="18"/>
-      <c r="AGK38" s="18"/>
-      <c r="AGL38" s="18"/>
-      <c r="AGM38" s="18"/>
-      <c r="AGN38" s="18"/>
-      <c r="AGO38" s="18"/>
-      <c r="AGP38" s="18"/>
-      <c r="AGQ38" s="18"/>
-      <c r="AGR38" s="18"/>
-      <c r="AGS38" s="18"/>
-      <c r="AGT38" s="18"/>
-      <c r="AGU38" s="18"/>
-      <c r="AGV38" s="18"/>
-      <c r="AGW38" s="18"/>
-      <c r="AGX38" s="18"/>
-      <c r="AGY38" s="18"/>
-      <c r="AGZ38" s="18"/>
-      <c r="AHA38" s="18"/>
-      <c r="AHB38" s="18"/>
-      <c r="AHC38" s="18"/>
-      <c r="AHD38" s="18"/>
-      <c r="AHE38" s="18"/>
-      <c r="AHF38" s="18"/>
-      <c r="AHG38" s="18"/>
-      <c r="AHH38" s="18"/>
-      <c r="AHI38" s="18"/>
-      <c r="AHJ38" s="18"/>
-      <c r="AHK38" s="18"/>
-      <c r="AHL38" s="18"/>
-      <c r="AHM38" s="18"/>
-      <c r="AHN38" s="18"/>
-      <c r="AHO38" s="18"/>
-      <c r="AHP38" s="18"/>
-      <c r="AHQ38" s="18"/>
-      <c r="AHR38" s="18"/>
-      <c r="AHS38" s="18"/>
-      <c r="AHT38" s="18"/>
-      <c r="AHU38" s="18"/>
-      <c r="AHV38" s="18"/>
-      <c r="AHW38" s="18"/>
-      <c r="AHX38" s="18"/>
-      <c r="AHY38" s="18"/>
-      <c r="AHZ38" s="18"/>
-      <c r="AIA38" s="18"/>
-      <c r="AIB38" s="18"/>
-      <c r="AIC38" s="18"/>
-      <c r="AID38" s="18"/>
-      <c r="AIE38" s="18"/>
-      <c r="AIF38" s="18"/>
-      <c r="AIG38" s="18"/>
-      <c r="AIH38" s="18"/>
-      <c r="AII38" s="18"/>
-      <c r="AIJ38" s="18"/>
-      <c r="AIK38" s="18"/>
-      <c r="AIL38" s="18"/>
-      <c r="AIM38" s="18"/>
-      <c r="AIN38" s="18"/>
-      <c r="AIO38" s="18"/>
-      <c r="AIP38" s="18"/>
-      <c r="AIQ38" s="18"/>
-      <c r="AIR38" s="18"/>
-      <c r="AIS38" s="18"/>
-      <c r="AIT38" s="18"/>
-      <c r="AIU38" s="18"/>
-      <c r="AIV38" s="18"/>
-      <c r="AIW38" s="18"/>
-      <c r="AIX38" s="18"/>
-      <c r="AIY38" s="18"/>
-      <c r="AIZ38" s="18"/>
-      <c r="AJA38" s="18"/>
-      <c r="AJB38" s="18"/>
-      <c r="AJC38" s="18"/>
-      <c r="AJD38" s="18"/>
-      <c r="AJE38" s="18"/>
-      <c r="AJF38" s="18"/>
-      <c r="AJG38" s="18"/>
-      <c r="AJH38" s="18"/>
-      <c r="AJI38" s="18"/>
-      <c r="AJJ38" s="18"/>
-      <c r="AJK38" s="18"/>
-      <c r="AJL38" s="18"/>
-      <c r="AJM38" s="18"/>
-      <c r="AJN38" s="18"/>
-      <c r="AJO38" s="18"/>
-      <c r="AJP38" s="18"/>
-      <c r="AJQ38" s="18"/>
-      <c r="AJR38" s="18"/>
-      <c r="AJS38" s="18"/>
-      <c r="AJT38" s="18"/>
-      <c r="AJU38" s="18"/>
-      <c r="AJV38" s="18"/>
-      <c r="AJW38" s="18"/>
-      <c r="AJX38" s="18"/>
-      <c r="AJY38" s="18"/>
-      <c r="AJZ38" s="18"/>
-      <c r="AKA38" s="18"/>
-      <c r="AKB38" s="18"/>
-      <c r="AKC38" s="18"/>
-      <c r="AKD38" s="18"/>
-      <c r="AKE38" s="18"/>
-      <c r="AKF38" s="18"/>
-      <c r="AKG38" s="18"/>
-      <c r="AKH38" s="18"/>
-      <c r="AKI38" s="18"/>
-      <c r="AKJ38" s="18"/>
-      <c r="AKK38" s="18"/>
-      <c r="AKL38" s="18"/>
-      <c r="AKM38" s="18"/>
-      <c r="AKN38" s="18"/>
-      <c r="AKO38" s="18"/>
-      <c r="AKP38" s="18"/>
-      <c r="AKQ38" s="18"/>
-      <c r="AKR38" s="18"/>
-      <c r="AKS38" s="18"/>
-      <c r="AKT38" s="18"/>
-      <c r="AKU38" s="18"/>
-      <c r="AKV38" s="18"/>
-      <c r="AKW38" s="18"/>
-      <c r="AKX38" s="18"/>
-      <c r="AKY38" s="18"/>
-      <c r="AKZ38" s="18"/>
-      <c r="ALA38" s="18"/>
-      <c r="ALB38" s="18"/>
-      <c r="ALC38" s="18"/>
-      <c r="ALD38" s="18"/>
-      <c r="ALE38" s="18"/>
-      <c r="ALF38" s="18"/>
-      <c r="ALG38" s="18"/>
-      <c r="ALH38" s="18"/>
-      <c r="ALI38" s="18"/>
-      <c r="ALJ38" s="18"/>
-      <c r="ALK38" s="18"/>
-      <c r="ALL38" s="18"/>
-      <c r="ALM38" s="18"/>
-      <c r="ALN38" s="18"/>
-      <c r="ALO38" s="18"/>
-      <c r="ALP38" s="18"/>
-      <c r="ALQ38" s="18"/>
-      <c r="ALR38" s="18"/>
-      <c r="ALS38" s="18"/>
-      <c r="ALT38" s="18"/>
-      <c r="ALU38" s="18"/>
-      <c r="ALV38" s="18"/>
-      <c r="ALW38" s="18"/>
-      <c r="ALX38" s="18"/>
-      <c r="ALY38" s="18"/>
-      <c r="ALZ38" s="18"/>
-      <c r="AMA38" s="18"/>
-      <c r="AMB38" s="18"/>
-      <c r="AMC38" s="18"/>
-      <c r="AMD38" s="18"/>
-      <c r="AME38" s="18"/>
-      <c r="AMF38" s="18"/>
-      <c r="AMG38" s="18"/>
-      <c r="AMH38" s="18"/>
-      <c r="AMI38" s="18"/>
-      <c r="AMJ38" s="18"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>2</v>
@@ -4123,8 +2092,8 @@
       <c r="AMJ39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="s">
-        <v>45</v>
+      <c r="A40" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>2</v>
@@ -5153,8 +3122,8 @@
       <c r="AMJ40" s="18"/>
     </row>
     <row r="41" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>46</v>
+      <c r="A41" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>2</v>
@@ -6182,6 +4151,2066 @@
       <c r="AMI41" s="18"/>
       <c r="AMJ41" s="18"/>
     </row>
+    <row r="42" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="18"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="18"/>
+      <c r="AM42" s="18"/>
+      <c r="AN42" s="18"/>
+      <c r="AO42" s="18"/>
+      <c r="AP42" s="18"/>
+      <c r="AQ42" s="18"/>
+      <c r="AR42" s="18"/>
+      <c r="AS42" s="18"/>
+      <c r="AT42" s="18"/>
+      <c r="AU42" s="18"/>
+      <c r="AV42" s="18"/>
+      <c r="AW42" s="18"/>
+      <c r="AX42" s="18"/>
+      <c r="AY42" s="18"/>
+      <c r="AZ42" s="18"/>
+      <c r="BA42" s="18"/>
+      <c r="BB42" s="18"/>
+      <c r="BC42" s="18"/>
+      <c r="BD42" s="18"/>
+      <c r="BE42" s="18"/>
+      <c r="BF42" s="18"/>
+      <c r="BG42" s="18"/>
+      <c r="BH42" s="18"/>
+      <c r="BI42" s="18"/>
+      <c r="BJ42" s="18"/>
+      <c r="BK42" s="18"/>
+      <c r="BL42" s="18"/>
+      <c r="BM42" s="18"/>
+      <c r="BN42" s="18"/>
+      <c r="BO42" s="18"/>
+      <c r="BP42" s="18"/>
+      <c r="BQ42" s="18"/>
+      <c r="BR42" s="18"/>
+      <c r="BS42" s="18"/>
+      <c r="BT42" s="18"/>
+      <c r="BU42" s="18"/>
+      <c r="BV42" s="18"/>
+      <c r="BW42" s="18"/>
+      <c r="BX42" s="18"/>
+      <c r="BY42" s="18"/>
+      <c r="BZ42" s="18"/>
+      <c r="CA42" s="18"/>
+      <c r="CB42" s="18"/>
+      <c r="CC42" s="18"/>
+      <c r="CD42" s="18"/>
+      <c r="CE42" s="18"/>
+      <c r="CF42" s="18"/>
+      <c r="CG42" s="18"/>
+      <c r="CH42" s="18"/>
+      <c r="CI42" s="18"/>
+      <c r="CJ42" s="18"/>
+      <c r="CK42" s="18"/>
+      <c r="CL42" s="18"/>
+      <c r="CM42" s="18"/>
+      <c r="CN42" s="18"/>
+      <c r="CO42" s="18"/>
+      <c r="CP42" s="18"/>
+      <c r="CQ42" s="18"/>
+      <c r="CR42" s="18"/>
+      <c r="CS42" s="18"/>
+      <c r="CT42" s="18"/>
+      <c r="CU42" s="18"/>
+      <c r="CV42" s="18"/>
+      <c r="CW42" s="18"/>
+      <c r="CX42" s="18"/>
+      <c r="CY42" s="18"/>
+      <c r="CZ42" s="18"/>
+      <c r="DA42" s="18"/>
+      <c r="DB42" s="18"/>
+      <c r="DC42" s="18"/>
+      <c r="DD42" s="18"/>
+      <c r="DE42" s="18"/>
+      <c r="DF42" s="18"/>
+      <c r="DG42" s="18"/>
+      <c r="DH42" s="18"/>
+      <c r="DI42" s="18"/>
+      <c r="DJ42" s="18"/>
+      <c r="DK42" s="18"/>
+      <c r="DL42" s="18"/>
+      <c r="DM42" s="18"/>
+      <c r="DN42" s="18"/>
+      <c r="DO42" s="18"/>
+      <c r="DP42" s="18"/>
+      <c r="DQ42" s="18"/>
+      <c r="DR42" s="18"/>
+      <c r="DS42" s="18"/>
+      <c r="DT42" s="18"/>
+      <c r="DU42" s="18"/>
+      <c r="DV42" s="18"/>
+      <c r="DW42" s="18"/>
+      <c r="DX42" s="18"/>
+      <c r="DY42" s="18"/>
+      <c r="DZ42" s="18"/>
+      <c r="EA42" s="18"/>
+      <c r="EB42" s="18"/>
+      <c r="EC42" s="18"/>
+      <c r="ED42" s="18"/>
+      <c r="EE42" s="18"/>
+      <c r="EF42" s="18"/>
+      <c r="EG42" s="18"/>
+      <c r="EH42" s="18"/>
+      <c r="EI42" s="18"/>
+      <c r="EJ42" s="18"/>
+      <c r="EK42" s="18"/>
+      <c r="EL42" s="18"/>
+      <c r="EM42" s="18"/>
+      <c r="EN42" s="18"/>
+      <c r="EO42" s="18"/>
+      <c r="EP42" s="18"/>
+      <c r="EQ42" s="18"/>
+      <c r="ER42" s="18"/>
+      <c r="ES42" s="18"/>
+      <c r="ET42" s="18"/>
+      <c r="EU42" s="18"/>
+      <c r="EV42" s="18"/>
+      <c r="EW42" s="18"/>
+      <c r="EX42" s="18"/>
+      <c r="EY42" s="18"/>
+      <c r="EZ42" s="18"/>
+      <c r="FA42" s="18"/>
+      <c r="FB42" s="18"/>
+      <c r="FC42" s="18"/>
+      <c r="FD42" s="18"/>
+      <c r="FE42" s="18"/>
+      <c r="FF42" s="18"/>
+      <c r="FG42" s="18"/>
+      <c r="FH42" s="18"/>
+      <c r="FI42" s="18"/>
+      <c r="FJ42" s="18"/>
+      <c r="FK42" s="18"/>
+      <c r="FL42" s="18"/>
+      <c r="FM42" s="18"/>
+      <c r="FN42" s="18"/>
+      <c r="FO42" s="18"/>
+      <c r="FP42" s="18"/>
+      <c r="FQ42" s="18"/>
+      <c r="FR42" s="18"/>
+      <c r="FS42" s="18"/>
+      <c r="FT42" s="18"/>
+      <c r="FU42" s="18"/>
+      <c r="FV42" s="18"/>
+      <c r="FW42" s="18"/>
+      <c r="FX42" s="18"/>
+      <c r="FY42" s="18"/>
+      <c r="FZ42" s="18"/>
+      <c r="GA42" s="18"/>
+      <c r="GB42" s="18"/>
+      <c r="GC42" s="18"/>
+      <c r="GD42" s="18"/>
+      <c r="GE42" s="18"/>
+      <c r="GF42" s="18"/>
+      <c r="GG42" s="18"/>
+      <c r="GH42" s="18"/>
+      <c r="GI42" s="18"/>
+      <c r="GJ42" s="18"/>
+      <c r="GK42" s="18"/>
+      <c r="GL42" s="18"/>
+      <c r="GM42" s="18"/>
+      <c r="GN42" s="18"/>
+      <c r="GO42" s="18"/>
+      <c r="GP42" s="18"/>
+      <c r="GQ42" s="18"/>
+      <c r="GR42" s="18"/>
+      <c r="GS42" s="18"/>
+      <c r="GT42" s="18"/>
+      <c r="GU42" s="18"/>
+      <c r="GV42" s="18"/>
+      <c r="GW42" s="18"/>
+      <c r="GX42" s="18"/>
+      <c r="GY42" s="18"/>
+      <c r="GZ42" s="18"/>
+      <c r="HA42" s="18"/>
+      <c r="HB42" s="18"/>
+      <c r="HC42" s="18"/>
+      <c r="HD42" s="18"/>
+      <c r="HE42" s="18"/>
+      <c r="HF42" s="18"/>
+      <c r="HG42" s="18"/>
+      <c r="HH42" s="18"/>
+      <c r="HI42" s="18"/>
+      <c r="HJ42" s="18"/>
+      <c r="HK42" s="18"/>
+      <c r="HL42" s="18"/>
+      <c r="HM42" s="18"/>
+      <c r="HN42" s="18"/>
+      <c r="HO42" s="18"/>
+      <c r="HP42" s="18"/>
+      <c r="HQ42" s="18"/>
+      <c r="HR42" s="18"/>
+      <c r="HS42" s="18"/>
+      <c r="HT42" s="18"/>
+      <c r="HU42" s="18"/>
+      <c r="HV42" s="18"/>
+      <c r="HW42" s="18"/>
+      <c r="HX42" s="18"/>
+      <c r="HY42" s="18"/>
+      <c r="HZ42" s="18"/>
+      <c r="IA42" s="18"/>
+      <c r="IB42" s="18"/>
+      <c r="IC42" s="18"/>
+      <c r="ID42" s="18"/>
+      <c r="IE42" s="18"/>
+      <c r="IF42" s="18"/>
+      <c r="IG42" s="18"/>
+      <c r="IH42" s="18"/>
+      <c r="II42" s="18"/>
+      <c r="IJ42" s="18"/>
+      <c r="IK42" s="18"/>
+      <c r="IL42" s="18"/>
+      <c r="IM42" s="18"/>
+      <c r="IN42" s="18"/>
+      <c r="IO42" s="18"/>
+      <c r="IP42" s="18"/>
+      <c r="IQ42" s="18"/>
+      <c r="IR42" s="18"/>
+      <c r="IS42" s="18"/>
+      <c r="IT42" s="18"/>
+      <c r="IU42" s="18"/>
+      <c r="IV42" s="18"/>
+      <c r="IW42" s="18"/>
+      <c r="IX42" s="18"/>
+      <c r="IY42" s="18"/>
+      <c r="IZ42" s="18"/>
+      <c r="JA42" s="18"/>
+      <c r="JB42" s="18"/>
+      <c r="JC42" s="18"/>
+      <c r="JD42" s="18"/>
+      <c r="JE42" s="18"/>
+      <c r="JF42" s="18"/>
+      <c r="JG42" s="18"/>
+      <c r="JH42" s="18"/>
+      <c r="JI42" s="18"/>
+      <c r="JJ42" s="18"/>
+      <c r="JK42" s="18"/>
+      <c r="JL42" s="18"/>
+      <c r="JM42" s="18"/>
+      <c r="JN42" s="18"/>
+      <c r="JO42" s="18"/>
+      <c r="JP42" s="18"/>
+      <c r="JQ42" s="18"/>
+      <c r="JR42" s="18"/>
+      <c r="JS42" s="18"/>
+      <c r="JT42" s="18"/>
+      <c r="JU42" s="18"/>
+      <c r="JV42" s="18"/>
+      <c r="JW42" s="18"/>
+      <c r="JX42" s="18"/>
+      <c r="JY42" s="18"/>
+      <c r="JZ42" s="18"/>
+      <c r="KA42" s="18"/>
+      <c r="KB42" s="18"/>
+      <c r="KC42" s="18"/>
+      <c r="KD42" s="18"/>
+      <c r="KE42" s="18"/>
+      <c r="KF42" s="18"/>
+      <c r="KG42" s="18"/>
+      <c r="KH42" s="18"/>
+      <c r="KI42" s="18"/>
+      <c r="KJ42" s="18"/>
+      <c r="KK42" s="18"/>
+      <c r="KL42" s="18"/>
+      <c r="KM42" s="18"/>
+      <c r="KN42" s="18"/>
+      <c r="KO42" s="18"/>
+      <c r="KP42" s="18"/>
+      <c r="KQ42" s="18"/>
+      <c r="KR42" s="18"/>
+      <c r="KS42" s="18"/>
+      <c r="KT42" s="18"/>
+      <c r="KU42" s="18"/>
+      <c r="KV42" s="18"/>
+      <c r="KW42" s="18"/>
+      <c r="KX42" s="18"/>
+      <c r="KY42" s="18"/>
+      <c r="KZ42" s="18"/>
+      <c r="LA42" s="18"/>
+      <c r="LB42" s="18"/>
+      <c r="LC42" s="18"/>
+      <c r="LD42" s="18"/>
+      <c r="LE42" s="18"/>
+      <c r="LF42" s="18"/>
+      <c r="LG42" s="18"/>
+      <c r="LH42" s="18"/>
+      <c r="LI42" s="18"/>
+      <c r="LJ42" s="18"/>
+      <c r="LK42" s="18"/>
+      <c r="LL42" s="18"/>
+      <c r="LM42" s="18"/>
+      <c r="LN42" s="18"/>
+      <c r="LO42" s="18"/>
+      <c r="LP42" s="18"/>
+      <c r="LQ42" s="18"/>
+      <c r="LR42" s="18"/>
+      <c r="LS42" s="18"/>
+      <c r="LT42" s="18"/>
+      <c r="LU42" s="18"/>
+      <c r="LV42" s="18"/>
+      <c r="LW42" s="18"/>
+      <c r="LX42" s="18"/>
+      <c r="LY42" s="18"/>
+      <c r="LZ42" s="18"/>
+      <c r="MA42" s="18"/>
+      <c r="MB42" s="18"/>
+      <c r="MC42" s="18"/>
+      <c r="MD42" s="18"/>
+      <c r="ME42" s="18"/>
+      <c r="MF42" s="18"/>
+      <c r="MG42" s="18"/>
+      <c r="MH42" s="18"/>
+      <c r="MI42" s="18"/>
+      <c r="MJ42" s="18"/>
+      <c r="MK42" s="18"/>
+      <c r="ML42" s="18"/>
+      <c r="MM42" s="18"/>
+      <c r="MN42" s="18"/>
+      <c r="MO42" s="18"/>
+      <c r="MP42" s="18"/>
+      <c r="MQ42" s="18"/>
+      <c r="MR42" s="18"/>
+      <c r="MS42" s="18"/>
+      <c r="MT42" s="18"/>
+      <c r="MU42" s="18"/>
+      <c r="MV42" s="18"/>
+      <c r="MW42" s="18"/>
+      <c r="MX42" s="18"/>
+      <c r="MY42" s="18"/>
+      <c r="MZ42" s="18"/>
+      <c r="NA42" s="18"/>
+      <c r="NB42" s="18"/>
+      <c r="NC42" s="18"/>
+      <c r="ND42" s="18"/>
+      <c r="NE42" s="18"/>
+      <c r="NF42" s="18"/>
+      <c r="NG42" s="18"/>
+      <c r="NH42" s="18"/>
+      <c r="NI42" s="18"/>
+      <c r="NJ42" s="18"/>
+      <c r="NK42" s="18"/>
+      <c r="NL42" s="18"/>
+      <c r="NM42" s="18"/>
+      <c r="NN42" s="18"/>
+      <c r="NO42" s="18"/>
+      <c r="NP42" s="18"/>
+      <c r="NQ42" s="18"/>
+      <c r="NR42" s="18"/>
+      <c r="NS42" s="18"/>
+      <c r="NT42" s="18"/>
+      <c r="NU42" s="18"/>
+      <c r="NV42" s="18"/>
+      <c r="NW42" s="18"/>
+      <c r="NX42" s="18"/>
+      <c r="NY42" s="18"/>
+      <c r="NZ42" s="18"/>
+      <c r="OA42" s="18"/>
+      <c r="OB42" s="18"/>
+      <c r="OC42" s="18"/>
+      <c r="OD42" s="18"/>
+      <c r="OE42" s="18"/>
+      <c r="OF42" s="18"/>
+      <c r="OG42" s="18"/>
+      <c r="OH42" s="18"/>
+      <c r="OI42" s="18"/>
+      <c r="OJ42" s="18"/>
+      <c r="OK42" s="18"/>
+      <c r="OL42" s="18"/>
+      <c r="OM42" s="18"/>
+      <c r="ON42" s="18"/>
+      <c r="OO42" s="18"/>
+      <c r="OP42" s="18"/>
+      <c r="OQ42" s="18"/>
+      <c r="OR42" s="18"/>
+      <c r="OS42" s="18"/>
+      <c r="OT42" s="18"/>
+      <c r="OU42" s="18"/>
+      <c r="OV42" s="18"/>
+      <c r="OW42" s="18"/>
+      <c r="OX42" s="18"/>
+      <c r="OY42" s="18"/>
+      <c r="OZ42" s="18"/>
+      <c r="PA42" s="18"/>
+      <c r="PB42" s="18"/>
+      <c r="PC42" s="18"/>
+      <c r="PD42" s="18"/>
+      <c r="PE42" s="18"/>
+      <c r="PF42" s="18"/>
+      <c r="PG42" s="18"/>
+      <c r="PH42" s="18"/>
+      <c r="PI42" s="18"/>
+      <c r="PJ42" s="18"/>
+      <c r="PK42" s="18"/>
+      <c r="PL42" s="18"/>
+      <c r="PM42" s="18"/>
+      <c r="PN42" s="18"/>
+      <c r="PO42" s="18"/>
+      <c r="PP42" s="18"/>
+      <c r="PQ42" s="18"/>
+      <c r="PR42" s="18"/>
+      <c r="PS42" s="18"/>
+      <c r="PT42" s="18"/>
+      <c r="PU42" s="18"/>
+      <c r="PV42" s="18"/>
+      <c r="PW42" s="18"/>
+      <c r="PX42" s="18"/>
+      <c r="PY42" s="18"/>
+      <c r="PZ42" s="18"/>
+      <c r="QA42" s="18"/>
+      <c r="QB42" s="18"/>
+      <c r="QC42" s="18"/>
+      <c r="QD42" s="18"/>
+      <c r="QE42" s="18"/>
+      <c r="QF42" s="18"/>
+      <c r="QG42" s="18"/>
+      <c r="QH42" s="18"/>
+      <c r="QI42" s="18"/>
+      <c r="QJ42" s="18"/>
+      <c r="QK42" s="18"/>
+      <c r="QL42" s="18"/>
+      <c r="QM42" s="18"/>
+      <c r="QN42" s="18"/>
+      <c r="QO42" s="18"/>
+      <c r="QP42" s="18"/>
+      <c r="QQ42" s="18"/>
+      <c r="QR42" s="18"/>
+      <c r="QS42" s="18"/>
+      <c r="QT42" s="18"/>
+      <c r="QU42" s="18"/>
+      <c r="QV42" s="18"/>
+      <c r="QW42" s="18"/>
+      <c r="QX42" s="18"/>
+      <c r="QY42" s="18"/>
+      <c r="QZ42" s="18"/>
+      <c r="RA42" s="18"/>
+      <c r="RB42" s="18"/>
+      <c r="RC42" s="18"/>
+      <c r="RD42" s="18"/>
+      <c r="RE42" s="18"/>
+      <c r="RF42" s="18"/>
+      <c r="RG42" s="18"/>
+      <c r="RH42" s="18"/>
+      <c r="RI42" s="18"/>
+      <c r="RJ42" s="18"/>
+      <c r="RK42" s="18"/>
+      <c r="RL42" s="18"/>
+      <c r="RM42" s="18"/>
+      <c r="RN42" s="18"/>
+      <c r="RO42" s="18"/>
+      <c r="RP42" s="18"/>
+      <c r="RQ42" s="18"/>
+      <c r="RR42" s="18"/>
+      <c r="RS42" s="18"/>
+      <c r="RT42" s="18"/>
+      <c r="RU42" s="18"/>
+      <c r="RV42" s="18"/>
+      <c r="RW42" s="18"/>
+      <c r="RX42" s="18"/>
+      <c r="RY42" s="18"/>
+      <c r="RZ42" s="18"/>
+      <c r="SA42" s="18"/>
+      <c r="SB42" s="18"/>
+      <c r="SC42" s="18"/>
+      <c r="SD42" s="18"/>
+      <c r="SE42" s="18"/>
+      <c r="SF42" s="18"/>
+      <c r="SG42" s="18"/>
+      <c r="SH42" s="18"/>
+      <c r="SI42" s="18"/>
+      <c r="SJ42" s="18"/>
+      <c r="SK42" s="18"/>
+      <c r="SL42" s="18"/>
+      <c r="SM42" s="18"/>
+      <c r="SN42" s="18"/>
+      <c r="SO42" s="18"/>
+      <c r="SP42" s="18"/>
+      <c r="SQ42" s="18"/>
+      <c r="SR42" s="18"/>
+      <c r="SS42" s="18"/>
+      <c r="ST42" s="18"/>
+      <c r="SU42" s="18"/>
+      <c r="SV42" s="18"/>
+      <c r="SW42" s="18"/>
+      <c r="SX42" s="18"/>
+      <c r="SY42" s="18"/>
+      <c r="SZ42" s="18"/>
+      <c r="TA42" s="18"/>
+      <c r="TB42" s="18"/>
+      <c r="TC42" s="18"/>
+      <c r="TD42" s="18"/>
+      <c r="TE42" s="18"/>
+      <c r="TF42" s="18"/>
+      <c r="TG42" s="18"/>
+      <c r="TH42" s="18"/>
+      <c r="TI42" s="18"/>
+      <c r="TJ42" s="18"/>
+      <c r="TK42" s="18"/>
+      <c r="TL42" s="18"/>
+      <c r="TM42" s="18"/>
+      <c r="TN42" s="18"/>
+      <c r="TO42" s="18"/>
+      <c r="TP42" s="18"/>
+      <c r="TQ42" s="18"/>
+      <c r="TR42" s="18"/>
+      <c r="TS42" s="18"/>
+      <c r="TT42" s="18"/>
+      <c r="TU42" s="18"/>
+      <c r="TV42" s="18"/>
+      <c r="TW42" s="18"/>
+      <c r="TX42" s="18"/>
+      <c r="TY42" s="18"/>
+      <c r="TZ42" s="18"/>
+      <c r="UA42" s="18"/>
+      <c r="UB42" s="18"/>
+      <c r="UC42" s="18"/>
+      <c r="UD42" s="18"/>
+      <c r="UE42" s="18"/>
+      <c r="UF42" s="18"/>
+      <c r="UG42" s="18"/>
+      <c r="UH42" s="18"/>
+      <c r="UI42" s="18"/>
+      <c r="UJ42" s="18"/>
+      <c r="UK42" s="18"/>
+      <c r="UL42" s="18"/>
+      <c r="UM42" s="18"/>
+      <c r="UN42" s="18"/>
+      <c r="UO42" s="18"/>
+      <c r="UP42" s="18"/>
+      <c r="UQ42" s="18"/>
+      <c r="UR42" s="18"/>
+      <c r="US42" s="18"/>
+      <c r="UT42" s="18"/>
+      <c r="UU42" s="18"/>
+      <c r="UV42" s="18"/>
+      <c r="UW42" s="18"/>
+      <c r="UX42" s="18"/>
+      <c r="UY42" s="18"/>
+      <c r="UZ42" s="18"/>
+      <c r="VA42" s="18"/>
+      <c r="VB42" s="18"/>
+      <c r="VC42" s="18"/>
+      <c r="VD42" s="18"/>
+      <c r="VE42" s="18"/>
+      <c r="VF42" s="18"/>
+      <c r="VG42" s="18"/>
+      <c r="VH42" s="18"/>
+      <c r="VI42" s="18"/>
+      <c r="VJ42" s="18"/>
+      <c r="VK42" s="18"/>
+      <c r="VL42" s="18"/>
+      <c r="VM42" s="18"/>
+      <c r="VN42" s="18"/>
+      <c r="VO42" s="18"/>
+      <c r="VP42" s="18"/>
+      <c r="VQ42" s="18"/>
+      <c r="VR42" s="18"/>
+      <c r="VS42" s="18"/>
+      <c r="VT42" s="18"/>
+      <c r="VU42" s="18"/>
+      <c r="VV42" s="18"/>
+      <c r="VW42" s="18"/>
+      <c r="VX42" s="18"/>
+      <c r="VY42" s="18"/>
+      <c r="VZ42" s="18"/>
+      <c r="WA42" s="18"/>
+      <c r="WB42" s="18"/>
+      <c r="WC42" s="18"/>
+      <c r="WD42" s="18"/>
+      <c r="WE42" s="18"/>
+      <c r="WF42" s="18"/>
+      <c r="WG42" s="18"/>
+      <c r="WH42" s="18"/>
+      <c r="WI42" s="18"/>
+      <c r="WJ42" s="18"/>
+      <c r="WK42" s="18"/>
+      <c r="WL42" s="18"/>
+      <c r="WM42" s="18"/>
+      <c r="WN42" s="18"/>
+      <c r="WO42" s="18"/>
+      <c r="WP42" s="18"/>
+      <c r="WQ42" s="18"/>
+      <c r="WR42" s="18"/>
+      <c r="WS42" s="18"/>
+      <c r="WT42" s="18"/>
+      <c r="WU42" s="18"/>
+      <c r="WV42" s="18"/>
+      <c r="WW42" s="18"/>
+      <c r="WX42" s="18"/>
+      <c r="WY42" s="18"/>
+      <c r="WZ42" s="18"/>
+      <c r="XA42" s="18"/>
+      <c r="XB42" s="18"/>
+      <c r="XC42" s="18"/>
+      <c r="XD42" s="18"/>
+      <c r="XE42" s="18"/>
+      <c r="XF42" s="18"/>
+      <c r="XG42" s="18"/>
+      <c r="XH42" s="18"/>
+      <c r="XI42" s="18"/>
+      <c r="XJ42" s="18"/>
+      <c r="XK42" s="18"/>
+      <c r="XL42" s="18"/>
+      <c r="XM42" s="18"/>
+      <c r="XN42" s="18"/>
+      <c r="XO42" s="18"/>
+      <c r="XP42" s="18"/>
+      <c r="XQ42" s="18"/>
+      <c r="XR42" s="18"/>
+      <c r="XS42" s="18"/>
+      <c r="XT42" s="18"/>
+      <c r="XU42" s="18"/>
+      <c r="XV42" s="18"/>
+      <c r="XW42" s="18"/>
+      <c r="XX42" s="18"/>
+      <c r="XY42" s="18"/>
+      <c r="XZ42" s="18"/>
+      <c r="YA42" s="18"/>
+      <c r="YB42" s="18"/>
+      <c r="YC42" s="18"/>
+      <c r="YD42" s="18"/>
+      <c r="YE42" s="18"/>
+      <c r="YF42" s="18"/>
+      <c r="YG42" s="18"/>
+      <c r="YH42" s="18"/>
+      <c r="YI42" s="18"/>
+      <c r="YJ42" s="18"/>
+      <c r="YK42" s="18"/>
+      <c r="YL42" s="18"/>
+      <c r="YM42" s="18"/>
+      <c r="YN42" s="18"/>
+      <c r="YO42" s="18"/>
+      <c r="YP42" s="18"/>
+      <c r="YQ42" s="18"/>
+      <c r="YR42" s="18"/>
+      <c r="YS42" s="18"/>
+      <c r="YT42" s="18"/>
+      <c r="YU42" s="18"/>
+      <c r="YV42" s="18"/>
+      <c r="YW42" s="18"/>
+      <c r="YX42" s="18"/>
+      <c r="YY42" s="18"/>
+      <c r="YZ42" s="18"/>
+      <c r="ZA42" s="18"/>
+      <c r="ZB42" s="18"/>
+      <c r="ZC42" s="18"/>
+      <c r="ZD42" s="18"/>
+      <c r="ZE42" s="18"/>
+      <c r="ZF42" s="18"/>
+      <c r="ZG42" s="18"/>
+      <c r="ZH42" s="18"/>
+      <c r="ZI42" s="18"/>
+      <c r="ZJ42" s="18"/>
+      <c r="ZK42" s="18"/>
+      <c r="ZL42" s="18"/>
+      <c r="ZM42" s="18"/>
+      <c r="ZN42" s="18"/>
+      <c r="ZO42" s="18"/>
+      <c r="ZP42" s="18"/>
+      <c r="ZQ42" s="18"/>
+      <c r="ZR42" s="18"/>
+      <c r="ZS42" s="18"/>
+      <c r="ZT42" s="18"/>
+      <c r="ZU42" s="18"/>
+      <c r="ZV42" s="18"/>
+      <c r="ZW42" s="18"/>
+      <c r="ZX42" s="18"/>
+      <c r="ZY42" s="18"/>
+      <c r="ZZ42" s="18"/>
+      <c r="AAA42" s="18"/>
+      <c r="AAB42" s="18"/>
+      <c r="AAC42" s="18"/>
+      <c r="AAD42" s="18"/>
+      <c r="AAE42" s="18"/>
+      <c r="AAF42" s="18"/>
+      <c r="AAG42" s="18"/>
+      <c r="AAH42" s="18"/>
+      <c r="AAI42" s="18"/>
+      <c r="AAJ42" s="18"/>
+      <c r="AAK42" s="18"/>
+      <c r="AAL42" s="18"/>
+      <c r="AAM42" s="18"/>
+      <c r="AAN42" s="18"/>
+      <c r="AAO42" s="18"/>
+      <c r="AAP42" s="18"/>
+      <c r="AAQ42" s="18"/>
+      <c r="AAR42" s="18"/>
+      <c r="AAS42" s="18"/>
+      <c r="AAT42" s="18"/>
+      <c r="AAU42" s="18"/>
+      <c r="AAV42" s="18"/>
+      <c r="AAW42" s="18"/>
+      <c r="AAX42" s="18"/>
+      <c r="AAY42" s="18"/>
+      <c r="AAZ42" s="18"/>
+      <c r="ABA42" s="18"/>
+      <c r="ABB42" s="18"/>
+      <c r="ABC42" s="18"/>
+      <c r="ABD42" s="18"/>
+      <c r="ABE42" s="18"/>
+      <c r="ABF42" s="18"/>
+      <c r="ABG42" s="18"/>
+      <c r="ABH42" s="18"/>
+      <c r="ABI42" s="18"/>
+      <c r="ABJ42" s="18"/>
+      <c r="ABK42" s="18"/>
+      <c r="ABL42" s="18"/>
+      <c r="ABM42" s="18"/>
+      <c r="ABN42" s="18"/>
+      <c r="ABO42" s="18"/>
+      <c r="ABP42" s="18"/>
+      <c r="ABQ42" s="18"/>
+      <c r="ABR42" s="18"/>
+      <c r="ABS42" s="18"/>
+      <c r="ABT42" s="18"/>
+      <c r="ABU42" s="18"/>
+      <c r="ABV42" s="18"/>
+      <c r="ABW42" s="18"/>
+      <c r="ABX42" s="18"/>
+      <c r="ABY42" s="18"/>
+      <c r="ABZ42" s="18"/>
+      <c r="ACA42" s="18"/>
+      <c r="ACB42" s="18"/>
+      <c r="ACC42" s="18"/>
+      <c r="ACD42" s="18"/>
+      <c r="ACE42" s="18"/>
+      <c r="ACF42" s="18"/>
+      <c r="ACG42" s="18"/>
+      <c r="ACH42" s="18"/>
+      <c r="ACI42" s="18"/>
+      <c r="ACJ42" s="18"/>
+      <c r="ACK42" s="18"/>
+      <c r="ACL42" s="18"/>
+      <c r="ACM42" s="18"/>
+      <c r="ACN42" s="18"/>
+      <c r="ACO42" s="18"/>
+      <c r="ACP42" s="18"/>
+      <c r="ACQ42" s="18"/>
+      <c r="ACR42" s="18"/>
+      <c r="ACS42" s="18"/>
+      <c r="ACT42" s="18"/>
+      <c r="ACU42" s="18"/>
+      <c r="ACV42" s="18"/>
+      <c r="ACW42" s="18"/>
+      <c r="ACX42" s="18"/>
+      <c r="ACY42" s="18"/>
+      <c r="ACZ42" s="18"/>
+      <c r="ADA42" s="18"/>
+      <c r="ADB42" s="18"/>
+      <c r="ADC42" s="18"/>
+      <c r="ADD42" s="18"/>
+      <c r="ADE42" s="18"/>
+      <c r="ADF42" s="18"/>
+      <c r="ADG42" s="18"/>
+      <c r="ADH42" s="18"/>
+      <c r="ADI42" s="18"/>
+      <c r="ADJ42" s="18"/>
+      <c r="ADK42" s="18"/>
+      <c r="ADL42" s="18"/>
+      <c r="ADM42" s="18"/>
+      <c r="ADN42" s="18"/>
+      <c r="ADO42" s="18"/>
+      <c r="ADP42" s="18"/>
+      <c r="ADQ42" s="18"/>
+      <c r="ADR42" s="18"/>
+      <c r="ADS42" s="18"/>
+      <c r="ADT42" s="18"/>
+      <c r="ADU42" s="18"/>
+      <c r="ADV42" s="18"/>
+      <c r="ADW42" s="18"/>
+      <c r="ADX42" s="18"/>
+      <c r="ADY42" s="18"/>
+      <c r="ADZ42" s="18"/>
+      <c r="AEA42" s="18"/>
+      <c r="AEB42" s="18"/>
+      <c r="AEC42" s="18"/>
+      <c r="AED42" s="18"/>
+      <c r="AEE42" s="18"/>
+      <c r="AEF42" s="18"/>
+      <c r="AEG42" s="18"/>
+      <c r="AEH42" s="18"/>
+      <c r="AEI42" s="18"/>
+      <c r="AEJ42" s="18"/>
+      <c r="AEK42" s="18"/>
+      <c r="AEL42" s="18"/>
+      <c r="AEM42" s="18"/>
+      <c r="AEN42" s="18"/>
+      <c r="AEO42" s="18"/>
+      <c r="AEP42" s="18"/>
+      <c r="AEQ42" s="18"/>
+      <c r="AER42" s="18"/>
+      <c r="AES42" s="18"/>
+      <c r="AET42" s="18"/>
+      <c r="AEU42" s="18"/>
+      <c r="AEV42" s="18"/>
+      <c r="AEW42" s="18"/>
+      <c r="AEX42" s="18"/>
+      <c r="AEY42" s="18"/>
+      <c r="AEZ42" s="18"/>
+      <c r="AFA42" s="18"/>
+      <c r="AFB42" s="18"/>
+      <c r="AFC42" s="18"/>
+      <c r="AFD42" s="18"/>
+      <c r="AFE42" s="18"/>
+      <c r="AFF42" s="18"/>
+      <c r="AFG42" s="18"/>
+      <c r="AFH42" s="18"/>
+      <c r="AFI42" s="18"/>
+      <c r="AFJ42" s="18"/>
+      <c r="AFK42" s="18"/>
+      <c r="AFL42" s="18"/>
+      <c r="AFM42" s="18"/>
+      <c r="AFN42" s="18"/>
+      <c r="AFO42" s="18"/>
+      <c r="AFP42" s="18"/>
+      <c r="AFQ42" s="18"/>
+      <c r="AFR42" s="18"/>
+      <c r="AFS42" s="18"/>
+      <c r="AFT42" s="18"/>
+      <c r="AFU42" s="18"/>
+      <c r="AFV42" s="18"/>
+      <c r="AFW42" s="18"/>
+      <c r="AFX42" s="18"/>
+      <c r="AFY42" s="18"/>
+      <c r="AFZ42" s="18"/>
+      <c r="AGA42" s="18"/>
+      <c r="AGB42" s="18"/>
+      <c r="AGC42" s="18"/>
+      <c r="AGD42" s="18"/>
+      <c r="AGE42" s="18"/>
+      <c r="AGF42" s="18"/>
+      <c r="AGG42" s="18"/>
+      <c r="AGH42" s="18"/>
+      <c r="AGI42" s="18"/>
+      <c r="AGJ42" s="18"/>
+      <c r="AGK42" s="18"/>
+      <c r="AGL42" s="18"/>
+      <c r="AGM42" s="18"/>
+      <c r="AGN42" s="18"/>
+      <c r="AGO42" s="18"/>
+      <c r="AGP42" s="18"/>
+      <c r="AGQ42" s="18"/>
+      <c r="AGR42" s="18"/>
+      <c r="AGS42" s="18"/>
+      <c r="AGT42" s="18"/>
+      <c r="AGU42" s="18"/>
+      <c r="AGV42" s="18"/>
+      <c r="AGW42" s="18"/>
+      <c r="AGX42" s="18"/>
+      <c r="AGY42" s="18"/>
+      <c r="AGZ42" s="18"/>
+      <c r="AHA42" s="18"/>
+      <c r="AHB42" s="18"/>
+      <c r="AHC42" s="18"/>
+      <c r="AHD42" s="18"/>
+      <c r="AHE42" s="18"/>
+      <c r="AHF42" s="18"/>
+      <c r="AHG42" s="18"/>
+      <c r="AHH42" s="18"/>
+      <c r="AHI42" s="18"/>
+      <c r="AHJ42" s="18"/>
+      <c r="AHK42" s="18"/>
+      <c r="AHL42" s="18"/>
+      <c r="AHM42" s="18"/>
+      <c r="AHN42" s="18"/>
+      <c r="AHO42" s="18"/>
+      <c r="AHP42" s="18"/>
+      <c r="AHQ42" s="18"/>
+      <c r="AHR42" s="18"/>
+      <c r="AHS42" s="18"/>
+      <c r="AHT42" s="18"/>
+      <c r="AHU42" s="18"/>
+      <c r="AHV42" s="18"/>
+      <c r="AHW42" s="18"/>
+      <c r="AHX42" s="18"/>
+      <c r="AHY42" s="18"/>
+      <c r="AHZ42" s="18"/>
+      <c r="AIA42" s="18"/>
+      <c r="AIB42" s="18"/>
+      <c r="AIC42" s="18"/>
+      <c r="AID42" s="18"/>
+      <c r="AIE42" s="18"/>
+      <c r="AIF42" s="18"/>
+      <c r="AIG42" s="18"/>
+      <c r="AIH42" s="18"/>
+      <c r="AII42" s="18"/>
+      <c r="AIJ42" s="18"/>
+      <c r="AIK42" s="18"/>
+      <c r="AIL42" s="18"/>
+      <c r="AIM42" s="18"/>
+      <c r="AIN42" s="18"/>
+      <c r="AIO42" s="18"/>
+      <c r="AIP42" s="18"/>
+      <c r="AIQ42" s="18"/>
+      <c r="AIR42" s="18"/>
+      <c r="AIS42" s="18"/>
+      <c r="AIT42" s="18"/>
+      <c r="AIU42" s="18"/>
+      <c r="AIV42" s="18"/>
+      <c r="AIW42" s="18"/>
+      <c r="AIX42" s="18"/>
+      <c r="AIY42" s="18"/>
+      <c r="AIZ42" s="18"/>
+      <c r="AJA42" s="18"/>
+      <c r="AJB42" s="18"/>
+      <c r="AJC42" s="18"/>
+      <c r="AJD42" s="18"/>
+      <c r="AJE42" s="18"/>
+      <c r="AJF42" s="18"/>
+      <c r="AJG42" s="18"/>
+      <c r="AJH42" s="18"/>
+      <c r="AJI42" s="18"/>
+      <c r="AJJ42" s="18"/>
+      <c r="AJK42" s="18"/>
+      <c r="AJL42" s="18"/>
+      <c r="AJM42" s="18"/>
+      <c r="AJN42" s="18"/>
+      <c r="AJO42" s="18"/>
+      <c r="AJP42" s="18"/>
+      <c r="AJQ42" s="18"/>
+      <c r="AJR42" s="18"/>
+      <c r="AJS42" s="18"/>
+      <c r="AJT42" s="18"/>
+      <c r="AJU42" s="18"/>
+      <c r="AJV42" s="18"/>
+      <c r="AJW42" s="18"/>
+      <c r="AJX42" s="18"/>
+      <c r="AJY42" s="18"/>
+      <c r="AJZ42" s="18"/>
+      <c r="AKA42" s="18"/>
+      <c r="AKB42" s="18"/>
+      <c r="AKC42" s="18"/>
+      <c r="AKD42" s="18"/>
+      <c r="AKE42" s="18"/>
+      <c r="AKF42" s="18"/>
+      <c r="AKG42" s="18"/>
+      <c r="AKH42" s="18"/>
+      <c r="AKI42" s="18"/>
+      <c r="AKJ42" s="18"/>
+      <c r="AKK42" s="18"/>
+      <c r="AKL42" s="18"/>
+      <c r="AKM42" s="18"/>
+      <c r="AKN42" s="18"/>
+      <c r="AKO42" s="18"/>
+      <c r="AKP42" s="18"/>
+      <c r="AKQ42" s="18"/>
+      <c r="AKR42" s="18"/>
+      <c r="AKS42" s="18"/>
+      <c r="AKT42" s="18"/>
+      <c r="AKU42" s="18"/>
+      <c r="AKV42" s="18"/>
+      <c r="AKW42" s="18"/>
+      <c r="AKX42" s="18"/>
+      <c r="AKY42" s="18"/>
+      <c r="AKZ42" s="18"/>
+      <c r="ALA42" s="18"/>
+      <c r="ALB42" s="18"/>
+      <c r="ALC42" s="18"/>
+      <c r="ALD42" s="18"/>
+      <c r="ALE42" s="18"/>
+      <c r="ALF42" s="18"/>
+      <c r="ALG42" s="18"/>
+      <c r="ALH42" s="18"/>
+      <c r="ALI42" s="18"/>
+      <c r="ALJ42" s="18"/>
+      <c r="ALK42" s="18"/>
+      <c r="ALL42" s="18"/>
+      <c r="ALM42" s="18"/>
+      <c r="ALN42" s="18"/>
+      <c r="ALO42" s="18"/>
+      <c r="ALP42" s="18"/>
+      <c r="ALQ42" s="18"/>
+      <c r="ALR42" s="18"/>
+      <c r="ALS42" s="18"/>
+      <c r="ALT42" s="18"/>
+      <c r="ALU42" s="18"/>
+      <c r="ALV42" s="18"/>
+      <c r="ALW42" s="18"/>
+      <c r="ALX42" s="18"/>
+      <c r="ALY42" s="18"/>
+      <c r="ALZ42" s="18"/>
+      <c r="AMA42" s="18"/>
+      <c r="AMB42" s="18"/>
+      <c r="AMC42" s="18"/>
+      <c r="AMD42" s="18"/>
+      <c r="AME42" s="18"/>
+      <c r="AMF42" s="18"/>
+      <c r="AMG42" s="18"/>
+      <c r="AMH42" s="18"/>
+      <c r="AMI42" s="18"/>
+      <c r="AMJ42" s="18"/>
+    </row>
+    <row r="43" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18"/>
+      <c r="AI43" s="18"/>
+      <c r="AJ43" s="18"/>
+      <c r="AK43" s="18"/>
+      <c r="AL43" s="18"/>
+      <c r="AM43" s="18"/>
+      <c r="AN43" s="18"/>
+      <c r="AO43" s="18"/>
+      <c r="AP43" s="18"/>
+      <c r="AQ43" s="18"/>
+      <c r="AR43" s="18"/>
+      <c r="AS43" s="18"/>
+      <c r="AT43" s="18"/>
+      <c r="AU43" s="18"/>
+      <c r="AV43" s="18"/>
+      <c r="AW43" s="18"/>
+      <c r="AX43" s="18"/>
+      <c r="AY43" s="18"/>
+      <c r="AZ43" s="18"/>
+      <c r="BA43" s="18"/>
+      <c r="BB43" s="18"/>
+      <c r="BC43" s="18"/>
+      <c r="BD43" s="18"/>
+      <c r="BE43" s="18"/>
+      <c r="BF43" s="18"/>
+      <c r="BG43" s="18"/>
+      <c r="BH43" s="18"/>
+      <c r="BI43" s="18"/>
+      <c r="BJ43" s="18"/>
+      <c r="BK43" s="18"/>
+      <c r="BL43" s="18"/>
+      <c r="BM43" s="18"/>
+      <c r="BN43" s="18"/>
+      <c r="BO43" s="18"/>
+      <c r="BP43" s="18"/>
+      <c r="BQ43" s="18"/>
+      <c r="BR43" s="18"/>
+      <c r="BS43" s="18"/>
+      <c r="BT43" s="18"/>
+      <c r="BU43" s="18"/>
+      <c r="BV43" s="18"/>
+      <c r="BW43" s="18"/>
+      <c r="BX43" s="18"/>
+      <c r="BY43" s="18"/>
+      <c r="BZ43" s="18"/>
+      <c r="CA43" s="18"/>
+      <c r="CB43" s="18"/>
+      <c r="CC43" s="18"/>
+      <c r="CD43" s="18"/>
+      <c r="CE43" s="18"/>
+      <c r="CF43" s="18"/>
+      <c r="CG43" s="18"/>
+      <c r="CH43" s="18"/>
+      <c r="CI43" s="18"/>
+      <c r="CJ43" s="18"/>
+      <c r="CK43" s="18"/>
+      <c r="CL43" s="18"/>
+      <c r="CM43" s="18"/>
+      <c r="CN43" s="18"/>
+      <c r="CO43" s="18"/>
+      <c r="CP43" s="18"/>
+      <c r="CQ43" s="18"/>
+      <c r="CR43" s="18"/>
+      <c r="CS43" s="18"/>
+      <c r="CT43" s="18"/>
+      <c r="CU43" s="18"/>
+      <c r="CV43" s="18"/>
+      <c r="CW43" s="18"/>
+      <c r="CX43" s="18"/>
+      <c r="CY43" s="18"/>
+      <c r="CZ43" s="18"/>
+      <c r="DA43" s="18"/>
+      <c r="DB43" s="18"/>
+      <c r="DC43" s="18"/>
+      <c r="DD43" s="18"/>
+      <c r="DE43" s="18"/>
+      <c r="DF43" s="18"/>
+      <c r="DG43" s="18"/>
+      <c r="DH43" s="18"/>
+      <c r="DI43" s="18"/>
+      <c r="DJ43" s="18"/>
+      <c r="DK43" s="18"/>
+      <c r="DL43" s="18"/>
+      <c r="DM43" s="18"/>
+      <c r="DN43" s="18"/>
+      <c r="DO43" s="18"/>
+      <c r="DP43" s="18"/>
+      <c r="DQ43" s="18"/>
+      <c r="DR43" s="18"/>
+      <c r="DS43" s="18"/>
+      <c r="DT43" s="18"/>
+      <c r="DU43" s="18"/>
+      <c r="DV43" s="18"/>
+      <c r="DW43" s="18"/>
+      <c r="DX43" s="18"/>
+      <c r="DY43" s="18"/>
+      <c r="DZ43" s="18"/>
+      <c r="EA43" s="18"/>
+      <c r="EB43" s="18"/>
+      <c r="EC43" s="18"/>
+      <c r="ED43" s="18"/>
+      <c r="EE43" s="18"/>
+      <c r="EF43" s="18"/>
+      <c r="EG43" s="18"/>
+      <c r="EH43" s="18"/>
+      <c r="EI43" s="18"/>
+      <c r="EJ43" s="18"/>
+      <c r="EK43" s="18"/>
+      <c r="EL43" s="18"/>
+      <c r="EM43" s="18"/>
+      <c r="EN43" s="18"/>
+      <c r="EO43" s="18"/>
+      <c r="EP43" s="18"/>
+      <c r="EQ43" s="18"/>
+      <c r="ER43" s="18"/>
+      <c r="ES43" s="18"/>
+      <c r="ET43" s="18"/>
+      <c r="EU43" s="18"/>
+      <c r="EV43" s="18"/>
+      <c r="EW43" s="18"/>
+      <c r="EX43" s="18"/>
+      <c r="EY43" s="18"/>
+      <c r="EZ43" s="18"/>
+      <c r="FA43" s="18"/>
+      <c r="FB43" s="18"/>
+      <c r="FC43" s="18"/>
+      <c r="FD43" s="18"/>
+      <c r="FE43" s="18"/>
+      <c r="FF43" s="18"/>
+      <c r="FG43" s="18"/>
+      <c r="FH43" s="18"/>
+      <c r="FI43" s="18"/>
+      <c r="FJ43" s="18"/>
+      <c r="FK43" s="18"/>
+      <c r="FL43" s="18"/>
+      <c r="FM43" s="18"/>
+      <c r="FN43" s="18"/>
+      <c r="FO43" s="18"/>
+      <c r="FP43" s="18"/>
+      <c r="FQ43" s="18"/>
+      <c r="FR43" s="18"/>
+      <c r="FS43" s="18"/>
+      <c r="FT43" s="18"/>
+      <c r="FU43" s="18"/>
+      <c r="FV43" s="18"/>
+      <c r="FW43" s="18"/>
+      <c r="FX43" s="18"/>
+      <c r="FY43" s="18"/>
+      <c r="FZ43" s="18"/>
+      <c r="GA43" s="18"/>
+      <c r="GB43" s="18"/>
+      <c r="GC43" s="18"/>
+      <c r="GD43" s="18"/>
+      <c r="GE43" s="18"/>
+      <c r="GF43" s="18"/>
+      <c r="GG43" s="18"/>
+      <c r="GH43" s="18"/>
+      <c r="GI43" s="18"/>
+      <c r="GJ43" s="18"/>
+      <c r="GK43" s="18"/>
+      <c r="GL43" s="18"/>
+      <c r="GM43" s="18"/>
+      <c r="GN43" s="18"/>
+      <c r="GO43" s="18"/>
+      <c r="GP43" s="18"/>
+      <c r="GQ43" s="18"/>
+      <c r="GR43" s="18"/>
+      <c r="GS43" s="18"/>
+      <c r="GT43" s="18"/>
+      <c r="GU43" s="18"/>
+      <c r="GV43" s="18"/>
+      <c r="GW43" s="18"/>
+      <c r="GX43" s="18"/>
+      <c r="GY43" s="18"/>
+      <c r="GZ43" s="18"/>
+      <c r="HA43" s="18"/>
+      <c r="HB43" s="18"/>
+      <c r="HC43" s="18"/>
+      <c r="HD43" s="18"/>
+      <c r="HE43" s="18"/>
+      <c r="HF43" s="18"/>
+      <c r="HG43" s="18"/>
+      <c r="HH43" s="18"/>
+      <c r="HI43" s="18"/>
+      <c r="HJ43" s="18"/>
+      <c r="HK43" s="18"/>
+      <c r="HL43" s="18"/>
+      <c r="HM43" s="18"/>
+      <c r="HN43" s="18"/>
+      <c r="HO43" s="18"/>
+      <c r="HP43" s="18"/>
+      <c r="HQ43" s="18"/>
+      <c r="HR43" s="18"/>
+      <c r="HS43" s="18"/>
+      <c r="HT43" s="18"/>
+      <c r="HU43" s="18"/>
+      <c r="HV43" s="18"/>
+      <c r="HW43" s="18"/>
+      <c r="HX43" s="18"/>
+      <c r="HY43" s="18"/>
+      <c r="HZ43" s="18"/>
+      <c r="IA43" s="18"/>
+      <c r="IB43" s="18"/>
+      <c r="IC43" s="18"/>
+      <c r="ID43" s="18"/>
+      <c r="IE43" s="18"/>
+      <c r="IF43" s="18"/>
+      <c r="IG43" s="18"/>
+      <c r="IH43" s="18"/>
+      <c r="II43" s="18"/>
+      <c r="IJ43" s="18"/>
+      <c r="IK43" s="18"/>
+      <c r="IL43" s="18"/>
+      <c r="IM43" s="18"/>
+      <c r="IN43" s="18"/>
+      <c r="IO43" s="18"/>
+      <c r="IP43" s="18"/>
+      <c r="IQ43" s="18"/>
+      <c r="IR43" s="18"/>
+      <c r="IS43" s="18"/>
+      <c r="IT43" s="18"/>
+      <c r="IU43" s="18"/>
+      <c r="IV43" s="18"/>
+      <c r="IW43" s="18"/>
+      <c r="IX43" s="18"/>
+      <c r="IY43" s="18"/>
+      <c r="IZ43" s="18"/>
+      <c r="JA43" s="18"/>
+      <c r="JB43" s="18"/>
+      <c r="JC43" s="18"/>
+      <c r="JD43" s="18"/>
+      <c r="JE43" s="18"/>
+      <c r="JF43" s="18"/>
+      <c r="JG43" s="18"/>
+      <c r="JH43" s="18"/>
+      <c r="JI43" s="18"/>
+      <c r="JJ43" s="18"/>
+      <c r="JK43" s="18"/>
+      <c r="JL43" s="18"/>
+      <c r="JM43" s="18"/>
+      <c r="JN43" s="18"/>
+      <c r="JO43" s="18"/>
+      <c r="JP43" s="18"/>
+      <c r="JQ43" s="18"/>
+      <c r="JR43" s="18"/>
+      <c r="JS43" s="18"/>
+      <c r="JT43" s="18"/>
+      <c r="JU43" s="18"/>
+      <c r="JV43" s="18"/>
+      <c r="JW43" s="18"/>
+      <c r="JX43" s="18"/>
+      <c r="JY43" s="18"/>
+      <c r="JZ43" s="18"/>
+      <c r="KA43" s="18"/>
+      <c r="KB43" s="18"/>
+      <c r="KC43" s="18"/>
+      <c r="KD43" s="18"/>
+      <c r="KE43" s="18"/>
+      <c r="KF43" s="18"/>
+      <c r="KG43" s="18"/>
+      <c r="KH43" s="18"/>
+      <c r="KI43" s="18"/>
+      <c r="KJ43" s="18"/>
+      <c r="KK43" s="18"/>
+      <c r="KL43" s="18"/>
+      <c r="KM43" s="18"/>
+      <c r="KN43" s="18"/>
+      <c r="KO43" s="18"/>
+      <c r="KP43" s="18"/>
+      <c r="KQ43" s="18"/>
+      <c r="KR43" s="18"/>
+      <c r="KS43" s="18"/>
+      <c r="KT43" s="18"/>
+      <c r="KU43" s="18"/>
+      <c r="KV43" s="18"/>
+      <c r="KW43" s="18"/>
+      <c r="KX43" s="18"/>
+      <c r="KY43" s="18"/>
+      <c r="KZ43" s="18"/>
+      <c r="LA43" s="18"/>
+      <c r="LB43" s="18"/>
+      <c r="LC43" s="18"/>
+      <c r="LD43" s="18"/>
+      <c r="LE43" s="18"/>
+      <c r="LF43" s="18"/>
+      <c r="LG43" s="18"/>
+      <c r="LH43" s="18"/>
+      <c r="LI43" s="18"/>
+      <c r="LJ43" s="18"/>
+      <c r="LK43" s="18"/>
+      <c r="LL43" s="18"/>
+      <c r="LM43" s="18"/>
+      <c r="LN43" s="18"/>
+      <c r="LO43" s="18"/>
+      <c r="LP43" s="18"/>
+      <c r="LQ43" s="18"/>
+      <c r="LR43" s="18"/>
+      <c r="LS43" s="18"/>
+      <c r="LT43" s="18"/>
+      <c r="LU43" s="18"/>
+      <c r="LV43" s="18"/>
+      <c r="LW43" s="18"/>
+      <c r="LX43" s="18"/>
+      <c r="LY43" s="18"/>
+      <c r="LZ43" s="18"/>
+      <c r="MA43" s="18"/>
+      <c r="MB43" s="18"/>
+      <c r="MC43" s="18"/>
+      <c r="MD43" s="18"/>
+      <c r="ME43" s="18"/>
+      <c r="MF43" s="18"/>
+      <c r="MG43" s="18"/>
+      <c r="MH43" s="18"/>
+      <c r="MI43" s="18"/>
+      <c r="MJ43" s="18"/>
+      <c r="MK43" s="18"/>
+      <c r="ML43" s="18"/>
+      <c r="MM43" s="18"/>
+      <c r="MN43" s="18"/>
+      <c r="MO43" s="18"/>
+      <c r="MP43" s="18"/>
+      <c r="MQ43" s="18"/>
+      <c r="MR43" s="18"/>
+      <c r="MS43" s="18"/>
+      <c r="MT43" s="18"/>
+      <c r="MU43" s="18"/>
+      <c r="MV43" s="18"/>
+      <c r="MW43" s="18"/>
+      <c r="MX43" s="18"/>
+      <c r="MY43" s="18"/>
+      <c r="MZ43" s="18"/>
+      <c r="NA43" s="18"/>
+      <c r="NB43" s="18"/>
+      <c r="NC43" s="18"/>
+      <c r="ND43" s="18"/>
+      <c r="NE43" s="18"/>
+      <c r="NF43" s="18"/>
+      <c r="NG43" s="18"/>
+      <c r="NH43" s="18"/>
+      <c r="NI43" s="18"/>
+      <c r="NJ43" s="18"/>
+      <c r="NK43" s="18"/>
+      <c r="NL43" s="18"/>
+      <c r="NM43" s="18"/>
+      <c r="NN43" s="18"/>
+      <c r="NO43" s="18"/>
+      <c r="NP43" s="18"/>
+      <c r="NQ43" s="18"/>
+      <c r="NR43" s="18"/>
+      <c r="NS43" s="18"/>
+      <c r="NT43" s="18"/>
+      <c r="NU43" s="18"/>
+      <c r="NV43" s="18"/>
+      <c r="NW43" s="18"/>
+      <c r="NX43" s="18"/>
+      <c r="NY43" s="18"/>
+      <c r="NZ43" s="18"/>
+      <c r="OA43" s="18"/>
+      <c r="OB43" s="18"/>
+      <c r="OC43" s="18"/>
+      <c r="OD43" s="18"/>
+      <c r="OE43" s="18"/>
+      <c r="OF43" s="18"/>
+      <c r="OG43" s="18"/>
+      <c r="OH43" s="18"/>
+      <c r="OI43" s="18"/>
+      <c r="OJ43" s="18"/>
+      <c r="OK43" s="18"/>
+      <c r="OL43" s="18"/>
+      <c r="OM43" s="18"/>
+      <c r="ON43" s="18"/>
+      <c r="OO43" s="18"/>
+      <c r="OP43" s="18"/>
+      <c r="OQ43" s="18"/>
+      <c r="OR43" s="18"/>
+      <c r="OS43" s="18"/>
+      <c r="OT43" s="18"/>
+      <c r="OU43" s="18"/>
+      <c r="OV43" s="18"/>
+      <c r="OW43" s="18"/>
+      <c r="OX43" s="18"/>
+      <c r="OY43" s="18"/>
+      <c r="OZ43" s="18"/>
+      <c r="PA43" s="18"/>
+      <c r="PB43" s="18"/>
+      <c r="PC43" s="18"/>
+      <c r="PD43" s="18"/>
+      <c r="PE43" s="18"/>
+      <c r="PF43" s="18"/>
+      <c r="PG43" s="18"/>
+      <c r="PH43" s="18"/>
+      <c r="PI43" s="18"/>
+      <c r="PJ43" s="18"/>
+      <c r="PK43" s="18"/>
+      <c r="PL43" s="18"/>
+      <c r="PM43" s="18"/>
+      <c r="PN43" s="18"/>
+      <c r="PO43" s="18"/>
+      <c r="PP43" s="18"/>
+      <c r="PQ43" s="18"/>
+      <c r="PR43" s="18"/>
+      <c r="PS43" s="18"/>
+      <c r="PT43" s="18"/>
+      <c r="PU43" s="18"/>
+      <c r="PV43" s="18"/>
+      <c r="PW43" s="18"/>
+      <c r="PX43" s="18"/>
+      <c r="PY43" s="18"/>
+      <c r="PZ43" s="18"/>
+      <c r="QA43" s="18"/>
+      <c r="QB43" s="18"/>
+      <c r="QC43" s="18"/>
+      <c r="QD43" s="18"/>
+      <c r="QE43" s="18"/>
+      <c r="QF43" s="18"/>
+      <c r="QG43" s="18"/>
+      <c r="QH43" s="18"/>
+      <c r="QI43" s="18"/>
+      <c r="QJ43" s="18"/>
+      <c r="QK43" s="18"/>
+      <c r="QL43" s="18"/>
+      <c r="QM43" s="18"/>
+      <c r="QN43" s="18"/>
+      <c r="QO43" s="18"/>
+      <c r="QP43" s="18"/>
+      <c r="QQ43" s="18"/>
+      <c r="QR43" s="18"/>
+      <c r="QS43" s="18"/>
+      <c r="QT43" s="18"/>
+      <c r="QU43" s="18"/>
+      <c r="QV43" s="18"/>
+      <c r="QW43" s="18"/>
+      <c r="QX43" s="18"/>
+      <c r="QY43" s="18"/>
+      <c r="QZ43" s="18"/>
+      <c r="RA43" s="18"/>
+      <c r="RB43" s="18"/>
+      <c r="RC43" s="18"/>
+      <c r="RD43" s="18"/>
+      <c r="RE43" s="18"/>
+      <c r="RF43" s="18"/>
+      <c r="RG43" s="18"/>
+      <c r="RH43" s="18"/>
+      <c r="RI43" s="18"/>
+      <c r="RJ43" s="18"/>
+      <c r="RK43" s="18"/>
+      <c r="RL43" s="18"/>
+      <c r="RM43" s="18"/>
+      <c r="RN43" s="18"/>
+      <c r="RO43" s="18"/>
+      <c r="RP43" s="18"/>
+      <c r="RQ43" s="18"/>
+      <c r="RR43" s="18"/>
+      <c r="RS43" s="18"/>
+      <c r="RT43" s="18"/>
+      <c r="RU43" s="18"/>
+      <c r="RV43" s="18"/>
+      <c r="RW43" s="18"/>
+      <c r="RX43" s="18"/>
+      <c r="RY43" s="18"/>
+      <c r="RZ43" s="18"/>
+      <c r="SA43" s="18"/>
+      <c r="SB43" s="18"/>
+      <c r="SC43" s="18"/>
+      <c r="SD43" s="18"/>
+      <c r="SE43" s="18"/>
+      <c r="SF43" s="18"/>
+      <c r="SG43" s="18"/>
+      <c r="SH43" s="18"/>
+      <c r="SI43" s="18"/>
+      <c r="SJ43" s="18"/>
+      <c r="SK43" s="18"/>
+      <c r="SL43" s="18"/>
+      <c r="SM43" s="18"/>
+      <c r="SN43" s="18"/>
+      <c r="SO43" s="18"/>
+      <c r="SP43" s="18"/>
+      <c r="SQ43" s="18"/>
+      <c r="SR43" s="18"/>
+      <c r="SS43" s="18"/>
+      <c r="ST43" s="18"/>
+      <c r="SU43" s="18"/>
+      <c r="SV43" s="18"/>
+      <c r="SW43" s="18"/>
+      <c r="SX43" s="18"/>
+      <c r="SY43" s="18"/>
+      <c r="SZ43" s="18"/>
+      <c r="TA43" s="18"/>
+      <c r="TB43" s="18"/>
+      <c r="TC43" s="18"/>
+      <c r="TD43" s="18"/>
+      <c r="TE43" s="18"/>
+      <c r="TF43" s="18"/>
+      <c r="TG43" s="18"/>
+      <c r="TH43" s="18"/>
+      <c r="TI43" s="18"/>
+      <c r="TJ43" s="18"/>
+      <c r="TK43" s="18"/>
+      <c r="TL43" s="18"/>
+      <c r="TM43" s="18"/>
+      <c r="TN43" s="18"/>
+      <c r="TO43" s="18"/>
+      <c r="TP43" s="18"/>
+      <c r="TQ43" s="18"/>
+      <c r="TR43" s="18"/>
+      <c r="TS43" s="18"/>
+      <c r="TT43" s="18"/>
+      <c r="TU43" s="18"/>
+      <c r="TV43" s="18"/>
+      <c r="TW43" s="18"/>
+      <c r="TX43" s="18"/>
+      <c r="TY43" s="18"/>
+      <c r="TZ43" s="18"/>
+      <c r="UA43" s="18"/>
+      <c r="UB43" s="18"/>
+      <c r="UC43" s="18"/>
+      <c r="UD43" s="18"/>
+      <c r="UE43" s="18"/>
+      <c r="UF43" s="18"/>
+      <c r="UG43" s="18"/>
+      <c r="UH43" s="18"/>
+      <c r="UI43" s="18"/>
+      <c r="UJ43" s="18"/>
+      <c r="UK43" s="18"/>
+      <c r="UL43" s="18"/>
+      <c r="UM43" s="18"/>
+      <c r="UN43" s="18"/>
+      <c r="UO43" s="18"/>
+      <c r="UP43" s="18"/>
+      <c r="UQ43" s="18"/>
+      <c r="UR43" s="18"/>
+      <c r="US43" s="18"/>
+      <c r="UT43" s="18"/>
+      <c r="UU43" s="18"/>
+      <c r="UV43" s="18"/>
+      <c r="UW43" s="18"/>
+      <c r="UX43" s="18"/>
+      <c r="UY43" s="18"/>
+      <c r="UZ43" s="18"/>
+      <c r="VA43" s="18"/>
+      <c r="VB43" s="18"/>
+      <c r="VC43" s="18"/>
+      <c r="VD43" s="18"/>
+      <c r="VE43" s="18"/>
+      <c r="VF43" s="18"/>
+      <c r="VG43" s="18"/>
+      <c r="VH43" s="18"/>
+      <c r="VI43" s="18"/>
+      <c r="VJ43" s="18"/>
+      <c r="VK43" s="18"/>
+      <c r="VL43" s="18"/>
+      <c r="VM43" s="18"/>
+      <c r="VN43" s="18"/>
+      <c r="VO43" s="18"/>
+      <c r="VP43" s="18"/>
+      <c r="VQ43" s="18"/>
+      <c r="VR43" s="18"/>
+      <c r="VS43" s="18"/>
+      <c r="VT43" s="18"/>
+      <c r="VU43" s="18"/>
+      <c r="VV43" s="18"/>
+      <c r="VW43" s="18"/>
+      <c r="VX43" s="18"/>
+      <c r="VY43" s="18"/>
+      <c r="VZ43" s="18"/>
+      <c r="WA43" s="18"/>
+      <c r="WB43" s="18"/>
+      <c r="WC43" s="18"/>
+      <c r="WD43" s="18"/>
+      <c r="WE43" s="18"/>
+      <c r="WF43" s="18"/>
+      <c r="WG43" s="18"/>
+      <c r="WH43" s="18"/>
+      <c r="WI43" s="18"/>
+      <c r="WJ43" s="18"/>
+      <c r="WK43" s="18"/>
+      <c r="WL43" s="18"/>
+      <c r="WM43" s="18"/>
+      <c r="WN43" s="18"/>
+      <c r="WO43" s="18"/>
+      <c r="WP43" s="18"/>
+      <c r="WQ43" s="18"/>
+      <c r="WR43" s="18"/>
+      <c r="WS43" s="18"/>
+      <c r="WT43" s="18"/>
+      <c r="WU43" s="18"/>
+      <c r="WV43" s="18"/>
+      <c r="WW43" s="18"/>
+      <c r="WX43" s="18"/>
+      <c r="WY43" s="18"/>
+      <c r="WZ43" s="18"/>
+      <c r="XA43" s="18"/>
+      <c r="XB43" s="18"/>
+      <c r="XC43" s="18"/>
+      <c r="XD43" s="18"/>
+      <c r="XE43" s="18"/>
+      <c r="XF43" s="18"/>
+      <c r="XG43" s="18"/>
+      <c r="XH43" s="18"/>
+      <c r="XI43" s="18"/>
+      <c r="XJ43" s="18"/>
+      <c r="XK43" s="18"/>
+      <c r="XL43" s="18"/>
+      <c r="XM43" s="18"/>
+      <c r="XN43" s="18"/>
+      <c r="XO43" s="18"/>
+      <c r="XP43" s="18"/>
+      <c r="XQ43" s="18"/>
+      <c r="XR43" s="18"/>
+      <c r="XS43" s="18"/>
+      <c r="XT43" s="18"/>
+      <c r="XU43" s="18"/>
+      <c r="XV43" s="18"/>
+      <c r="XW43" s="18"/>
+      <c r="XX43" s="18"/>
+      <c r="XY43" s="18"/>
+      <c r="XZ43" s="18"/>
+      <c r="YA43" s="18"/>
+      <c r="YB43" s="18"/>
+      <c r="YC43" s="18"/>
+      <c r="YD43" s="18"/>
+      <c r="YE43" s="18"/>
+      <c r="YF43" s="18"/>
+      <c r="YG43" s="18"/>
+      <c r="YH43" s="18"/>
+      <c r="YI43" s="18"/>
+      <c r="YJ43" s="18"/>
+      <c r="YK43" s="18"/>
+      <c r="YL43" s="18"/>
+      <c r="YM43" s="18"/>
+      <c r="YN43" s="18"/>
+      <c r="YO43" s="18"/>
+      <c r="YP43" s="18"/>
+      <c r="YQ43" s="18"/>
+      <c r="YR43" s="18"/>
+      <c r="YS43" s="18"/>
+      <c r="YT43" s="18"/>
+      <c r="YU43" s="18"/>
+      <c r="YV43" s="18"/>
+      <c r="YW43" s="18"/>
+      <c r="YX43" s="18"/>
+      <c r="YY43" s="18"/>
+      <c r="YZ43" s="18"/>
+      <c r="ZA43" s="18"/>
+      <c r="ZB43" s="18"/>
+      <c r="ZC43" s="18"/>
+      <c r="ZD43" s="18"/>
+      <c r="ZE43" s="18"/>
+      <c r="ZF43" s="18"/>
+      <c r="ZG43" s="18"/>
+      <c r="ZH43" s="18"/>
+      <c r="ZI43" s="18"/>
+      <c r="ZJ43" s="18"/>
+      <c r="ZK43" s="18"/>
+      <c r="ZL43" s="18"/>
+      <c r="ZM43" s="18"/>
+      <c r="ZN43" s="18"/>
+      <c r="ZO43" s="18"/>
+      <c r="ZP43" s="18"/>
+      <c r="ZQ43" s="18"/>
+      <c r="ZR43" s="18"/>
+      <c r="ZS43" s="18"/>
+      <c r="ZT43" s="18"/>
+      <c r="ZU43" s="18"/>
+      <c r="ZV43" s="18"/>
+      <c r="ZW43" s="18"/>
+      <c r="ZX43" s="18"/>
+      <c r="ZY43" s="18"/>
+      <c r="ZZ43" s="18"/>
+      <c r="AAA43" s="18"/>
+      <c r="AAB43" s="18"/>
+      <c r="AAC43" s="18"/>
+      <c r="AAD43" s="18"/>
+      <c r="AAE43" s="18"/>
+      <c r="AAF43" s="18"/>
+      <c r="AAG43" s="18"/>
+      <c r="AAH43" s="18"/>
+      <c r="AAI43" s="18"/>
+      <c r="AAJ43" s="18"/>
+      <c r="AAK43" s="18"/>
+      <c r="AAL43" s="18"/>
+      <c r="AAM43" s="18"/>
+      <c r="AAN43" s="18"/>
+      <c r="AAO43" s="18"/>
+      <c r="AAP43" s="18"/>
+      <c r="AAQ43" s="18"/>
+      <c r="AAR43" s="18"/>
+      <c r="AAS43" s="18"/>
+      <c r="AAT43" s="18"/>
+      <c r="AAU43" s="18"/>
+      <c r="AAV43" s="18"/>
+      <c r="AAW43" s="18"/>
+      <c r="AAX43" s="18"/>
+      <c r="AAY43" s="18"/>
+      <c r="AAZ43" s="18"/>
+      <c r="ABA43" s="18"/>
+      <c r="ABB43" s="18"/>
+      <c r="ABC43" s="18"/>
+      <c r="ABD43" s="18"/>
+      <c r="ABE43" s="18"/>
+      <c r="ABF43" s="18"/>
+      <c r="ABG43" s="18"/>
+      <c r="ABH43" s="18"/>
+      <c r="ABI43" s="18"/>
+      <c r="ABJ43" s="18"/>
+      <c r="ABK43" s="18"/>
+      <c r="ABL43" s="18"/>
+      <c r="ABM43" s="18"/>
+      <c r="ABN43" s="18"/>
+      <c r="ABO43" s="18"/>
+      <c r="ABP43" s="18"/>
+      <c r="ABQ43" s="18"/>
+      <c r="ABR43" s="18"/>
+      <c r="ABS43" s="18"/>
+      <c r="ABT43" s="18"/>
+      <c r="ABU43" s="18"/>
+      <c r="ABV43" s="18"/>
+      <c r="ABW43" s="18"/>
+      <c r="ABX43" s="18"/>
+      <c r="ABY43" s="18"/>
+      <c r="ABZ43" s="18"/>
+      <c r="ACA43" s="18"/>
+      <c r="ACB43" s="18"/>
+      <c r="ACC43" s="18"/>
+      <c r="ACD43" s="18"/>
+      <c r="ACE43" s="18"/>
+      <c r="ACF43" s="18"/>
+      <c r="ACG43" s="18"/>
+      <c r="ACH43" s="18"/>
+      <c r="ACI43" s="18"/>
+      <c r="ACJ43" s="18"/>
+      <c r="ACK43" s="18"/>
+      <c r="ACL43" s="18"/>
+      <c r="ACM43" s="18"/>
+      <c r="ACN43" s="18"/>
+      <c r="ACO43" s="18"/>
+      <c r="ACP43" s="18"/>
+      <c r="ACQ43" s="18"/>
+      <c r="ACR43" s="18"/>
+      <c r="ACS43" s="18"/>
+      <c r="ACT43" s="18"/>
+      <c r="ACU43" s="18"/>
+      <c r="ACV43" s="18"/>
+      <c r="ACW43" s="18"/>
+      <c r="ACX43" s="18"/>
+      <c r="ACY43" s="18"/>
+      <c r="ACZ43" s="18"/>
+      <c r="ADA43" s="18"/>
+      <c r="ADB43" s="18"/>
+      <c r="ADC43" s="18"/>
+      <c r="ADD43" s="18"/>
+      <c r="ADE43" s="18"/>
+      <c r="ADF43" s="18"/>
+      <c r="ADG43" s="18"/>
+      <c r="ADH43" s="18"/>
+      <c r="ADI43" s="18"/>
+      <c r="ADJ43" s="18"/>
+      <c r="ADK43" s="18"/>
+      <c r="ADL43" s="18"/>
+      <c r="ADM43" s="18"/>
+      <c r="ADN43" s="18"/>
+      <c r="ADO43" s="18"/>
+      <c r="ADP43" s="18"/>
+      <c r="ADQ43" s="18"/>
+      <c r="ADR43" s="18"/>
+      <c r="ADS43" s="18"/>
+      <c r="ADT43" s="18"/>
+      <c r="ADU43" s="18"/>
+      <c r="ADV43" s="18"/>
+      <c r="ADW43" s="18"/>
+      <c r="ADX43" s="18"/>
+      <c r="ADY43" s="18"/>
+      <c r="ADZ43" s="18"/>
+      <c r="AEA43" s="18"/>
+      <c r="AEB43" s="18"/>
+      <c r="AEC43" s="18"/>
+      <c r="AED43" s="18"/>
+      <c r="AEE43" s="18"/>
+      <c r="AEF43" s="18"/>
+      <c r="AEG43" s="18"/>
+      <c r="AEH43" s="18"/>
+      <c r="AEI43" s="18"/>
+      <c r="AEJ43" s="18"/>
+      <c r="AEK43" s="18"/>
+      <c r="AEL43" s="18"/>
+      <c r="AEM43" s="18"/>
+      <c r="AEN43" s="18"/>
+      <c r="AEO43" s="18"/>
+      <c r="AEP43" s="18"/>
+      <c r="AEQ43" s="18"/>
+      <c r="AER43" s="18"/>
+      <c r="AES43" s="18"/>
+      <c r="AET43" s="18"/>
+      <c r="AEU43" s="18"/>
+      <c r="AEV43" s="18"/>
+      <c r="AEW43" s="18"/>
+      <c r="AEX43" s="18"/>
+      <c r="AEY43" s="18"/>
+      <c r="AEZ43" s="18"/>
+      <c r="AFA43" s="18"/>
+      <c r="AFB43" s="18"/>
+      <c r="AFC43" s="18"/>
+      <c r="AFD43" s="18"/>
+      <c r="AFE43" s="18"/>
+      <c r="AFF43" s="18"/>
+      <c r="AFG43" s="18"/>
+      <c r="AFH43" s="18"/>
+      <c r="AFI43" s="18"/>
+      <c r="AFJ43" s="18"/>
+      <c r="AFK43" s="18"/>
+      <c r="AFL43" s="18"/>
+      <c r="AFM43" s="18"/>
+      <c r="AFN43" s="18"/>
+      <c r="AFO43" s="18"/>
+      <c r="AFP43" s="18"/>
+      <c r="AFQ43" s="18"/>
+      <c r="AFR43" s="18"/>
+      <c r="AFS43" s="18"/>
+      <c r="AFT43" s="18"/>
+      <c r="AFU43" s="18"/>
+      <c r="AFV43" s="18"/>
+      <c r="AFW43" s="18"/>
+      <c r="AFX43" s="18"/>
+      <c r="AFY43" s="18"/>
+      <c r="AFZ43" s="18"/>
+      <c r="AGA43" s="18"/>
+      <c r="AGB43" s="18"/>
+      <c r="AGC43" s="18"/>
+      <c r="AGD43" s="18"/>
+      <c r="AGE43" s="18"/>
+      <c r="AGF43" s="18"/>
+      <c r="AGG43" s="18"/>
+      <c r="AGH43" s="18"/>
+      <c r="AGI43" s="18"/>
+      <c r="AGJ43" s="18"/>
+      <c r="AGK43" s="18"/>
+      <c r="AGL43" s="18"/>
+      <c r="AGM43" s="18"/>
+      <c r="AGN43" s="18"/>
+      <c r="AGO43" s="18"/>
+      <c r="AGP43" s="18"/>
+      <c r="AGQ43" s="18"/>
+      <c r="AGR43" s="18"/>
+      <c r="AGS43" s="18"/>
+      <c r="AGT43" s="18"/>
+      <c r="AGU43" s="18"/>
+      <c r="AGV43" s="18"/>
+      <c r="AGW43" s="18"/>
+      <c r="AGX43" s="18"/>
+      <c r="AGY43" s="18"/>
+      <c r="AGZ43" s="18"/>
+      <c r="AHA43" s="18"/>
+      <c r="AHB43" s="18"/>
+      <c r="AHC43" s="18"/>
+      <c r="AHD43" s="18"/>
+      <c r="AHE43" s="18"/>
+      <c r="AHF43" s="18"/>
+      <c r="AHG43" s="18"/>
+      <c r="AHH43" s="18"/>
+      <c r="AHI43" s="18"/>
+      <c r="AHJ43" s="18"/>
+      <c r="AHK43" s="18"/>
+      <c r="AHL43" s="18"/>
+      <c r="AHM43" s="18"/>
+      <c r="AHN43" s="18"/>
+      <c r="AHO43" s="18"/>
+      <c r="AHP43" s="18"/>
+      <c r="AHQ43" s="18"/>
+      <c r="AHR43" s="18"/>
+      <c r="AHS43" s="18"/>
+      <c r="AHT43" s="18"/>
+      <c r="AHU43" s="18"/>
+      <c r="AHV43" s="18"/>
+      <c r="AHW43" s="18"/>
+      <c r="AHX43" s="18"/>
+      <c r="AHY43" s="18"/>
+      <c r="AHZ43" s="18"/>
+      <c r="AIA43" s="18"/>
+      <c r="AIB43" s="18"/>
+      <c r="AIC43" s="18"/>
+      <c r="AID43" s="18"/>
+      <c r="AIE43" s="18"/>
+      <c r="AIF43" s="18"/>
+      <c r="AIG43" s="18"/>
+      <c r="AIH43" s="18"/>
+      <c r="AII43" s="18"/>
+      <c r="AIJ43" s="18"/>
+      <c r="AIK43" s="18"/>
+      <c r="AIL43" s="18"/>
+      <c r="AIM43" s="18"/>
+      <c r="AIN43" s="18"/>
+      <c r="AIO43" s="18"/>
+      <c r="AIP43" s="18"/>
+      <c r="AIQ43" s="18"/>
+      <c r="AIR43" s="18"/>
+      <c r="AIS43" s="18"/>
+      <c r="AIT43" s="18"/>
+      <c r="AIU43" s="18"/>
+      <c r="AIV43" s="18"/>
+      <c r="AIW43" s="18"/>
+      <c r="AIX43" s="18"/>
+      <c r="AIY43" s="18"/>
+      <c r="AIZ43" s="18"/>
+      <c r="AJA43" s="18"/>
+      <c r="AJB43" s="18"/>
+      <c r="AJC43" s="18"/>
+      <c r="AJD43" s="18"/>
+      <c r="AJE43" s="18"/>
+      <c r="AJF43" s="18"/>
+      <c r="AJG43" s="18"/>
+      <c r="AJH43" s="18"/>
+      <c r="AJI43" s="18"/>
+      <c r="AJJ43" s="18"/>
+      <c r="AJK43" s="18"/>
+      <c r="AJL43" s="18"/>
+      <c r="AJM43" s="18"/>
+      <c r="AJN43" s="18"/>
+      <c r="AJO43" s="18"/>
+      <c r="AJP43" s="18"/>
+      <c r="AJQ43" s="18"/>
+      <c r="AJR43" s="18"/>
+      <c r="AJS43" s="18"/>
+      <c r="AJT43" s="18"/>
+      <c r="AJU43" s="18"/>
+      <c r="AJV43" s="18"/>
+      <c r="AJW43" s="18"/>
+      <c r="AJX43" s="18"/>
+      <c r="AJY43" s="18"/>
+      <c r="AJZ43" s="18"/>
+      <c r="AKA43" s="18"/>
+      <c r="AKB43" s="18"/>
+      <c r="AKC43" s="18"/>
+      <c r="AKD43" s="18"/>
+      <c r="AKE43" s="18"/>
+      <c r="AKF43" s="18"/>
+      <c r="AKG43" s="18"/>
+      <c r="AKH43" s="18"/>
+      <c r="AKI43" s="18"/>
+      <c r="AKJ43" s="18"/>
+      <c r="AKK43" s="18"/>
+      <c r="AKL43" s="18"/>
+      <c r="AKM43" s="18"/>
+      <c r="AKN43" s="18"/>
+      <c r="AKO43" s="18"/>
+      <c r="AKP43" s="18"/>
+      <c r="AKQ43" s="18"/>
+      <c r="AKR43" s="18"/>
+      <c r="AKS43" s="18"/>
+      <c r="AKT43" s="18"/>
+      <c r="AKU43" s="18"/>
+      <c r="AKV43" s="18"/>
+      <c r="AKW43" s="18"/>
+      <c r="AKX43" s="18"/>
+      <c r="AKY43" s="18"/>
+      <c r="AKZ43" s="18"/>
+      <c r="ALA43" s="18"/>
+      <c r="ALB43" s="18"/>
+      <c r="ALC43" s="18"/>
+      <c r="ALD43" s="18"/>
+      <c r="ALE43" s="18"/>
+      <c r="ALF43" s="18"/>
+      <c r="ALG43" s="18"/>
+      <c r="ALH43" s="18"/>
+      <c r="ALI43" s="18"/>
+      <c r="ALJ43" s="18"/>
+      <c r="ALK43" s="18"/>
+      <c r="ALL43" s="18"/>
+      <c r="ALM43" s="18"/>
+      <c r="ALN43" s="18"/>
+      <c r="ALO43" s="18"/>
+      <c r="ALP43" s="18"/>
+      <c r="ALQ43" s="18"/>
+      <c r="ALR43" s="18"/>
+      <c r="ALS43" s="18"/>
+      <c r="ALT43" s="18"/>
+      <c r="ALU43" s="18"/>
+      <c r="ALV43" s="18"/>
+      <c r="ALW43" s="18"/>
+      <c r="ALX43" s="18"/>
+      <c r="ALY43" s="18"/>
+      <c r="ALZ43" s="18"/>
+      <c r="AMA43" s="18"/>
+      <c r="AMB43" s="18"/>
+      <c r="AMC43" s="18"/>
+      <c r="AMD43" s="18"/>
+      <c r="AME43" s="18"/>
+      <c r="AMF43" s="18"/>
+      <c r="AMG43" s="18"/>
+      <c r="AMH43" s="18"/>
+      <c r="AMI43" s="18"/>
+      <c r="AMJ43" s="18"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
